--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -110,13 +110,285 @@
   </si>
   <si>
     <t>はじめましてどうぞよろしく</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>ichi</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>いち
+一</t>
+  </si>
+  <si>
+    <t>に
+二</t>
+  </si>
+  <si>
+    <t>さん
+三</t>
+  </si>
+  <si>
+    <t>yon</t>
+  </si>
+  <si>
+    <t>Four</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>Five</t>
+  </si>
+  <si>
+    <t>roku</t>
+  </si>
+  <si>
+    <t>Six</t>
+  </si>
+  <si>
+    <t>よん
+四</t>
+  </si>
+  <si>
+    <t>ご
+五</t>
+  </si>
+  <si>
+    <t>ろく
+六</t>
+  </si>
+  <si>
+    <t>nana</t>
+  </si>
+  <si>
+    <t>Seven</t>
+  </si>
+  <si>
+    <t>hachi</t>
+  </si>
+  <si>
+    <t>Eight</t>
+  </si>
+  <si>
+    <t>juu</t>
+  </si>
+  <si>
+    <t>kyuu</t>
+  </si>
+  <si>
+    <t>Nine</t>
+  </si>
+  <si>
+    <t>Ten</t>
+  </si>
+  <si>
+    <t>なな
+七</t>
+  </si>
+  <si>
+    <t>はち
+八</t>
+  </si>
+  <si>
+    <t>きゅう
+九</t>
+  </si>
+  <si>
+    <t>じゅう
+十</t>
+  </si>
+  <si>
+    <t>juu ichi</t>
+  </si>
+  <si>
+    <t>Eleven</t>
+  </si>
+  <si>
+    <t>Twelve</t>
+  </si>
+  <si>
+    <t>juu ni</t>
+  </si>
+  <si>
+    <t>juu san</t>
+  </si>
+  <si>
+    <t>juu yon</t>
+  </si>
+  <si>
+    <t>Fourteen</t>
+  </si>
+  <si>
+    <t>juu go</t>
+  </si>
+  <si>
+    <t>Fifteen</t>
+  </si>
+  <si>
+    <t>juu roku</t>
+  </si>
+  <si>
+    <t>Sixteen</t>
+  </si>
+  <si>
+    <t>juu nana</t>
+  </si>
+  <si>
+    <t>Seventeen</t>
+  </si>
+  <si>
+    <t>juu hachi</t>
+  </si>
+  <si>
+    <t>Eighteen</t>
+  </si>
+  <si>
+    <t>Nineteen</t>
+  </si>
+  <si>
+    <t>nijuu</t>
+  </si>
+  <si>
+    <t>Twenty</t>
+  </si>
+  <si>
+    <t>Thirteen</t>
+  </si>
+  <si>
+    <t>じゅういち
+十一</t>
+  </si>
+  <si>
+    <t>じゅうに
+十二</t>
+  </si>
+  <si>
+    <t>じゅうさん
+十三</t>
+  </si>
+  <si>
+    <t>じゅうよん
+十四</t>
+  </si>
+  <si>
+    <t>じゅうご
+十五</t>
+  </si>
+  <si>
+    <t>じゅうろく
+十六</t>
+  </si>
+  <si>
+    <t>じゅうなな
+十七</t>
+  </si>
+  <si>
+    <t>juu kyuu</t>
+  </si>
+  <si>
+    <t>じゅうはち
+十八</t>
+  </si>
+  <si>
+    <t>じゅうきゅう
+十九</t>
+  </si>
+  <si>
+    <t>二十</t>
+  </si>
+  <si>
+    <t>sanjuu</t>
+  </si>
+  <si>
+    <t>Thirty</t>
+  </si>
+  <si>
+    <t>yonjuu</t>
+  </si>
+  <si>
+    <t>Fourty</t>
+  </si>
+  <si>
+    <t>gojuu</t>
+  </si>
+  <si>
+    <t>Fifty</t>
+  </si>
+  <si>
+    <t>rokujuu</t>
+  </si>
+  <si>
+    <t>Sixty</t>
+  </si>
+  <si>
+    <t>nanajuu</t>
+  </si>
+  <si>
+    <t>Seventy</t>
+  </si>
+  <si>
+    <t>hachijuu</t>
+  </si>
+  <si>
+    <t>Eighty</t>
+  </si>
+  <si>
+    <t>kyuujuu</t>
+  </si>
+  <si>
+    <t>Ninety</t>
+  </si>
+  <si>
+    <t>hyaku</t>
+  </si>
+  <si>
+    <t>One hundred</t>
+  </si>
+  <si>
+    <t>三十</t>
+  </si>
+  <si>
+    <t>四士</t>
+  </si>
+  <si>
+    <t>五十</t>
+  </si>
+  <si>
+    <t>六十</t>
+  </si>
+  <si>
+    <t>七十</t>
+  </si>
+  <si>
+    <t>八十</t>
+  </si>
+  <si>
+    <t>九十</t>
+  </si>
+  <si>
+    <t>ひゃく
+百</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,13 +404,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -164,10 +463,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -462,113 +768,421 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -184,9 +184,6 @@
     <t>Eight</t>
   </si>
   <si>
-    <t>juu</t>
-  </si>
-  <si>
     <t>kyuu</t>
   </si>
   <si>
@@ -212,46 +209,22 @@
 十</t>
   </si>
   <si>
-    <t>juu ichi</t>
-  </si>
-  <si>
     <t>Eleven</t>
   </si>
   <si>
     <t>Twelve</t>
   </si>
   <si>
-    <t>juu ni</t>
-  </si>
-  <si>
-    <t>juu san</t>
-  </si>
-  <si>
-    <t>juu yon</t>
-  </si>
-  <si>
     <t>Fourteen</t>
   </si>
   <si>
-    <t>juu go</t>
-  </si>
-  <si>
     <t>Fifteen</t>
   </si>
   <si>
-    <t>juu roku</t>
-  </si>
-  <si>
     <t>Sixteen</t>
   </si>
   <si>
-    <t>juu nana</t>
-  </si>
-  <si>
     <t>Seventeen</t>
-  </si>
-  <si>
-    <t>juu hachi</t>
   </si>
   <si>
     <t>Eighteen</t>
@@ -311,43 +284,22 @@
     <t>二十</t>
   </si>
   <si>
-    <t>sanjuu</t>
-  </si>
-  <si>
     <t>Thirty</t>
   </si>
   <si>
-    <t>yonjuu</t>
-  </si>
-  <si>
     <t>Fourty</t>
   </si>
   <si>
-    <t>gojuu</t>
-  </si>
-  <si>
     <t>Fifty</t>
   </si>
   <si>
-    <t>rokujuu</t>
-  </si>
-  <si>
     <t>Sixty</t>
   </si>
   <si>
-    <t>nanajuu</t>
-  </si>
-  <si>
     <t>Seventy</t>
   </si>
   <si>
-    <t>hachijuu</t>
-  </si>
-  <si>
     <t>Eighty</t>
-  </si>
-  <si>
-    <t>kyuujuu</t>
   </si>
   <si>
     <t>Ninety</t>
@@ -382,13 +334,445 @@
   <si>
     <t>ひゃく
 百</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>8th</t>
+  </si>
+  <si>
+    <t>9th</t>
+  </si>
+  <si>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>11th</t>
+  </si>
+  <si>
+    <t>12th</t>
+  </si>
+  <si>
+    <t>13th</t>
+  </si>
+  <si>
+    <t>14th</t>
+  </si>
+  <si>
+    <t>15th</t>
+  </si>
+  <si>
+    <t>16th</t>
+  </si>
+  <si>
+    <t>17th</t>
+  </si>
+  <si>
+    <t>18th</t>
+  </si>
+  <si>
+    <t>19th</t>
+  </si>
+  <si>
+    <t>20th</t>
+  </si>
+  <si>
+    <t>21st</t>
+  </si>
+  <si>
+    <t>22nd</t>
+  </si>
+  <si>
+    <t>23rd</t>
+  </si>
+  <si>
+    <t>24th</t>
+  </si>
+  <si>
+    <t>25th</t>
+  </si>
+  <si>
+    <t>26th</t>
+  </si>
+  <si>
+    <t>27th</t>
+  </si>
+  <si>
+    <t>28th</t>
+  </si>
+  <si>
+    <t>29th</t>
+  </si>
+  <si>
+    <t>30th</t>
+  </si>
+  <si>
+    <t>31st</t>
+  </si>
+  <si>
+    <t>sanjyuu</t>
+  </si>
+  <si>
+    <t>yonjyuu</t>
+  </si>
+  <si>
+    <t>gojyuu</t>
+  </si>
+  <si>
+    <t>rokujyuu</t>
+  </si>
+  <si>
+    <t>nanajyuu</t>
+  </si>
+  <si>
+    <t>hachijyuu</t>
+  </si>
+  <si>
+    <t>kyuujyuu</t>
+  </si>
+  <si>
+    <t>jyuu hachi</t>
+  </si>
+  <si>
+    <t>jyuu nana</t>
+  </si>
+  <si>
+    <t>jyuu roku</t>
+  </si>
+  <si>
+    <t>jyuu go</t>
+  </si>
+  <si>
+    <t>jyuu yon</t>
+  </si>
+  <si>
+    <t>jyuu san</t>
+  </si>
+  <si>
+    <t>jyuu ni</t>
+  </si>
+  <si>
+    <t>jyuu ichi</t>
+  </si>
+  <si>
+    <t>jyuu</t>
+  </si>
+  <si>
+    <t>jyuu ichi nichi</t>
+  </si>
+  <si>
+    <t>jyuu ni nichi</t>
+  </si>
+  <si>
+    <t>jyuu san nichi</t>
+  </si>
+  <si>
+    <t>jyuu go nichi</t>
+  </si>
+  <si>
+    <t>jyuu roku nichi</t>
+  </si>
+  <si>
+    <t>jyuu hachi nichi</t>
+  </si>
+  <si>
+    <t>jyuu ku nichi</t>
+  </si>
+  <si>
+    <t>ni jyuu ni nichi</t>
+  </si>
+  <si>
+    <t>ni jyuu ichi nichi</t>
+  </si>
+  <si>
+    <t>ni jyuu san nichi</t>
+  </si>
+  <si>
+    <t>ni jyuu go nichi</t>
+  </si>
+  <si>
+    <t>ni jyuu roku nichi</t>
+  </si>
+  <si>
+    <t>ni jyuu hachi nichi</t>
+  </si>
+  <si>
+    <t>ni juu ku nichi</t>
+  </si>
+  <si>
+    <t>san jyuu nichi</t>
+  </si>
+  <si>
+    <t>san jyuu ichi nichi</t>
+  </si>
+  <si>
+    <t>jyuu yokka</t>
+  </si>
+  <si>
+    <t>ni jyuu yokka</t>
+  </si>
+  <si>
+    <t>futsuka</t>
+  </si>
+  <si>
+    <t>tsuitachi</t>
+  </si>
+  <si>
+    <t>yokka</t>
+  </si>
+  <si>
+    <t>itsuka</t>
+  </si>
+  <si>
+    <t>muika</t>
+  </si>
+  <si>
+    <t>nanoka</t>
+  </si>
+  <si>
+    <t>youka</t>
+  </si>
+  <si>
+    <t>kokonoka</t>
+  </si>
+  <si>
+    <t>ついたち
+1日</t>
+  </si>
+  <si>
+    <t>mikka</t>
+  </si>
+  <si>
+    <t>みっか
+３日</t>
+  </si>
+  <si>
+    <t>ふつか
+２日</t>
+  </si>
+  <si>
+    <t>よっか
+4日</t>
+  </si>
+  <si>
+    <t>いつか
+5日</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Getsu youbi</t>
+  </si>
+  <si>
+    <t>Ka youbi</t>
+  </si>
+  <si>
+    <t>Sui youbi</t>
+  </si>
+  <si>
+    <t>Moku youbi</t>
+  </si>
+  <si>
+    <t>Kin youbi</t>
+  </si>
+  <si>
+    <t>Do youbi</t>
+  </si>
+  <si>
+    <t>Nichi youbi</t>
+  </si>
+  <si>
+    <t>げつようび
+月曜日</t>
+  </si>
+  <si>
+    <t>かようび
+火曜日</t>
+  </si>
+  <si>
+    <t>すいようび
+水曜日</t>
+  </si>
+  <si>
+    <t>もくようび
+木曜日</t>
+  </si>
+  <si>
+    <t>きにょうび
+金曜日</t>
+  </si>
+  <si>
+    <t>どようび
+土曜日</t>
+  </si>
+  <si>
+    <t>にちようび
+日曜日</t>
+  </si>
+  <si>
+    <t>むいか
+6日</t>
+  </si>
+  <si>
+    <t>なのか
+7日</t>
+  </si>
+  <si>
+    <t>ようか
+8日</t>
+  </si>
+  <si>
+    <t>ここのか
+9日</t>
+  </si>
+  <si>
+    <t>tooka</t>
+  </si>
+  <si>
+    <t>じゅういちにち
+㏪</t>
+  </si>
+  <si>
+    <t>じゅうににち
+㏫</t>
+  </si>
+  <si>
+    <t>とおか
+１０日</t>
+  </si>
+  <si>
+    <t>じゅうさんにち
+㏬</t>
+  </si>
+  <si>
+    <t>じゅうよっか
+14日</t>
+  </si>
+  <si>
+    <t>じゅうごにち
+㏮</t>
+  </si>
+  <si>
+    <t>じゅうろくにち
+㏯</t>
+  </si>
+  <si>
+    <t>じゅうはちにち
+㏱</t>
+  </si>
+  <si>
+    <t>じゅうくにち
+㏲</t>
+  </si>
+  <si>
+    <t>にじゅうういちにち
+㏴</t>
+  </si>
+  <si>
+    <t>にじゅうににち
+㏵</t>
+  </si>
+  <si>
+    <t>にじゅうさんにち
+㏶</t>
+  </si>
+  <si>
+    <t>にじゅうよっか
+㏷</t>
+  </si>
+  <si>
+    <t>にじゅうごにち
+㏸</t>
+  </si>
+  <si>
+    <t>にじゅうろくにち
+㏹</t>
+  </si>
+  <si>
+    <t>にじゅうはちにち
+㏻</t>
+  </si>
+  <si>
+    <t>にじゅうくにち
+㏼</t>
+  </si>
+  <si>
+    <t>さんじゅうにち
+㏽</t>
+  </si>
+  <si>
+    <t>さんじゅういちにち
+㏾</t>
+  </si>
+  <si>
+    <t>じゅうななにち
+じゅうしちにち
+㏰</t>
+  </si>
+  <si>
+    <t>jyuu nana nichi
+jyuu shichi nichi</t>
+  </si>
+  <si>
+    <t>ni jyuu nana nichi
+ni jyuu shichi nichi</t>
+  </si>
+  <si>
+    <t>にじゅうななにち
+にじゅうしちにち
+㏺</t>
+  </si>
+  <si>
+    <t>hatsuka</t>
+  </si>
+  <si>
+    <t>はつか
+20日</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +789,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -413,14 +806,71 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +886,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,17 +925,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,134 +1232,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="49" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -889,10 +1367,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -900,10 +1378,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -911,10 +1389,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -922,10 +1400,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -933,10 +1411,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -944,10 +1422,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -955,10 +1433,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -966,223 +1444,641 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B21" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+    <row r="22" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="B30" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+      <c r="B31" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+    </row>
+    <row r="39" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+    </row>
+    <row r="50" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+    </row>
+    <row r="51" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+    </row>
+    <row r="52" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+    </row>
+    <row r="53" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+    </row>
+    <row r="54" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
+    </row>
+    <row r="55" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
+    </row>
+    <row r="56" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>105</v>
+    </row>
+    <row r="57" spans="1:3" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A57" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A67" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="287">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -766,13 +766,236 @@
   <si>
     <t>はつか
 20日</t>
+  </si>
+  <si>
+    <t>to go</t>
+  </si>
+  <si>
+    <t>ikimasu</t>
+  </si>
+  <si>
+    <t>いきます</t>
+  </si>
+  <si>
+    <t>not to go</t>
+  </si>
+  <si>
+    <t>ikimasen</t>
+  </si>
+  <si>
+    <t>いきません</t>
+  </si>
+  <si>
+    <t>(not) to go to place</t>
+  </si>
+  <si>
+    <t>Place + に + いきます/ いきません</t>
+  </si>
+  <si>
+    <t>depaato</t>
+  </si>
+  <si>
+    <t>Department store</t>
+  </si>
+  <si>
+    <t>デパート</t>
+  </si>
+  <si>
+    <t>shigoto</t>
+  </si>
+  <si>
+    <t>Work place</t>
+  </si>
+  <si>
+    <t>しごと</t>
+  </si>
+  <si>
+    <t>paati</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>パーティ</t>
+  </si>
+  <si>
+    <t>eki</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>えき</t>
+  </si>
+  <si>
+    <t>depaato ni ikimasu</t>
+  </si>
+  <si>
+    <t>to go to department store</t>
+  </si>
+  <si>
+    <t>デパートにいきます</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Place + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ni </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ ikimasu / ikimasen</t>
+    </r>
+  </si>
+  <si>
+    <t>えきにいきません</t>
+  </si>
+  <si>
+    <t>eki ni ikimasen</t>
+  </si>
+  <si>
+    <t>not to go to station</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Place + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ni </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ ikimasu + ka</t>
+    </r>
+  </si>
+  <si>
+    <t>Place + に + いきますか</t>
+  </si>
+  <si>
+    <t>to go to place?</t>
+  </si>
+  <si>
+    <t>to go to department store?</t>
+  </si>
+  <si>
+    <t>デパートにいきますか</t>
+  </si>
+  <si>
+    <t>hai, ikimasu</t>
+  </si>
+  <si>
+    <t>yes, to go</t>
+  </si>
+  <si>
+    <t>iie, ikimasen</t>
+  </si>
+  <si>
+    <t>no, not to go</t>
+  </si>
+  <si>
+    <t>はい、いきます</t>
+  </si>
+  <si>
+    <t>いいえ、いきません</t>
+  </si>
+  <si>
+    <t>kyou</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>きょう</t>
+  </si>
+  <si>
+    <t>kinou</t>
+  </si>
+  <si>
+    <t>Yesterday</t>
+  </si>
+  <si>
+    <t>きのう</t>
+  </si>
+  <si>
+    <t>ashita</t>
+  </si>
+  <si>
+    <t>Tomorrow</t>
+  </si>
+  <si>
+    <t>あした</t>
+  </si>
+  <si>
+    <t>asatte</t>
+  </si>
+  <si>
+    <t>Day after tomorrow</t>
+  </si>
+  <si>
+    <t>あさって</t>
+  </si>
+  <si>
+    <t>ototoi</t>
+  </si>
+  <si>
+    <t>Day before yesterday</t>
+  </si>
+  <si>
+    <t>おととい</t>
+  </si>
+  <si>
+    <t>to went</t>
+  </si>
+  <si>
+    <t>not to went</t>
+  </si>
+  <si>
+    <t>ikimashita</t>
+  </si>
+  <si>
+    <t>ikimasen deshita</t>
+  </si>
+  <si>
+    <t>いきました</t>
+  </si>
+  <si>
+    <t>いきませんでした</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,8 +1092,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -901,6 +1178,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -925,7 +1214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -952,6 +1241,12 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1232,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -2081,6 +2376,105 @@
         <v>183</v>
       </c>
     </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2089,12 +2483,142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="54.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="382">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -872,6 +872,359 @@
     <t>not to go to station</t>
   </si>
   <si>
+    <t>Place + に + いきますか</t>
+  </si>
+  <si>
+    <t>to go to place?</t>
+  </si>
+  <si>
+    <t>to go to department store?</t>
+  </si>
+  <si>
+    <t>デパートにいきますか</t>
+  </si>
+  <si>
+    <t>hai, ikimasu</t>
+  </si>
+  <si>
+    <t>yes, to go</t>
+  </si>
+  <si>
+    <t>iie, ikimasen</t>
+  </si>
+  <si>
+    <t>no, not to go</t>
+  </si>
+  <si>
+    <t>はい、いきます</t>
+  </si>
+  <si>
+    <t>いいえ、いきません</t>
+  </si>
+  <si>
+    <t>kyou</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>きょう</t>
+  </si>
+  <si>
+    <t>kinou</t>
+  </si>
+  <si>
+    <t>Yesterday</t>
+  </si>
+  <si>
+    <t>きのう</t>
+  </si>
+  <si>
+    <t>ashita</t>
+  </si>
+  <si>
+    <t>Tomorrow</t>
+  </si>
+  <si>
+    <t>あした</t>
+  </si>
+  <si>
+    <t>asatte</t>
+  </si>
+  <si>
+    <t>Day after tomorrow</t>
+  </si>
+  <si>
+    <t>あさって</t>
+  </si>
+  <si>
+    <t>ototoi</t>
+  </si>
+  <si>
+    <t>Day before yesterday</t>
+  </si>
+  <si>
+    <t>おととい</t>
+  </si>
+  <si>
+    <t>to went</t>
+  </si>
+  <si>
+    <t>not to went</t>
+  </si>
+  <si>
+    <t>ikimashita</t>
+  </si>
+  <si>
+    <t>ikimasen deshita</t>
+  </si>
+  <si>
+    <t>いきました</t>
+  </si>
+  <si>
+    <t>いきませんでした</t>
+  </si>
+  <si>
+    <t>nomimasu</t>
+  </si>
+  <si>
+    <t>to drink</t>
+  </si>
+  <si>
+    <t>のみます</t>
+  </si>
+  <si>
+    <t>たべます</t>
+  </si>
+  <si>
+    <t>tabemasu</t>
+  </si>
+  <si>
+    <t>to eat</t>
+  </si>
+  <si>
+    <t>mimasu</t>
+  </si>
+  <si>
+    <t>to see</t>
+  </si>
+  <si>
+    <t>みます</t>
+  </si>
+  <si>
+    <t>kikimasu</t>
+  </si>
+  <si>
+    <t>to hear/listen</t>
+  </si>
+  <si>
+    <t>ききます</t>
+  </si>
+  <si>
+    <t>suteiki</t>
+  </si>
+  <si>
+    <t>Steak</t>
+  </si>
+  <si>
+    <t>ステーキ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Noun + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + tabemasu</t>
+    </r>
+  </si>
+  <si>
+    <t>to eat noun</t>
+  </si>
+  <si>
+    <t>ステーキおたべます</t>
+  </si>
+  <si>
+    <t>Noun + お + たべます</t>
+  </si>
+  <si>
+    <t>suteiki o tabemasu</t>
+  </si>
+  <si>
+    <t>to eat steak</t>
+  </si>
+  <si>
+    <t>wain</t>
+  </si>
+  <si>
+    <t>ワイン</t>
+  </si>
+  <si>
+    <t>テレビ</t>
+  </si>
+  <si>
+    <t>terebi</t>
+  </si>
+  <si>
+    <t>eiga</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>Wine</t>
+  </si>
+  <si>
+    <t>Tv</t>
+  </si>
+  <si>
+    <t>えいが</t>
+  </si>
+  <si>
+    <t>kouhii</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>コーヒー</t>
+  </si>
+  <si>
+    <t>ラジオ</t>
+  </si>
+  <si>
+    <t>rajio</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>to drinked</t>
+  </si>
+  <si>
+    <t>to ate</t>
+  </si>
+  <si>
+    <t>to saw</t>
+  </si>
+  <si>
+    <t>to heared/listened</t>
+  </si>
+  <si>
+    <t>kikimashita</t>
+  </si>
+  <si>
+    <t>mimashita</t>
+  </si>
+  <si>
+    <t>tabemashita</t>
+  </si>
+  <si>
+    <t>nomimashita</t>
+  </si>
+  <si>
+    <t>ききました</t>
+  </si>
+  <si>
+    <t>not to drink</t>
+  </si>
+  <si>
+    <t>not to eat</t>
+  </si>
+  <si>
+    <t>not to see</t>
+  </si>
+  <si>
+    <t>not to hear/listen</t>
+  </si>
+  <si>
+    <t>not to drinked</t>
+  </si>
+  <si>
+    <t>not to ate</t>
+  </si>
+  <si>
+    <t>not to saw</t>
+  </si>
+  <si>
+    <t>not to heared/listened</t>
+  </si>
+  <si>
+    <t>kikimasen</t>
+  </si>
+  <si>
+    <t>kikimasen deshita</t>
+  </si>
+  <si>
+    <t>ききません</t>
+  </si>
+  <si>
+    <t>ききませんでした</t>
+  </si>
+  <si>
+    <t>tabemasen</t>
+  </si>
+  <si>
+    <t>tabemasen deshita</t>
+  </si>
+  <si>
+    <t>たべません</t>
+  </si>
+  <si>
+    <t>たべました</t>
+  </si>
+  <si>
+    <t>たべませんでした</t>
+  </si>
+  <si>
+    <t>nomimasen</t>
+  </si>
+  <si>
+    <t>nomimasen deshita</t>
+  </si>
+  <si>
+    <t>のみません</t>
+  </si>
+  <si>
+    <t>のみました</t>
+  </si>
+  <si>
+    <t>のみませんでした</t>
+  </si>
+  <si>
+    <t>mimasen</t>
+  </si>
+  <si>
+    <t>mimasen deshita</t>
+  </si>
+  <si>
+    <t>みません</t>
+  </si>
+  <si>
+    <t>みました</t>
+  </si>
+  <si>
+    <t>みませんでした</t>
+  </si>
+  <si>
+    <t>kappukeiki</t>
+  </si>
+  <si>
+    <t>Cup cake</t>
+  </si>
+  <si>
+    <t>カップケーキ</t>
+  </si>
+  <si>
+    <t>sushi</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>すし</t>
+  </si>
+  <si>
+    <t>to eat noun?</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Place + </t>
     </r>
@@ -894,108 +1247,142 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+ ikimasu + ka</t>
+      <t xml:space="preserve">+ ikimasu + </t>
     </r>
-  </si>
-  <si>
-    <t>Place + に + いきますか</t>
-  </si>
-  <si>
-    <t>to go to place?</t>
-  </si>
-  <si>
-    <t>to go to department store?</t>
-  </si>
-  <si>
-    <t>デパートにいきますか</t>
-  </si>
-  <si>
-    <t>hai, ikimasu</t>
-  </si>
-  <si>
-    <t>yes, to go</t>
-  </si>
-  <si>
-    <t>iie, ikimasen</t>
-  </si>
-  <si>
-    <t>no, not to go</t>
-  </si>
-  <si>
-    <t>はい、いきます</t>
-  </si>
-  <si>
-    <t>いいえ、いきません</t>
-  </si>
-  <si>
-    <t>kyou</t>
-  </si>
-  <si>
-    <t>Today</t>
-  </si>
-  <si>
-    <t>きょう</t>
-  </si>
-  <si>
-    <t>kinou</t>
-  </si>
-  <si>
-    <t>Yesterday</t>
-  </si>
-  <si>
-    <t>きのう</t>
-  </si>
-  <si>
-    <t>ashita</t>
-  </si>
-  <si>
-    <t>Tomorrow</t>
-  </si>
-  <si>
-    <t>あした</t>
-  </si>
-  <si>
-    <t>asatte</t>
-  </si>
-  <si>
-    <t>Day after tomorrow</t>
-  </si>
-  <si>
-    <t>あさって</t>
-  </si>
-  <si>
-    <t>ototoi</t>
-  </si>
-  <si>
-    <t>Day before yesterday</t>
-  </si>
-  <si>
-    <t>おととい</t>
-  </si>
-  <si>
-    <t>to went</t>
-  </si>
-  <si>
-    <t>not to went</t>
-  </si>
-  <si>
-    <t>ikimashita</t>
-  </si>
-  <si>
-    <t>ikimasen deshita</t>
-  </si>
-  <si>
-    <t>いきました</t>
-  </si>
-  <si>
-    <t>いきませんでした</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ka</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Noun + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + tabemasu + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ka</t>
+    </r>
+  </si>
+  <si>
+    <t>Noun + お + たべます + か</t>
+  </si>
+  <si>
+    <t>Nani + お + たべます + か</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nani + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + tabemasu + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ka</t>
+    </r>
+  </si>
+  <si>
+    <t>to eat what?</t>
+  </si>
+  <si>
+    <t>なにおたべます</t>
+  </si>
+  <si>
+    <t>nani o tabemasu</t>
+  </si>
+  <si>
+    <t>ringo</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>リンゴ</t>
+  </si>
+  <si>
+    <t>ongaku</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>おんがく</t>
+  </si>
+  <si>
+    <t>miruku</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>ミルク</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1146,8 +1533,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1190,8 +1585,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1210,11 +1611,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1247,6 +1668,18 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1527,10 +1960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -2422,57 +2855,178 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B86" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C86" s="23" t="s">
         <v>266</v>
-      </c>
-      <c r="C86" s="23" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B87" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="C87" s="23" t="s">
         <v>269</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B88" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="C88" s="23" t="s">
         <v>272</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B89" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C89" s="23" t="s">
         <v>275</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B90" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="C90" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="C90" s="23" t="s">
-        <v>279</v>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="B93" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="C94" s="29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="B95" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C95" s="29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="B96" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="C96" s="29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="B97" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="C97" s="29" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="B98" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="C98" s="29" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="B99" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="B100" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="C100" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="C101" s="29" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="B102" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="C102" s="29" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -2483,10 +3037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -2520,24 +3074,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2553,13 +3107,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2575,13 +3129,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>248</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -2597,24 +3151,255 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>263</v>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="451">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -802,9 +802,6 @@
   </si>
   <si>
     <t>shigoto</t>
-  </si>
-  <si>
-    <t>Work place</t>
   </si>
   <si>
     <t>しごと</t>
@@ -1376,6 +1373,216 @@
   </si>
   <si>
     <t>ミルク</t>
+  </si>
+  <si>
+    <t>shimasu</t>
+  </si>
+  <si>
+    <t>します</t>
+  </si>
+  <si>
+    <t>benkyou o shimasu</t>
+  </si>
+  <si>
+    <t>to study</t>
+  </si>
+  <si>
+    <t>to do sth</t>
+  </si>
+  <si>
+    <t>べんきょうをします</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>shigoto o shimasu</t>
+  </si>
+  <si>
+    <t>to work</t>
+  </si>
+  <si>
+    <t>しごとをします</t>
+  </si>
+  <si>
+    <t>kaigi o shimasu</t>
+  </si>
+  <si>
+    <t>to have a meeting</t>
+  </si>
+  <si>
+    <t>かいぎをします</t>
+  </si>
+  <si>
+    <t>kaimono o shimasu</t>
+  </si>
+  <si>
+    <t>to shop</t>
+  </si>
+  <si>
+    <t>かいものをします</t>
+  </si>
+  <si>
+    <t>to jog</t>
+  </si>
+  <si>
+    <t>jogingu o shimasu</t>
+  </si>
+  <si>
+    <t>ジョギングをします</t>
+  </si>
+  <si>
+    <t>paati o shimasu</t>
+  </si>
+  <si>
+    <t>to party</t>
+  </si>
+  <si>
+    <t>パーティをします</t>
+  </si>
+  <si>
+    <t>tenisu o shimasu</t>
+  </si>
+  <si>
+    <t>to play tenis</t>
+  </si>
+  <si>
+    <t>テニスをします</t>
+  </si>
+  <si>
+    <t>shimasen</t>
+  </si>
+  <si>
+    <t>not to do sth</t>
+  </si>
+  <si>
+    <t>shimashita</t>
+  </si>
+  <si>
+    <t>to did sth</t>
+  </si>
+  <si>
+    <t>shimasen deshita</t>
+  </si>
+  <si>
+    <t>not to did sth</t>
+  </si>
+  <si>
+    <t>しません</t>
+  </si>
+  <si>
+    <t>しました</t>
+  </si>
+  <si>
+    <t>しませんでした</t>
+  </si>
+  <si>
+    <t>uchi</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>うち</t>
+  </si>
+  <si>
+    <t>kouen</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>こうえん</t>
+  </si>
+  <si>
+    <t>kaisha</t>
+  </si>
+  <si>
+    <t>Company (office building)</t>
+  </si>
+  <si>
+    <t>かいしゃ</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>がっこう</t>
+  </si>
+  <si>
+    <t>gakkou</t>
+  </si>
+  <si>
+    <t>Place + ni</t>
+  </si>
+  <si>
+    <t>Place + de</t>
+  </si>
+  <si>
+    <t>to that place</t>
+  </si>
+  <si>
+    <t>at that place</t>
+  </si>
+  <si>
+    <t>Place + に</t>
+  </si>
+  <si>
+    <t>Place + で</t>
+  </si>
+  <si>
+    <t>uchi de benkyou shimasu</t>
+  </si>
+  <si>
+    <t>to study at house</t>
+  </si>
+  <si>
+    <t>うちでべんきょうをします</t>
+  </si>
+  <si>
+    <t>Name + san + to</t>
+  </si>
+  <si>
+    <t>with so (name)</t>
+  </si>
+  <si>
+    <t>Mary + さん + と</t>
+  </si>
+  <si>
+    <t>Mary + san + to + tenisu + o + shimasu</t>
+  </si>
+  <si>
+    <t>to play tennis with Mary</t>
+  </si>
+  <si>
+    <t>Mary + さん + と + テニス + を + します</t>
+  </si>
+  <si>
+    <t>tomodachi</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>ともだち</t>
+  </si>
+  <si>
+    <t>resutauran</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>レスタウラン</t>
+  </si>
+  <si>
+    <t>sensei</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>せんせい</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1749,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1591,6 +1798,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1635,7 +1848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1680,6 +1893,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1960,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -2822,211 +3039,299 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>239</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>240</v>
+        <v>387</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B83" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" s="20" t="s">
         <v>242</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B84" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" s="20" t="s">
         <v>245</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B86" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" s="23" t="s">
         <v>265</v>
-      </c>
-      <c r="C86" s="23" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B87" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C87" s="23" t="s">
         <v>268</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B88" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C88" s="23" t="s">
         <v>271</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B89" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C89" s="23" t="s">
         <v>274</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B90" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="C90" s="23" t="s">
         <v>277</v>
-      </c>
-      <c r="C90" s="23" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B92" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C92" s="29" t="s">
         <v>298</v>
-      </c>
-      <c r="C92" s="29" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="B94" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="B94" s="28" t="s">
-        <v>310</v>
-      </c>
       <c r="C94" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B95" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="C95" s="29" t="s">
         <v>311</v>
-      </c>
-      <c r="C95" s="29" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B96" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="C96" s="29" t="s">
         <v>316</v>
-      </c>
-      <c r="C96" s="29" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="B97" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="B97" s="28" t="s">
+      <c r="C97" s="29" t="s">
         <v>320</v>
-      </c>
-      <c r="C97" s="29" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B98" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="C98" s="29" t="s">
         <v>358</v>
-      </c>
-      <c r="C98" s="29" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B99" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C99" s="29" t="s">
         <v>361</v>
-      </c>
-      <c r="C99" s="29" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B100" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="C100" s="29" t="s">
         <v>373</v>
-      </c>
-      <c r="C100" s="29" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B101" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="C101" s="29" t="s">
         <v>376</v>
-      </c>
-      <c r="C101" s="29" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B102" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="C102" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="C102" s="29" t="s">
-        <v>380</v>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="B104" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="C104" s="39" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="B105" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="C105" s="39" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="B106" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="C106" s="39" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B107" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="C107" s="39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="B108" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="C108" s="39" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="B109" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="C109" s="39" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="B110" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="C110" s="39" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="B111" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="C111" s="39" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -3037,15 +3342,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" style="10" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" style="7" customWidth="1"/>
   </cols>
@@ -3074,24 +3379,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3099,7 +3404,7 @@
         <v>235</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>234</v>
@@ -3107,299 +3412,475 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>286</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="C15" s="26" t="s">
         <v>290</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>292</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B17" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>295</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B30" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>301</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="B32" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="C32" s="32" t="s">
         <v>369</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B33" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>305</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="B34" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="B34" s="25" t="s">
-        <v>372</v>
-      </c>
       <c r="C34" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="501">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -1513,12 +1513,6 @@
     <t>gakkou</t>
   </si>
   <si>
-    <t>Place + ni</t>
-  </si>
-  <si>
-    <t>Place + de</t>
-  </si>
-  <si>
     <t>to that place</t>
   </si>
   <si>
@@ -1583,13 +1577,243 @@
   </si>
   <si>
     <t>せんせい</t>
+  </si>
+  <si>
+    <t>agemasu</t>
+  </si>
+  <si>
+    <t>to give</t>
+  </si>
+  <si>
+    <t>あげます</t>
+  </si>
+  <si>
+    <t>agemasen</t>
+  </si>
+  <si>
+    <t>to gave</t>
+  </si>
+  <si>
+    <t>agemashita</t>
+  </si>
+  <si>
+    <t>not to give</t>
+  </si>
+  <si>
+    <t>agemasen deshita</t>
+  </si>
+  <si>
+    <t>not to gave</t>
+  </si>
+  <si>
+    <t>あがません</t>
+  </si>
+  <si>
+    <t>あげました</t>
+  </si>
+  <si>
+    <t>あげませんでした</t>
+  </si>
+  <si>
+    <t>moraimasu</t>
+  </si>
+  <si>
+    <t>to receive</t>
+  </si>
+  <si>
+    <t>もらいます</t>
+  </si>
+  <si>
+    <t>moraimasen</t>
+  </si>
+  <si>
+    <t>to received</t>
+  </si>
+  <si>
+    <t>not to receive</t>
+  </si>
+  <si>
+    <t>moraimashita</t>
+  </si>
+  <si>
+    <t>moraimasen deshita</t>
+  </si>
+  <si>
+    <t>not to received</t>
+  </si>
+  <si>
+    <t>もらいません</t>
+  </si>
+  <si>
+    <t>もらいました</t>
+  </si>
+  <si>
+    <t>もらいませんでした</t>
+  </si>
+  <si>
+    <t>hon</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>ほん</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>ケーキ</t>
+  </si>
+  <si>
+    <t>keeki</t>
+  </si>
+  <si>
+    <t>tokei</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>とけい</t>
+  </si>
+  <si>
+    <t>Person + に</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Person + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ni</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Place + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ni</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Place + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de</t>
+    </r>
+  </si>
+  <si>
+    <t>Noun1 +  の + Noun2</t>
+  </si>
+  <si>
+    <t>nihon no hon</t>
+  </si>
+  <si>
+    <t>Japanese Book</t>
+  </si>
+  <si>
+    <t>にほのほん</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Noun1 + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + Noun2</t>
+    </r>
+  </si>
+  <si>
+    <t>Noun1(adj) Noun2(n)</t>
+  </si>
+  <si>
+    <t>oishii</t>
+  </si>
+  <si>
+    <t>Delicous</t>
+  </si>
+  <si>
+    <t>おいしい</t>
+  </si>
+  <si>
+    <t>takai</t>
+  </si>
+  <si>
+    <t>Expensive</t>
+  </si>
+  <si>
+    <t>たかい</t>
+  </si>
+  <si>
+    <t>Noun1 + Noun2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Noun1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ Noun2</t>
+    </r>
+  </si>
+  <si>
+    <t>to/from that person</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1748,8 +1972,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1804,6 +2059,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1848,7 +2109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1894,9 +2155,18 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2177,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -3247,91 +3517,146 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="37" t="s">
+      <c r="A104" s="40" t="s">
         <v>417</v>
       </c>
-      <c r="B104" s="38" t="s">
+      <c r="B104" s="41" t="s">
         <v>415</v>
       </c>
-      <c r="C104" s="39" t="s">
+      <c r="C104" s="42" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="37" t="s">
+      <c r="A105" s="40" t="s">
         <v>420</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="B105" s="41" t="s">
         <v>418</v>
       </c>
-      <c r="C105" s="39" t="s">
+      <c r="C105" s="42" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="37" t="s">
+      <c r="A106" s="40" t="s">
         <v>423</v>
       </c>
-      <c r="B106" s="38" t="s">
+      <c r="B106" s="41" t="s">
         <v>421</v>
       </c>
-      <c r="C106" s="39" t="s">
+      <c r="C106" s="42" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="37" t="s">
+      <c r="A107" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="B107" s="38" t="s">
+      <c r="B107" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="C107" s="39" t="s">
+      <c r="C107" s="42" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="37" t="s">
+      <c r="A108" s="40" t="s">
         <v>425</v>
       </c>
-      <c r="B108" s="38" t="s">
+      <c r="B108" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="C108" s="39" t="s">
+      <c r="C108" s="42" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="37" t="s">
+      <c r="A109" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="B109" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="C109" s="42" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="B110" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="C110" s="42" t="s">
         <v>444</v>
       </c>
-      <c r="B109" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="C109" s="39" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="37" t="s">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="B111" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="C111" s="42" t="s">
         <v>447</v>
       </c>
-      <c r="B110" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="C110" s="39" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="37" t="s">
-        <v>450</v>
-      </c>
-      <c r="B111" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="C111" s="39" t="s">
-        <v>449</v>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="46" t="s">
+        <v>475</v>
+      </c>
+      <c r="B113" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="C113" s="48" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="46" t="s">
+        <v>477</v>
+      </c>
+      <c r="B114" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="C114" s="48" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="46" t="s">
+        <v>481</v>
+      </c>
+      <c r="B115" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="C115" s="48" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="46" t="s">
+        <v>494</v>
+      </c>
+      <c r="B116" s="47" t="s">
+        <v>492</v>
+      </c>
+      <c r="C116" s="48" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="46" t="s">
+        <v>497</v>
+      </c>
+      <c r="B117" s="47" t="s">
+        <v>495</v>
+      </c>
+      <c r="C117" s="48" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -3342,10 +3667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -3830,57 +4155,189 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B50" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="C50" s="20" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>437</v>
+      <c r="B51" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B53" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>440</v>
+      <c r="B54" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>454</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="43" t="s">
+        <v>463</v>
+      </c>
+      <c r="B61" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="C61" s="45" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="B62" s="44" t="s">
+        <v>464</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="B63" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="43" t="s">
+        <v>472</v>
+      </c>
+      <c r="B64" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="46" t="s">
+        <v>498</v>
+      </c>
+      <c r="B66" s="47" t="s">
+        <v>499</v>
+      </c>
+      <c r="C66" s="48" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="46" t="s">
+        <v>486</v>
+      </c>
+      <c r="B67" s="47" t="s">
+        <v>490</v>
+      </c>
+      <c r="C67" s="48" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="46" t="s">
+        <v>489</v>
+      </c>
+      <c r="B68" s="47" t="s">
+        <v>487</v>
+      </c>
+      <c r="C68" s="48" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="591">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -1807,6 +1807,276 @@
   </si>
   <si>
     <t>to/from that person</t>
+  </si>
+  <si>
+    <t>sofu</t>
+  </si>
+  <si>
+    <t>my grandfather</t>
+  </si>
+  <si>
+    <t>そふ</t>
+  </si>
+  <si>
+    <t>sobo</t>
+  </si>
+  <si>
+    <t>my grandmother</t>
+  </si>
+  <si>
+    <t>そぼ</t>
+  </si>
+  <si>
+    <t>chichi</t>
+  </si>
+  <si>
+    <t>my father</t>
+  </si>
+  <si>
+    <t>ちち</t>
+  </si>
+  <si>
+    <t>haha</t>
+  </si>
+  <si>
+    <t>my mother</t>
+  </si>
+  <si>
+    <t>はは</t>
+  </si>
+  <si>
+    <t>ani</t>
+  </si>
+  <si>
+    <t>my older brother</t>
+  </si>
+  <si>
+    <t>あに</t>
+  </si>
+  <si>
+    <t>ane</t>
+  </si>
+  <si>
+    <t>my older sister</t>
+  </si>
+  <si>
+    <t>あね</t>
+  </si>
+  <si>
+    <t>otouto</t>
+  </si>
+  <si>
+    <t>my younger brother</t>
+  </si>
+  <si>
+    <t>おとうと</t>
+  </si>
+  <si>
+    <t>imouto</t>
+  </si>
+  <si>
+    <t>my younger sister</t>
+  </si>
+  <si>
+    <t>いもうと</t>
+  </si>
+  <si>
+    <t>musuko</t>
+  </si>
+  <si>
+    <t>my son</t>
+  </si>
+  <si>
+    <t>むすこ</t>
+  </si>
+  <si>
+    <t>musume</t>
+  </si>
+  <si>
+    <t>my daughter</t>
+  </si>
+  <si>
+    <t>むすめ</t>
+  </si>
+  <si>
+    <t>ryoushin</t>
+  </si>
+  <si>
+    <t>my parents</t>
+  </si>
+  <si>
+    <t>りょうしん</t>
+  </si>
+  <si>
+    <t>kodomo</t>
+  </si>
+  <si>
+    <t>my children</t>
+  </si>
+  <si>
+    <t>こども</t>
+  </si>
+  <si>
+    <t>kazoku</t>
+  </si>
+  <si>
+    <t>my family</t>
+  </si>
+  <si>
+    <t>かぞく</t>
+  </si>
+  <si>
+    <t>shujin</t>
+  </si>
+  <si>
+    <t>my husband</t>
+  </si>
+  <si>
+    <t>しゅじん</t>
+  </si>
+  <si>
+    <t>kanai / tsuma</t>
+  </si>
+  <si>
+    <t>my wife</t>
+  </si>
+  <si>
+    <t>かない／つま</t>
+  </si>
+  <si>
+    <t>your grandfather</t>
+  </si>
+  <si>
+    <t>your grandmother</t>
+  </si>
+  <si>
+    <t>your father</t>
+  </si>
+  <si>
+    <t>your mother</t>
+  </si>
+  <si>
+    <t>your older brother</t>
+  </si>
+  <si>
+    <t>your older sister</t>
+  </si>
+  <si>
+    <t>your younger brother</t>
+  </si>
+  <si>
+    <t>your younger sister</t>
+  </si>
+  <si>
+    <t>your son</t>
+  </si>
+  <si>
+    <t>your daughter</t>
+  </si>
+  <si>
+    <t>your parents</t>
+  </si>
+  <si>
+    <t>your children</t>
+  </si>
+  <si>
+    <t>your family</t>
+  </si>
+  <si>
+    <t>your husband</t>
+  </si>
+  <si>
+    <t>your wife</t>
+  </si>
+  <si>
+    <t>おじいさん</t>
+  </si>
+  <si>
+    <t>ojiisan</t>
+  </si>
+  <si>
+    <t>obaasan</t>
+  </si>
+  <si>
+    <t>おばあさん</t>
+  </si>
+  <si>
+    <t>otousan</t>
+  </si>
+  <si>
+    <t>おとうさん</t>
+  </si>
+  <si>
+    <t>okaasan</t>
+  </si>
+  <si>
+    <t>おかあさん</t>
+  </si>
+  <si>
+    <t>oniisan</t>
+  </si>
+  <si>
+    <t>おにいさん</t>
+  </si>
+  <si>
+    <t>oneesan</t>
+  </si>
+  <si>
+    <t>おねえさん</t>
+  </si>
+  <si>
+    <t>otoutosan</t>
+  </si>
+  <si>
+    <t>おとうとさん</t>
+  </si>
+  <si>
+    <t>imoutosan</t>
+  </si>
+  <si>
+    <t>いもうとさん</t>
+  </si>
+  <si>
+    <t>musukosan</t>
+  </si>
+  <si>
+    <t>むすこさん</t>
+  </si>
+  <si>
+    <t>musumesan</t>
+  </si>
+  <si>
+    <t>むすめさん</t>
+  </si>
+  <si>
+    <t>goryoushin</t>
+  </si>
+  <si>
+    <t>ごりょうしん</t>
+  </si>
+  <si>
+    <t>kodomosan</t>
+  </si>
+  <si>
+    <t>こどもさん</t>
+  </si>
+  <si>
+    <t>gokazoku</t>
+  </si>
+  <si>
+    <t>ごかぞく</t>
+  </si>
+  <si>
+    <t>goshujin</t>
+  </si>
+  <si>
+    <t>ごしゅじん</t>
+  </si>
+  <si>
+    <t>okusan</t>
+  </si>
+  <si>
+    <t>おくさん</t>
   </si>
 </sst>
 </file>
@@ -2004,7 +2274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2065,6 +2335,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -2109,7 +2385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2167,6 +2443,9 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2447,10 +2726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -3657,6 +3936,336 @@
       </c>
       <c r="C117" s="48" t="s">
         <v>496</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="49" t="s">
+        <v>503</v>
+      </c>
+      <c r="B119" s="50" t="s">
+        <v>501</v>
+      </c>
+      <c r="C119" s="51" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="49" t="s">
+        <v>506</v>
+      </c>
+      <c r="B120" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="C120" s="51" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="49" t="s">
+        <v>509</v>
+      </c>
+      <c r="B121" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="C121" s="51" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="49" t="s">
+        <v>512</v>
+      </c>
+      <c r="B122" s="50" t="s">
+        <v>510</v>
+      </c>
+      <c r="C122" s="51" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="49" t="s">
+        <v>515</v>
+      </c>
+      <c r="B123" s="50" t="s">
+        <v>513</v>
+      </c>
+      <c r="C123" s="51" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="B124" s="50" t="s">
+        <v>516</v>
+      </c>
+      <c r="C124" s="51" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="49" t="s">
+        <v>521</v>
+      </c>
+      <c r="B125" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="C125" s="51" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="B126" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="C126" s="51" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="49" t="s">
+        <v>527</v>
+      </c>
+      <c r="B127" s="50" t="s">
+        <v>525</v>
+      </c>
+      <c r="C127" s="51" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="49" t="s">
+        <v>530</v>
+      </c>
+      <c r="B128" s="50" t="s">
+        <v>528</v>
+      </c>
+      <c r="C128" s="51" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="49" t="s">
+        <v>533</v>
+      </c>
+      <c r="B129" s="50" t="s">
+        <v>531</v>
+      </c>
+      <c r="C129" s="51" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="49" t="s">
+        <v>536</v>
+      </c>
+      <c r="B130" s="50" t="s">
+        <v>534</v>
+      </c>
+      <c r="C130" s="51" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="49" t="s">
+        <v>539</v>
+      </c>
+      <c r="B131" s="50" t="s">
+        <v>537</v>
+      </c>
+      <c r="C131" s="51" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="B132" s="50" t="s">
+        <v>540</v>
+      </c>
+      <c r="C132" s="51" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="49" t="s">
+        <v>545</v>
+      </c>
+      <c r="B133" s="50" t="s">
+        <v>543</v>
+      </c>
+      <c r="C133" s="51" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="684">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -2077,6 +2077,313 @@
   </si>
   <si>
     <t>おくさん</t>
+  </si>
+  <si>
+    <t>ichi ji</t>
+  </si>
+  <si>
+    <t>1PM</t>
+  </si>
+  <si>
+    <t>いちじ
+一時</t>
+  </si>
+  <si>
+    <t>ni ji</t>
+  </si>
+  <si>
+    <t>2PM</t>
+  </si>
+  <si>
+    <t>にじ
+ニ時</t>
+  </si>
+  <si>
+    <t>san ji</t>
+  </si>
+  <si>
+    <t>3PM</t>
+  </si>
+  <si>
+    <t>さんじ
+三時</t>
+  </si>
+  <si>
+    <t>yo ji</t>
+  </si>
+  <si>
+    <t>4PM</t>
+  </si>
+  <si>
+    <t>よじ
+四時</t>
+  </si>
+  <si>
+    <t>go ji</t>
+  </si>
+  <si>
+    <t>5PM</t>
+  </si>
+  <si>
+    <t>ごじ
+五時</t>
+  </si>
+  <si>
+    <t>roku ji</t>
+  </si>
+  <si>
+    <t>6PM</t>
+  </si>
+  <si>
+    <t>ろくじ
+六時</t>
+  </si>
+  <si>
+    <t>shichi ji</t>
+  </si>
+  <si>
+    <t>7PM</t>
+  </si>
+  <si>
+    <t>しちじ
+七時</t>
+  </si>
+  <si>
+    <t>hachi ji</t>
+  </si>
+  <si>
+    <t>8PM</t>
+  </si>
+  <si>
+    <t>はちじ
+八時</t>
+  </si>
+  <si>
+    <t>ku ji</t>
+  </si>
+  <si>
+    <t>9PM</t>
+  </si>
+  <si>
+    <t>くじ
+九時</t>
+  </si>
+  <si>
+    <t>jyuu ji</t>
+  </si>
+  <si>
+    <t>10PM</t>
+  </si>
+  <si>
+    <t>じゅうじ
+十時</t>
+  </si>
+  <si>
+    <t>jyuu ichi ji</t>
+  </si>
+  <si>
+    <t>11PM</t>
+  </si>
+  <si>
+    <t>じゅういちじ
+十一時</t>
+  </si>
+  <si>
+    <t>12AM</t>
+  </si>
+  <si>
+    <t>じゅうにじ
+十二時</t>
+  </si>
+  <si>
+    <t>jyuu ni ji</t>
+  </si>
+  <si>
+    <t>ippun</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>いっぷん
+一分</t>
+  </si>
+  <si>
+    <t>nifun</t>
+  </si>
+  <si>
+    <t>2m</t>
+  </si>
+  <si>
+    <t>にふん
+二分</t>
+  </si>
+  <si>
+    <t>sanpun</t>
+  </si>
+  <si>
+    <t>3m</t>
+  </si>
+  <si>
+    <t>さんぷん
+三分</t>
+  </si>
+  <si>
+    <t>yonpun</t>
+  </si>
+  <si>
+    <t>4m</t>
+  </si>
+  <si>
+    <t>よんぷん
+四分</t>
+  </si>
+  <si>
+    <t>gofun</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>ごふん
+五分</t>
+  </si>
+  <si>
+    <t>roppun</t>
+  </si>
+  <si>
+    <t>6m</t>
+  </si>
+  <si>
+    <t>ろっぷん
+六分</t>
+  </si>
+  <si>
+    <t>nanafun</t>
+  </si>
+  <si>
+    <t>7m</t>
+  </si>
+  <si>
+    <t>ななふん
+七分</t>
+  </si>
+  <si>
+    <t>happun</t>
+  </si>
+  <si>
+    <t>8m</t>
+  </si>
+  <si>
+    <t>はっぷん
+八分</t>
+  </si>
+  <si>
+    <t>kyufun</t>
+  </si>
+  <si>
+    <t>9m</t>
+  </si>
+  <si>
+    <t>きゅうふん
+九分</t>
+  </si>
+  <si>
+    <t>jyuppun</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>じゅっぷん
+十分</t>
+  </si>
+  <si>
+    <t>gozen</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>ごぜん
+午前</t>
+  </si>
+  <si>
+    <t>gogo</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>ごご
+午後</t>
+  </si>
+  <si>
+    <t>gozen ichiji nijuppun</t>
+  </si>
+  <si>
+    <t>ごぜんいちじにじゅっぷん
+午前一時二十分</t>
+  </si>
+  <si>
+    <t>1:20 AM</t>
+  </si>
+  <si>
+    <t>han</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>はん
+半</t>
+  </si>
+  <si>
+    <t>ima</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>いま
+今</t>
+  </si>
+  <si>
+    <t>ima nanji desuka</t>
+  </si>
+  <si>
+    <t>What time is it now?</t>
+  </si>
+  <si>
+    <t>いまなんじですか？
+今何時ですか？</t>
+  </si>
+  <si>
+    <t>doumo agrigatou</t>
+  </si>
+  <si>
+    <t>どうもありがとう</t>
+  </si>
+  <si>
+    <t>Thank you very much (casual)</t>
+  </si>
+  <si>
+    <t>doumo arigatou gozaimasu</t>
+  </si>
+  <si>
+    <t>Thank you very much (formal)</t>
+  </si>
+  <si>
+    <t>どうもありがとうございます</t>
+  </si>
+  <si>
+    <t>dou itashimashite</t>
+  </si>
+  <si>
+    <t>どういたしまして</t>
+  </si>
+  <si>
+    <t>You're welcome</t>
   </si>
 </sst>
 </file>
@@ -2385,7 +2692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2446,6 +2753,23 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2726,11 +3050,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2818,1454 +3140,1784 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>676</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>22</v>
+        <v>675</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>677</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="14" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>40</v>
+      <c r="A14" s="59" t="s">
+        <v>671</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B34" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B42" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+    <row r="43" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B43" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="69.75" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>223</v>
+        <v>206</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>153</v>
+        <v>222</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>223</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="69.75" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>224</v>
+        <v>214</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A68" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A71" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B74" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="13" t="s">
+    <row r="75" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B75" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C75" s="12" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A77" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A78" s="16" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A79" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B83" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C83" s="15" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="18" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B85" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C85" s="20" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="18" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B86" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C86" s="20" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="18" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B87" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C87" s="20" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="18" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B88" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C88" s="20" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C86" s="23" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="B87" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="B89" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B94" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="C94" s="23" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="B92" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="C92" s="29" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="B93" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="C93" s="29" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="B94" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="C94" s="29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="B95" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="C95" s="29" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="27" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="27" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="27" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="27" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="27" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="27" t="s">
-        <v>377</v>
+        <v>318</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="B102" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="C102" s="29" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="B103" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C103" s="29" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="B104" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="B105" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="C105" s="29" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="B102" s="28" t="s">
+      <c r="B106" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="C102" s="29" t="s">
+      <c r="C106" s="29" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="40" t="s">
-        <v>417</v>
-      </c>
-      <c r="B104" s="41" t="s">
-        <v>415</v>
-      </c>
-      <c r="C104" s="42" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="40" t="s">
-        <v>420</v>
-      </c>
-      <c r="B105" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="C105" s="42" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="40" t="s">
-        <v>423</v>
-      </c>
-      <c r="B106" s="41" t="s">
-        <v>421</v>
-      </c>
-      <c r="C106" s="42" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="B107" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="C107" s="42" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="40" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B108" s="41" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="C108" s="42" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="40" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="B109" s="41" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="C109" s="42" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="40" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="B110" s="41" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B111" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C111" s="42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="B112" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="C112" s="42" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="B113" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="C113" s="42" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="B114" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="C114" s="42" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="B111" s="41" t="s">
+      <c r="B115" s="41" t="s">
         <v>446</v>
       </c>
-      <c r="C111" s="42" t="s">
+      <c r="C115" s="42" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="46" t="s">
-        <v>475</v>
-      </c>
-      <c r="B113" s="47" t="s">
-        <v>473</v>
-      </c>
-      <c r="C113" s="48" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="46" t="s">
-        <v>477</v>
-      </c>
-      <c r="B114" s="47" t="s">
-        <v>478</v>
-      </c>
-      <c r="C114" s="48" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="46" t="s">
-        <v>481</v>
-      </c>
-      <c r="B115" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="C115" s="48" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="46" t="s">
-        <v>494</v>
-      </c>
-      <c r="B116" s="47" t="s">
-        <v>492</v>
-      </c>
-      <c r="C116" s="48" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="46" t="s">
+        <v>475</v>
+      </c>
+      <c r="B117" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="C117" s="48" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="46" t="s">
+        <v>477</v>
+      </c>
+      <c r="B118" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="C118" s="48" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="46" t="s">
+        <v>481</v>
+      </c>
+      <c r="B119" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="C119" s="48" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="46" t="s">
+        <v>494</v>
+      </c>
+      <c r="B120" s="47" t="s">
+        <v>492</v>
+      </c>
+      <c r="C120" s="48" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="B117" s="47" t="s">
+      <c r="B121" s="47" t="s">
         <v>495</v>
       </c>
-      <c r="C117" s="48" t="s">
+      <c r="C121" s="48" t="s">
         <v>496</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="49" t="s">
-        <v>503</v>
-      </c>
-      <c r="B119" s="50" t="s">
-        <v>501</v>
-      </c>
-      <c r="C119" s="51" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="49" t="s">
-        <v>506</v>
-      </c>
-      <c r="B120" s="50" t="s">
-        <v>504</v>
-      </c>
-      <c r="C120" s="51" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="49" t="s">
-        <v>509</v>
-      </c>
-      <c r="B121" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="C121" s="51" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="49" t="s">
-        <v>512</v>
-      </c>
-      <c r="B122" s="50" t="s">
-        <v>510</v>
-      </c>
-      <c r="C122" s="51" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="49" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="B123" s="50" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C123" s="51" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="49" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B124" s="50" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="C124" s="51" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="49" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="B125" s="50" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="C125" s="51" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="49" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="B126" s="50" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C126" s="51" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="49" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B127" s="50" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C127" s="51" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="49" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B128" s="50" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="C128" s="51" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="49" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B129" s="50" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="C129" s="51" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="49" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="B130" s="50" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="C130" s="51" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="49" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="B131" s="50" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="C131" s="51" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="49" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="B132" s="50" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="C132" s="51" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="49" t="s">
+        <v>533</v>
+      </c>
+      <c r="B133" s="50" t="s">
+        <v>531</v>
+      </c>
+      <c r="C133" s="51" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="49" t="s">
+        <v>536</v>
+      </c>
+      <c r="B134" s="50" t="s">
+        <v>534</v>
+      </c>
+      <c r="C134" s="51" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="49" t="s">
+        <v>539</v>
+      </c>
+      <c r="B135" s="50" t="s">
+        <v>537</v>
+      </c>
+      <c r="C135" s="51" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="B136" s="50" t="s">
+        <v>540</v>
+      </c>
+      <c r="C136" s="51" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="49" t="s">
         <v>545</v>
       </c>
-      <c r="B133" s="50" t="s">
+      <c r="B137" s="50" t="s">
         <v>543</v>
       </c>
-      <c r="C133" s="51" t="s">
+      <c r="C137" s="51" t="s">
         <v>544</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B153" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C153" s="5" t="s">
         <v>560</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A155" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="B155" s="53" t="s">
+        <v>591</v>
+      </c>
+      <c r="C155" s="54" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A156" s="52" t="s">
+        <v>596</v>
+      </c>
+      <c r="B156" s="53" t="s">
+        <v>594</v>
+      </c>
+      <c r="C156" s="54" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A157" s="52" t="s">
+        <v>599</v>
+      </c>
+      <c r="B157" s="53" t="s">
+        <v>597</v>
+      </c>
+      <c r="C157" s="54" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A158" s="52" t="s">
+        <v>602</v>
+      </c>
+      <c r="B158" s="53" t="s">
+        <v>600</v>
+      </c>
+      <c r="C158" s="54" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A159" s="52" t="s">
+        <v>605</v>
+      </c>
+      <c r="B159" s="53" t="s">
+        <v>603</v>
+      </c>
+      <c r="C159" s="54" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A160" s="52" t="s">
+        <v>608</v>
+      </c>
+      <c r="B160" s="53" t="s">
+        <v>606</v>
+      </c>
+      <c r="C160" s="54" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A161" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="B161" s="53" t="s">
+        <v>609</v>
+      </c>
+      <c r="C161" s="54" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A162" s="52" t="s">
+        <v>614</v>
+      </c>
+      <c r="B162" s="53" t="s">
+        <v>612</v>
+      </c>
+      <c r="C162" s="54" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A163" s="52" t="s">
+        <v>617</v>
+      </c>
+      <c r="B163" s="53" t="s">
+        <v>615</v>
+      </c>
+      <c r="C163" s="54" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A164" s="52" t="s">
+        <v>620</v>
+      </c>
+      <c r="B164" s="53" t="s">
+        <v>618</v>
+      </c>
+      <c r="C164" s="54" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A165" s="52" t="s">
+        <v>623</v>
+      </c>
+      <c r="B165" s="53" t="s">
+        <v>621</v>
+      </c>
+      <c r="C165" s="54" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A166" s="52" t="s">
+        <v>625</v>
+      </c>
+      <c r="B166" s="53" t="s">
+        <v>626</v>
+      </c>
+      <c r="C166" s="54" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A168" s="55" t="s">
+        <v>629</v>
+      </c>
+      <c r="B168" s="56" t="s">
+        <v>627</v>
+      </c>
+      <c r="C168" s="57" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A169" s="55" t="s">
+        <v>632</v>
+      </c>
+      <c r="B169" s="56" t="s">
+        <v>630</v>
+      </c>
+      <c r="C169" s="57" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A170" s="55" t="s">
+        <v>635</v>
+      </c>
+      <c r="B170" s="56" t="s">
+        <v>633</v>
+      </c>
+      <c r="C170" s="57" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A171" s="55" t="s">
+        <v>638</v>
+      </c>
+      <c r="B171" s="56" t="s">
+        <v>636</v>
+      </c>
+      <c r="C171" s="57" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A172" s="55" t="s">
+        <v>641</v>
+      </c>
+      <c r="B172" s="56" t="s">
+        <v>639</v>
+      </c>
+      <c r="C172" s="57" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A173" s="55" t="s">
+        <v>644</v>
+      </c>
+      <c r="B173" s="56" t="s">
+        <v>642</v>
+      </c>
+      <c r="C173" s="57" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A174" s="55" t="s">
+        <v>647</v>
+      </c>
+      <c r="B174" s="56" t="s">
+        <v>645</v>
+      </c>
+      <c r="C174" s="57" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A175" s="55" t="s">
+        <v>650</v>
+      </c>
+      <c r="B175" s="56" t="s">
+        <v>648</v>
+      </c>
+      <c r="C175" s="57" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A176" s="55" t="s">
+        <v>653</v>
+      </c>
+      <c r="B176" s="56" t="s">
+        <v>651</v>
+      </c>
+      <c r="C176" s="57" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A177" s="55" t="s">
+        <v>656</v>
+      </c>
+      <c r="B177" s="56" t="s">
+        <v>654</v>
+      </c>
+      <c r="C177" s="57" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A178" s="55" t="s">
+        <v>668</v>
+      </c>
+      <c r="B178" s="56" t="s">
+        <v>666</v>
+      </c>
+      <c r="C178" s="57" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A180" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="B180" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="C180" s="15" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A181" s="16" t="s">
+        <v>662</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="C181" s="15" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A182" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="B182" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="C182" s="58" t="s">
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -4276,11 +4928,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4949,6 +5599,17 @@
         <v>488</v>
       </c>
     </row>
+    <row r="70" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="60" t="s">
+        <v>674</v>
+      </c>
+      <c r="B70" s="50" t="s">
+        <v>672</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>673</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="747">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -2385,12 +2385,241 @@
   <si>
     <t>You're welcome</t>
   </si>
+  <si>
+    <t>to come</t>
+  </si>
+  <si>
+    <t>kimasu</t>
+  </si>
+  <si>
+    <t>きます</t>
+  </si>
+  <si>
+    <t>kaerimasu</t>
+  </si>
+  <si>
+    <t>to return</t>
+  </si>
+  <si>
+    <t>かえります</t>
+  </si>
+  <si>
+    <t>Topic maker は</t>
+  </si>
+  <si>
+    <t>Mary-san wa kimasu</t>
+  </si>
+  <si>
+    <t>Mary comes</t>
+  </si>
+  <si>
+    <t>Maryさんはきます</t>
+  </si>
+  <si>
+    <t>ginkou</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>ぎんこう</t>
+  </si>
+  <si>
+    <t>Specific time + に</t>
+  </si>
+  <si>
+    <t>三時に</t>
+  </si>
+  <si>
+    <t>sanji ni</t>
+  </si>
+  <si>
+    <t>㏮に</t>
+  </si>
+  <si>
+    <t>jyuugonichi ni</t>
+  </si>
+  <si>
+    <t>nen</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>ねん</t>
+  </si>
+  <si>
+    <t>gatsu</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>がつ</t>
+  </si>
+  <si>
+    <t>raishuu</t>
+  </si>
+  <si>
+    <t>Next week</t>
+  </si>
+  <si>
+    <t>らいしゅう</t>
+  </si>
+  <si>
+    <t>raigetsu</t>
+  </si>
+  <si>
+    <t>Next month</t>
+  </si>
+  <si>
+    <t>らいげつ</t>
+  </si>
+  <si>
+    <t>rainen</t>
+  </si>
+  <si>
+    <t>Next year</t>
+  </si>
+  <si>
+    <t>らいねん</t>
+  </si>
+  <si>
+    <t>hisho</t>
+  </si>
+  <si>
+    <t>Secretary</t>
+  </si>
+  <si>
+    <t>ひしょ</t>
+  </si>
+  <si>
+    <t>Alone</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Person + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+  </si>
+  <si>
+    <t>with that person</t>
+  </si>
+  <si>
+    <t>Person + と</t>
+  </si>
+  <si>
+    <t>kinyoubi ni</t>
+  </si>
+  <si>
+    <t>at 3 o'clock</t>
+  </si>
+  <si>
+    <t>on 15th</t>
+  </si>
+  <si>
+    <t>on Friday</t>
+  </si>
+  <si>
+    <t>金曜日に</t>
+  </si>
+  <si>
+    <t>hitori + de</t>
+  </si>
+  <si>
+    <t>ひとり (で）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transportation + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de</t>
+    </r>
+  </si>
+  <si>
+    <t>Transportation + で</t>
+  </si>
+  <si>
+    <t>by + that transportation</t>
+  </si>
+  <si>
+    <t>takushii</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>タクシー</t>
+  </si>
+  <si>
+    <t>chikatetsu</t>
+  </si>
+  <si>
+    <t>Subway</t>
+  </si>
+  <si>
+    <t>ちかてつ</t>
+  </si>
+  <si>
+    <t>aruite</t>
+  </si>
+  <si>
+    <t>Walking</t>
+  </si>
+  <si>
+    <t>hikouki</t>
+  </si>
+  <si>
+    <t>Aeroplane</t>
+  </si>
+  <si>
+    <t>ひこうき</t>
+  </si>
+  <si>
+    <t>S + Time + Person + Transportation + Location + Action</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">あるいて </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(で)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2580,6 +2809,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2692,7 +2930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2770,6 +3008,10 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3050,7 +3292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C182"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4040,884 +4282,1016 @@
         <v>277</v>
       </c>
     </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="21" t="s">
+        <v>704</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>702</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>703</v>
+      </c>
+    </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="B96" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="C96" s="29" t="s">
-        <v>298</v>
+      <c r="A96" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="B97" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="C97" s="29" t="s">
-        <v>312</v>
+      <c r="A97" s="21" t="s">
+        <v>710</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="B98" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="C98" s="29" t="s">
-        <v>313</v>
+      <c r="A98" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="C99" s="29" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="B100" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="C100" s="29" t="s">
-        <v>316</v>
+      <c r="A99" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>714</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="27" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="27" t="s">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="27" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="27" t="s">
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>372</v>
+        <v>310</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>373</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="27" t="s">
-        <v>377</v>
+        <v>317</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>375</v>
+        <v>315</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="B106" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="C106" s="29" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="B107" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="B108" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="B109" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="C109" s="29" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="B110" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="C110" s="29" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="B106" s="28" t="s">
+      <c r="B111" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="C106" s="29" t="s">
+      <c r="C111" s="29" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="40" t="s">
-        <v>417</v>
-      </c>
-      <c r="B108" s="41" t="s">
-        <v>415</v>
-      </c>
-      <c r="C108" s="42" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="40" t="s">
-        <v>420</v>
-      </c>
-      <c r="B109" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="C109" s="42" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="40" t="s">
-        <v>423</v>
-      </c>
-      <c r="B110" s="41" t="s">
-        <v>421</v>
-      </c>
-      <c r="C110" s="42" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="B111" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="C111" s="42" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="40" t="s">
-        <v>425</v>
-      </c>
-      <c r="B112" s="41" t="s">
-        <v>426</v>
-      </c>
-      <c r="C112" s="42" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="40" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="B113" s="41" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="C113" s="42" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="40" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="B114" s="41" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="C114" s="42" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="B115" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="C115" s="42" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C116" s="42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="B117" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="C117" s="42" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="B118" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="C118" s="42" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="B119" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="C119" s="42" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="B115" s="41" t="s">
+      <c r="B120" s="41" t="s">
         <v>446</v>
       </c>
-      <c r="C115" s="42" t="s">
+      <c r="C120" s="42" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="46" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="46" t="s">
         <v>475</v>
       </c>
-      <c r="B117" s="47" t="s">
+      <c r="B122" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="C117" s="48" t="s">
+      <c r="C122" s="48" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="46" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="46" t="s">
         <v>477</v>
       </c>
-      <c r="B118" s="47" t="s">
+      <c r="B123" s="47" t="s">
         <v>478</v>
       </c>
-      <c r="C118" s="48" t="s">
+      <c r="C123" s="48" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="46" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="46" t="s">
         <v>481</v>
       </c>
-      <c r="B119" s="47" t="s">
+      <c r="B124" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="C119" s="48" t="s">
+      <c r="C124" s="48" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="46" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="46" t="s">
         <v>494</v>
       </c>
-      <c r="B120" s="47" t="s">
+      <c r="B125" s="47" t="s">
         <v>492</v>
       </c>
-      <c r="C120" s="48" t="s">
+      <c r="C125" s="48" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="46" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="B121" s="47" t="s">
+      <c r="B126" s="47" t="s">
         <v>495</v>
       </c>
-      <c r="C121" s="48" t="s">
+      <c r="C126" s="48" t="s">
         <v>496</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="49" t="s">
-        <v>503</v>
-      </c>
-      <c r="B123" s="50" t="s">
-        <v>501</v>
-      </c>
-      <c r="C123" s="51" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="49" t="s">
-        <v>506</v>
-      </c>
-      <c r="B124" s="50" t="s">
-        <v>504</v>
-      </c>
-      <c r="C124" s="51" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="49" t="s">
-        <v>509</v>
-      </c>
-      <c r="B125" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="C125" s="51" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" s="49" t="s">
-        <v>512</v>
-      </c>
-      <c r="B126" s="50" t="s">
-        <v>510</v>
-      </c>
-      <c r="C126" s="51" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="49" t="s">
-        <v>515</v>
-      </c>
-      <c r="B127" s="50" t="s">
-        <v>513</v>
-      </c>
-      <c r="C127" s="51" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="49" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B128" s="50" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="C128" s="51" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="49" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="B129" s="50" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="C129" s="51" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="49" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="B130" s="50" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="C130" s="51" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="49" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="B131" s="50" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="C131" s="51" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="49" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="B132" s="50" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="C132" s="51" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="49" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="B133" s="50" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="C133" s="51" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="49" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="B134" s="50" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="C134" s="51" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="49" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="B135" s="50" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="C135" s="51" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="49" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="B136" s="50" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="C136" s="51" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="49" t="s">
+        <v>530</v>
+      </c>
+      <c r="B137" s="50" t="s">
+        <v>528</v>
+      </c>
+      <c r="C137" s="51" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="49" t="s">
+        <v>533</v>
+      </c>
+      <c r="B138" s="50" t="s">
+        <v>531</v>
+      </c>
+      <c r="C138" s="51" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="49" t="s">
+        <v>536</v>
+      </c>
+      <c r="B139" s="50" t="s">
+        <v>534</v>
+      </c>
+      <c r="C139" s="51" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="49" t="s">
+        <v>539</v>
+      </c>
+      <c r="B140" s="50" t="s">
+        <v>537</v>
+      </c>
+      <c r="C140" s="51" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="B141" s="50" t="s">
+        <v>540</v>
+      </c>
+      <c r="C141" s="51" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="49" t="s">
         <v>545</v>
       </c>
-      <c r="B137" s="50" t="s">
+      <c r="B142" s="50" t="s">
         <v>543</v>
       </c>
-      <c r="C137" s="51" t="s">
+      <c r="C142" s="51" t="s">
         <v>544</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B158" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C158" s="5" t="s">
         <v>560</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A155" s="52" t="s">
-        <v>593</v>
-      </c>
-      <c r="B155" s="53" t="s">
-        <v>591</v>
-      </c>
-      <c r="C155" s="54" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A156" s="52" t="s">
-        <v>596</v>
-      </c>
-      <c r="B156" s="53" t="s">
-        <v>594</v>
-      </c>
-      <c r="C156" s="54" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A157" s="52" t="s">
-        <v>599</v>
-      </c>
-      <c r="B157" s="53" t="s">
-        <v>597</v>
-      </c>
-      <c r="C157" s="54" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A158" s="52" t="s">
-        <v>602</v>
-      </c>
-      <c r="B158" s="53" t="s">
-        <v>600</v>
-      </c>
-      <c r="C158" s="54" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A159" s="52" t="s">
-        <v>605</v>
-      </c>
-      <c r="B159" s="53" t="s">
-        <v>603</v>
-      </c>
-      <c r="C159" s="54" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A160" s="52" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="B160" s="53" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="C160" s="54" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A161" s="52" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="B161" s="53" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="C161" s="54" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A162" s="52" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="B162" s="53" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="C162" s="54" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A163" s="52" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="B163" s="53" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="C163" s="54" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A164" s="52" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="B164" s="53" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="C164" s="54" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A165" s="52" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="B165" s="53" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="C165" s="54" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A166" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="B166" s="53" t="s">
+        <v>609</v>
+      </c>
+      <c r="C166" s="54" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A167" s="52" t="s">
+        <v>614</v>
+      </c>
+      <c r="B167" s="53" t="s">
+        <v>612</v>
+      </c>
+      <c r="C167" s="54" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A168" s="52" t="s">
+        <v>617</v>
+      </c>
+      <c r="B168" s="53" t="s">
+        <v>615</v>
+      </c>
+      <c r="C168" s="54" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A169" s="52" t="s">
+        <v>620</v>
+      </c>
+      <c r="B169" s="53" t="s">
+        <v>618</v>
+      </c>
+      <c r="C169" s="54" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A170" s="52" t="s">
+        <v>623</v>
+      </c>
+      <c r="B170" s="53" t="s">
+        <v>621</v>
+      </c>
+      <c r="C170" s="54" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A171" s="52" t="s">
         <v>625</v>
       </c>
-      <c r="B166" s="53" t="s">
+      <c r="B171" s="53" t="s">
         <v>626</v>
       </c>
-      <c r="C166" s="54" t="s">
+      <c r="C171" s="54" t="s">
         <v>624</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A168" s="55" t="s">
-        <v>629</v>
-      </c>
-      <c r="B168" s="56" t="s">
-        <v>627</v>
-      </c>
-      <c r="C168" s="57" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A169" s="55" t="s">
-        <v>632</v>
-      </c>
-      <c r="B169" s="56" t="s">
-        <v>630</v>
-      </c>
-      <c r="C169" s="57" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A170" s="55" t="s">
-        <v>635</v>
-      </c>
-      <c r="B170" s="56" t="s">
-        <v>633</v>
-      </c>
-      <c r="C170" s="57" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A171" s="55" t="s">
-        <v>638</v>
-      </c>
-      <c r="B171" s="56" t="s">
-        <v>636</v>
-      </c>
-      <c r="C171" s="57" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A172" s="55" t="s">
-        <v>641</v>
-      </c>
-      <c r="B172" s="56" t="s">
-        <v>639</v>
-      </c>
-      <c r="C172" s="57" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A173" s="55" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="B173" s="56" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="C173" s="57" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A174" s="55" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="B174" s="56" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="C174" s="57" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A175" s="55" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="B175" s="56" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="C175" s="57" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A176" s="55" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="B176" s="56" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="C176" s="57" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A177" s="55" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="B177" s="56" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="C177" s="57" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A178" s="55" t="s">
+        <v>644</v>
+      </c>
+      <c r="B178" s="56" t="s">
+        <v>642</v>
+      </c>
+      <c r="C178" s="57" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A179" s="55" t="s">
+        <v>647</v>
+      </c>
+      <c r="B179" s="56" t="s">
+        <v>645</v>
+      </c>
+      <c r="C179" s="57" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A180" s="55" t="s">
+        <v>650</v>
+      </c>
+      <c r="B180" s="56" t="s">
+        <v>648</v>
+      </c>
+      <c r="C180" s="57" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A181" s="55" t="s">
+        <v>653</v>
+      </c>
+      <c r="B181" s="56" t="s">
+        <v>651</v>
+      </c>
+      <c r="C181" s="57" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A182" s="55" t="s">
+        <v>656</v>
+      </c>
+      <c r="B182" s="56" t="s">
+        <v>654</v>
+      </c>
+      <c r="C182" s="57" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A183" s="55" t="s">
         <v>668</v>
       </c>
-      <c r="B178" s="56" t="s">
+      <c r="B183" s="56" t="s">
         <v>666</v>
       </c>
-      <c r="C178" s="57" t="s">
+      <c r="C183" s="57" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A180" s="16" t="s">
+    <row r="185" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A185" s="16" t="s">
         <v>659</v>
       </c>
-      <c r="B180" s="14" t="s">
+      <c r="B185" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="C180" s="15" t="s">
+      <c r="C185" s="15" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A181" s="16" t="s">
+    <row r="186" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A186" s="16" t="s">
         <v>662</v>
       </c>
-      <c r="B181" s="14" t="s">
+      <c r="B186" s="14" t="s">
         <v>660</v>
       </c>
-      <c r="C181" s="15" t="s">
+      <c r="C186" s="15" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A182" s="16" t="s">
+    <row r="187" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A187" s="16" t="s">
         <v>664</v>
       </c>
-      <c r="B182" s="14" t="s">
+      <c r="B187" s="14" t="s">
         <v>663</v>
       </c>
-      <c r="C182" s="58" t="s">
+      <c r="C187" s="58" t="s">
         <v>665</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="61" t="s">
+        <v>696</v>
+      </c>
+      <c r="B189" s="62" t="s">
+        <v>694</v>
+      </c>
+      <c r="C189" s="63" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="61" t="s">
+        <v>719</v>
+      </c>
+      <c r="B190" s="62" t="s">
+        <v>717</v>
+      </c>
+      <c r="C190" s="63" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="61" t="s">
+        <v>730</v>
+      </c>
+      <c r="B191" s="62" t="s">
+        <v>729</v>
+      </c>
+      <c r="C191" s="63" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="61" t="s">
+        <v>736</v>
+      </c>
+      <c r="B192" s="62" t="s">
+        <v>734</v>
+      </c>
+      <c r="C192" s="63" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="61" t="s">
+        <v>739</v>
+      </c>
+      <c r="B193" s="62" t="s">
+        <v>737</v>
+      </c>
+      <c r="C193" s="63" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="61" t="s">
+        <v>746</v>
+      </c>
+      <c r="B194" s="62" t="s">
+        <v>740</v>
+      </c>
+      <c r="C194" s="63" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="61" t="s">
+        <v>744</v>
+      </c>
+      <c r="B195" s="62" t="s">
+        <v>742</v>
+      </c>
+      <c r="C195" s="63" t="s">
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -4928,7 +5302,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -4940,674 +5314,781 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>231</v>
+      <c r="A1" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>255</v>
+      <c r="A7" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>256</v>
+      <c r="A8" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>258</v>
+        <v>364</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B16" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="24" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B18" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C18" s="26" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>347</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
-        <v>344</v>
+        <v>288</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>352</v>
+        <v>291</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="33" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="33" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="33" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B34" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C34" s="32" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="30" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B35" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C35" s="32" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="30" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B36" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C36" s="32" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="24" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B37" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C37" s="26" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="24" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B38" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C38" s="26" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="36" t="s">
-        <v>414</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="36" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="36" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="36" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="36" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="36" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="36" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="36" t="s">
         <v>405</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B50" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="18" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B52" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C52" s="20" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="18" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>721</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B55" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C55" s="20" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B56" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C56" s="20" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="18" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B57" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C57" s="20" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="21" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B59" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C59" s="23" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="21" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B60" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C60" s="23" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="37" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B62" s="38" t="s">
         <v>449</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="C62" s="39" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="37" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="37" t="s">
         <v>458</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B63" s="38" t="s">
         <v>452</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C63" s="39" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="37" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="37" t="s">
         <v>459</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B64" s="38" t="s">
         <v>454</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C64" s="39" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="37" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="37" t="s">
         <v>460</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B65" s="38" t="s">
         <v>456</v>
       </c>
-      <c r="C59" s="39" t="s">
+      <c r="C65" s="39" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="43" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="43" t="s">
         <v>463</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B67" s="44" t="s">
         <v>461</v>
       </c>
-      <c r="C61" s="45" t="s">
+      <c r="C67" s="45" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="43" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="43" t="s">
         <v>470</v>
       </c>
-      <c r="B62" s="44" t="s">
+      <c r="B68" s="44" t="s">
         <v>464</v>
       </c>
-      <c r="C62" s="45" t="s">
+      <c r="C68" s="45" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="43" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="43" t="s">
         <v>471</v>
       </c>
-      <c r="B63" s="44" t="s">
+      <c r="B69" s="44" t="s">
         <v>467</v>
       </c>
-      <c r="C63" s="45" t="s">
+      <c r="C69" s="45" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="43" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="43" t="s">
         <v>472</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B70" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="C64" s="45" t="s">
+      <c r="C70" s="45" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="46" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="46" t="s">
         <v>498</v>
       </c>
-      <c r="B66" s="47" t="s">
+      <c r="B72" s="47" t="s">
         <v>499</v>
       </c>
-      <c r="C66" s="48" t="s">
+      <c r="C72" s="48" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="46" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="46" t="s">
         <v>486</v>
       </c>
-      <c r="B67" s="47" t="s">
+      <c r="B73" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="C67" s="48" t="s">
+      <c r="C73" s="48" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="46" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="46" t="s">
         <v>489</v>
       </c>
-      <c r="B68" s="47" t="s">
+      <c r="B74" s="47" t="s">
         <v>487</v>
       </c>
-      <c r="C68" s="48" t="s">
+      <c r="C74" s="48" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="60" t="s">
+    <row r="76" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="60" t="s">
         <v>674</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="B76" s="50" t="s">
         <v>672</v>
       </c>
-      <c r="C70" s="51" t="s">
+      <c r="C76" s="51" t="s">
         <v>673</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B78" s="8"/>
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="64" t="s">
+        <v>697</v>
+      </c>
+      <c r="B81" s="53"/>
+      <c r="C81" s="54"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="64" t="s">
+        <v>698</v>
+      </c>
+      <c r="B82" s="53" t="s">
+        <v>699</v>
+      </c>
+      <c r="C82" s="54" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="64" t="s">
+        <v>700</v>
+      </c>
+      <c r="B83" s="53" t="s">
+        <v>701</v>
+      </c>
+      <c r="C83" s="54" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="64" t="s">
+        <v>728</v>
+      </c>
+      <c r="B84" s="53" t="s">
+        <v>724</v>
+      </c>
+      <c r="C84" s="54" t="s">
+        <v>727</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="849">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -2614,12 +2614,383 @@
       <t>(で)</t>
     </r>
   </si>
+  <si>
+    <t>T-shirts</t>
+  </si>
+  <si>
+    <t>テイーシャツ</t>
+  </si>
+  <si>
+    <t>teishatsu</t>
+  </si>
+  <si>
+    <t>Give me sth</t>
+  </si>
+  <si>
+    <t>Sth + を + ください</t>
+  </si>
+  <si>
+    <t>nan mai desuka</t>
+  </si>
+  <si>
+    <t>なんまいですか？</t>
+  </si>
+  <si>
+    <t>How many (flat things)?</t>
+  </si>
+  <si>
+    <t>san mai kudasai</t>
+  </si>
+  <si>
+    <t>Three flat things, please</t>
+  </si>
+  <si>
+    <t>kami</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>かみ</t>
+  </si>
+  <si>
+    <t>kite</t>
+  </si>
+  <si>
+    <t>Stamp</t>
+  </si>
+  <si>
+    <t>きって</t>
+  </si>
+  <si>
+    <t>hagaki</t>
+  </si>
+  <si>
+    <t>Postcard</t>
+  </si>
+  <si>
+    <t>はがき</t>
+  </si>
+  <si>
+    <t>3まいください
+3枚ください</t>
+  </si>
+  <si>
+    <t>kasa</t>
+  </si>
+  <si>
+    <t>Umbrella</t>
+  </si>
+  <si>
+    <t>かさ</t>
+  </si>
+  <si>
+    <t>4: yonmai
+7: nanamai
+9: kyuumai</t>
+  </si>
+  <si>
+    <t>nan bon desuka</t>
+  </si>
+  <si>
+    <t>How many (long cylindrical things)?</t>
+  </si>
+  <si>
+    <t>なんぼんですか？</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>バナナ</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>ペン</t>
+  </si>
+  <si>
+    <t>biiru</t>
+  </si>
+  <si>
+    <t>Beer</t>
+  </si>
+  <si>
+    <t>ビール</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sth + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kudasai</t>
+    </r>
+  </si>
+  <si>
+    <t>1: ippon
+3: sanbon
+4: yonhon
+6: roppon
+7: nanahon
+8: happon
+9: kyuhon
+10: jyuuppon</t>
+  </si>
+  <si>
+    <t>2本ください</t>
+  </si>
+  <si>
+    <t>ni hon kudasai</t>
+  </si>
+  <si>
+    <t>Two long cylindrical things, please</t>
+  </si>
+  <si>
+    <t>ichi dai kudasai</t>
+  </si>
+  <si>
+    <t>One machine thing, please</t>
+  </si>
+  <si>
+    <t>一台ください</t>
+  </si>
+  <si>
+    <t>ichi  wa kudasai</t>
+  </si>
+  <si>
+    <t>One bird, please</t>
+  </si>
+  <si>
+    <t>一話ください</t>
+  </si>
+  <si>
+    <t>ippiki kudasai</t>
+  </si>
+  <si>
+    <t>一匹ください</t>
+  </si>
+  <si>
+    <t>1: ippiki
+2: niki
+3: sanbiki</t>
+  </si>
+  <si>
+    <t>One big animal, please</t>
+  </si>
+  <si>
+    <t>One small animal, please</t>
+  </si>
+  <si>
+    <t>ittou kudasai</t>
+  </si>
+  <si>
+    <t>一等ください</t>
+  </si>
+  <si>
+    <t>1: ittou
+2: nitou
+3: santou</t>
+  </si>
+  <si>
+    <t>One person, please</t>
+  </si>
+  <si>
+    <t>hitori, kudasai</t>
+  </si>
+  <si>
+    <t>一人ください</t>
+  </si>
+  <si>
+    <t>1: hitori
+2: futari
+3: sannin</t>
+  </si>
+  <si>
+    <t>One house, please</t>
+  </si>
+  <si>
+    <t>ikken kudasai</t>
+  </si>
+  <si>
+    <t>一見ください</t>
+  </si>
+  <si>
+    <t>1: ikken
+2: niken
+3: sangen</t>
+  </si>
+  <si>
+    <t>One toufu, please</t>
+  </si>
+  <si>
+    <t>一兆ください</t>
+  </si>
+  <si>
+    <t>icchou kudasai</t>
+  </si>
+  <si>
+    <t>1: icchou
+2: nichou
+3: sanchou</t>
+  </si>
+  <si>
+    <t>ikutsu desuka</t>
+  </si>
+  <si>
+    <t>How many (general, 1-10)?</t>
+  </si>
+  <si>
+    <t>mittsu kusasai</t>
+  </si>
+  <si>
+    <t>3 please</t>
+  </si>
+  <si>
+    <t>三つください</t>
+  </si>
+  <si>
+    <t>1: hitotsu
+2: futatsu
+3: mittsu
+4: yottsu
+5: itsutsu
+6: muttsu
+7: nanatsu
+8: yattsu
+9: kokonotsu
+10: tou</t>
+  </si>
+  <si>
+    <t>How much (money)?</t>
+  </si>
+  <si>
+    <t>ikura desuka?</t>
+  </si>
+  <si>
+    <t>いくらですか？</t>
+  </si>
+  <si>
+    <t>いくつですか？</t>
+  </si>
+  <si>
+    <t>sanbyakugoju en desu</t>
+  </si>
+  <si>
+    <t>350 yen</t>
+  </si>
+  <si>
+    <t>350Yです</t>
+  </si>
+  <si>
+    <t>Who is he/she?</t>
+  </si>
+  <si>
+    <t>だれですか？
+どなたですか？</t>
+  </si>
+  <si>
+    <t>kaban</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>かばん</t>
+  </si>
+  <si>
+    <t>だれ</t>
+  </si>
+  <si>
+    <t>dare</t>
+  </si>
+  <si>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>dare desuka
+donata desuka?</t>
+  </si>
+  <si>
+    <t>akai</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>あかい</t>
+  </si>
+  <si>
+    <t>ooki</t>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>おおきい</t>
+  </si>
+  <si>
+    <t>Adj + Noun</t>
+  </si>
+  <si>
+    <t>donna sth desu ka?</t>
+  </si>
+  <si>
+    <t>What kind of sth?</t>
+  </si>
+  <si>
+    <t>どんなsthですか？</t>
+  </si>
+  <si>
+    <t>doko no sth desu ka?</t>
+  </si>
+  <si>
+    <t>Where is that sth?</t>
+  </si>
+  <si>
+    <t>どこのsthですか？</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2818,6 +3189,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2887,7 +3281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2926,11 +3320,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3012,6 +3417,38 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3292,9 +3729,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="A209" sqref="A209"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5294,6 +5733,127 @@
         <v>743</v>
       </c>
     </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" s="66" t="s">
+        <v>748</v>
+      </c>
+      <c r="B197" s="67" t="s">
+        <v>749</v>
+      </c>
+      <c r="C197" s="68" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" s="66" t="s">
+        <v>759</v>
+      </c>
+      <c r="B198" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="C198" s="68" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" s="66" t="s">
+        <v>762</v>
+      </c>
+      <c r="B199" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="C199" s="68" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A200" s="69" t="s">
+        <v>765</v>
+      </c>
+      <c r="B200" s="70" t="s">
+        <v>763</v>
+      </c>
+      <c r="C200" s="71" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" s="72" t="s">
+        <v>769</v>
+      </c>
+      <c r="B201" s="73" t="s">
+        <v>767</v>
+      </c>
+      <c r="C201" s="74" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" s="66" t="s">
+        <v>776</v>
+      </c>
+      <c r="B202" s="67" t="s">
+        <v>775</v>
+      </c>
+      <c r="C202" s="68" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203" s="66" t="s">
+        <v>779</v>
+      </c>
+      <c r="B203" s="67" t="s">
+        <v>777</v>
+      </c>
+      <c r="C203" s="68" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204" s="66" t="s">
+        <v>782</v>
+      </c>
+      <c r="B204" s="67" t="s">
+        <v>780</v>
+      </c>
+      <c r="C204" s="68" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" s="66" t="s">
+        <v>831</v>
+      </c>
+      <c r="B205" s="67" t="s">
+        <v>829</v>
+      </c>
+      <c r="C205" s="68" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" s="66" t="s">
+        <v>838</v>
+      </c>
+      <c r="B206" s="67" t="s">
+        <v>836</v>
+      </c>
+      <c r="C206" s="68" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" s="66" t="s">
+        <v>841</v>
+      </c>
+      <c r="B207" s="67" t="s">
+        <v>839</v>
+      </c>
+      <c r="C207" s="68" t="s">
+        <v>840</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5302,15 +5862,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="62" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" style="10" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -5991,21 +6554,15 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="46" t="s">
-        <v>498</v>
-      </c>
-      <c r="B72" s="47" t="s">
-        <v>499</v>
-      </c>
-      <c r="C72" s="48" t="s">
-        <v>491</v>
+        <v>842</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="46" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="C73" s="48" t="s">
         <v>491</v>
@@ -6013,82 +6570,337 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="46" t="s">
+        <v>486</v>
+      </c>
+      <c r="B74" s="47" t="s">
+        <v>490</v>
+      </c>
+      <c r="C74" s="48" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="46" t="s">
         <v>489</v>
       </c>
-      <c r="B74" s="47" t="s">
+      <c r="B75" s="47" t="s">
         <v>487</v>
       </c>
-      <c r="C74" s="48" t="s">
+      <c r="C75" s="48" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="60" t="s">
+    <row r="77" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="60" t="s">
         <v>674</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B77" s="50" t="s">
         <v>672</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="C77" s="51" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="5"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="5"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B80" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="64" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="64" t="s">
         <v>697</v>
       </c>
-      <c r="B81" s="53"/>
-      <c r="C81" s="54"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="64" t="s">
+      <c r="B82" s="53"/>
+      <c r="C82" s="54"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="64" t="s">
         <v>698</v>
       </c>
-      <c r="B82" s="53" t="s">
+      <c r="B83" s="53" t="s">
         <v>699</v>
       </c>
-      <c r="C82" s="54" t="s">
+      <c r="C83" s="54" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="64" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="64" t="s">
         <v>700</v>
       </c>
-      <c r="B83" s="53" t="s">
+      <c r="B84" s="53" t="s">
         <v>701</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C84" s="54" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="64" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="64" t="s">
         <v>728</v>
       </c>
-      <c r="B84" s="53" t="s">
+      <c r="B85" s="53" t="s">
         <v>724</v>
       </c>
-      <c r="C84" s="54" t="s">
+      <c r="C85" s="54" t="s">
         <v>727</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="75" t="s">
+        <v>751</v>
+      </c>
+      <c r="B87" s="56" t="s">
+        <v>783</v>
+      </c>
+      <c r="C87" s="57" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="75" t="s">
+        <v>753</v>
+      </c>
+      <c r="B88" s="56" t="s">
+        <v>752</v>
+      </c>
+      <c r="C88" s="57" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="76" t="s">
+        <v>766</v>
+      </c>
+      <c r="B89" s="77" t="s">
+        <v>755</v>
+      </c>
+      <c r="C89" s="78" t="s">
+        <v>756</v>
+      </c>
+      <c r="D89" s="65" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="79" t="s">
+        <v>773</v>
+      </c>
+      <c r="B90" s="80" t="s">
+        <v>771</v>
+      </c>
+      <c r="C90" s="81" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="121.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="75" t="s">
+        <v>785</v>
+      </c>
+      <c r="B91" s="56" t="s">
+        <v>786</v>
+      </c>
+      <c r="C91" s="57" t="s">
+        <v>787</v>
+      </c>
+      <c r="D91" s="65" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="75" t="s">
+        <v>793</v>
+      </c>
+      <c r="B92" s="56" t="s">
+        <v>791</v>
+      </c>
+      <c r="C92" s="57" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="75" t="s">
+        <v>790</v>
+      </c>
+      <c r="B93" s="56" t="s">
+        <v>788</v>
+      </c>
+      <c r="C93" s="57" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="75" t="s">
+        <v>795</v>
+      </c>
+      <c r="B94" s="56" t="s">
+        <v>794</v>
+      </c>
+      <c r="C94" s="57" t="s">
+        <v>798</v>
+      </c>
+      <c r="D94" s="65" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="84" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="75" t="s">
+        <v>800</v>
+      </c>
+      <c r="B95" s="56" t="s">
+        <v>799</v>
+      </c>
+      <c r="C95" s="57" t="s">
+        <v>797</v>
+      </c>
+      <c r="D95" s="83" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="84" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="75" t="s">
+        <v>808</v>
+      </c>
+      <c r="B96" s="56" t="s">
+        <v>807</v>
+      </c>
+      <c r="C96" s="57" t="s">
+        <v>806</v>
+      </c>
+      <c r="D96" s="83" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="75" t="s">
+        <v>804</v>
+      </c>
+      <c r="B97" s="56" t="s">
+        <v>803</v>
+      </c>
+      <c r="C97" s="57" t="s">
+        <v>802</v>
+      </c>
+      <c r="D97" s="65" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="82" t="s">
+        <v>811</v>
+      </c>
+      <c r="B98" s="77" t="s">
+        <v>812</v>
+      </c>
+      <c r="C98" s="78" t="s">
+        <v>810</v>
+      </c>
+      <c r="D98" s="65" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="79" t="s">
+        <v>823</v>
+      </c>
+      <c r="B99" s="80" t="s">
+        <v>814</v>
+      </c>
+      <c r="C99" s="81" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="152.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="82" t="s">
+        <v>818</v>
+      </c>
+      <c r="B100" s="77" t="s">
+        <v>816</v>
+      </c>
+      <c r="C100" s="78" t="s">
+        <v>817</v>
+      </c>
+      <c r="D100" s="65" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="79" t="s">
+        <v>822</v>
+      </c>
+      <c r="B101" s="80" t="s">
+        <v>821</v>
+      </c>
+      <c r="C101" s="81" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="82" t="s">
+        <v>826</v>
+      </c>
+      <c r="B102" s="77" t="s">
+        <v>824</v>
+      </c>
+      <c r="C102" s="78" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="85" t="s">
+        <v>832</v>
+      </c>
+      <c r="B103" s="86" t="s">
+        <v>833</v>
+      </c>
+      <c r="C103" s="87" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="76" t="s">
+        <v>828</v>
+      </c>
+      <c r="B104" s="88" t="s">
+        <v>835</v>
+      </c>
+      <c r="C104" s="78" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="79" t="s">
+        <v>845</v>
+      </c>
+      <c r="B105" s="80" t="s">
+        <v>843</v>
+      </c>
+      <c r="C105" s="81" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="75" t="s">
+        <v>848</v>
+      </c>
+      <c r="B106" s="56" t="s">
+        <v>846</v>
+      </c>
+      <c r="C106" s="57" t="s">
+        <v>847</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="939">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -1034,12 +1034,6 @@
   </si>
   <si>
     <t>to eat noun</t>
-  </si>
-  <si>
-    <t>ステーキおたべます</t>
-  </si>
-  <si>
-    <t>Noun + お + たべます</t>
   </si>
   <si>
     <t>suteiki o tabemasu</t>
@@ -1296,12 +1290,6 @@
     </r>
   </si>
   <si>
-    <t>Noun + お + たべます + か</t>
-  </si>
-  <si>
-    <t>Nani + お + たべます + か</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Nani + </t>
     </r>
@@ -1342,9 +1330,6 @@
     <t>to eat what?</t>
   </si>
   <si>
-    <t>なにおたべます</t>
-  </si>
-  <si>
     <t>nani o tabemasu</t>
   </si>
   <si>
@@ -2985,12 +2970,297 @@
   <si>
     <t>どこのsthですか？</t>
   </si>
+  <si>
+    <t>kissaten</t>
+  </si>
+  <si>
+    <t>Café shop</t>
+  </si>
+  <si>
+    <t>きっさてん</t>
+  </si>
+  <si>
+    <t>Noun + を + たべます</t>
+  </si>
+  <si>
+    <t>Noun + を + たべます + か</t>
+  </si>
+  <si>
+    <t>Nani + を + たべます + か</t>
+  </si>
+  <si>
+    <t>ステーキをたべます</t>
+  </si>
+  <si>
+    <t>なにをたべます</t>
+  </si>
+  <si>
+    <t>どこでのみますか？</t>
+  </si>
+  <si>
+    <t>doko de nomimasu ka?</t>
+  </si>
+  <si>
+    <t>Where do you drink?</t>
+  </si>
+  <si>
+    <t>This week</t>
+  </si>
+  <si>
+    <t>Last week</t>
+  </si>
+  <si>
+    <t>せんしゅう</t>
+  </si>
+  <si>
+    <t>sensyuu</t>
+  </si>
+  <si>
+    <t>konsyuu</t>
+  </si>
+  <si>
+    <t>こんしゅう</t>
+  </si>
+  <si>
+    <t>Last month</t>
+  </si>
+  <si>
+    <t>This month</t>
+  </si>
+  <si>
+    <t>sengetsu</t>
+  </si>
+  <si>
+    <t>せんげつ</t>
+  </si>
+  <si>
+    <t>kongetsu</t>
+  </si>
+  <si>
+    <t>こんげつ</t>
+  </si>
+  <si>
+    <t>Last year</t>
+  </si>
+  <si>
+    <t>This year</t>
+  </si>
+  <si>
+    <t>kyonen</t>
+  </si>
+  <si>
+    <t>きょねん</t>
+  </si>
+  <si>
+    <t>kotoshi</t>
+  </si>
+  <si>
+    <t>ことし</t>
+  </si>
+  <si>
+    <t>itsu</t>
+  </si>
+  <si>
+    <t>When?</t>
+  </si>
+  <si>
+    <t>いつ</t>
+  </si>
+  <si>
+    <t>いつのみますか？</t>
+  </si>
+  <si>
+    <t>itsu nomimasu ka?</t>
+  </si>
+  <si>
+    <t>When to drink?</t>
+  </si>
+  <si>
+    <t>nan ji ni aimasuka?</t>
+  </si>
+  <si>
+    <t>What time/when to meet?</t>
+  </si>
+  <si>
+    <t>なんじにあいますか？</t>
+  </si>
+  <si>
+    <t>なんにちにあいますか？</t>
+  </si>
+  <si>
+    <t>nan nichi ni aimasuka?</t>
+  </si>
+  <si>
+    <t>What date to meet?</t>
+  </si>
+  <si>
+    <t>なんようびにあいますか？</t>
+  </si>
+  <si>
+    <t>nan youbi ni aimasuka?</t>
+  </si>
+  <si>
+    <t>What day to meet?</t>
+  </si>
+  <si>
+    <t>なんがつにあいますか？</t>
+  </si>
+  <si>
+    <t>nan gatsu ni aimasuka?</t>
+  </si>
+  <si>
+    <t>What month to meet?</t>
+  </si>
+  <si>
+    <t>What year to meet?</t>
+  </si>
+  <si>
+    <t>nan nen ni aimasuka?</t>
+  </si>
+  <si>
+    <t>なんねんにあいますか？</t>
+  </si>
+  <si>
+    <t>どこ</t>
+  </si>
+  <si>
+    <t>doko</t>
+  </si>
+  <si>
+    <t>Where?</t>
+  </si>
+  <si>
+    <t>doko ni ikimasuka?</t>
+  </si>
+  <si>
+    <t>Where to go?</t>
+  </si>
+  <si>
+    <t>どこにいきますか？</t>
+  </si>
+  <si>
+    <t>densha</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>でんしゃ</t>
+  </si>
+  <si>
+    <t>なんで行きますか？</t>
+  </si>
+  <si>
+    <t>Nan de ikimasuka?</t>
+  </si>
+  <si>
+    <t>How to go?</t>
+  </si>
+  <si>
+    <t>doushite</t>
+  </si>
+  <si>
+    <t>Why?</t>
+  </si>
+  <si>
+    <t>どうして？</t>
+  </si>
+  <si>
+    <t>kara</t>
+  </si>
+  <si>
+    <t>Because</t>
+  </si>
+  <si>
+    <t>から</t>
+  </si>
+  <si>
+    <t>nihongo o benkyoushiteimasu</t>
+  </si>
+  <si>
+    <t>I'm studying Japanese</t>
+  </si>
+  <si>
+    <t>日本語をべんきょうしています</t>
+  </si>
+  <si>
+    <t>日本語をべんきょうしていますか？</t>
+  </si>
+  <si>
+    <t>nihongo o benkyoushiteimasu ka?</t>
+  </si>
+  <si>
+    <t>I'm studying Japanese?</t>
+  </si>
+  <si>
+    <t>doushite nihongo o benkyoushiteimasu ka?</t>
+  </si>
+  <si>
+    <t>Why I'm studying Japanese?</t>
+  </si>
+  <si>
+    <t>どうして日本語をべんきょうしていますか？</t>
+  </si>
+  <si>
+    <t>nihon ni ikimasu kara</t>
+  </si>
+  <si>
+    <t>Because I'm going to JP</t>
+  </si>
+  <si>
+    <t>日本にいきますから</t>
+  </si>
+  <si>
+    <t>okane</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>おかね</t>
+  </si>
+  <si>
+    <t>okane o chokinshiteimasu</t>
+  </si>
+  <si>
+    <t>I'm saving money</t>
+  </si>
+  <si>
+    <t>おかねをちょきんしています。</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>kuruma</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>くるま</t>
+  </si>
+  <si>
+    <t>あたらしい</t>
+  </si>
+  <si>
+    <t>atarashii</t>
+  </si>
+  <si>
+    <t>kaimasu</t>
+  </si>
+  <si>
+    <t>to buy</t>
+  </si>
+  <si>
+    <t>かいあす</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3212,6 +3482,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -3335,7 +3651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3449,6 +3765,18 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3729,10 +4057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="A209" sqref="A209"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -3821,13 +4149,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3843,24 +4171,24 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -3887,13 +4215,13 @@
     </row>
     <row r="14" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A14" s="59" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
@@ -4641,7 +4969,7 @@
         <v>239</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -4723,1135 +5051,1267 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="21" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="21" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="21" t="s">
-        <v>710</v>
+        <v>857</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>708</v>
+        <v>858</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>709</v>
+        <v>856</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="21" t="s">
-        <v>713</v>
+        <v>860</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>711</v>
+        <v>859</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>712</v>
+        <v>855</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="21" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>715</v>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="B101" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="C101" s="29" t="s">
-        <v>298</v>
+      <c r="A101" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>865</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="B102" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="C102" s="29" t="s">
-        <v>312</v>
+      <c r="A102" s="21" t="s">
+        <v>708</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>706</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="B103" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="C103" s="29" t="s">
-        <v>313</v>
+      <c r="A103" s="21" t="s">
+        <v>870</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>869</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="B104" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="C104" s="29" t="s">
-        <v>311</v>
+      <c r="A104" s="21" t="s">
+        <v>872</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>871</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="B105" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="C105" s="29" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="B106" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="C106" s="29" t="s">
-        <v>320</v>
+      <c r="A105" s="21" t="s">
+        <v>711</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="27" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>358</v>
+        <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="27" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>361</v>
+        <v>310</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="27" t="s">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>372</v>
+        <v>307</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>373</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="27" t="s">
-        <v>377</v>
+        <v>312</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>376</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="27" t="s">
-        <v>380</v>
+        <v>315</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>378</v>
+        <v>313</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>379</v>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="B112" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="C112" s="29" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="40" t="s">
-        <v>417</v>
-      </c>
-      <c r="B113" s="41" t="s">
-        <v>415</v>
-      </c>
-      <c r="C113" s="42" t="s">
-        <v>416</v>
+      <c r="A113" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="B113" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="C113" s="29" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="40" t="s">
-        <v>420</v>
-      </c>
-      <c r="B114" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="C114" s="42" t="s">
-        <v>419</v>
+      <c r="A114" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="B114" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="C114" s="29" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="40" t="s">
-        <v>423</v>
-      </c>
-      <c r="B115" s="41" t="s">
-        <v>421</v>
-      </c>
-      <c r="C115" s="42" t="s">
-        <v>422</v>
+      <c r="A115" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="B115" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="C115" s="29" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="B116" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="C116" s="42" t="s">
-        <v>237</v>
+      <c r="A116" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="B116" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="40" t="s">
-        <v>425</v>
-      </c>
-      <c r="B117" s="41" t="s">
-        <v>426</v>
-      </c>
-      <c r="C117" s="42" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="B118" s="41" t="s">
-        <v>440</v>
-      </c>
-      <c r="C118" s="42" t="s">
-        <v>441</v>
+      <c r="A117" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="B117" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="40" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="B119" s="41" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="C119" s="42" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="40" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="B120" s="41" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="C120" s="42" t="s">
-        <v>447</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="B121" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="C121" s="42" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="46" t="s">
+      <c r="A122" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B122" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C122" s="42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="B123" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="C123" s="42" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="B124" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="C124" s="42" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="B125" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="C125" s="42" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="B126" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="C126" s="42" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="B128" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="C128" s="48" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="46" t="s">
+        <v>472</v>
+      </c>
+      <c r="B129" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="C129" s="48" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="46" t="s">
+        <v>476</v>
+      </c>
+      <c r="B130" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="C130" s="48" t="s">
         <v>475</v>
       </c>
-      <c r="B122" s="47" t="s">
-        <v>473</v>
-      </c>
-      <c r="C122" s="48" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="46" t="s">
-        <v>477</v>
-      </c>
-      <c r="B123" s="47" t="s">
-        <v>478</v>
-      </c>
-      <c r="C123" s="48" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="46" t="s">
-        <v>481</v>
-      </c>
-      <c r="B124" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="C124" s="48" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="46" t="s">
-        <v>494</v>
-      </c>
-      <c r="B125" s="47" t="s">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="46" t="s">
+        <v>489</v>
+      </c>
+      <c r="B131" s="47" t="s">
+        <v>487</v>
+      </c>
+      <c r="C131" s="48" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="46" t="s">
         <v>492</v>
       </c>
-      <c r="C125" s="48" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" s="46" t="s">
-        <v>497</v>
-      </c>
-      <c r="B126" s="47" t="s">
-        <v>495</v>
-      </c>
-      <c r="C126" s="48" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" s="49" t="s">
-        <v>503</v>
-      </c>
-      <c r="B128" s="50" t="s">
-        <v>501</v>
-      </c>
-      <c r="C128" s="51" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="49" t="s">
-        <v>506</v>
-      </c>
-      <c r="B129" s="50" t="s">
-        <v>504</v>
-      </c>
-      <c r="C129" s="51" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" s="49" t="s">
-        <v>509</v>
-      </c>
-      <c r="B130" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="C130" s="51" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="49" t="s">
-        <v>512</v>
-      </c>
-      <c r="B131" s="50" t="s">
-        <v>510</v>
-      </c>
-      <c r="C131" s="51" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" s="49" t="s">
-        <v>515</v>
-      </c>
-      <c r="B132" s="50" t="s">
-        <v>513</v>
-      </c>
-      <c r="C132" s="51" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" s="49" t="s">
-        <v>518</v>
-      </c>
-      <c r="B133" s="50" t="s">
-        <v>516</v>
-      </c>
-      <c r="C133" s="51" t="s">
-        <v>517</v>
+      <c r="B132" s="47" t="s">
+        <v>490</v>
+      </c>
+      <c r="C132" s="48" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="49" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="B134" s="50" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="C134" s="51" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="49" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="B135" s="50" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="C135" s="51" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="49" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="B136" s="50" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="C136" s="51" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="49" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="B137" s="50" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="C137" s="51" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="49" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="B138" s="50" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="C138" s="51" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="49" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="B139" s="50" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="C139" s="51" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="49" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="B140" s="50" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="C140" s="51" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="49" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="B141" s="50" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="C141" s="51" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="49" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
       <c r="B142" s="50" t="s">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="C142" s="51" t="s">
-        <v>544</v>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="B143" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="C143" s="51" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>546</v>
+      <c r="A144" s="49" t="s">
+        <v>528</v>
+      </c>
+      <c r="B144" s="50" t="s">
+        <v>526</v>
+      </c>
+      <c r="C144" s="51" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>547</v>
+      <c r="A145" s="49" t="s">
+        <v>531</v>
+      </c>
+      <c r="B145" s="50" t="s">
+        <v>529</v>
+      </c>
+      <c r="C145" s="51" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>548</v>
+      <c r="A146" s="49" t="s">
+        <v>534</v>
+      </c>
+      <c r="B146" s="50" t="s">
+        <v>532</v>
+      </c>
+      <c r="C146" s="51" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>549</v>
+      <c r="A147" s="49" t="s">
+        <v>537</v>
+      </c>
+      <c r="B147" s="50" t="s">
+        <v>535</v>
+      </c>
+      <c r="C147" s="51" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>551</v>
+      <c r="A148" s="49" t="s">
+        <v>540</v>
+      </c>
+      <c r="B148" s="50" t="s">
+        <v>538</v>
+      </c>
+      <c r="C148" s="51" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A160" s="52" t="s">
-        <v>593</v>
-      </c>
-      <c r="B160" s="53" t="s">
-        <v>591</v>
-      </c>
-      <c r="C160" s="54" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A161" s="52" t="s">
-        <v>596</v>
-      </c>
-      <c r="B161" s="53" t="s">
-        <v>594</v>
-      </c>
-      <c r="C161" s="54" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A162" s="52" t="s">
-        <v>599</v>
-      </c>
-      <c r="B162" s="53" t="s">
-        <v>597</v>
-      </c>
-      <c r="C162" s="54" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A163" s="52" t="s">
-        <v>602</v>
-      </c>
-      <c r="B163" s="53" t="s">
-        <v>600</v>
-      </c>
-      <c r="C163" s="54" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A164" s="52" t="s">
-        <v>605</v>
-      </c>
-      <c r="B164" s="53" t="s">
-        <v>603</v>
-      </c>
-      <c r="C164" s="54" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A165" s="52" t="s">
-        <v>608</v>
-      </c>
-      <c r="B165" s="53" t="s">
-        <v>606</v>
-      </c>
-      <c r="C165" s="54" t="s">
-        <v>607</v>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A166" s="52" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="B166" s="53" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
       <c r="C166" s="54" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A167" s="52" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="B167" s="53" t="s">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="C167" s="54" t="s">
-        <v>613</v>
+        <v>590</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A168" s="52" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
       <c r="B168" s="53" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="C168" s="54" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A169" s="52" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
       <c r="B169" s="53" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="C169" s="54" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A170" s="52" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="B170" s="53" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="C170" s="54" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A171" s="52" t="s">
-        <v>625</v>
+        <v>603</v>
       </c>
       <c r="B171" s="53" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="C171" s="54" t="s">
-        <v>624</v>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A172" s="52" t="s">
+        <v>606</v>
+      </c>
+      <c r="B172" s="53" t="s">
+        <v>604</v>
+      </c>
+      <c r="C172" s="54" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A173" s="55" t="s">
-        <v>629</v>
-      </c>
-      <c r="B173" s="56" t="s">
-        <v>627</v>
-      </c>
-      <c r="C173" s="57" t="s">
-        <v>628</v>
+      <c r="A173" s="52" t="s">
+        <v>609</v>
+      </c>
+      <c r="B173" s="53" t="s">
+        <v>607</v>
+      </c>
+      <c r="C173" s="54" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A174" s="55" t="s">
-        <v>632</v>
-      </c>
-      <c r="B174" s="56" t="s">
-        <v>630</v>
-      </c>
-      <c r="C174" s="57" t="s">
-        <v>631</v>
+      <c r="A174" s="52" t="s">
+        <v>612</v>
+      </c>
+      <c r="B174" s="53" t="s">
+        <v>610</v>
+      </c>
+      <c r="C174" s="54" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A175" s="55" t="s">
-        <v>635</v>
-      </c>
-      <c r="B175" s="56" t="s">
-        <v>633</v>
-      </c>
-      <c r="C175" s="57" t="s">
-        <v>634</v>
+      <c r="A175" s="52" t="s">
+        <v>615</v>
+      </c>
+      <c r="B175" s="53" t="s">
+        <v>613</v>
+      </c>
+      <c r="C175" s="54" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A176" s="55" t="s">
-        <v>638</v>
-      </c>
-      <c r="B176" s="56" t="s">
-        <v>636</v>
-      </c>
-      <c r="C176" s="57" t="s">
-        <v>637</v>
+      <c r="A176" s="52" t="s">
+        <v>618</v>
+      </c>
+      <c r="B176" s="53" t="s">
+        <v>616</v>
+      </c>
+      <c r="C176" s="54" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A177" s="55" t="s">
-        <v>641</v>
-      </c>
-      <c r="B177" s="56" t="s">
-        <v>639</v>
-      </c>
-      <c r="C177" s="57" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A178" s="55" t="s">
-        <v>644</v>
-      </c>
-      <c r="B178" s="56" t="s">
-        <v>642</v>
-      </c>
-      <c r="C178" s="57" t="s">
-        <v>643</v>
+      <c r="A177" s="52" t="s">
+        <v>620</v>
+      </c>
+      <c r="B177" s="53" t="s">
+        <v>621</v>
+      </c>
+      <c r="C177" s="54" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A179" s="55" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="B179" s="56" t="s">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="C179" s="57" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A180" s="55" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="B180" s="56" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="C180" s="57" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A181" s="55" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="B181" s="56" t="s">
-        <v>651</v>
+        <v>628</v>
       </c>
       <c r="C181" s="57" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A182" s="55" t="s">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="B182" s="56" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="C182" s="57" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A183" s="55" t="s">
-        <v>668</v>
+        <v>636</v>
       </c>
       <c r="B183" s="56" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="C183" s="57" t="s">
-        <v>667</v>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A184" s="55" t="s">
+        <v>639</v>
+      </c>
+      <c r="B184" s="56" t="s">
+        <v>637</v>
+      </c>
+      <c r="C184" s="57" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A185" s="16" t="s">
+      <c r="A185" s="55" t="s">
+        <v>642</v>
+      </c>
+      <c r="B185" s="56" t="s">
+        <v>640</v>
+      </c>
+      <c r="C185" s="57" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A186" s="55" t="s">
+        <v>645</v>
+      </c>
+      <c r="B186" s="56" t="s">
+        <v>643</v>
+      </c>
+      <c r="C186" s="57" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A187" s="55" t="s">
+        <v>648</v>
+      </c>
+      <c r="B187" s="56" t="s">
+        <v>646</v>
+      </c>
+      <c r="C187" s="57" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A188" s="55" t="s">
+        <v>651</v>
+      </c>
+      <c r="B188" s="56" t="s">
+        <v>649</v>
+      </c>
+      <c r="C188" s="57" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A189" s="55" t="s">
+        <v>663</v>
+      </c>
+      <c r="B189" s="56" t="s">
+        <v>661</v>
+      </c>
+      <c r="C189" s="57" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A191" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="B191" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="C191" s="15" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A192" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="B192" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="C192" s="15" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A193" s="16" t="s">
         <v>659</v>
       </c>
-      <c r="B185" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="C185" s="15" t="s">
+      <c r="B193" s="14" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A186" s="16" t="s">
-        <v>662</v>
-      </c>
-      <c r="B186" s="14" t="s">
+      <c r="C193" s="58" t="s">
         <v>660</v>
-      </c>
-      <c r="C186" s="15" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A187" s="16" t="s">
-        <v>664</v>
-      </c>
-      <c r="B187" s="14" t="s">
-        <v>663</v>
-      </c>
-      <c r="C187" s="58" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" s="61" t="s">
-        <v>696</v>
-      </c>
-      <c r="B189" s="62" t="s">
-        <v>694</v>
-      </c>
-      <c r="C189" s="63" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190" s="61" t="s">
-        <v>719</v>
-      </c>
-      <c r="B190" s="62" t="s">
-        <v>717</v>
-      </c>
-      <c r="C190" s="63" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" s="61" t="s">
-        <v>730</v>
-      </c>
-      <c r="B191" s="62" t="s">
-        <v>729</v>
-      </c>
-      <c r="C191" s="63" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" s="61" t="s">
-        <v>736</v>
-      </c>
-      <c r="B192" s="62" t="s">
-        <v>734</v>
-      </c>
-      <c r="C192" s="63" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" s="61" t="s">
-        <v>739</v>
-      </c>
-      <c r="B193" s="62" t="s">
-        <v>737</v>
-      </c>
-      <c r="C193" s="63" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" s="61" t="s">
-        <v>746</v>
-      </c>
-      <c r="B194" s="62" t="s">
-        <v>740</v>
-      </c>
-      <c r="C194" s="63" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="61" t="s">
-        <v>744</v>
+        <v>691</v>
       </c>
       <c r="B195" s="62" t="s">
-        <v>742</v>
+        <v>689</v>
       </c>
       <c r="C195" s="63" t="s">
-        <v>743</v>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" s="61" t="s">
+        <v>714</v>
+      </c>
+      <c r="B196" s="62" t="s">
+        <v>712</v>
+      </c>
+      <c r="C196" s="63" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" s="66" t="s">
-        <v>748</v>
-      </c>
-      <c r="B197" s="67" t="s">
-        <v>749</v>
-      </c>
-      <c r="C197" s="68" t="s">
-        <v>747</v>
+      <c r="A197" s="61" t="s">
+        <v>725</v>
+      </c>
+      <c r="B197" s="62" t="s">
+        <v>724</v>
+      </c>
+      <c r="C197" s="63" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" s="66" t="s">
-        <v>759</v>
-      </c>
-      <c r="B198" s="67" t="s">
-        <v>757</v>
-      </c>
-      <c r="C198" s="68" t="s">
-        <v>758</v>
+      <c r="A198" s="61" t="s">
+        <v>731</v>
+      </c>
+      <c r="B198" s="62" t="s">
+        <v>729</v>
+      </c>
+      <c r="C198" s="63" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" s="66" t="s">
-        <v>762</v>
-      </c>
-      <c r="B199" s="67" t="s">
-        <v>760</v>
-      </c>
-      <c r="C199" s="68" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A200" s="69" t="s">
-        <v>765</v>
-      </c>
-      <c r="B200" s="70" t="s">
-        <v>763</v>
-      </c>
-      <c r="C200" s="71" t="s">
-        <v>764</v>
+      <c r="A199" s="61" t="s">
+        <v>734</v>
+      </c>
+      <c r="B199" s="62" t="s">
+        <v>732</v>
+      </c>
+      <c r="C199" s="63" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" s="61" t="s">
+        <v>741</v>
+      </c>
+      <c r="B200" s="62" t="s">
+        <v>735</v>
+      </c>
+      <c r="C200" s="63" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" s="72" t="s">
-        <v>769</v>
-      </c>
-      <c r="B201" s="73" t="s">
-        <v>767</v>
-      </c>
-      <c r="C201" s="74" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A202" s="66" t="s">
-        <v>776</v>
-      </c>
-      <c r="B202" s="67" t="s">
-        <v>775</v>
-      </c>
-      <c r="C202" s="68" t="s">
-        <v>774</v>
+      <c r="A201" s="61" t="s">
+        <v>739</v>
+      </c>
+      <c r="B201" s="62" t="s">
+        <v>737</v>
+      </c>
+      <c r="C201" s="63" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="66" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
       <c r="B203" s="67" t="s">
-        <v>777</v>
+        <v>744</v>
       </c>
       <c r="C203" s="68" t="s">
-        <v>778</v>
+        <v>742</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="66" t="s">
-        <v>782</v>
+        <v>754</v>
       </c>
       <c r="B204" s="67" t="s">
-        <v>780</v>
+        <v>752</v>
       </c>
       <c r="C204" s="68" t="s">
-        <v>781</v>
+        <v>753</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="66" t="s">
+        <v>757</v>
+      </c>
+      <c r="B205" s="67" t="s">
+        <v>755</v>
+      </c>
+      <c r="C205" s="68" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A206" s="69" t="s">
+        <v>760</v>
+      </c>
+      <c r="B206" s="70" t="s">
+        <v>758</v>
+      </c>
+      <c r="C206" s="71" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="B207" s="73" t="s">
+        <v>762</v>
+      </c>
+      <c r="C207" s="74" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208" s="66" t="s">
+        <v>771</v>
+      </c>
+      <c r="B208" s="67" t="s">
+        <v>770</v>
+      </c>
+      <c r="C208" s="68" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" s="66" t="s">
+        <v>774</v>
+      </c>
+      <c r="B209" s="67" t="s">
+        <v>772</v>
+      </c>
+      <c r="C209" s="68" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210" s="66" t="s">
+        <v>777</v>
+      </c>
+      <c r="B210" s="67" t="s">
+        <v>775</v>
+      </c>
+      <c r="C210" s="68" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" s="66" t="s">
+        <v>826</v>
+      </c>
+      <c r="B211" s="67" t="s">
+        <v>824</v>
+      </c>
+      <c r="C211" s="68" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212" s="66" t="s">
+        <v>833</v>
+      </c>
+      <c r="B212" s="67" t="s">
         <v>831</v>
       </c>
-      <c r="B205" s="67" t="s">
-        <v>829</v>
-      </c>
-      <c r="C205" s="68" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A206" s="66" t="s">
-        <v>838</v>
-      </c>
-      <c r="B206" s="67" t="s">
+      <c r="C212" s="68" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" s="66" t="s">
         <v>836</v>
       </c>
-      <c r="C206" s="68" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A207" s="66" t="s">
-        <v>841</v>
-      </c>
-      <c r="B207" s="67" t="s">
-        <v>839</v>
-      </c>
-      <c r="C207" s="68" t="s">
-        <v>840</v>
+      <c r="B213" s="67" t="s">
+        <v>834</v>
+      </c>
+      <c r="C213" s="68" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215" s="95" t="s">
+        <v>846</v>
+      </c>
+      <c r="B215" s="96" t="s">
+        <v>844</v>
+      </c>
+      <c r="C215" s="97" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216" s="95" t="s">
+        <v>902</v>
+      </c>
+      <c r="B216" s="96" t="s">
+        <v>900</v>
+      </c>
+      <c r="C216" s="97" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217" s="95" t="s">
+        <v>926</v>
+      </c>
+      <c r="B217" s="96" t="s">
+        <v>924</v>
+      </c>
+      <c r="C217" s="97" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218" s="95" t="s">
+        <v>934</v>
+      </c>
+      <c r="B218" s="96" t="s">
+        <v>935</v>
+      </c>
+      <c r="C218" s="97" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219" s="95" t="s">
+        <v>933</v>
+      </c>
+      <c r="B219" s="96" t="s">
+        <v>931</v>
+      </c>
+      <c r="C219" s="97" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220" s="95" t="s">
+        <v>938</v>
+      </c>
+      <c r="B220" s="96" t="s">
+        <v>936</v>
+      </c>
+      <c r="C220" s="97" t="s">
+        <v>937</v>
       </c>
     </row>
   </sheetData>
@@ -5862,15 +6322,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="62" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" style="10" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" style="7" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
@@ -5878,7 +6338,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -5927,24 +6387,24 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -5963,7 +6423,7 @@
         <v>254</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>255</v>
@@ -6070,139 +6530,139 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="30" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="30" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="33" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="30" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="24" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="33" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
-        <v>303</v>
+        <v>847</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>300</v>
@@ -6213,694 +6673,892 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="30" t="s">
-        <v>366</v>
+        <v>848</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="30" t="s">
-        <v>367</v>
+        <v>849</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
+        <v>850</v>
+      </c>
+      <c r="B37" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>304</v>
-      </c>
       <c r="C37" s="26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
-        <v>370</v>
+        <v>851</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="36" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="36" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="36" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="36" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="36" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="36" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="36" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="36" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="36" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="36" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="36" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="21" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="21" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="37" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="37" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="37" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="37" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="43" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C67" s="45" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="43" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="43" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C69" s="45" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="43" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="46" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="46" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C73" s="48" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="46" t="s">
+        <v>481</v>
+      </c>
+      <c r="B74" s="47" t="s">
+        <v>485</v>
+      </c>
+      <c r="C74" s="48" t="s">
         <v>486</v>
-      </c>
-      <c r="B74" s="47" t="s">
-        <v>490</v>
-      </c>
-      <c r="C74" s="48" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="46" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C75" s="48" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A77" s="60" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B77" s="50" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="5"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="64" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B82" s="53"/>
       <c r="C82" s="54"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="64" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B83" s="53" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C83" s="54" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="64" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B84" s="53" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C84" s="54" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="64" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B85" s="53" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C85" s="54" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="75" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B87" s="56" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="C87" s="57" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="75" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B88" s="56" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C88" s="57" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="76" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B89" s="77" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C89" s="78" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D89" s="65" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="79" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B90" s="80" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C90" s="81" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="121.5" x14ac:dyDescent="0.35">
       <c r="A91" s="75" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B91" s="56" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C91" s="57" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D91" s="65" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="75" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B92" s="56" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C92" s="57" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="75" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B93" s="56" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C93" s="57" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A94" s="75" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B94" s="56" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C94" s="57" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D94" s="65" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="84" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A95" s="75" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B95" s="56" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="C95" s="57" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="D95" s="83" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="84" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A96" s="75" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B96" s="56" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C96" s="57" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D96" s="83" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A97" s="75" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B97" s="56" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C97" s="57" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D97" s="65" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="82" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B98" s="77" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C98" s="78" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D98" s="65" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="79" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B99" s="80" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C99" s="81" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="152.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="82" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B100" s="77" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C100" s="78" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="D100" s="65" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="79" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B101" s="80" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C101" s="81" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="82" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B102" s="77" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C102" s="78" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="85" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B103" s="86" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C103" s="87" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="76" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B104" s="88" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C104" s="78" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="79" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B105" s="80" t="s">
+        <v>838</v>
+      </c>
+      <c r="C105" s="81" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="79" t="s">
+        <v>852</v>
+      </c>
+      <c r="B106" s="80" t="s">
+        <v>853</v>
+      </c>
+      <c r="C106" s="81" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="75" t="s">
         <v>843</v>
       </c>
-      <c r="C105" s="81" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="75" t="s">
-        <v>848</v>
-      </c>
-      <c r="B106" s="56" t="s">
-        <v>846</v>
-      </c>
-      <c r="C106" s="57" t="s">
-        <v>847</v>
+      <c r="B107" s="56" t="s">
+        <v>841</v>
+      </c>
+      <c r="C107" s="57" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="36" t="s">
+        <v>875</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="36" t="s">
+        <v>876</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="36" t="s">
+        <v>881</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="36" t="s">
+        <v>882</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="36" t="s">
+        <v>885</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="36" t="s">
+        <v>888</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="36" t="s">
+        <v>893</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="98" t="s">
+        <v>894</v>
+      </c>
+      <c r="B117" s="99" t="s">
+        <v>895</v>
+      </c>
+      <c r="C117" s="100" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="98" t="s">
+        <v>899</v>
+      </c>
+      <c r="B118" s="99" t="s">
+        <v>897</v>
+      </c>
+      <c r="C118" s="100" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="89" t="s">
+        <v>903</v>
+      </c>
+      <c r="B120" s="90" t="s">
+        <v>904</v>
+      </c>
+      <c r="C120" s="91" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="92" t="s">
+        <v>908</v>
+      </c>
+      <c r="B122" s="93" t="s">
+        <v>906</v>
+      </c>
+      <c r="C122" s="94" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="92" t="s">
+        <v>911</v>
+      </c>
+      <c r="B123" s="93" t="s">
+        <v>909</v>
+      </c>
+      <c r="C123" s="94" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="43" t="s">
+        <v>914</v>
+      </c>
+      <c r="B125" s="44" t="s">
+        <v>912</v>
+      </c>
+      <c r="C125" s="45" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="43" t="s">
+        <v>915</v>
+      </c>
+      <c r="B126" s="44" t="s">
+        <v>916</v>
+      </c>
+      <c r="C126" s="45" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="43" t="s">
+        <v>920</v>
+      </c>
+      <c r="B127" s="44" t="s">
+        <v>918</v>
+      </c>
+      <c r="C127" s="45" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="43" t="s">
+        <v>923</v>
+      </c>
+      <c r="B128" s="44" t="s">
+        <v>921</v>
+      </c>
+      <c r="C128" s="45" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="43" t="s">
+        <v>929</v>
+      </c>
+      <c r="B129" s="44" t="s">
+        <v>927</v>
+      </c>
+      <c r="C129" s="45" t="s">
+        <v>928</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="1024">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -1642,9 +1642,6 @@
     <t>Book</t>
   </si>
   <si>
-    <t>ほん</t>
-  </si>
-  <si>
     <t>Cake</t>
   </si>
   <si>
@@ -1655,12 +1652,6 @@
   </si>
   <si>
     <t>tokei</t>
-  </si>
-  <si>
-    <t>Watch</t>
-  </si>
-  <si>
-    <t>とけい</t>
   </si>
   <si>
     <t>Person + に</t>
@@ -2916,9 +2907,6 @@
     <t>Bag</t>
   </si>
   <si>
-    <t>かばん</t>
-  </si>
-  <si>
     <t>だれ</t>
   </si>
   <si>
@@ -3254,6 +3242,288 @@
   </si>
   <si>
     <t>かいあす</t>
+  </si>
+  <si>
+    <t>nani o nomimasu ka</t>
+  </si>
+  <si>
+    <t>What do you drink?</t>
+  </si>
+  <si>
+    <t>なにをのみますか？</t>
+  </si>
+  <si>
+    <t>doko de nomimasu ka</t>
+  </si>
+  <si>
+    <t>dare to nomimasu ka</t>
+  </si>
+  <si>
+    <t>Who do you drink with?</t>
+  </si>
+  <si>
+    <t>だれとのみますか？</t>
+  </si>
+  <si>
+    <t>dare ga nomimasu ka</t>
+  </si>
+  <si>
+    <t>だれがのみますか？</t>
+  </si>
+  <si>
+    <t>Who's drinking?</t>
+  </si>
+  <si>
+    <t>ue</t>
+  </si>
+  <si>
+    <t>Above</t>
+  </si>
+  <si>
+    <t>うえ
+上</t>
+  </si>
+  <si>
+    <t>shita</t>
+  </si>
+  <si>
+    <t>Below</t>
+  </si>
+  <si>
+    <t>した
+下</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>In front</t>
+  </si>
+  <si>
+    <t>まえ
+前</t>
+  </si>
+  <si>
+    <t>ushiro</t>
+  </si>
+  <si>
+    <t>Behind</t>
+  </si>
+  <si>
+    <t>うしろ
+後ろ</t>
+  </si>
+  <si>
+    <t>naka</t>
+  </si>
+  <si>
+    <t>Inside</t>
+  </si>
+  <si>
+    <t>なか
+中</t>
+  </si>
+  <si>
+    <t>Next to</t>
+  </si>
+  <si>
+    <t>tonari
+yoko</t>
+  </si>
+  <si>
+    <t>となり
+隣
+よこ
+横</t>
+  </si>
+  <si>
+    <t>chikaku</t>
+  </si>
+  <si>
+    <t>Near</t>
+  </si>
+  <si>
+    <t>ちかく
+近く</t>
+  </si>
+  <si>
+    <t>hako</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>はこ</t>
+  </si>
+  <si>
+    <t>hako no ue</t>
+  </si>
+  <si>
+    <t>Above the box</t>
+  </si>
+  <si>
+    <t>はこの上</t>
+  </si>
+  <si>
+    <t>There is a pen above the box</t>
+  </si>
+  <si>
+    <t>hako no ue ni pen ga arimasu</t>
+  </si>
+  <si>
+    <t>はこの上にペンがあります</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>isu</t>
+  </si>
+  <si>
+    <t>いす
+椅子</t>
+  </si>
+  <si>
+    <t>かばん
+鞄</t>
+  </si>
+  <si>
+    <t>Hat</t>
+  </si>
+  <si>
+    <t>boushi</t>
+  </si>
+  <si>
+    <t>ぼうし
+帽子</t>
+  </si>
+  <si>
+    <t>ほん
+本</t>
+  </si>
+  <si>
+    <t>keitai</t>
+  </si>
+  <si>
+    <t>Cell Phone</t>
+  </si>
+  <si>
+    <t>けいたい</t>
+  </si>
+  <si>
+    <t>Watch / Clock</t>
+  </si>
+  <si>
+    <t>とけい
+時計</t>
+  </si>
+  <si>
+    <t>ikkai</t>
+  </si>
+  <si>
+    <t>いっかい</t>
+  </si>
+  <si>
+    <t>nikai</t>
+  </si>
+  <si>
+    <t>にかい</t>
+  </si>
+  <si>
+    <t>sangai</t>
+  </si>
+  <si>
+    <t>さんがい</t>
+  </si>
+  <si>
+    <t>yonkai</t>
+  </si>
+  <si>
+    <t>よんかい</t>
+  </si>
+  <si>
+    <t>gokai</t>
+  </si>
+  <si>
+    <t>ごかい</t>
+  </si>
+  <si>
+    <t>rokkai</t>
+  </si>
+  <si>
+    <t>ろっかい</t>
+  </si>
+  <si>
+    <t>nanakai</t>
+  </si>
+  <si>
+    <t>ななかい</t>
+  </si>
+  <si>
+    <t>hakkai</t>
+  </si>
+  <si>
+    <t>はっかい</t>
+  </si>
+  <si>
+    <t>kyukai</t>
+  </si>
+  <si>
+    <t>きゅうかい</t>
+  </si>
+  <si>
+    <t>jyukai</t>
+  </si>
+  <si>
+    <t>じゅうかい</t>
+  </si>
+  <si>
+    <t>sangai ni ginko ga arimasu</t>
+  </si>
+  <si>
+    <t>There is a bank in Third floor</t>
+  </si>
+  <si>
+    <t>Elevator 1st floor</t>
+  </si>
+  <si>
+    <t>2nd floor</t>
+  </si>
+  <si>
+    <t>3rd floor</t>
+  </si>
+  <si>
+    <t>4th floor</t>
+  </si>
+  <si>
+    <t>5th floor</t>
+  </si>
+  <si>
+    <t>6th floor</t>
+  </si>
+  <si>
+    <t>7th floor</t>
+  </si>
+  <si>
+    <t>8th floor</t>
+  </si>
+  <si>
+    <t>9th floor</t>
+  </si>
+  <si>
+    <t>10th floor</t>
+  </si>
+  <si>
+    <t>さんがいにぎんこがあります</t>
+  </si>
+  <si>
+    <t>kuruma no naka ni maria san ga imasu</t>
+  </si>
+  <si>
+    <t>車の中にマリアさんがいます</t>
+  </si>
+  <si>
+    <t>Maria is in the car</t>
   </si>
 </sst>
 </file>
@@ -3651,7 +3921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3777,6 +4047,18 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4057,10 +4339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C220"/>
+  <dimension ref="A1:C247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A221" sqref="A221"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="A249" sqref="A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -4149,13 +4431,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4171,24 +4453,24 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -4215,13 +4497,13 @@
     </row>
     <row r="14" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A14" s="59" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
@@ -5051,123 +5333,123 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="21" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="21" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="21" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="21" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="21" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="21" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="21" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="21" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="21" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="21" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="21" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -5379,9 +5661,9 @@
         <v>442</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" s="46" t="s">
-        <v>470</v>
+    <row r="128" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="102" t="s">
+        <v>982</v>
       </c>
       <c r="B128" s="47" t="s">
         <v>468</v>
@@ -5392,926 +5674,1201 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="B129" s="47" t="s">
         <v>472</v>
       </c>
-      <c r="B129" s="47" t="s">
+      <c r="C129" s="48" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A130" s="102" t="s">
+        <v>987</v>
+      </c>
+      <c r="B130" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="C129" s="48" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" s="46" t="s">
-        <v>476</v>
-      </c>
-      <c r="B130" s="47" t="s">
-        <v>474</v>
-      </c>
       <c r="C130" s="48" t="s">
-        <v>475</v>
+        <v>986</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="46" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B131" s="47" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C131" s="48" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="46" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B132" s="47" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C132" s="48" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="49" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B134" s="50" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C134" s="51" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="49" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B135" s="50" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C135" s="51" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="49" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B136" s="50" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C136" s="51" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="49" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B137" s="50" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C137" s="51" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="49" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B138" s="50" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C138" s="51" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="49" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B139" s="50" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C139" s="51" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="49" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B140" s="50" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C140" s="51" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="49" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B141" s="50" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C141" s="51" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="49" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B142" s="50" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C142" s="51" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="49" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B143" s="50" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C143" s="51" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="49" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B144" s="50" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C144" s="51" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="49" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B145" s="50" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C145" s="51" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="49" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B146" s="50" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C146" s="51" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="49" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B147" s="50" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C147" s="51" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="49" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B148" s="50" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C148" s="51" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A166" s="52" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B166" s="53" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C166" s="54" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A167" s="52" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B167" s="53" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C167" s="54" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A168" s="52" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B168" s="53" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C168" s="54" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A169" s="52" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B169" s="53" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C169" s="54" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A170" s="52" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B170" s="53" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C170" s="54" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A171" s="52" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B171" s="53" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C171" s="54" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A172" s="52" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B172" s="53" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C172" s="54" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A173" s="52" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B173" s="53" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C173" s="54" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A174" s="52" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B174" s="53" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C174" s="54" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A175" s="52" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B175" s="53" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C175" s="54" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A176" s="52" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B176" s="53" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C176" s="54" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A177" s="52" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B177" s="53" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C177" s="54" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A179" s="55" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B179" s="56" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C179" s="57" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A180" s="55" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B180" s="56" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C180" s="57" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A181" s="55" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B181" s="56" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C181" s="57" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A182" s="55" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B182" s="56" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C182" s="57" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A183" s="55" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B183" s="56" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C183" s="57" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A184" s="55" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B184" s="56" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C184" s="57" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A185" s="55" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B185" s="56" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C185" s="57" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A186" s="55" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B186" s="56" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C186" s="57" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A187" s="55" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B187" s="56" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C187" s="57" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A188" s="55" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B188" s="56" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C188" s="57" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A189" s="55" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B189" s="56" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C189" s="57" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A191" s="16" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A192" s="16" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A193" s="16" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C193" s="58" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="61" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B195" s="62" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C195" s="63" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="61" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B196" s="62" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C196" s="63" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="61" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B197" s="62" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C197" s="63" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="61" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B198" s="62" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C198" s="63" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="61" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B199" s="62" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C199" s="63" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="61" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B200" s="62" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C200" s="63" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="61" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B201" s="62" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C201" s="63" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="66" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B203" s="67" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C203" s="68" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="66" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B204" s="67" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C204" s="68" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="66" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B205" s="67" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C205" s="68" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="69" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B206" s="70" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C206" s="71" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="72" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B207" s="73" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C207" s="74" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="66" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B208" s="67" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C208" s="68" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="66" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B209" s="67" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C209" s="68" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="66" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B210" s="67" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C210" s="68" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" s="66" t="s">
-        <v>826</v>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A211" s="101" t="s">
+        <v>978</v>
       </c>
       <c r="B211" s="67" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C211" s="68" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="66" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B212" s="67" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C212" s="68" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="66" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B213" s="67" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C213" s="68" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="95" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B215" s="96" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C215" s="97" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="95" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B216" s="96" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C216" s="97" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="95" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B217" s="96" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C217" s="97" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="95" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="B218" s="96" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="C218" s="97" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="95" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B219" s="96" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C219" s="97" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="95" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B220" s="96" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C220" s="97" t="s">
-        <v>937</v>
+        <v>933</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A222" s="103" t="s">
+        <v>947</v>
+      </c>
+      <c r="B222" s="41" t="s">
+        <v>945</v>
+      </c>
+      <c r="C222" s="42" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A223" s="103" t="s">
+        <v>950</v>
+      </c>
+      <c r="B223" s="41" t="s">
+        <v>948</v>
+      </c>
+      <c r="C223" s="42" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A224" s="103" t="s">
+        <v>953</v>
+      </c>
+      <c r="B224" s="41" t="s">
+        <v>951</v>
+      </c>
+      <c r="C224" s="42" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A225" s="103" t="s">
+        <v>956</v>
+      </c>
+      <c r="B225" s="41" t="s">
+        <v>954</v>
+      </c>
+      <c r="C225" s="42" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A226" s="103" t="s">
+        <v>959</v>
+      </c>
+      <c r="B226" s="41" t="s">
+        <v>957</v>
+      </c>
+      <c r="C226" s="42" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A227" s="103" t="s">
+        <v>962</v>
+      </c>
+      <c r="B227" s="104" t="s">
+        <v>961</v>
+      </c>
+      <c r="C227" s="42" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A228" s="103" t="s">
+        <v>965</v>
+      </c>
+      <c r="B228" s="41" t="s">
+        <v>963</v>
+      </c>
+      <c r="C228" s="42" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229" s="40" t="s">
+        <v>968</v>
+      </c>
+      <c r="B229" s="41" t="s">
+        <v>966</v>
+      </c>
+      <c r="C229" s="42" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230" s="40" t="s">
+        <v>971</v>
+      </c>
+      <c r="B230" s="41" t="s">
+        <v>969</v>
+      </c>
+      <c r="C230" s="42" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231" s="40" t="s">
+        <v>974</v>
+      </c>
+      <c r="B231" s="41" t="s">
+        <v>973</v>
+      </c>
+      <c r="C231" s="42" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A232" s="103" t="s">
+        <v>977</v>
+      </c>
+      <c r="B232" s="41" t="s">
+        <v>976</v>
+      </c>
+      <c r="C232" s="42" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A233" s="103" t="s">
+        <v>981</v>
+      </c>
+      <c r="B233" s="41" t="s">
+        <v>980</v>
+      </c>
+      <c r="C233" s="42" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234" s="40" t="s">
+        <v>985</v>
+      </c>
+      <c r="B234" s="41" t="s">
+        <v>983</v>
+      </c>
+      <c r="C234" s="42" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236" s="46" t="s">
+        <v>989</v>
+      </c>
+      <c r="B236" s="47" t="s">
+        <v>988</v>
+      </c>
+      <c r="C236" s="48" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237" s="46" t="s">
+        <v>991</v>
+      </c>
+      <c r="B237" s="47" t="s">
+        <v>990</v>
+      </c>
+      <c r="C237" s="48" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238" s="46" t="s">
+        <v>993</v>
+      </c>
+      <c r="B238" s="47" t="s">
+        <v>992</v>
+      </c>
+      <c r="C238" s="48" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239" s="46" t="s">
+        <v>995</v>
+      </c>
+      <c r="B239" s="47" t="s">
+        <v>994</v>
+      </c>
+      <c r="C239" s="48" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240" s="46" t="s">
+        <v>997</v>
+      </c>
+      <c r="B240" s="47" t="s">
+        <v>996</v>
+      </c>
+      <c r="C240" s="48" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241" s="46" t="s">
+        <v>999</v>
+      </c>
+      <c r="B241" s="47" t="s">
+        <v>998</v>
+      </c>
+      <c r="C241" s="48" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242" s="46" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B242" s="47" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C242" s="48" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243" s="46" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B243" s="47" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C243" s="48" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244" s="46" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B244" s="47" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C244" s="48" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A245" s="46" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B245" s="47" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C245" s="48" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A246" s="46" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B246" s="47" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C246" s="48" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247" s="46" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B247" s="47" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C247" s="48" t="s">
+        <v>1023</v>
       </c>
     </row>
   </sheetData>
@@ -6322,10 +6879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -6338,7 +6895,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -6387,24 +6944,24 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -6662,7 +7219,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>300</v>
@@ -6673,7 +7230,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="30" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>363</v>
@@ -6684,7 +7241,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="30" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>364</v>
@@ -6695,7 +7252,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>302</v>
@@ -6706,7 +7263,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>366</v>
@@ -6838,35 +7395,35 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -6874,7 +7431,7 @@
         <v>424</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>422</v>
@@ -6885,7 +7442,7 @@
         <v>425</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>423</v>
@@ -7014,551 +7571,595 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="46" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="46" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C73" s="48" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="46" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C74" s="48" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="46" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C75" s="48" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A77" s="60" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B77" s="50" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="5"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="64" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B82" s="53"/>
       <c r="C82" s="54"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="64" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B83" s="53" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C83" s="54" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="64" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B84" s="53" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C84" s="54" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="64" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B85" s="53" t="s">
+        <v>716</v>
+      </c>
+      <c r="C85" s="54" t="s">
         <v>719</v>
-      </c>
-      <c r="C85" s="54" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="75" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B87" s="56" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C87" s="57" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="75" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B88" s="56" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C88" s="57" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="76" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B89" s="77" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C89" s="78" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D89" s="65" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="79" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B90" s="80" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C90" s="81" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="121.5" x14ac:dyDescent="0.35">
       <c r="A91" s="75" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B91" s="56" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C91" s="57" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D91" s="65" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="75" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B92" s="56" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C92" s="57" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="75" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B93" s="56" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C93" s="57" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A94" s="75" t="s">
+        <v>787</v>
+      </c>
+      <c r="B94" s="56" t="s">
+        <v>786</v>
+      </c>
+      <c r="C94" s="57" t="s">
         <v>790</v>
       </c>
-      <c r="B94" s="56" t="s">
-        <v>789</v>
-      </c>
-      <c r="C94" s="57" t="s">
-        <v>793</v>
-      </c>
       <c r="D94" s="65" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="84" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A95" s="75" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B95" s="56" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C95" s="57" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D95" s="83" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="84" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A96" s="75" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B96" s="56" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C96" s="57" t="s">
+        <v>798</v>
+      </c>
+      <c r="D96" s="83" t="s">
         <v>801</v>
-      </c>
-      <c r="D96" s="83" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A97" s="75" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B97" s="56" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C97" s="57" t="s">
+        <v>794</v>
+      </c>
+      <c r="D97" s="65" t="s">
         <v>797</v>
-      </c>
-      <c r="D97" s="65" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="82" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B98" s="77" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C98" s="78" t="s">
+        <v>802</v>
+      </c>
+      <c r="D98" s="65" t="s">
         <v>805</v>
-      </c>
-      <c r="D98" s="65" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="79" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B99" s="80" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C99" s="81" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="152.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="82" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B100" s="77" t="s">
+        <v>808</v>
+      </c>
+      <c r="C100" s="78" t="s">
+        <v>809</v>
+      </c>
+      <c r="D100" s="65" t="s">
         <v>811</v>
-      </c>
-      <c r="C100" s="78" t="s">
-        <v>812</v>
-      </c>
-      <c r="D100" s="65" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="79" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B101" s="80" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C101" s="81" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="82" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B102" s="77" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C102" s="78" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="85" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B103" s="86" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C103" s="87" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="76" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B104" s="88" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C104" s="78" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="79" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B105" s="80" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C105" s="81" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="79" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B106" s="80" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C106" s="81" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="75" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B107" s="56" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C107" s="57" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="36" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="36" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="36" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="36" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="36" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="36" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="36" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="98" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B117" s="99" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C117" s="100" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="98" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B118" s="99" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C118" s="100" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="89" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B120" s="90" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C120" s="91" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="92" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B122" s="93" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="C122" s="94" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="92" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B123" s="93" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C123" s="94" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="43" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B125" s="44" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C125" s="45" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="43" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B126" s="44" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C126" s="45" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="43" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B127" s="44" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C127" s="45" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="43" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B128" s="44" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C128" s="45" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="43" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B129" s="44" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C129" s="45" t="s">
-        <v>928</v>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="46" t="s">
+        <v>937</v>
+      </c>
+      <c r="B131" s="47" t="s">
+        <v>935</v>
+      </c>
+      <c r="C131" s="48" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="46" t="s">
+        <v>848</v>
+      </c>
+      <c r="B132" s="47" t="s">
+        <v>938</v>
+      </c>
+      <c r="C132" s="48" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="46" t="s">
+        <v>941</v>
+      </c>
+      <c r="B133" s="47" t="s">
+        <v>939</v>
+      </c>
+      <c r="C133" s="48" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="46" t="s">
+        <v>943</v>
+      </c>
+      <c r="B134" s="47" t="s">
+        <v>942</v>
+      </c>
+      <c r="C134" s="48" t="s">
+        <v>944</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="1102">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -2571,9 +2571,6 @@
     <t>ひこうき</t>
   </si>
   <si>
-    <t>S + Time + Person + Transportation + Location + Action</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">あるいて </t>
     </r>
@@ -3524,6 +3521,252 @@
   </si>
   <si>
     <t>Maria is in the car</t>
+  </si>
+  <si>
+    <t>jyouzu desu</t>
+  </si>
+  <si>
+    <t>to be good at</t>
+  </si>
+  <si>
+    <t>じょうずです
+上手です</t>
+  </si>
+  <si>
+    <t>suki-</t>
+  </si>
+  <si>
+    <t>スキー</t>
+  </si>
+  <si>
+    <t>Tanaka-san wa sukii ga jyouzu desu</t>
+  </si>
+  <si>
+    <t>Tanaka is good at skiing</t>
+  </si>
+  <si>
+    <t>田中スキーが上手です</t>
+  </si>
+  <si>
+    <t>gita-</t>
+  </si>
+  <si>
+    <t>Guitar</t>
+  </si>
+  <si>
+    <t>ギター</t>
+  </si>
+  <si>
+    <t>フランス</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>furansu</t>
+  </si>
+  <si>
+    <t>jyouzu dewa arimasen</t>
+  </si>
+  <si>
+    <t>not to be good at</t>
+  </si>
+  <si>
+    <t>上手ではありません</t>
+  </si>
+  <si>
+    <t>jyouzu deshita</t>
+  </si>
+  <si>
+    <t>was/were good at</t>
+  </si>
+  <si>
+    <t>上手でした</t>
+  </si>
+  <si>
+    <t>jyouzu dewa arimasen deshita</t>
+  </si>
+  <si>
+    <t>not to was/were good at</t>
+  </si>
+  <si>
+    <t>上手ではありませんでした</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Skiing</t>
+  </si>
+  <si>
+    <t>wakai</t>
+  </si>
+  <si>
+    <t>わかい
+若い</t>
+  </si>
+  <si>
+    <t>When Mary was young,
+she was good at skiing</t>
+  </si>
+  <si>
+    <t>Maria-san wa wakai toki,
+suki-ga jyouzu deshita</t>
+  </si>
+  <si>
+    <t>メリアーさんはわかいとき、スキーがじょうずでした
+マリアーさんは若い時、スキーが上手でした</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>ちゅうごく
+中国</t>
+  </si>
+  <si>
+    <t>chugoku</t>
+  </si>
+  <si>
+    <t>amari</t>
+  </si>
+  <si>
+    <t>あまり</t>
+  </si>
+  <si>
+    <t>suki desu</t>
+  </si>
+  <si>
+    <t>to like</t>
+  </si>
+  <si>
+    <t>すきです
+好きです</t>
+  </si>
+  <si>
+    <t>suki dewa arimasen</t>
+  </si>
+  <si>
+    <t>not to like</t>
+  </si>
+  <si>
+    <t>好きではありません</t>
+  </si>
+  <si>
+    <t>suki deshita</t>
+  </si>
+  <si>
+    <t>to liked</t>
+  </si>
+  <si>
+    <t>好きでした</t>
+  </si>
+  <si>
+    <t>suki dewa arimasen deshita</t>
+  </si>
+  <si>
+    <t>not to liked</t>
+  </si>
+  <si>
+    <t>好きではありませんでした</t>
+  </si>
+  <si>
+    <t>totemo</t>
+  </si>
+  <si>
+    <t>Very much</t>
+  </si>
+  <si>
+    <t>とても</t>
+  </si>
+  <si>
+    <t>S + Time + Person + Transportation + Location + Adverb + Action</t>
+  </si>
+  <si>
+    <t>A lot</t>
+  </si>
+  <si>
+    <t>dai</t>
+  </si>
+  <si>
+    <t>だい
+大</t>
+  </si>
+  <si>
+    <t>Not quite + (verb - negative)</t>
+  </si>
+  <si>
+    <t>to hate</t>
+  </si>
+  <si>
+    <t>kirai desu</t>
+  </si>
+  <si>
+    <t>きらい
+嫌い</t>
+  </si>
+  <si>
+    <t>to understand</t>
+  </si>
+  <si>
+    <t>wakarimasu</t>
+  </si>
+  <si>
+    <t>わかります</t>
+  </si>
+  <si>
+    <t>wakarimasen</t>
+  </si>
+  <si>
+    <t>not to understand</t>
+  </si>
+  <si>
+    <t>わかりません</t>
+  </si>
+  <si>
+    <t>wakarimashita</t>
+  </si>
+  <si>
+    <t>to understood</t>
+  </si>
+  <si>
+    <t>わかりました</t>
+  </si>
+  <si>
+    <t>wakarimasen deshita</t>
+  </si>
+  <si>
+    <t>not to understood</t>
+  </si>
+  <si>
+    <t>わかりませんでした</t>
+  </si>
+  <si>
+    <t>yoku</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>よく</t>
+  </si>
+  <si>
+    <t>sukoshi</t>
+  </si>
+  <si>
+    <t>A little</t>
+  </si>
+  <si>
+    <t>すこし</t>
+  </si>
+  <si>
+    <t>Not know completely + (verb - neg)</t>
+  </si>
+  <si>
+    <t>zenzen</t>
+  </si>
+  <si>
+    <t>ぜんぜん</t>
   </si>
 </sst>
 </file>
@@ -3867,7 +4110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -3917,11 +4160,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4059,6 +4313,28 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4339,10 +4615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C247"/>
+  <dimension ref="A1:C259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="A249" sqref="A249"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="A261" sqref="A261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -5355,24 +5631,24 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="B97" s="22" t="s">
         <v>853</v>
       </c>
-      <c r="B97" s="22" t="s">
-        <v>854</v>
-      </c>
       <c r="C97" s="23" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="21" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -5388,24 +5664,24 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="21" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="21" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -5421,24 +5697,24 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="21" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -5663,7 +5939,7 @@
     </row>
     <row r="128" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A128" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B128" s="47" t="s">
         <v>468</v>
@@ -5685,13 +5961,13 @@
     </row>
     <row r="130" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A130" s="102" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B130" s="47" t="s">
         <v>473</v>
       </c>
       <c r="C130" s="48" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
@@ -6389,7 +6665,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="61" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B200" s="62" t="s">
         <v>732</v>
@@ -6411,464 +6687,585 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="66" t="s">
+        <v>739</v>
+      </c>
+      <c r="B203" s="67" t="s">
         <v>740</v>
       </c>
-      <c r="B203" s="67" t="s">
-        <v>741</v>
-      </c>
       <c r="C203" s="68" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="66" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B204" s="67" t="s">
+        <v>748</v>
+      </c>
+      <c r="C204" s="68" t="s">
         <v>749</v>
-      </c>
-      <c r="C204" s="68" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="66" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B205" s="67" t="s">
+        <v>751</v>
+      </c>
+      <c r="C205" s="68" t="s">
         <v>752</v>
-      </c>
-      <c r="C205" s="68" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="69" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B206" s="70" t="s">
+        <v>754</v>
+      </c>
+      <c r="C206" s="71" t="s">
         <v>755</v>
-      </c>
-      <c r="C206" s="71" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="72" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B207" s="73" t="s">
+        <v>758</v>
+      </c>
+      <c r="C207" s="74" t="s">
         <v>759</v>
-      </c>
-      <c r="C207" s="74" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="66" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B208" s="67" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C208" s="68" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="66" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B209" s="67" t="s">
+        <v>768</v>
+      </c>
+      <c r="C209" s="68" t="s">
         <v>769</v>
-      </c>
-      <c r="C209" s="68" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="66" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B210" s="67" t="s">
+        <v>771</v>
+      </c>
+      <c r="C210" s="68" t="s">
         <v>772</v>
-      </c>
-      <c r="C210" s="68" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A211" s="101" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B211" s="67" t="s">
+        <v>820</v>
+      </c>
+      <c r="C211" s="68" t="s">
         <v>821</v>
-      </c>
-      <c r="C211" s="68" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="66" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B212" s="67" t="s">
+        <v>826</v>
+      </c>
+      <c r="C212" s="68" t="s">
         <v>827</v>
-      </c>
-      <c r="C212" s="68" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="66" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B213" s="67" t="s">
+        <v>829</v>
+      </c>
+      <c r="C213" s="68" t="s">
         <v>830</v>
-      </c>
-      <c r="C213" s="68" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="95" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B215" s="96" t="s">
+        <v>839</v>
+      </c>
+      <c r="C215" s="97" t="s">
         <v>840</v>
-      </c>
-      <c r="C215" s="97" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="95" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B216" s="96" t="s">
+        <v>895</v>
+      </c>
+      <c r="C216" s="97" t="s">
         <v>896</v>
-      </c>
-      <c r="C216" s="97" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="95" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B217" s="96" t="s">
+        <v>919</v>
+      </c>
+      <c r="C217" s="97" t="s">
         <v>920</v>
-      </c>
-      <c r="C217" s="97" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="95" t="s">
+        <v>929</v>
+      </c>
+      <c r="B218" s="96" t="s">
         <v>930</v>
       </c>
-      <c r="B218" s="96" t="s">
-        <v>931</v>
-      </c>
       <c r="C218" s="97" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="95" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B219" s="96" t="s">
+        <v>926</v>
+      </c>
+      <c r="C219" s="97" t="s">
         <v>927</v>
-      </c>
-      <c r="C219" s="97" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="95" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B220" s="96" t="s">
+        <v>931</v>
+      </c>
+      <c r="C220" s="97" t="s">
         <v>932</v>
-      </c>
-      <c r="C220" s="97" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A222" s="103" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B222" s="41" t="s">
+        <v>944</v>
+      </c>
+      <c r="C222" s="42" t="s">
         <v>945</v>
-      </c>
-      <c r="C222" s="42" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A223" s="103" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B223" s="41" t="s">
+        <v>947</v>
+      </c>
+      <c r="C223" s="42" t="s">
         <v>948</v>
-      </c>
-      <c r="C223" s="42" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A224" s="103" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B224" s="41" t="s">
+        <v>950</v>
+      </c>
+      <c r="C224" s="42" t="s">
         <v>951</v>
-      </c>
-      <c r="C224" s="42" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A225" s="103" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B225" s="41" t="s">
+        <v>953</v>
+      </c>
+      <c r="C225" s="42" t="s">
         <v>954</v>
-      </c>
-      <c r="C225" s="42" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A226" s="103" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B226" s="41" t="s">
+        <v>956</v>
+      </c>
+      <c r="C226" s="42" t="s">
         <v>957</v>
-      </c>
-      <c r="C226" s="42" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A227" s="103" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B227" s="104" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C227" s="42" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A228" s="103" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B228" s="41" t="s">
+        <v>962</v>
+      </c>
+      <c r="C228" s="42" t="s">
         <v>963</v>
-      </c>
-      <c r="C228" s="42" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="40" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B229" s="41" t="s">
+        <v>965</v>
+      </c>
+      <c r="C229" s="42" t="s">
         <v>966</v>
-      </c>
-      <c r="C229" s="42" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="40" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B230" s="41" t="s">
+        <v>968</v>
+      </c>
+      <c r="C230" s="42" t="s">
         <v>969</v>
-      </c>
-      <c r="C230" s="42" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="40" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B231" s="41" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C231" s="42" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A232" s="103" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B232" s="41" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C232" s="42" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A233" s="103" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B233" s="41" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C233" s="42" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="40" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B234" s="41" t="s">
+        <v>982</v>
+      </c>
+      <c r="C234" s="42" t="s">
         <v>983</v>
-      </c>
-      <c r="C234" s="42" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="46" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B236" s="47" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C236" s="48" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="46" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B237" s="47" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C237" s="48" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="46" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B238" s="47" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C238" s="48" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="46" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B239" s="47" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C239" s="48" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="46" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B240" s="47" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C240" s="48" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="46" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B241" s="47" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C241" s="48" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="46" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B242" s="47" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C242" s="48" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="46" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B243" s="47" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C243" s="48" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="46" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B244" s="47" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C244" s="48" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="46" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B245" s="47" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C245" s="48" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="46" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B246" s="47" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C246" s="48" t="s">
         <v>1008</v>
-      </c>
-      <c r="C246" s="48" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="46" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B247" s="47" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C247" s="48" t="s">
         <v>1022</v>
       </c>
-      <c r="B247" s="47" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C247" s="48" t="s">
-        <v>1023</v>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A249" s="49" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B249" s="50" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C249" s="51" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250" s="49" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B250" s="50" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C250" s="51" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251" s="49" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B251" s="50" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C251" s="51" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A252" s="60" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B252" s="50" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C252" s="51" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A253" s="60" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B253" s="50" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C253" s="51" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254" s="60" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B254" s="50" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C254" s="51" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255" s="49" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B255" s="50" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C255" s="51" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256" s="49" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B256" s="50" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C256" s="51" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257" s="49" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B257" s="50" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C257" s="51" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258" s="49" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B258" s="50" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C258" s="51" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A259" s="60" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B259" s="50" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C259" s="51" t="s">
+        <v>1074</v>
       </c>
     </row>
   </sheetData>
@@ -6879,15 +7276,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="81.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" style="10" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" style="7" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
@@ -6895,7 +7292,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>737</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -7219,7 +7616,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>300</v>
@@ -7230,7 +7627,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="30" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>363</v>
@@ -7241,7 +7638,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="30" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>364</v>
@@ -7252,7 +7649,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>302</v>
@@ -7263,7 +7660,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>366</v>
@@ -7571,7 +7968,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="46" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -7678,488 +8075,653 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="75" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B87" s="56" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C87" s="57" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="75" t="s">
+        <v>744</v>
+      </c>
+      <c r="B88" s="56" t="s">
+        <v>743</v>
+      </c>
+      <c r="C88" s="57" t="s">
         <v>745</v>
-      </c>
-      <c r="B88" s="56" t="s">
-        <v>744</v>
-      </c>
-      <c r="C88" s="57" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="76" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B89" s="77" t="s">
+        <v>746</v>
+      </c>
+      <c r="C89" s="78" t="s">
         <v>747</v>
       </c>
-      <c r="C89" s="78" t="s">
-        <v>748</v>
-      </c>
       <c r="D89" s="65" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="79" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B90" s="80" t="s">
+        <v>762</v>
+      </c>
+      <c r="C90" s="81" t="s">
         <v>763</v>
-      </c>
-      <c r="C90" s="81" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="121.5" x14ac:dyDescent="0.35">
       <c r="A91" s="75" t="s">
+        <v>776</v>
+      </c>
+      <c r="B91" s="56" t="s">
         <v>777</v>
       </c>
-      <c r="B91" s="56" t="s">
+      <c r="C91" s="57" t="s">
         <v>778</v>
       </c>
-      <c r="C91" s="57" t="s">
-        <v>779</v>
-      </c>
       <c r="D91" s="65" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="75" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B92" s="56" t="s">
+        <v>782</v>
+      </c>
+      <c r="C92" s="57" t="s">
         <v>783</v>
-      </c>
-      <c r="C92" s="57" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="75" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B93" s="56" t="s">
+        <v>779</v>
+      </c>
+      <c r="C93" s="57" t="s">
         <v>780</v>
-      </c>
-      <c r="C93" s="57" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A94" s="75" t="s">
+        <v>786</v>
+      </c>
+      <c r="B94" s="56" t="s">
+        <v>785</v>
+      </c>
+      <c r="C94" s="57" t="s">
+        <v>789</v>
+      </c>
+      <c r="D94" s="65" t="s">
         <v>787</v>
-      </c>
-      <c r="B94" s="56" t="s">
-        <v>786</v>
-      </c>
-      <c r="C94" s="57" t="s">
-        <v>790</v>
-      </c>
-      <c r="D94" s="65" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="84" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A95" s="75" t="s">
+        <v>791</v>
+      </c>
+      <c r="B95" s="56" t="s">
+        <v>790</v>
+      </c>
+      <c r="C95" s="57" t="s">
+        <v>788</v>
+      </c>
+      <c r="D95" s="83" t="s">
         <v>792</v>
-      </c>
-      <c r="B95" s="56" t="s">
-        <v>791</v>
-      </c>
-      <c r="C95" s="57" t="s">
-        <v>789</v>
-      </c>
-      <c r="D95" s="83" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="84" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A96" s="75" t="s">
+        <v>799</v>
+      </c>
+      <c r="B96" s="56" t="s">
+        <v>798</v>
+      </c>
+      <c r="C96" s="57" t="s">
+        <v>797</v>
+      </c>
+      <c r="D96" s="83" t="s">
         <v>800</v>
-      </c>
-      <c r="B96" s="56" t="s">
-        <v>799</v>
-      </c>
-      <c r="C96" s="57" t="s">
-        <v>798</v>
-      </c>
-      <c r="D96" s="83" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A97" s="75" t="s">
+        <v>795</v>
+      </c>
+      <c r="B97" s="56" t="s">
+        <v>794</v>
+      </c>
+      <c r="C97" s="57" t="s">
+        <v>793</v>
+      </c>
+      <c r="D97" s="65" t="s">
         <v>796</v>
-      </c>
-      <c r="B97" s="56" t="s">
-        <v>795</v>
-      </c>
-      <c r="C97" s="57" t="s">
-        <v>794</v>
-      </c>
-      <c r="D97" s="65" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="82" t="s">
+        <v>802</v>
+      </c>
+      <c r="B98" s="77" t="s">
         <v>803</v>
       </c>
-      <c r="B98" s="77" t="s">
+      <c r="C98" s="78" t="s">
+        <v>801</v>
+      </c>
+      <c r="D98" s="65" t="s">
         <v>804</v>
-      </c>
-      <c r="C98" s="78" t="s">
-        <v>802</v>
-      </c>
-      <c r="D98" s="65" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="79" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B99" s="80" t="s">
+        <v>805</v>
+      </c>
+      <c r="C99" s="81" t="s">
         <v>806</v>
-      </c>
-      <c r="C99" s="81" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="152.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="82" t="s">
+        <v>809</v>
+      </c>
+      <c r="B100" s="77" t="s">
+        <v>807</v>
+      </c>
+      <c r="C100" s="78" t="s">
+        <v>808</v>
+      </c>
+      <c r="D100" s="65" t="s">
         <v>810</v>
-      </c>
-      <c r="B100" s="77" t="s">
-        <v>808</v>
-      </c>
-      <c r="C100" s="78" t="s">
-        <v>809</v>
-      </c>
-      <c r="D100" s="65" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="79" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B101" s="80" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C101" s="81" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="82" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B102" s="77" t="s">
+        <v>815</v>
+      </c>
+      <c r="C102" s="78" t="s">
         <v>816</v>
-      </c>
-      <c r="C102" s="78" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="85" t="s">
+        <v>822</v>
+      </c>
+      <c r="B103" s="86" t="s">
         <v>823</v>
       </c>
-      <c r="B103" s="86" t="s">
+      <c r="C103" s="87" t="s">
         <v>824</v>
-      </c>
-      <c r="C103" s="87" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="76" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B104" s="88" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C104" s="78" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="79" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B105" s="80" t="s">
+        <v>833</v>
+      </c>
+      <c r="C105" s="81" t="s">
         <v>834</v>
-      </c>
-      <c r="C105" s="81" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="79" t="s">
+        <v>847</v>
+      </c>
+      <c r="B106" s="80" t="s">
         <v>848</v>
       </c>
-      <c r="B106" s="80" t="s">
+      <c r="C106" s="81" t="s">
         <v>849</v>
-      </c>
-      <c r="C106" s="81" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="75" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B107" s="56" t="s">
+        <v>836</v>
+      </c>
+      <c r="C107" s="57" t="s">
         <v>837</v>
-      </c>
-      <c r="C107" s="57" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="36" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B109" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="C109" s="15" t="s">
         <v>869</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="36" t="s">
+        <v>871</v>
+      </c>
+      <c r="B110" s="14" t="s">
         <v>872</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="C110" s="15" t="s">
         <v>873</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="36" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B111" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="C111" s="15" t="s">
         <v>875</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="36" t="s">
+        <v>877</v>
+      </c>
+      <c r="B112" s="14" t="s">
         <v>878</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="C112" s="15" t="s">
         <v>879</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="36" t="s">
+        <v>880</v>
+      </c>
+      <c r="B113" s="14" t="s">
         <v>881</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="C113" s="15" t="s">
         <v>882</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="36" t="s">
+        <v>883</v>
+      </c>
+      <c r="B114" s="14" t="s">
         <v>884</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="C114" s="15" t="s">
         <v>885</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="36" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="98" t="s">
+        <v>889</v>
+      </c>
+      <c r="B117" s="99" t="s">
         <v>890</v>
       </c>
-      <c r="B117" s="99" t="s">
+      <c r="C117" s="100" t="s">
         <v>891</v>
-      </c>
-      <c r="C117" s="100" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="98" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B118" s="99" t="s">
+        <v>892</v>
+      </c>
+      <c r="C118" s="100" t="s">
         <v>893</v>
-      </c>
-      <c r="C118" s="100" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="89" t="s">
+        <v>898</v>
+      </c>
+      <c r="B120" s="90" t="s">
         <v>899</v>
       </c>
-      <c r="B120" s="90" t="s">
+      <c r="C120" s="91" t="s">
         <v>900</v>
-      </c>
-      <c r="C120" s="91" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="92" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B122" s="93" t="s">
+        <v>901</v>
+      </c>
+      <c r="C122" s="94" t="s">
         <v>902</v>
-      </c>
-      <c r="C122" s="94" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="92" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B123" s="93" t="s">
+        <v>904</v>
+      </c>
+      <c r="C123" s="94" t="s">
         <v>905</v>
-      </c>
-      <c r="C123" s="94" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="43" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B125" s="44" t="s">
+        <v>907</v>
+      </c>
+      <c r="C125" s="45" t="s">
         <v>908</v>
-      </c>
-      <c r="C125" s="45" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="43" t="s">
+        <v>910</v>
+      </c>
+      <c r="B126" s="44" t="s">
         <v>911</v>
       </c>
-      <c r="B126" s="44" t="s">
+      <c r="C126" s="45" t="s">
         <v>912</v>
-      </c>
-      <c r="C126" s="45" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="43" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B127" s="44" t="s">
+        <v>913</v>
+      </c>
+      <c r="C127" s="45" t="s">
         <v>914</v>
-      </c>
-      <c r="C127" s="45" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="43" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B128" s="44" t="s">
+        <v>916</v>
+      </c>
+      <c r="C128" s="45" t="s">
         <v>917</v>
-      </c>
-      <c r="C128" s="45" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="43" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B129" s="44" t="s">
+        <v>922</v>
+      </c>
+      <c r="C129" s="45" t="s">
         <v>923</v>
-      </c>
-      <c r="C129" s="45" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="46" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B131" s="47" t="s">
+        <v>934</v>
+      </c>
+      <c r="C131" s="48" t="s">
         <v>935</v>
-      </c>
-      <c r="C131" s="48" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="46" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B132" s="47" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C132" s="48" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="46" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B133" s="47" t="s">
+        <v>938</v>
+      </c>
+      <c r="C133" s="48" t="s">
         <v>939</v>
-      </c>
-      <c r="C133" s="48" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="46" t="s">
+        <v>942</v>
+      </c>
+      <c r="B134" s="47" t="s">
+        <v>941</v>
+      </c>
+      <c r="C134" s="48" t="s">
         <v>943</v>
       </c>
-      <c r="B134" s="47" t="s">
-        <v>942</v>
-      </c>
-      <c r="C134" s="48" t="s">
-        <v>944</v>
+    </row>
+    <row r="136" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A136" s="60" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B136" s="50" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C136" s="51" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="60" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B137" s="50" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C137" s="51" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="60" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B138" s="50" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C138" s="51" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="110" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B139" s="111" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C139" s="112" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="113" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B140" s="114" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C140" s="115" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A141" s="107" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B141" s="108" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C141" s="109" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="60" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B142" s="50" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C142" s="51" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="60" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B143" s="50" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C143" s="51" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="110" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B144" s="111" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C144" s="112" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="107" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B145" s="108" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C145" s="109" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="60" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B146" s="50" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C146" s="51" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="60" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B147" s="50" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C147" s="51" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="110" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B148" s="111" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C148" s="112" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="116" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B149" s="108" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C149" s="109" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A150" s="60" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B150" s="105" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C150" s="106" t="s">
+        <v>1050</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="1173">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -3767,6 +3767,238 @@
   </si>
   <si>
     <t>ぜんぜん</t>
+  </si>
+  <si>
+    <t>i-adjective</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>あつい
+暑い</t>
+  </si>
+  <si>
+    <t>atsui</t>
+  </si>
+  <si>
+    <t>samui</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>さむい
+寒い</t>
+  </si>
+  <si>
+    <t>たかい
+高い</t>
+  </si>
+  <si>
+    <t>yasui</t>
+  </si>
+  <si>
+    <t>Cheap</t>
+  </si>
+  <si>
+    <t>やすい
+安い</t>
+  </si>
+  <si>
+    <t>ookii</t>
+  </si>
+  <si>
+    <t>おおきい
+大きい</t>
+  </si>
+  <si>
+    <t>chiisai</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>ちいさい
+小さい</t>
+  </si>
+  <si>
+    <t>あたらしい
+新しい</t>
+  </si>
+  <si>
+    <t>furui</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>ふるい
+古い</t>
+  </si>
+  <si>
+    <t>Delicious</t>
+  </si>
+  <si>
+    <t>おいしい
+美味しい</t>
+  </si>
+  <si>
+    <t>mazui</t>
+  </si>
+  <si>
+    <t>Taste bad</t>
+  </si>
+  <si>
+    <t>まずい
+不味い</t>
+  </si>
+  <si>
+    <t>Not hot</t>
+  </si>
+  <si>
+    <t>atsu kunai desu</t>
+  </si>
+  <si>
+    <t>あつくないです
+暑くないです</t>
+  </si>
+  <si>
+    <t>atsu katta desu</t>
+  </si>
+  <si>
+    <t>Was/were hot</t>
+  </si>
+  <si>
+    <t>あつかったです
+暑かったです</t>
+  </si>
+  <si>
+    <t>atsu kuna katta desu</t>
+  </si>
+  <si>
+    <t>Was/were not hot</t>
+  </si>
+  <si>
+    <t>あつくなかったです
+暑くなかったです</t>
+  </si>
+  <si>
+    <t>na-adjective</t>
+  </si>
+  <si>
+    <t>benrina</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>べんりな
+便利な</t>
+  </si>
+  <si>
+    <t>Beautiful, Clean</t>
+  </si>
+  <si>
+    <t>きれいな</t>
+  </si>
+  <si>
+    <t>kireina</t>
+  </si>
+  <si>
+    <t>nigiyakana</t>
+  </si>
+  <si>
+    <t>Lively</t>
+  </si>
+  <si>
+    <t>にぎやかな
+賑やかな</t>
+  </si>
+  <si>
+    <t>genkina</t>
+  </si>
+  <si>
+    <t>Healthy</t>
+  </si>
+  <si>
+    <t>げんきな
+元気な</t>
+  </si>
+  <si>
+    <t>shinsetsuna</t>
+  </si>
+  <si>
+    <t>Kind, Gentle</t>
+  </si>
+  <si>
+    <t>しんせつな
+親切な</t>
+  </si>
+  <si>
+    <t>Famous</t>
+  </si>
+  <si>
+    <t>yuumeina</t>
+  </si>
+  <si>
+    <t>ゆうめいな
+有名な</t>
+  </si>
+  <si>
+    <t>genki dewa arimasen</t>
+  </si>
+  <si>
+    <t>Not healty/well</t>
+  </si>
+  <si>
+    <t>元気ではありません</t>
+  </si>
+  <si>
+    <t>genki deshita</t>
+  </si>
+  <si>
+    <t>Was/were healthy</t>
+  </si>
+  <si>
+    <t>元気でした</t>
+  </si>
+  <si>
+    <t>genki dewa arimasen deshita</t>
+  </si>
+  <si>
+    <t>Was/were not healty</t>
+  </si>
+  <si>
+    <t>元気ではありませんでした</t>
+  </si>
+  <si>
+    <t>ookii kabandesu</t>
+  </si>
+  <si>
+    <t>It's a big bag</t>
+  </si>
+  <si>
+    <t>大きい鞄です</t>
+  </si>
+  <si>
+    <t>kaban wa ookii desu</t>
+  </si>
+  <si>
+    <t>The bag is big</t>
+  </si>
+  <si>
+    <t>鞄は大きいです</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>まち
+町</t>
+  </si>
+  <si>
+    <t>machi</t>
   </si>
 </sst>
 </file>
@@ -4175,7 +4407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4335,6 +4567,28 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4615,9 +4869,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C259"/>
+  <dimension ref="A1:C260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+    <sheetView topLeftCell="A253" workbookViewId="0">
       <selection activeCell="A261" sqref="A261"/>
     </sheetView>
   </sheetViews>
@@ -7268,6 +7522,17 @@
         <v>1074</v>
       </c>
     </row>
+    <row r="260" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A260" s="60" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B260" s="50" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C260" s="51" t="s">
+        <v>1170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7276,10 +7541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -8724,6 +8989,284 @@
         <v>1050</v>
       </c>
     </row>
+    <row r="152" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="117" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B152" s="118"/>
+      <c r="C152" s="119"/>
+    </row>
+    <row r="153" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A153" s="120" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B153" s="121" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C153" s="122" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A154" s="59" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A155" s="59" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A156" s="123" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B156" s="118" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C156" s="119" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A157" s="120" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B157" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C157" s="122" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A158" s="59" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A159" s="59" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A160" s="59" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A161" s="59" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A162" s="59" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A163" s="59" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A164" s="59" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A165" s="59" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A167" s="124" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B167" s="125"/>
+      <c r="C167" s="126"/>
+    </row>
+    <row r="168" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A168" s="52" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B168" s="53" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C168" s="54" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="127" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B169" s="128" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C169" s="129" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="127" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B170" s="128" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C170" s="129" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A171" s="130" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B171" s="125" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C171" s="126" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A172" s="127" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B172" s="128" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C172" s="129" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="52" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B173" s="53" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C173" s="54" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A174" s="52" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B174" s="53" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C174" s="54" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A175" s="52" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B175" s="53" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C175" s="54" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A176" s="52" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B176" s="53" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C176" s="54" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="24" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B178" s="25" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C178" s="26" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="24" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B179" s="25" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C179" s="26" t="s">
+        <v>1168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1239">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -3999,6 +3999,208 @@
   </si>
   <si>
     <t>machi</t>
+  </si>
+  <si>
+    <t>mi masen ka</t>
+  </si>
+  <si>
+    <t>Do you want to see?</t>
+  </si>
+  <si>
+    <t>見ませんか？</t>
+  </si>
+  <si>
+    <t>eiga o mi masen ka</t>
+  </si>
+  <si>
+    <t>Do you want to see a movie?</t>
+  </si>
+  <si>
+    <t>映画をみませんか？</t>
+  </si>
+  <si>
+    <t>hai, mi mashou</t>
+  </si>
+  <si>
+    <t>Yes, let's see</t>
+  </si>
+  <si>
+    <t>はい、見ましょう</t>
+  </si>
+  <si>
+    <t>Concert</t>
+  </si>
+  <si>
+    <t>コンサート</t>
+  </si>
+  <si>
+    <t>konsa-to</t>
+  </si>
+  <si>
+    <t>konsa-to ni ikimasen ka</t>
+  </si>
+  <si>
+    <t>Do you want to go to the concert?</t>
+  </si>
+  <si>
+    <t>コンサートに行きませんか？</t>
+  </si>
+  <si>
+    <t>hai, iki mashou</t>
+  </si>
+  <si>
+    <t>Yes, let's go</t>
+  </si>
+  <si>
+    <t>はい、行きましょう</t>
+  </si>
+  <si>
+    <t>gohan</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>ごはん
+ご飯</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>asa gohan</t>
+  </si>
+  <si>
+    <t>hiru gohan</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>あさごはん
+朝ご飯</t>
+  </si>
+  <si>
+    <t>ひるごはん
+昼ご飯</t>
+  </si>
+  <si>
+    <t>ban gohan</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>ばんごはん
+晩御飯</t>
+  </si>
+  <si>
+    <t>ban gohan o tabe masen ka</t>
+  </si>
+  <si>
+    <t>Do you want to eat dinner?</t>
+  </si>
+  <si>
+    <t>晩ご飯を食べませんか？</t>
+  </si>
+  <si>
+    <t>hai, tabe mashou</t>
+  </si>
+  <si>
+    <t>Yes, let's eat</t>
+  </si>
+  <si>
+    <t>はい、食べましょう</t>
+  </si>
+  <si>
+    <t>A drive</t>
+  </si>
+  <si>
+    <t>doraibu</t>
+  </si>
+  <si>
+    <t>ドライブ</t>
+  </si>
+  <si>
+    <t>doraibu o shi masen ka</t>
+  </si>
+  <si>
+    <t>Do you want to go for a drive?</t>
+  </si>
+  <si>
+    <t>ドライブをしませんか？</t>
+  </si>
+  <si>
+    <t>はい、しましょう</t>
+  </si>
+  <si>
+    <t>hai, shi mashou</t>
+  </si>
+  <si>
+    <t>mashou</t>
+  </si>
+  <si>
+    <t>Let's</t>
+  </si>
+  <si>
+    <t>ましょう</t>
+  </si>
+  <si>
+    <t>Would you</t>
+  </si>
+  <si>
+    <t>ませんか？</t>
+  </si>
+  <si>
+    <t>mashou ka?</t>
+  </si>
+  <si>
+    <t>masen ka?</t>
+  </si>
+  <si>
+    <t>Shall we</t>
+  </si>
+  <si>
+    <t>ましょうか？</t>
+  </si>
+  <si>
+    <t>Listener choice power</t>
+  </si>
+  <si>
+    <t>suki- ni ikimasen ka?</t>
+  </si>
+  <si>
+    <t>Do you want to go skiing?</t>
+  </si>
+  <si>
+    <t>スキーに行きませんか？</t>
+  </si>
+  <si>
+    <t>How about N?</t>
+  </si>
+  <si>
+    <t>N + はどうですか？</t>
+  </si>
+  <si>
+    <t>n + ha + dou + desu ka</t>
+  </si>
+  <si>
+    <t>That's good!</t>
+  </si>
+  <si>
+    <t>いいですね！</t>
+  </si>
+  <si>
+    <t>iidesune</t>
+  </si>
+  <si>
+    <t>Let's do it</t>
+  </si>
+  <si>
+    <t>soushimashou</t>
+  </si>
+  <si>
+    <t>そうしましょう</t>
   </si>
 </sst>
 </file>
@@ -4869,10 +5071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C260"/>
+  <dimension ref="A1:C269"/>
   <sheetViews>
-    <sheetView topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="A261" sqref="A261"/>
+    <sheetView topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="A270" sqref="A270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -7533,6 +7735,94 @@
         <v>1170</v>
       </c>
     </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A262" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A263" s="59" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A264" s="59" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A265" s="59" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A266" s="59" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A267" s="59" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A268" s="59" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269" s="59" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>1236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7541,10 +7831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D179"/>
+  <dimension ref="A1:D198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180"/>
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -7934,1337 +8224,1516 @@
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="36" t="s">
-        <v>407</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>402</v>
-      </c>
-    </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="36" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="36" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="36" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="36" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="36" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="36" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="36" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="36" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B52" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="18" t="s">
-        <v>715</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>713</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
-        <v>724</v>
+        <v>474</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>723</v>
+        <v>475</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>725</v>
+        <v>492</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
-        <v>424</v>
+        <v>715</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>476</v>
+        <v>713</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>422</v>
+        <v>714</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
-        <v>425</v>
+        <v>724</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>477</v>
+        <v>723</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>423</v>
+        <v>725</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B59" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C59" s="20" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="21" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B61" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C61" s="23" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="21" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B62" s="22" t="s">
         <v>432</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C62" s="23" t="s">
         <v>433</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="37" t="s">
-        <v>446</v>
-      </c>
-      <c r="B62" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="37" t="s">
-        <v>453</v>
-      </c>
-      <c r="B63" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="37" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B67" s="38" t="s">
         <v>451</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C67" s="39" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="43" t="s">
-        <v>458</v>
-      </c>
-      <c r="B67" s="44" t="s">
-        <v>456</v>
-      </c>
-      <c r="C67" s="45" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="43" t="s">
-        <v>465</v>
-      </c>
-      <c r="B68" s="44" t="s">
-        <v>459</v>
-      </c>
-      <c r="C68" s="45" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="43" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C69" s="45" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="43" t="s">
+        <v>465</v>
+      </c>
+      <c r="B70" s="44" t="s">
+        <v>459</v>
+      </c>
+      <c r="C70" s="45" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="43" t="s">
+        <v>466</v>
+      </c>
+      <c r="B71" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="C71" s="45" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="43" t="s">
         <v>467</v>
       </c>
-      <c r="B70" s="44" t="s">
+      <c r="B72" s="44" t="s">
         <v>463</v>
       </c>
-      <c r="C70" s="45" t="s">
+      <c r="C72" s="45" t="s">
         <v>464</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="46" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="B73" s="47" t="s">
-        <v>491</v>
-      </c>
-      <c r="C73" s="48" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="46" t="s">
-        <v>478</v>
-      </c>
-      <c r="B74" s="47" t="s">
-        <v>482</v>
-      </c>
-      <c r="C74" s="48" t="s">
-        <v>483</v>
+        <v>832</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="46" t="s">
+        <v>490</v>
+      </c>
+      <c r="B75" s="47" t="s">
+        <v>491</v>
+      </c>
+      <c r="C75" s="48" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="46" t="s">
+        <v>478</v>
+      </c>
+      <c r="B76" s="47" t="s">
+        <v>482</v>
+      </c>
+      <c r="C76" s="48" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="46" t="s">
         <v>481</v>
       </c>
-      <c r="B75" s="47" t="s">
+      <c r="B77" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="C75" s="48" t="s">
+      <c r="C77" s="48" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="60" t="s">
+    <row r="79" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="60" t="s">
         <v>666</v>
       </c>
-      <c r="B77" s="50" t="s">
+      <c r="B79" s="50" t="s">
         <v>664</v>
       </c>
-      <c r="C77" s="51" t="s">
+      <c r="C79" s="51" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
+      <c r="B81" s="8"/>
+      <c r="C81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B82" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>684</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="64" t="s">
-        <v>689</v>
-      </c>
-      <c r="B82" s="53"/>
-      <c r="C82" s="54"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="64" t="s">
-        <v>690</v>
-      </c>
-      <c r="B83" s="53" t="s">
-        <v>691</v>
-      </c>
-      <c r="C83" s="54" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="64" t="s">
-        <v>692</v>
-      </c>
-      <c r="B84" s="53" t="s">
-        <v>693</v>
-      </c>
-      <c r="C84" s="54" t="s">
-        <v>718</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="B84" s="53"/>
+      <c r="C84" s="54"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="64" t="s">
+        <v>690</v>
+      </c>
+      <c r="B85" s="53" t="s">
+        <v>691</v>
+      </c>
+      <c r="C85" s="54" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="64" t="s">
+        <v>692</v>
+      </c>
+      <c r="B86" s="53" t="s">
+        <v>693</v>
+      </c>
+      <c r="C86" s="54" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="64" t="s">
         <v>720</v>
       </c>
-      <c r="B85" s="53" t="s">
+      <c r="B87" s="53" t="s">
         <v>716</v>
       </c>
-      <c r="C85" s="54" t="s">
+      <c r="C87" s="54" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="75" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="75" t="s">
         <v>742</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B89" s="56" t="s">
         <v>774</v>
       </c>
-      <c r="C87" s="57" t="s">
+      <c r="C89" s="57" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="75" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="75" t="s">
         <v>744</v>
       </c>
-      <c r="B88" s="56" t="s">
+      <c r="B90" s="56" t="s">
         <v>743</v>
       </c>
-      <c r="C88" s="57" t="s">
+      <c r="C90" s="57" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="76" t="s">
+    <row r="91" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="76" t="s">
         <v>757</v>
       </c>
-      <c r="B89" s="77" t="s">
+      <c r="B91" s="77" t="s">
         <v>746</v>
       </c>
-      <c r="C89" s="78" t="s">
+      <c r="C91" s="78" t="s">
         <v>747</v>
       </c>
-      <c r="D89" s="65" t="s">
+      <c r="D91" s="65" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="79" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="79" t="s">
         <v>764</v>
       </c>
-      <c r="B90" s="80" t="s">
+      <c r="B92" s="80" t="s">
         <v>762</v>
       </c>
-      <c r="C90" s="81" t="s">
+      <c r="C92" s="81" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="121.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="75" t="s">
+    <row r="93" spans="1:4" ht="121.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="75" t="s">
         <v>776</v>
       </c>
-      <c r="B91" s="56" t="s">
+      <c r="B93" s="56" t="s">
         <v>777</v>
       </c>
-      <c r="C91" s="57" t="s">
+      <c r="C93" s="57" t="s">
         <v>778</v>
       </c>
-      <c r="D91" s="65" t="s">
+      <c r="D93" s="65" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="75" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="75" t="s">
         <v>784</v>
       </c>
-      <c r="B92" s="56" t="s">
+      <c r="B94" s="56" t="s">
         <v>782</v>
       </c>
-      <c r="C92" s="57" t="s">
+      <c r="C94" s="57" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="75" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="75" t="s">
         <v>781</v>
       </c>
-      <c r="B93" s="56" t="s">
+      <c r="B95" s="56" t="s">
         <v>779</v>
       </c>
-      <c r="C93" s="57" t="s">
+      <c r="C95" s="57" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="75" t="s">
+    <row r="96" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="75" t="s">
         <v>786</v>
       </c>
-      <c r="B94" s="56" t="s">
+      <c r="B96" s="56" t="s">
         <v>785</v>
       </c>
-      <c r="C94" s="57" t="s">
+      <c r="C96" s="57" t="s">
         <v>789</v>
       </c>
-      <c r="D94" s="65" t="s">
+      <c r="D96" s="65" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="84" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="75" t="s">
+    <row r="97" spans="1:4" s="84" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="75" t="s">
         <v>791</v>
       </c>
-      <c r="B95" s="56" t="s">
+      <c r="B97" s="56" t="s">
         <v>790</v>
       </c>
-      <c r="C95" s="57" t="s">
+      <c r="C97" s="57" t="s">
         <v>788</v>
       </c>
-      <c r="D95" s="83" t="s">
+      <c r="D97" s="83" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="84" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="75" t="s">
+    <row r="98" spans="1:4" s="84" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="75" t="s">
         <v>799</v>
       </c>
-      <c r="B96" s="56" t="s">
+      <c r="B98" s="56" t="s">
         <v>798</v>
       </c>
-      <c r="C96" s="57" t="s">
+      <c r="C98" s="57" t="s">
         <v>797</v>
       </c>
-      <c r="D96" s="83" t="s">
+      <c r="D98" s="83" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="75" t="s">
+    <row r="99" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="75" t="s">
         <v>795</v>
       </c>
-      <c r="B97" s="56" t="s">
+      <c r="B99" s="56" t="s">
         <v>794</v>
       </c>
-      <c r="C97" s="57" t="s">
+      <c r="C99" s="57" t="s">
         <v>793</v>
       </c>
-      <c r="D97" s="65" t="s">
+      <c r="D99" s="65" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="82" t="s">
+    <row r="100" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="82" t="s">
         <v>802</v>
       </c>
-      <c r="B98" s="77" t="s">
+      <c r="B100" s="77" t="s">
         <v>803</v>
       </c>
-      <c r="C98" s="78" t="s">
+      <c r="C100" s="78" t="s">
         <v>801</v>
       </c>
-      <c r="D98" s="65" t="s">
+      <c r="D100" s="65" t="s">
         <v>804</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="79" t="s">
-        <v>814</v>
-      </c>
-      <c r="B99" s="80" t="s">
-        <v>805</v>
-      </c>
-      <c r="C99" s="81" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="152.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="82" t="s">
-        <v>809</v>
-      </c>
-      <c r="B100" s="77" t="s">
-        <v>807</v>
-      </c>
-      <c r="C100" s="78" t="s">
-        <v>808</v>
-      </c>
-      <c r="D100" s="65" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="79" t="s">
+        <v>814</v>
+      </c>
+      <c r="B101" s="80" t="s">
+        <v>805</v>
+      </c>
+      <c r="C101" s="81" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="152.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="82" t="s">
+        <v>809</v>
+      </c>
+      <c r="B102" s="77" t="s">
+        <v>807</v>
+      </c>
+      <c r="C102" s="78" t="s">
+        <v>808</v>
+      </c>
+      <c r="D102" s="65" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="79" t="s">
         <v>813</v>
       </c>
-      <c r="B101" s="80" t="s">
+      <c r="B103" s="80" t="s">
         <v>812</v>
       </c>
-      <c r="C101" s="81" t="s">
+      <c r="C103" s="81" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="82" t="s">
+    <row r="104" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="82" t="s">
         <v>817</v>
       </c>
-      <c r="B102" s="77" t="s">
+      <c r="B104" s="77" t="s">
         <v>815</v>
       </c>
-      <c r="C102" s="78" t="s">
+      <c r="C104" s="78" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="85" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="85" t="s">
         <v>822</v>
       </c>
-      <c r="B103" s="86" t="s">
+      <c r="B105" s="86" t="s">
         <v>823</v>
       </c>
-      <c r="C103" s="87" t="s">
+      <c r="C105" s="87" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="76" t="s">
+    <row r="106" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="76" t="s">
         <v>819</v>
       </c>
-      <c r="B104" s="88" t="s">
+      <c r="B106" s="88" t="s">
         <v>825</v>
       </c>
-      <c r="C104" s="78" t="s">
+      <c r="C106" s="78" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="79" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="79" t="s">
         <v>835</v>
       </c>
-      <c r="B105" s="80" t="s">
+      <c r="B107" s="80" t="s">
         <v>833</v>
       </c>
-      <c r="C105" s="81" t="s">
+      <c r="C107" s="81" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="79" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="79" t="s">
         <v>847</v>
       </c>
-      <c r="B106" s="80" t="s">
+      <c r="B108" s="80" t="s">
         <v>848</v>
       </c>
-      <c r="C106" s="81" t="s">
+      <c r="C108" s="81" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="75" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="75" t="s">
         <v>838</v>
       </c>
-      <c r="B107" s="56" t="s">
+      <c r="B109" s="56" t="s">
         <v>836</v>
       </c>
-      <c r="C107" s="57" t="s">
+      <c r="C109" s="57" t="s">
         <v>837</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="36" t="s">
-        <v>870</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>868</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="36" t="s">
-        <v>871</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>872</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="36" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="36" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="36" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="36" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="36" t="s">
+        <v>880</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>881</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="36" t="s">
+        <v>883</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>884</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="36" t="s">
         <v>888</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B117" s="14" t="s">
         <v>887</v>
       </c>
-      <c r="C115" s="15" t="s">
+      <c r="C117" s="15" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="98" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="98" t="s">
         <v>889</v>
       </c>
-      <c r="B117" s="99" t="s">
+      <c r="B119" s="99" t="s">
         <v>890</v>
       </c>
-      <c r="C117" s="100" t="s">
+      <c r="C119" s="100" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="98" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="98" t="s">
         <v>894</v>
       </c>
-      <c r="B118" s="99" t="s">
+      <c r="B120" s="99" t="s">
         <v>892</v>
       </c>
-      <c r="C118" s="100" t="s">
+      <c r="C120" s="100" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="89" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="89" t="s">
         <v>898</v>
       </c>
-      <c r="B120" s="90" t="s">
+      <c r="B122" s="90" t="s">
         <v>899</v>
       </c>
-      <c r="C120" s="91" t="s">
+      <c r="C122" s="91" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="92" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="92" t="s">
         <v>903</v>
       </c>
-      <c r="B122" s="93" t="s">
+      <c r="B124" s="93" t="s">
         <v>901</v>
       </c>
-      <c r="C122" s="94" t="s">
+      <c r="C124" s="94" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="92" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="92" t="s">
         <v>906</v>
       </c>
-      <c r="B123" s="93" t="s">
+      <c r="B125" s="93" t="s">
         <v>904</v>
       </c>
-      <c r="C123" s="94" t="s">
+      <c r="C125" s="94" t="s">
         <v>905</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="43" t="s">
-        <v>909</v>
-      </c>
-      <c r="B125" s="44" t="s">
-        <v>907</v>
-      </c>
-      <c r="C125" s="45" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" s="43" t="s">
-        <v>910</v>
-      </c>
-      <c r="B126" s="44" t="s">
-        <v>911</v>
-      </c>
-      <c r="C126" s="45" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="43" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="B127" s="44" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="C127" s="45" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="43" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="B128" s="44" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="C128" s="45" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="43" t="s">
+        <v>915</v>
+      </c>
+      <c r="B129" s="44" t="s">
+        <v>913</v>
+      </c>
+      <c r="C129" s="45" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="43" t="s">
+        <v>918</v>
+      </c>
+      <c r="B130" s="44" t="s">
+        <v>916</v>
+      </c>
+      <c r="C130" s="45" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="43" t="s">
         <v>924</v>
       </c>
-      <c r="B129" s="44" t="s">
+      <c r="B131" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="C129" s="45" t="s">
+      <c r="C131" s="45" t="s">
         <v>923</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="46" t="s">
-        <v>936</v>
-      </c>
-      <c r="B131" s="47" t="s">
-        <v>934</v>
-      </c>
-      <c r="C131" s="48" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" s="46" t="s">
-        <v>847</v>
-      </c>
-      <c r="B132" s="47" t="s">
-        <v>937</v>
-      </c>
-      <c r="C132" s="48" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="46" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B133" s="47" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="C133" s="48" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="46" t="s">
+        <v>847</v>
+      </c>
+      <c r="B134" s="47" t="s">
+        <v>937</v>
+      </c>
+      <c r="C134" s="48" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="46" t="s">
+        <v>940</v>
+      </c>
+      <c r="B135" s="47" t="s">
+        <v>938</v>
+      </c>
+      <c r="C135" s="48" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="46" t="s">
         <v>942</v>
       </c>
-      <c r="B134" s="47" t="s">
+      <c r="B136" s="47" t="s">
         <v>941</v>
       </c>
-      <c r="C134" s="48" t="s">
+      <c r="C136" s="48" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="60" t="s">
+    <row r="138" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A138" s="60" t="s">
         <v>1025</v>
       </c>
-      <c r="B136" s="50" t="s">
+      <c r="B138" s="50" t="s">
         <v>1023</v>
       </c>
-      <c r="C136" s="51" t="s">
+      <c r="C138" s="51" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" s="60" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="60" t="s">
         <v>1039</v>
       </c>
-      <c r="B137" s="50" t="s">
+      <c r="B139" s="50" t="s">
         <v>1037</v>
       </c>
-      <c r="C137" s="51" t="s">
+      <c r="C139" s="51" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" s="60" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="60" t="s">
         <v>1042</v>
       </c>
-      <c r="B138" s="50" t="s">
+      <c r="B140" s="50" t="s">
         <v>1040</v>
       </c>
-      <c r="C138" s="51" t="s">
+      <c r="C140" s="51" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="110" t="s">
+    <row r="141" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="110" t="s">
         <v>1045</v>
       </c>
-      <c r="B139" s="111" t="s">
+      <c r="B141" s="111" t="s">
         <v>1043</v>
       </c>
-      <c r="C139" s="112" t="s">
+      <c r="C141" s="112" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="113" t="s">
+    <row r="142" spans="1:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="113" t="s">
         <v>1080</v>
       </c>
-      <c r="B140" s="114" t="s">
+      <c r="B142" s="114" t="s">
         <v>1079</v>
       </c>
-      <c r="C140" s="115" t="s">
+      <c r="C142" s="115" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="107" t="s">
+    <row r="143" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A143" s="107" t="s">
         <v>1060</v>
       </c>
-      <c r="B141" s="108" t="s">
+      <c r="B143" s="108" t="s">
         <v>1058</v>
       </c>
-      <c r="C141" s="109" t="s">
+      <c r="C143" s="109" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" s="60" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="60" t="s">
         <v>1063</v>
       </c>
-      <c r="B142" s="50" t="s">
+      <c r="B144" s="50" t="s">
         <v>1061</v>
       </c>
-      <c r="C142" s="51" t="s">
+      <c r="C144" s="51" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" s="60" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="60" t="s">
         <v>1066</v>
       </c>
-      <c r="B143" s="50" t="s">
+      <c r="B145" s="50" t="s">
         <v>1064</v>
       </c>
-      <c r="C143" s="51" t="s">
+      <c r="C145" s="51" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="110" t="s">
+    <row r="146" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="110" t="s">
         <v>1069</v>
       </c>
-      <c r="B144" s="111" t="s">
+      <c r="B146" s="111" t="s">
         <v>1067</v>
       </c>
-      <c r="C144" s="112" t="s">
+      <c r="C146" s="112" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" s="107" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="107" t="s">
         <v>1083</v>
       </c>
-      <c r="B145" s="108" t="s">
+      <c r="B147" s="108" t="s">
         <v>1082</v>
       </c>
-      <c r="C145" s="109" t="s">
+      <c r="C147" s="109" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" s="60" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="60" t="s">
         <v>1086</v>
       </c>
-      <c r="B146" s="50" t="s">
+      <c r="B148" s="50" t="s">
         <v>1084</v>
       </c>
-      <c r="C146" s="51" t="s">
+      <c r="C148" s="51" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" s="60" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="60" t="s">
         <v>1089</v>
       </c>
-      <c r="B147" s="50" t="s">
+      <c r="B149" s="50" t="s">
         <v>1087</v>
       </c>
-      <c r="C147" s="51" t="s">
+      <c r="C149" s="51" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="110" t="s">
+    <row r="150" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="110" t="s">
         <v>1092</v>
       </c>
-      <c r="B148" s="111" t="s">
+      <c r="B150" s="111" t="s">
         <v>1090</v>
       </c>
-      <c r="C148" s="112" t="s">
+      <c r="C150" s="112" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" s="116" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="116" t="s">
         <v>1030</v>
       </c>
-      <c r="B149" s="108" t="s">
+      <c r="B151" s="108" t="s">
         <v>1028</v>
       </c>
-      <c r="C149" s="109" t="s">
+      <c r="C151" s="109" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A150" s="60" t="s">
+    <row r="152" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A152" s="60" t="s">
         <v>1052</v>
       </c>
-      <c r="B150" s="105" t="s">
+      <c r="B152" s="105" t="s">
         <v>1051</v>
       </c>
-      <c r="C150" s="106" t="s">
+      <c r="C152" s="106" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="117" t="s">
+    <row r="154" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A154" s="117" t="s">
         <v>1102</v>
       </c>
-      <c r="B152" s="118"/>
-      <c r="C152" s="119"/>
-    </row>
-    <row r="153" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A153" s="120" t="s">
+      <c r="B154" s="118"/>
+      <c r="C154" s="119"/>
+    </row>
+    <row r="155" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A155" s="120" t="s">
         <v>1104</v>
       </c>
-      <c r="B153" s="121" t="s">
+      <c r="B155" s="121" t="s">
         <v>1105</v>
       </c>
-      <c r="C153" s="122" t="s">
+      <c r="C155" s="122" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A154" s="59" t="s">
+    <row r="156" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A156" s="59" t="s">
         <v>1129</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B156" s="8" t="s">
         <v>1128</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C156" s="5" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A155" s="59" t="s">
+    <row r="157" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A157" s="59" t="s">
         <v>1132</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B157" s="8" t="s">
         <v>1130</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C157" s="5" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="123" t="s">
+    <row r="158" spans="1:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A158" s="123" t="s">
         <v>1135</v>
       </c>
-      <c r="B156" s="118" t="s">
+      <c r="B158" s="118" t="s">
         <v>1133</v>
       </c>
-      <c r="C156" s="119" t="s">
+      <c r="C158" s="119" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A157" s="120" t="s">
+    <row r="159" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A159" s="120" t="s">
         <v>1108</v>
       </c>
-      <c r="B157" s="121" t="s">
+      <c r="B159" s="121" t="s">
         <v>1106</v>
       </c>
-      <c r="C157" s="122" t="s">
+      <c r="C159" s="122" t="s">
         <v>1107</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A158" s="59" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A159" s="59" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A160" s="59" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>1113</v>
+        <v>487</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>830</v>
+        <v>488</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A161" s="59" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A162" s="59" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>930</v>
+        <v>1113</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>925</v>
+        <v>830</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A163" s="59" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A164" s="59" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>484</v>
+        <v>930</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>1122</v>
+        <v>925</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A165" s="59" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A166" s="59" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A167" s="59" t="s">
         <v>1126</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B167" s="8" t="s">
         <v>1124</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C167" s="5" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="124" t="s">
+    <row r="169" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A169" s="124" t="s">
         <v>1136</v>
       </c>
-      <c r="B167" s="125"/>
-      <c r="C167" s="126"/>
-    </row>
-    <row r="168" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A168" s="52" t="s">
+      <c r="B169" s="125"/>
+      <c r="C169" s="126"/>
+    </row>
+    <row r="170" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A170" s="52" t="s">
         <v>1148</v>
       </c>
-      <c r="B168" s="53" t="s">
+      <c r="B170" s="53" t="s">
         <v>1146</v>
       </c>
-      <c r="C168" s="54" t="s">
+      <c r="C170" s="54" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" s="127" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="127" t="s">
         <v>1157</v>
       </c>
-      <c r="B169" s="128" t="s">
+      <c r="B171" s="128" t="s">
         <v>1155</v>
       </c>
-      <c r="C169" s="129" t="s">
+      <c r="C171" s="129" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" s="127" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="127" t="s">
         <v>1160</v>
       </c>
-      <c r="B170" s="128" t="s">
+      <c r="B172" s="128" t="s">
         <v>1158</v>
       </c>
-      <c r="C170" s="129" t="s">
+      <c r="C172" s="129" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="130" t="s">
+    <row r="173" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A173" s="130" t="s">
         <v>1163</v>
       </c>
-      <c r="B171" s="125" t="s">
+      <c r="B173" s="125" t="s">
         <v>1161</v>
       </c>
-      <c r="C171" s="126" t="s">
+      <c r="C173" s="126" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A172" s="127" t="s">
+    <row r="174" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A174" s="127" t="s">
         <v>1139</v>
       </c>
-      <c r="B172" s="128" t="s">
+      <c r="B174" s="128" t="s">
         <v>1137</v>
       </c>
-      <c r="C172" s="129" t="s">
+      <c r="C174" s="129" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" s="52" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="52" t="s">
         <v>1141</v>
       </c>
-      <c r="B173" s="53" t="s">
+      <c r="B175" s="53" t="s">
         <v>1142</v>
       </c>
-      <c r="C173" s="54" t="s">
+      <c r="C175" s="54" t="s">
         <v>1140</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A174" s="52" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B174" s="53" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C174" s="54" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A175" s="52" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B175" s="53" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C175" s="54" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A176" s="52" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B176" s="53" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C176" s="54" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A177" s="52" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B177" s="53" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C177" s="54" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A178" s="52" t="s">
         <v>1154</v>
       </c>
-      <c r="B176" s="53" t="s">
+      <c r="B178" s="53" t="s">
         <v>1153</v>
       </c>
-      <c r="C176" s="54" t="s">
+      <c r="C178" s="54" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" s="24" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="24" t="s">
         <v>1166</v>
       </c>
-      <c r="B178" s="25" t="s">
+      <c r="B180" s="25" t="s">
         <v>1164</v>
       </c>
-      <c r="C178" s="26" t="s">
+      <c r="C180" s="26" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="24" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="24" t="s">
         <v>1169</v>
       </c>
-      <c r="B179" s="25" t="s">
+      <c r="B181" s="25" t="s">
         <v>1167</v>
       </c>
-      <c r="C179" s="26" t="s">
+      <c r="C181" s="26" t="s">
         <v>1168</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="36" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B183" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C183" s="15" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="36" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C184" s="15" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="36" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C185" s="15" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="36" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B186" s="14" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C186" s="15" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="36" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B187" s="14" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C187" s="15" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="36" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B188" s="14" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C188" s="15" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="36" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B189" s="14" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C189" s="15" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="36" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B190" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C190" s="15" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="36" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B191" s="14" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C191" s="15" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="36" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B192" s="14" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C192" s="15" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" s="36" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B193" s="14" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C193" s="15" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="36" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B194" s="14" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C194" s="15" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D195" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B196" s="19" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C196" s="20" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="18" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B197" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C197" s="20" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" s="18" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B198" s="19" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C198" s="20" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D198">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="1309">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -3238,9 +3238,6 @@
     <t>to buy</t>
   </si>
   <si>
-    <t>かいあす</t>
-  </si>
-  <si>
     <t>nani o nomimasu ka</t>
   </si>
   <si>
@@ -4201,6 +4198,235 @@
   </si>
   <si>
     <t>そうしましょう</t>
+  </si>
+  <si>
+    <t>かいます
+買います</t>
+  </si>
+  <si>
+    <t>machi masu</t>
+  </si>
+  <si>
+    <t>to wait</t>
+  </si>
+  <si>
+    <t>まちます
+待ちます</t>
+  </si>
+  <si>
+    <t>kaeri masu</t>
+  </si>
+  <si>
+    <t>かえります
+帰ります</t>
+  </si>
+  <si>
+    <t>shini masu</t>
+  </si>
+  <si>
+    <t>to die</t>
+  </si>
+  <si>
+    <t>しにます
+死にます</t>
+  </si>
+  <si>
+    <t>asobi masu</t>
+  </si>
+  <si>
+    <t>to play</t>
+  </si>
+  <si>
+    <t>あそびます
+遊びます</t>
+  </si>
+  <si>
+    <t>nomi masu</t>
+  </si>
+  <si>
+    <t>のみます
+飲みます</t>
+  </si>
+  <si>
+    <t>kiki masu</t>
+  </si>
+  <si>
+    <t>to listen</t>
+  </si>
+  <si>
+    <t>ききます
+聞きます</t>
+  </si>
+  <si>
+    <t>oyogi masu</t>
+  </si>
+  <si>
+    <t>to swim</t>
+  </si>
+  <si>
+    <t>およぎます
+泳ぎます</t>
+  </si>
+  <si>
+    <t>hanashi masu</t>
+  </si>
+  <si>
+    <t>to talk</t>
+  </si>
+  <si>
+    <t>はなします
+話します</t>
+  </si>
+  <si>
+    <t>い、ち、り -&gt; って</t>
+  </si>
+  <si>
+    <t>i,chi, ri =&gt; tte</t>
+  </si>
+  <si>
+    <t>に、び、み -&gt; んで</t>
+  </si>
+  <si>
+    <t>ni, bi, mi =&gt; nde</t>
+  </si>
+  <si>
+    <t>き -&gt; いて</t>
+  </si>
+  <si>
+    <t>ki =&gt; ite</t>
+  </si>
+  <si>
+    <t>ぎ -&gt; いで</t>
+  </si>
+  <si>
+    <t>gi =&gt; ide</t>
+  </si>
+  <si>
+    <t>し -&gt; して</t>
+  </si>
+  <si>
+    <t>shi =&gt; shite</t>
+  </si>
+  <si>
+    <t>TE - Form Regular</t>
+  </si>
+  <si>
+    <t>買います -&gt; 買って</t>
+  </si>
+  <si>
+    <t>待ちます -&gt; 待って</t>
+  </si>
+  <si>
+    <t>帰ります -&gt; 帰って</t>
+  </si>
+  <si>
+    <t>死にます -&gt; 新で</t>
+  </si>
+  <si>
+    <t>遊びます -&gt; 遊んで</t>
+  </si>
+  <si>
+    <t>飲みます -&gt; 飲んで</t>
+  </si>
+  <si>
+    <t>聞きます -&gt; 聞いて</t>
+  </si>
+  <si>
+    <t>泳ぎます -&gt; 泳いで</t>
+  </si>
+  <si>
+    <t>話します -&gt; 話して</t>
+  </si>
+  <si>
+    <t>tabe masu</t>
+  </si>
+  <si>
+    <t>たべます
+食べます</t>
+  </si>
+  <si>
+    <t>mi masu</t>
+  </si>
+  <si>
+    <t>みます
+見ます</t>
+  </si>
+  <si>
+    <t>age masu</t>
+  </si>
+  <si>
+    <t>あげます
+上げます</t>
+  </si>
+  <si>
+    <t>ake masu</t>
+  </si>
+  <si>
+    <t>to open</t>
+  </si>
+  <si>
+    <t>あけます
+開けます</t>
+  </si>
+  <si>
+    <t>shime masu</t>
+  </si>
+  <si>
+    <t>to close</t>
+  </si>
+  <si>
+    <t>しめます
+閉めます</t>
+  </si>
+  <si>
+    <t>todoke masu</t>
+  </si>
+  <si>
+    <t>to deliver</t>
+  </si>
+  <si>
+    <t>とどけます
+届けます</t>
+  </si>
+  <si>
+    <t>tsuke masu</t>
+  </si>
+  <si>
+    <t>to switch on</t>
+  </si>
+  <si>
+    <t>つけます
+付けます</t>
+  </si>
+  <si>
+    <t>ます -&gt; て</t>
+  </si>
+  <si>
+    <t>食べます -&gt; 食べて</t>
+  </si>
+  <si>
+    <t>見ます -&gt; 見て</t>
+  </si>
+  <si>
+    <t>TE - Form Irregular</t>
+  </si>
+  <si>
+    <t>shi masu</t>
+  </si>
+  <si>
+    <t>ki masu</t>
+  </si>
+  <si>
+    <t>きます / 来ます =&gt; きて / 来て</t>
+  </si>
+  <si>
+    <t>shi te</t>
+  </si>
+  <si>
+    <t>ki te</t>
+  </si>
+  <si>
+    <t xml:space="preserve">します =&gt; して </t>
   </si>
 </sst>
 </file>
@@ -4609,7 +4835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4789,6 +5015,18 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5071,10 +5309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C269"/>
+  <dimension ref="A1:C286"/>
   <sheetViews>
-    <sheetView topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="A270" sqref="A270"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="A287" sqref="A287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -6395,7 +6633,7 @@
     </row>
     <row r="128" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A128" s="102" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B128" s="47" t="s">
         <v>468</v>
@@ -6417,13 +6655,13 @@
     </row>
     <row r="130" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A130" s="102" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B130" s="47" t="s">
         <v>473</v>
       </c>
       <c r="C130" s="48" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
@@ -7231,7 +7469,7 @@
     </row>
     <row r="211" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A211" s="101" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B211" s="67" t="s">
         <v>820</v>
@@ -7317,166 +7555,166 @@
         <v>927</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A220" s="95" t="s">
-        <v>933</v>
-      </c>
-      <c r="B220" s="96" t="s">
-        <v>931</v>
-      </c>
-      <c r="C220" s="97" t="s">
-        <v>932</v>
+    <row r="221" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A221" s="103" t="s">
+        <v>945</v>
+      </c>
+      <c r="B221" s="41" t="s">
+        <v>943</v>
+      </c>
+      <c r="C221" s="42" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A222" s="103" t="s">
+        <v>948</v>
+      </c>
+      <c r="B222" s="41" t="s">
         <v>946</v>
       </c>
-      <c r="B222" s="41" t="s">
-        <v>944</v>
-      </c>
       <c r="C222" s="42" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A223" s="103" t="s">
+        <v>951</v>
+      </c>
+      <c r="B223" s="41" t="s">
         <v>949</v>
       </c>
-      <c r="B223" s="41" t="s">
-        <v>947</v>
-      </c>
       <c r="C223" s="42" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A224" s="103" t="s">
+        <v>954</v>
+      </c>
+      <c r="B224" s="41" t="s">
         <v>952</v>
       </c>
-      <c r="B224" s="41" t="s">
-        <v>950</v>
-      </c>
       <c r="C224" s="42" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A225" s="103" t="s">
+        <v>957</v>
+      </c>
+      <c r="B225" s="41" t="s">
         <v>955</v>
       </c>
-      <c r="B225" s="41" t="s">
-        <v>953</v>
-      </c>
       <c r="C225" s="42" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A226" s="103" t="s">
+        <v>960</v>
+      </c>
+      <c r="B226" s="104" t="s">
+        <v>959</v>
+      </c>
+      <c r="C226" s="42" t="s">
         <v>958</v>
       </c>
-      <c r="B226" s="41" t="s">
-        <v>956</v>
-      </c>
-      <c r="C226" s="42" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+    </row>
+    <row r="227" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A227" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="B227" s="41" t="s">
         <v>961</v>
       </c>
-      <c r="B227" s="104" t="s">
-        <v>960</v>
-      </c>
       <c r="C227" s="42" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A228" s="103" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228" s="40" t="s">
+        <v>966</v>
+      </c>
+      <c r="B228" s="41" t="s">
         <v>964</v>
       </c>
-      <c r="B228" s="41" t="s">
-        <v>962</v>
-      </c>
       <c r="C228" s="42" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="40" t="s">
+        <v>969</v>
+      </c>
+      <c r="B229" s="41" t="s">
         <v>967</v>
       </c>
-      <c r="B229" s="41" t="s">
-        <v>965</v>
-      </c>
       <c r="C229" s="42" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="40" t="s">
+        <v>972</v>
+      </c>
+      <c r="B230" s="41" t="s">
+        <v>971</v>
+      </c>
+      <c r="C230" s="42" t="s">
         <v>970</v>
       </c>
-      <c r="B230" s="41" t="s">
-        <v>968</v>
-      </c>
-      <c r="C230" s="42" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A231" s="40" t="s">
+    </row>
+    <row r="231" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A231" s="103" t="s">
+        <v>975</v>
+      </c>
+      <c r="B231" s="41" t="s">
+        <v>974</v>
+      </c>
+      <c r="C231" s="42" t="s">
         <v>973</v>
-      </c>
-      <c r="B231" s="41" t="s">
-        <v>972</v>
-      </c>
-      <c r="C231" s="42" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A232" s="103" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="B232" s="41" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="C232" s="42" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A233" s="103" t="s">
-        <v>980</v>
+        <v>977</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233" s="40" t="s">
+        <v>983</v>
       </c>
       <c r="B233" s="41" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C233" s="42" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A234" s="40" t="s">
-        <v>984</v>
-      </c>
-      <c r="B234" s="41" t="s">
         <v>982</v>
       </c>
-      <c r="C234" s="42" t="s">
-        <v>983</v>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A235" s="46" t="s">
+        <v>987</v>
+      </c>
+      <c r="B235" s="47" t="s">
+        <v>986</v>
+      </c>
+      <c r="C235" s="48" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="46" t="s">
+        <v>989</v>
+      </c>
+      <c r="B236" s="47" t="s">
         <v>988</v>
-      </c>
-      <c r="B236" s="47" t="s">
-        <v>987</v>
       </c>
       <c r="C236" s="48" t="s">
         <v>1009</v>
@@ -7484,10 +7722,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="46" t="s">
+        <v>991</v>
+      </c>
+      <c r="B237" s="47" t="s">
         <v>990</v>
-      </c>
-      <c r="B237" s="47" t="s">
-        <v>989</v>
       </c>
       <c r="C237" s="48" t="s">
         <v>1010</v>
@@ -7495,10 +7733,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="46" t="s">
+        <v>993</v>
+      </c>
+      <c r="B238" s="47" t="s">
         <v>992</v>
-      </c>
-      <c r="B238" s="47" t="s">
-        <v>991</v>
       </c>
       <c r="C238" s="48" t="s">
         <v>1011</v>
@@ -7506,10 +7744,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="46" t="s">
+        <v>995</v>
+      </c>
+      <c r="B239" s="47" t="s">
         <v>994</v>
-      </c>
-      <c r="B239" s="47" t="s">
-        <v>993</v>
       </c>
       <c r="C239" s="48" t="s">
         <v>1012</v>
@@ -7517,10 +7755,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="46" t="s">
+        <v>997</v>
+      </c>
+      <c r="B240" s="47" t="s">
         <v>996</v>
-      </c>
-      <c r="B240" s="47" t="s">
-        <v>995</v>
       </c>
       <c r="C240" s="48" t="s">
         <v>1013</v>
@@ -7528,10 +7766,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="46" t="s">
+        <v>999</v>
+      </c>
+      <c r="B241" s="47" t="s">
         <v>998</v>
-      </c>
-      <c r="B241" s="47" t="s">
-        <v>997</v>
       </c>
       <c r="C241" s="48" t="s">
         <v>1014</v>
@@ -7539,10 +7777,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="46" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B242" s="47" t="s">
         <v>1000</v>
-      </c>
-      <c r="B242" s="47" t="s">
-        <v>999</v>
       </c>
       <c r="C242" s="48" t="s">
         <v>1015</v>
@@ -7550,10 +7788,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="46" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B243" s="47" t="s">
         <v>1002</v>
-      </c>
-      <c r="B243" s="47" t="s">
-        <v>1001</v>
       </c>
       <c r="C243" s="48" t="s">
         <v>1016</v>
@@ -7561,10 +7799,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="46" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B244" s="47" t="s">
         <v>1004</v>
-      </c>
-      <c r="B244" s="47" t="s">
-        <v>1003</v>
       </c>
       <c r="C244" s="48" t="s">
         <v>1017</v>
@@ -7572,46 +7810,46 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="46" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B245" s="47" t="s">
         <v>1006</v>
       </c>
-      <c r="B245" s="47" t="s">
-        <v>1005</v>
-      </c>
       <c r="C245" s="48" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="46" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B246" s="47" t="s">
         <v>1019</v>
       </c>
-      <c r="B246" s="47" t="s">
-        <v>1007</v>
-      </c>
       <c r="C246" s="48" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A247" s="46" t="s">
         <v>1021</v>
       </c>
-      <c r="B247" s="47" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C247" s="48" t="s">
-        <v>1022</v>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A248" s="49" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B248" s="50" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C248" s="51" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="49" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="B249" s="50" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="C249" s="51" t="s">
-        <v>1047</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
@@ -7619,142 +7857,142 @@
         <v>1033</v>
       </c>
       <c r="B250" s="50" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="C250" s="51" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A251" s="49" t="s">
         <v>1034</v>
       </c>
+    </row>
+    <row r="251" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A251" s="60" t="s">
+        <v>1048</v>
+      </c>
       <c r="B251" s="50" t="s">
-        <v>1036</v>
+        <v>1047</v>
       </c>
       <c r="C251" s="51" t="s">
-        <v>1035</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A252" s="60" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="B252" s="50" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="C252" s="51" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="60" t="s">
-        <v>1054</v>
+        <v>1097</v>
       </c>
       <c r="B253" s="50" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C253" s="51" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254" s="49" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B254" s="50" t="s">
         <v>1055</v>
       </c>
-      <c r="C253" s="51" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A254" s="60" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B254" s="50" t="s">
-        <v>1096</v>
-      </c>
       <c r="C254" s="51" t="s">
-        <v>1097</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="49" t="s">
-        <v>1057</v>
+        <v>1100</v>
       </c>
       <c r="B255" s="50" t="s">
-        <v>1056</v>
+        <v>1099</v>
       </c>
       <c r="C255" s="51" t="s">
-        <v>1077</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="49" t="s">
-        <v>1101</v>
+        <v>1071</v>
       </c>
       <c r="B256" s="50" t="s">
-        <v>1100</v>
+        <v>1069</v>
       </c>
       <c r="C256" s="51" t="s">
-        <v>1099</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="49" t="s">
-        <v>1072</v>
+        <v>1094</v>
       </c>
       <c r="B257" s="50" t="s">
-        <v>1070</v>
+        <v>1092</v>
       </c>
       <c r="C257" s="51" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A258" s="49" t="s">
-        <v>1095</v>
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A258" s="60" t="s">
+        <v>1075</v>
       </c>
       <c r="B258" s="50" t="s">
-        <v>1093</v>
+        <v>1074</v>
       </c>
       <c r="C258" s="51" t="s">
-        <v>1094</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A259" s="60" t="s">
-        <v>1076</v>
+        <v>1170</v>
       </c>
       <c r="B259" s="50" t="s">
-        <v>1075</v>
+        <v>1171</v>
       </c>
       <c r="C259" s="51" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A260" s="60" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B260" s="50" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C260" s="51" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A262" s="2" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A261" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B261" s="8" t="s">
         <v>1183</v>
       </c>
+      <c r="C261" s="5" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A262" s="59" t="s">
+        <v>1192</v>
+      </c>
       <c r="B262" s="8" t="s">
-        <v>1184</v>
+        <v>1190</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>1182</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A263" s="59" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C263" s="5" t="s">
         <v>1193</v>
-      </c>
-      <c r="B263" s="8" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
@@ -7765,62 +8003,227 @@
         <v>1195</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A265" s="59" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B265" s="8" t="s">
         <v>1199</v>
       </c>
-      <c r="B265" s="8" t="s">
-        <v>1196</v>
-      </c>
       <c r="C265" s="5" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="59" t="s">
-        <v>1202</v>
+        <v>1210</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>1200</v>
+        <v>1209</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>1201</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="59" t="s">
-        <v>1211</v>
+        <v>1233</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>1210</v>
+        <v>1234</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>1209</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="59" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="B268" s="8" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C268" s="5" t="s">
         <v>1235</v>
       </c>
-      <c r="C268" s="5" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A269" s="59" t="s">
+    </row>
+    <row r="270" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A270" s="52" t="s">
         <v>1238</v>
       </c>
-      <c r="B269" s="8" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>1236</v>
+      <c r="B270" s="53" t="s">
+        <v>931</v>
+      </c>
+      <c r="C270" s="54" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A271" s="52" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B271" s="53" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C271" s="54" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A272" s="52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B272" s="53" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C272" s="54" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A273" s="52" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B273" s="53" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C273" s="54" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A274" s="52" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B274" s="53" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C274" s="54" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A275" s="52" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B275" s="53" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C275" s="54" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A276" s="52" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B276" s="53" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C276" s="54" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A277" s="52" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B277" s="53" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C277" s="54" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A278" s="52" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B278" s="53" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C278" s="54" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A280" s="137" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B280" s="25" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C280" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A281" s="137" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B281" s="25" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C281" s="26" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A282" s="137" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B282" s="25" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C282" s="26" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A283" s="137" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B283" s="25" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C283" s="26" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A284" s="137" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B284" s="25" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C284" s="26" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A285" s="137" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B285" s="25" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C285" s="26" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A286" s="137" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B286" s="25" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C286" s="26" t="s">
+        <v>1297</v>
       </c>
     </row>
   </sheetData>
@@ -7831,10 +8234,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D198"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199"/>
+    <sheetView topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -7847,7 +8250,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -9072,13 +9475,13 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="46" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B133" s="47" t="s">
+        <v>933</v>
+      </c>
+      <c r="C133" s="48" t="s">
         <v>934</v>
-      </c>
-      <c r="C133" s="48" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
@@ -9086,7 +9489,7 @@
         <v>847</v>
       </c>
       <c r="B134" s="47" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C134" s="48" t="s">
         <v>849</v>
@@ -9094,256 +9497,256 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="46" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B135" s="47" t="s">
+        <v>937</v>
+      </c>
+      <c r="C135" s="48" t="s">
         <v>938</v>
-      </c>
-      <c r="C135" s="48" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="46" t="s">
+        <v>941</v>
+      </c>
+      <c r="B136" s="47" t="s">
+        <v>940</v>
+      </c>
+      <c r="C136" s="48" t="s">
         <v>942</v>
-      </c>
-      <c r="B136" s="47" t="s">
-        <v>941</v>
-      </c>
-      <c r="C136" s="48" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A138" s="60" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B138" s="50" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C138" s="51" t="s">
         <v>1023</v>
-      </c>
-      <c r="C138" s="51" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="60" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B139" s="50" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C139" s="51" t="s">
         <v>1037</v>
-      </c>
-      <c r="C139" s="51" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="60" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B140" s="50" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C140" s="51" t="s">
         <v>1040</v>
-      </c>
-      <c r="C140" s="51" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="110" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B141" s="111" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C141" s="112" t="s">
         <v>1043</v>
-      </c>
-      <c r="C141" s="112" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="113" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B142" s="114" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C142" s="115" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A143" s="107" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B143" s="108" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C143" s="109" t="s">
         <v>1058</v>
-      </c>
-      <c r="C143" s="109" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="60" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B144" s="50" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C144" s="51" t="s">
         <v>1061</v>
-      </c>
-      <c r="C144" s="51" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="60" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B145" s="50" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C145" s="51" t="s">
         <v>1064</v>
-      </c>
-      <c r="C145" s="51" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="110" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B146" s="111" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C146" s="112" t="s">
         <v>1067</v>
-      </c>
-      <c r="C146" s="112" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="107" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B147" s="108" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C147" s="109" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="60" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B148" s="50" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C148" s="51" t="s">
         <v>1084</v>
-      </c>
-      <c r="C148" s="51" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="60" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B149" s="50" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C149" s="51" t="s">
         <v>1087</v>
-      </c>
-      <c r="C149" s="51" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="110" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B150" s="111" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C150" s="112" t="s">
         <v>1090</v>
-      </c>
-      <c r="C150" s="112" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="116" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B151" s="108" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C151" s="109" t="s">
         <v>1028</v>
-      </c>
-      <c r="C151" s="109" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A152" s="60" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B152" s="105" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C152" s="106" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="117" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B154" s="118"/>
       <c r="C154" s="119"/>
     </row>
     <row r="155" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A155" s="120" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B155" s="121" t="s">
         <v>1104</v>
       </c>
-      <c r="B155" s="121" t="s">
-        <v>1105</v>
-      </c>
       <c r="C155" s="122" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A156" s="59" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A157" s="59" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B157" s="8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C157" s="5" t="s">
         <v>1130</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="123" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B158" s="118" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C158" s="119" t="s">
         <v>1133</v>
-      </c>
-      <c r="C158" s="119" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A159" s="120" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B159" s="121" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C159" s="122" t="s">
         <v>1106</v>
-      </c>
-      <c r="C159" s="122" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A160" s="59" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>487</v>
@@ -9354,21 +9757,21 @@
     </row>
     <row r="161" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A161" s="59" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B161" s="8" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>1110</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A162" s="59" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>830</v>
@@ -9376,18 +9779,18 @@
     </row>
     <row r="163" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A163" s="59" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B163" s="8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>1115</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A164" s="59" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>930</v>
@@ -9398,311 +9801,311 @@
     </row>
     <row r="165" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A165" s="59" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B165" s="8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>1119</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A166" s="59" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>484</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A167" s="59" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B167" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>1124</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="124" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B169" s="125"/>
       <c r="C169" s="126"/>
     </row>
     <row r="170" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A170" s="52" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B170" s="53" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C170" s="54" t="s">
         <v>1146</v>
-      </c>
-      <c r="C170" s="54" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="127" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B171" s="128" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C171" s="129" t="s">
         <v>1155</v>
-      </c>
-      <c r="C171" s="129" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="127" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B172" s="128" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C172" s="129" t="s">
         <v>1158</v>
-      </c>
-      <c r="C172" s="129" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="130" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B173" s="125" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C173" s="126" t="s">
         <v>1161</v>
-      </c>
-      <c r="C173" s="126" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A174" s="127" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B174" s="128" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C174" s="129" t="s">
         <v>1137</v>
-      </c>
-      <c r="C174" s="129" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="52" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B175" s="53" t="s">
         <v>1141</v>
       </c>
-      <c r="B175" s="53" t="s">
-        <v>1142</v>
-      </c>
       <c r="C175" s="54" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A176" s="52" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B176" s="53" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C176" s="54" t="s">
         <v>1143</v>
-      </c>
-      <c r="C176" s="54" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A177" s="52" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B177" s="53" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C177" s="54" t="s">
         <v>1149</v>
-      </c>
-      <c r="C177" s="54" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A178" s="52" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B178" s="53" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C178" s="54" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="24" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B180" s="25" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C180" s="26" t="s">
         <v>1164</v>
-      </c>
-      <c r="C180" s="26" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="24" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B181" s="25" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C181" s="26" t="s">
         <v>1167</v>
-      </c>
-      <c r="C181" s="26" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="36" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B183" s="14" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C183" s="15" t="s">
         <v>1173</v>
-      </c>
-      <c r="C183" s="15" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="36" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B184" s="14" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C184" s="15" t="s">
         <v>1176</v>
-      </c>
-      <c r="C184" s="15" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="36" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B185" s="14" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C185" s="15" t="s">
         <v>1179</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="36" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B186" s="14" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C186" s="15" t="s">
         <v>1185</v>
-      </c>
-      <c r="C186" s="15" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="36" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B187" s="14" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C187" s="15" t="s">
         <v>1188</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="36" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B188" s="14" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C188" s="15" t="s">
         <v>1203</v>
-      </c>
-      <c r="C188" s="15" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="36" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B189" s="14" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C189" s="15" t="s">
         <v>1206</v>
-      </c>
-      <c r="C189" s="15" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="36" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B190" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C190" s="15" t="s">
         <v>1212</v>
-      </c>
-      <c r="C190" s="15" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="36" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B191" s="14" t="s">
         <v>1215</v>
       </c>
-      <c r="B191" s="14" t="s">
-        <v>1216</v>
-      </c>
       <c r="C191" s="15" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="36" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B192" s="14" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C192" s="15" t="s">
         <v>1227</v>
-      </c>
-      <c r="C192" s="15" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="36" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B193" s="14" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C193" s="15" t="s">
         <v>1188</v>
-      </c>
-      <c r="C193" s="15" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="36" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B194" s="14" t="s">
         <v>1231</v>
       </c>
-      <c r="B194" s="14" t="s">
-        <v>1232</v>
-      </c>
       <c r="C194" s="15" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D195" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="18" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B196" s="19" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C196" s="20" t="s">
         <v>1217</v>
-      </c>
-      <c r="C196" s="20" t="s">
-        <v>1218</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -9710,13 +10113,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="18" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D197">
         <v>2</v>
@@ -9724,16 +10127,164 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="18" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D198">
         <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" s="21" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B201" s="22" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" s="21" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B202" s="22"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" s="21" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B203" s="22"/>
+    </row>
+    <row r="204" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A204" s="133" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B204" s="134"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205" s="131" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B205" s="132" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206" s="131" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B206" s="132"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207" s="131" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B207" s="132"/>
+    </row>
+    <row r="208" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A208" s="133" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B208" s="134"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" s="131" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B209" s="132" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A210" s="133" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B210" s="134"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" s="131" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B211" s="132" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A212" s="133" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B212" s="134"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" s="131" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B213" s="132" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A214" s="133" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B214" s="134"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215" s="21" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B215" s="22"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216" s="21" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B216" s="22"/>
+    </row>
+    <row r="217" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A217" s="133" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B217" s="134"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218" s="135"/>
+      <c r="B218" s="136"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219" s="1" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220" s="138" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B220" s="28" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C220" s="29" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221" s="27" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B221" s="28" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C221" s="29" t="s">
+        <v>1306</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="1323">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -1543,9 +1543,6 @@
     <t>Friend</t>
   </si>
   <si>
-    <t>ともだち</t>
-  </si>
-  <si>
     <t>resutauran</t>
   </si>
   <si>
@@ -2962,9 +2959,6 @@
     <t>Café shop</t>
   </si>
   <si>
-    <t>きっさてん</t>
-  </si>
-  <si>
     <t>Noun + を + たべます</t>
   </si>
   <si>
@@ -4427,13 +4421,162 @@
   </si>
   <si>
     <t xml:space="preserve">します =&gt; して </t>
+  </si>
+  <si>
+    <t>kutsu</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>くつ</t>
+  </si>
+  <si>
+    <t>TE - Sentence Connection (None change)</t>
+  </si>
+  <si>
+    <t>Tomorrow I will go to Thai and buy shoes</t>
+  </si>
+  <si>
+    <t>Yesterday, I went to Thai and bought shoes</t>
+  </si>
+  <si>
+    <t>ともだち
+友達</t>
+  </si>
+  <si>
+    <t>ai masu</t>
+  </si>
+  <si>
+    <t>to meet</t>
+  </si>
+  <si>
+    <t>あいます
+会います</t>
+  </si>
+  <si>
+    <t>きっさてん
+喫茶店</t>
+  </si>
+  <si>
+    <t>Te Sentence + Sentence</t>
+  </si>
+  <si>
+    <r>
+      <t>明日タイに</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行って</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、くつを買います</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ashita thai ni </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>itte,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> kutsu o kaimasu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>昨日タイに</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行って</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、くつを買いました</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kinou thai ni </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>itte,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> kutsu o kaimashita</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4701,6 +4844,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -4835,7 +4988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5029,6 +5182,12 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5309,10 +5468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C286"/>
+  <dimension ref="A1:C289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="A287" sqref="A287"/>
+    <sheetView topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="A290" sqref="A290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -5401,13 +5560,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>668</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -5423,24 +5582,24 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>670</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>674</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -5467,13 +5626,13 @@
     </row>
     <row r="14" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A14" s="59" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>661</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
@@ -6303,123 +6462,123 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B95" s="22" t="s">
+        <v>693</v>
+      </c>
+      <c r="C95" s="23" t="s">
         <v>694</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="21" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B96" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="C96" s="23" t="s">
         <v>697</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="21" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="21" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="21" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B99" s="22" t="s">
+        <v>699</v>
+      </c>
+      <c r="C99" s="23" t="s">
         <v>700</v>
-      </c>
-      <c r="C99" s="23" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="21" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="21" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B102" s="22" t="s">
+        <v>702</v>
+      </c>
+      <c r="C102" s="23" t="s">
         <v>703</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="21" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="21" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B105" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="C105" s="23" t="s">
         <v>706</v>
-      </c>
-      <c r="C105" s="23" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -6598,9 +6757,9 @@
         <v>419</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="40" t="s">
-        <v>437</v>
+    <row r="124" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="103" t="s">
+        <v>1313</v>
       </c>
       <c r="B124" s="41" t="s">
         <v>435</v>
@@ -6611,1506 +6770,1506 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="40" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B125" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="C125" s="42" t="s">
         <v>438</v>
-      </c>
-      <c r="C125" s="42" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B126" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="C126" s="42" t="s">
         <v>441</v>
-      </c>
-      <c r="C126" s="42" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A128" s="102" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B128" s="47" t="s">
+        <v>467</v>
+      </c>
+      <c r="C128" s="48" t="s">
         <v>468</v>
-      </c>
-      <c r="C128" s="48" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="B129" s="47" t="s">
         <v>471</v>
       </c>
-      <c r="B129" s="47" t="s">
-        <v>472</v>
-      </c>
       <c r="C129" s="48" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A130" s="102" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B130" s="47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C130" s="48" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="46" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B131" s="47" t="s">
+        <v>483</v>
+      </c>
+      <c r="C131" s="48" t="s">
         <v>484</v>
-      </c>
-      <c r="C131" s="48" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="46" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B132" s="47" t="s">
+        <v>486</v>
+      </c>
+      <c r="C132" s="48" t="s">
         <v>487</v>
-      </c>
-      <c r="C132" s="48" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="49" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B134" s="50" t="s">
+        <v>492</v>
+      </c>
+      <c r="C134" s="51" t="s">
         <v>493</v>
-      </c>
-      <c r="C134" s="51" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="49" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B135" s="50" t="s">
+        <v>495</v>
+      </c>
+      <c r="C135" s="51" t="s">
         <v>496</v>
-      </c>
-      <c r="C135" s="51" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="49" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B136" s="50" t="s">
+        <v>498</v>
+      </c>
+      <c r="C136" s="51" t="s">
         <v>499</v>
-      </c>
-      <c r="C136" s="51" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="49" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B137" s="50" t="s">
+        <v>501</v>
+      </c>
+      <c r="C137" s="51" t="s">
         <v>502</v>
-      </c>
-      <c r="C137" s="51" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="49" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B138" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="C138" s="51" t="s">
         <v>505</v>
-      </c>
-      <c r="C138" s="51" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="49" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B139" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="C139" s="51" t="s">
         <v>508</v>
-      </c>
-      <c r="C139" s="51" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="49" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B140" s="50" t="s">
+        <v>510</v>
+      </c>
+      <c r="C140" s="51" t="s">
         <v>511</v>
-      </c>
-      <c r="C140" s="51" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B141" s="50" t="s">
+        <v>513</v>
+      </c>
+      <c r="C141" s="51" t="s">
         <v>514</v>
-      </c>
-      <c r="C141" s="51" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="49" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B142" s="50" t="s">
+        <v>516</v>
+      </c>
+      <c r="C142" s="51" t="s">
         <v>517</v>
-      </c>
-      <c r="C142" s="51" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="49" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B143" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="C143" s="51" t="s">
         <v>520</v>
-      </c>
-      <c r="C143" s="51" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B144" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="C144" s="51" t="s">
         <v>523</v>
-      </c>
-      <c r="C144" s="51" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="49" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B145" s="50" t="s">
+        <v>525</v>
+      </c>
+      <c r="C145" s="51" t="s">
         <v>526</v>
-      </c>
-      <c r="C145" s="51" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="49" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B146" s="50" t="s">
+        <v>528</v>
+      </c>
+      <c r="C146" s="51" t="s">
         <v>529</v>
-      </c>
-      <c r="C146" s="51" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="49" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B147" s="50" t="s">
+        <v>531</v>
+      </c>
+      <c r="C147" s="51" t="s">
         <v>532</v>
-      </c>
-      <c r="C147" s="51" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B148" s="50" t="s">
+        <v>534</v>
+      </c>
+      <c r="C148" s="51" t="s">
         <v>535</v>
-      </c>
-      <c r="C148" s="51" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B150" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="B150" s="8" t="s">
-        <v>554</v>
-      </c>
       <c r="C150" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A166" s="52" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B166" s="53" t="s">
+        <v>582</v>
+      </c>
+      <c r="C166" s="54" t="s">
         <v>583</v>
-      </c>
-      <c r="C166" s="54" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A167" s="52" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B167" s="53" t="s">
+        <v>585</v>
+      </c>
+      <c r="C167" s="54" t="s">
         <v>586</v>
-      </c>
-      <c r="C167" s="54" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A168" s="52" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B168" s="53" t="s">
+        <v>588</v>
+      </c>
+      <c r="C168" s="54" t="s">
         <v>589</v>
-      </c>
-      <c r="C168" s="54" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A169" s="52" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B169" s="53" t="s">
+        <v>591</v>
+      </c>
+      <c r="C169" s="54" t="s">
         <v>592</v>
-      </c>
-      <c r="C169" s="54" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A170" s="52" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B170" s="53" t="s">
+        <v>594</v>
+      </c>
+      <c r="C170" s="54" t="s">
         <v>595</v>
-      </c>
-      <c r="C170" s="54" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A171" s="52" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B171" s="53" t="s">
+        <v>597</v>
+      </c>
+      <c r="C171" s="54" t="s">
         <v>598</v>
-      </c>
-      <c r="C171" s="54" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A172" s="52" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B172" s="53" t="s">
+        <v>600</v>
+      </c>
+      <c r="C172" s="54" t="s">
         <v>601</v>
-      </c>
-      <c r="C172" s="54" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A173" s="52" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B173" s="53" t="s">
+        <v>603</v>
+      </c>
+      <c r="C173" s="54" t="s">
         <v>604</v>
-      </c>
-      <c r="C173" s="54" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A174" s="52" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B174" s="53" t="s">
+        <v>606</v>
+      </c>
+      <c r="C174" s="54" t="s">
         <v>607</v>
-      </c>
-      <c r="C174" s="54" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A175" s="52" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B175" s="53" t="s">
+        <v>609</v>
+      </c>
+      <c r="C175" s="54" t="s">
         <v>610</v>
-      </c>
-      <c r="C175" s="54" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A176" s="52" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B176" s="53" t="s">
+        <v>612</v>
+      </c>
+      <c r="C176" s="54" t="s">
         <v>613</v>
-      </c>
-      <c r="C176" s="54" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A177" s="52" t="s">
+        <v>616</v>
+      </c>
+      <c r="B177" s="53" t="s">
         <v>617</v>
       </c>
-      <c r="B177" s="53" t="s">
-        <v>618</v>
-      </c>
       <c r="C177" s="54" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A179" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B179" s="56" t="s">
+        <v>618</v>
+      </c>
+      <c r="C179" s="57" t="s">
         <v>619</v>
-      </c>
-      <c r="C179" s="57" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A180" s="55" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B180" s="56" t="s">
+        <v>621</v>
+      </c>
+      <c r="C180" s="57" t="s">
         <v>622</v>
-      </c>
-      <c r="C180" s="57" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A181" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B181" s="56" t="s">
+        <v>624</v>
+      </c>
+      <c r="C181" s="57" t="s">
         <v>625</v>
-      </c>
-      <c r="C181" s="57" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A182" s="55" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B182" s="56" t="s">
+        <v>627</v>
+      </c>
+      <c r="C182" s="57" t="s">
         <v>628</v>
-      </c>
-      <c r="C182" s="57" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A183" s="55" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B183" s="56" t="s">
+        <v>630</v>
+      </c>
+      <c r="C183" s="57" t="s">
         <v>631</v>
-      </c>
-      <c r="C183" s="57" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A184" s="55" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B184" s="56" t="s">
+        <v>633</v>
+      </c>
+      <c r="C184" s="57" t="s">
         <v>634</v>
-      </c>
-      <c r="C184" s="57" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A185" s="55" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B185" s="56" t="s">
+        <v>636</v>
+      </c>
+      <c r="C185" s="57" t="s">
         <v>637</v>
-      </c>
-      <c r="C185" s="57" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A186" s="55" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B186" s="56" t="s">
+        <v>639</v>
+      </c>
+      <c r="C186" s="57" t="s">
         <v>640</v>
-      </c>
-      <c r="C186" s="57" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A187" s="55" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B187" s="56" t="s">
+        <v>642</v>
+      </c>
+      <c r="C187" s="57" t="s">
         <v>643</v>
-      </c>
-      <c r="C187" s="57" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A188" s="55" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B188" s="56" t="s">
+        <v>645</v>
+      </c>
+      <c r="C188" s="57" t="s">
         <v>646</v>
-      </c>
-      <c r="C188" s="57" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A189" s="55" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B189" s="56" t="s">
+        <v>657</v>
+      </c>
+      <c r="C189" s="57" t="s">
         <v>658</v>
-      </c>
-      <c r="C189" s="57" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A191" s="16" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B191" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="C191" s="15" t="s">
         <v>649</v>
-      </c>
-      <c r="C191" s="15" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A192" s="16" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B192" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="C192" s="15" t="s">
         <v>652</v>
-      </c>
-      <c r="C192" s="15" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A193" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="B193" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="C193" s="58" t="s">
         <v>656</v>
-      </c>
-      <c r="B193" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="C193" s="58" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="61" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B195" s="62" t="s">
+        <v>685</v>
+      </c>
+      <c r="C195" s="63" t="s">
         <v>686</v>
-      </c>
-      <c r="C195" s="63" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="61" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B196" s="62" t="s">
+        <v>708</v>
+      </c>
+      <c r="C196" s="63" t="s">
         <v>709</v>
-      </c>
-      <c r="C196" s="63" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="61" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B197" s="62" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C197" s="63" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="61" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B198" s="62" t="s">
+        <v>725</v>
+      </c>
+      <c r="C198" s="63" t="s">
         <v>726</v>
-      </c>
-      <c r="C198" s="63" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="61" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B199" s="62" t="s">
+        <v>728</v>
+      </c>
+      <c r="C199" s="63" t="s">
         <v>729</v>
-      </c>
-      <c r="C199" s="63" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="61" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B200" s="62" t="s">
+        <v>731</v>
+      </c>
+      <c r="C200" s="63" t="s">
         <v>732</v>
-      </c>
-      <c r="C200" s="63" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="61" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B201" s="62" t="s">
+        <v>733</v>
+      </c>
+      <c r="C201" s="63" t="s">
         <v>734</v>
-      </c>
-      <c r="C201" s="63" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="66" t="s">
+        <v>738</v>
+      </c>
+      <c r="B203" s="67" t="s">
         <v>739</v>
       </c>
-      <c r="B203" s="67" t="s">
-        <v>740</v>
-      </c>
       <c r="C203" s="68" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="66" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B204" s="67" t="s">
+        <v>747</v>
+      </c>
+      <c r="C204" s="68" t="s">
         <v>748</v>
-      </c>
-      <c r="C204" s="68" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="66" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B205" s="67" t="s">
+        <v>750</v>
+      </c>
+      <c r="C205" s="68" t="s">
         <v>751</v>
-      </c>
-      <c r="C205" s="68" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B206" s="70" t="s">
+        <v>753</v>
+      </c>
+      <c r="C206" s="71" t="s">
         <v>754</v>
-      </c>
-      <c r="C206" s="71" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="72" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B207" s="73" t="s">
+        <v>757</v>
+      </c>
+      <c r="C207" s="74" t="s">
         <v>758</v>
-      </c>
-      <c r="C207" s="74" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="66" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B208" s="67" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C208" s="68" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="66" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B209" s="67" t="s">
+        <v>767</v>
+      </c>
+      <c r="C209" s="68" t="s">
         <v>768</v>
-      </c>
-      <c r="C209" s="68" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="66" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B210" s="67" t="s">
+        <v>770</v>
+      </c>
+      <c r="C210" s="68" t="s">
         <v>771</v>
-      </c>
-      <c r="C210" s="68" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A211" s="101" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B211" s="67" t="s">
+        <v>819</v>
+      </c>
+      <c r="C211" s="68" t="s">
         <v>820</v>
-      </c>
-      <c r="C211" s="68" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="66" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B212" s="67" t="s">
+        <v>825</v>
+      </c>
+      <c r="C212" s="68" t="s">
         <v>826</v>
-      </c>
-      <c r="C212" s="68" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="66" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B213" s="67" t="s">
+        <v>828</v>
+      </c>
+      <c r="C213" s="68" t="s">
         <v>829</v>
       </c>
-      <c r="C213" s="68" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A215" s="95" t="s">
-        <v>841</v>
+    </row>
+    <row r="215" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A215" s="139" t="s">
+        <v>1317</v>
       </c>
       <c r="B215" s="96" t="s">
+        <v>838</v>
+      </c>
+      <c r="C215" s="97" t="s">
         <v>839</v>
-      </c>
-      <c r="C215" s="97" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="95" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B216" s="96" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C216" s="97" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="95" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B217" s="96" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C217" s="97" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="95" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B218" s="96" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C218" s="97" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="95" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B219" s="96" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C219" s="97" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A221" s="103" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B221" s="41" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C221" s="42" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A222" s="103" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B222" s="41" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C222" s="42" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A223" s="103" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B223" s="41" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C223" s="42" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A224" s="103" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B224" s="41" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C224" s="42" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A225" s="103" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B225" s="41" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C225" s="42" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A226" s="103" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B226" s="104" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C226" s="42" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A227" s="103" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B227" s="41" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C227" s="42" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="40" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B228" s="41" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C228" s="42" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="40" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B229" s="41" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C229" s="42" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="40" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B230" s="41" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C230" s="42" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A231" s="103" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B231" s="41" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C231" s="42" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A232" s="103" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B232" s="41" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C232" s="42" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="40" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B233" s="41" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C233" s="42" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="46" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B235" s="47" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C235" s="48" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="46" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B236" s="47" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C236" s="48" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="46" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B237" s="47" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C237" s="48" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="46" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B238" s="47" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C238" s="48" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="46" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B239" s="47" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C239" s="48" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="46" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B240" s="47" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C240" s="48" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="46" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B241" s="47" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C241" s="48" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="46" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B242" s="47" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C242" s="48" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="46" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B243" s="47" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C243" s="48" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="46" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B244" s="47" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C244" s="48" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="46" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B245" s="47" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C245" s="48" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="46" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B246" s="47" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C246" s="48" t="s">
         <v>1019</v>
-      </c>
-      <c r="C246" s="48" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="49" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B248" s="50" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C248" s="51" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="49" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B249" s="50" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C249" s="51" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="49" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B250" s="50" t="s">
         <v>1033</v>
       </c>
-      <c r="B250" s="50" t="s">
-        <v>1035</v>
-      </c>
       <c r="C250" s="51" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A251" s="60" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B251" s="50" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C251" s="51" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A252" s="60" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B252" s="50" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C252" s="51" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="60" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B253" s="50" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C253" s="51" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="49" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B254" s="50" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C254" s="51" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="49" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B255" s="50" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C255" s="51" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="49" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B256" s="50" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C256" s="51" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="49" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B257" s="50" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C257" s="51" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A258" s="60" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B258" s="50" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C258" s="51" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A259" s="60" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B259" s="50" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C259" s="51" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A262" s="59" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A263" s="59" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A264" s="59" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A265" s="59" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="59" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="59" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="59" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A270" s="52" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B270" s="53" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C270" s="54" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A271" s="52" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B271" s="53" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C271" s="54" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A272" s="52" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B272" s="53" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C272" s="54" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A273" s="52" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B273" s="53" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C273" s="54" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A274" s="52" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B274" s="53" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C274" s="54" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A275" s="52" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B275" s="53" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C275" s="54" t="s">
         <v>286</v>
@@ -8118,43 +8277,43 @@
     </row>
     <row r="276" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A276" s="52" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B276" s="53" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C276" s="54" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A277" s="52" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B277" s="53" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C277" s="54" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A278" s="52" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B278" s="53" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C278" s="54" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A280" s="137" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B280" s="25" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C280" s="26" t="s">
         <v>290</v>
@@ -8162,10 +8321,10 @@
     </row>
     <row r="281" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A281" s="137" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B281" s="25" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C281" s="26" t="s">
         <v>292</v>
@@ -8173,57 +8332,79 @@
     </row>
     <row r="282" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A282" s="137" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B282" s="25" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C282" s="26" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A283" s="137" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B283" s="25" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C283" s="26" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A284" s="137" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B284" s="25" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C284" s="26" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A285" s="137" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B285" s="25" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C285" s="26" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A286" s="137" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B286" s="25" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C286" s="26" t="s">
-        <v>1297</v>
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288" s="16" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B288" s="14" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C288" s="15" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A289" s="16" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B289" s="14" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C289" s="15" t="s">
+        <v>1315</v>
       </c>
     </row>
   </sheetData>
@@ -8234,10 +8415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
-    <sheetView topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A222" sqref="A222"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A226" sqref="A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -8250,7 +8431,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -8299,24 +8480,24 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>679</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -8574,7 +8755,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>300</v>
@@ -8585,7 +8766,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="30" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>363</v>
@@ -8596,7 +8777,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="30" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>364</v>
@@ -8607,7 +8788,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>302</v>
@@ -8618,7 +8799,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>366</v>
@@ -8750,35 +8931,35 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="B54" s="19" t="s">
-        <v>475</v>
-      </c>
       <c r="C54" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B55" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="C55" s="20" t="s">
         <v>713</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="C56" s="20" t="s">
         <v>724</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>723</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -8786,7 +8967,7 @@
         <v>424</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>422</v>
@@ -8797,7 +8978,7 @@
         <v>425</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>423</v>
@@ -8838,1274 +9019,1274 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B64" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="C64" s="39" t="s">
         <v>444</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="37" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="37" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B67" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="C67" s="39" t="s">
         <v>451</v>
-      </c>
-      <c r="C67" s="39" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="43" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B69" s="44" t="s">
+        <v>455</v>
+      </c>
+      <c r="C69" s="45" t="s">
         <v>456</v>
-      </c>
-      <c r="C69" s="45" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="43" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="43" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B72" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="C72" s="45" t="s">
         <v>463</v>
-      </c>
-      <c r="C72" s="45" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="46" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="46" t="s">
+        <v>489</v>
+      </c>
+      <c r="B75" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="B75" s="47" t="s">
-        <v>491</v>
-      </c>
       <c r="C75" s="48" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="46" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B76" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="C76" s="48" t="s">
         <v>482</v>
-      </c>
-      <c r="C76" s="48" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="46" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B77" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="C77" s="48" t="s">
         <v>479</v>
-      </c>
-      <c r="C77" s="48" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A79" s="60" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B79" s="50" t="s">
+        <v>663</v>
+      </c>
+      <c r="C79" s="51" t="s">
         <v>664</v>
-      </c>
-      <c r="C79" s="51" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="5"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B82" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>683</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="64" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B84" s="53"/>
       <c r="C84" s="54"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="64" t="s">
+        <v>689</v>
+      </c>
+      <c r="B85" s="53" t="s">
         <v>690</v>
       </c>
-      <c r="B85" s="53" t="s">
-        <v>691</v>
-      </c>
       <c r="C85" s="54" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="64" t="s">
+        <v>691</v>
+      </c>
+      <c r="B86" s="53" t="s">
         <v>692</v>
       </c>
-      <c r="B86" s="53" t="s">
-        <v>693</v>
-      </c>
       <c r="C86" s="54" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="64" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B87" s="53" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C87" s="54" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="75" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B89" s="56" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C89" s="57" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="75" t="s">
+        <v>743</v>
+      </c>
+      <c r="B90" s="56" t="s">
+        <v>742</v>
+      </c>
+      <c r="C90" s="57" t="s">
         <v>744</v>
-      </c>
-      <c r="B90" s="56" t="s">
-        <v>743</v>
-      </c>
-      <c r="C90" s="57" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="76" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B91" s="77" t="s">
+        <v>745</v>
+      </c>
+      <c r="C91" s="78" t="s">
         <v>746</v>
       </c>
-      <c r="C91" s="78" t="s">
-        <v>747</v>
-      </c>
       <c r="D91" s="65" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="79" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B92" s="80" t="s">
+        <v>761</v>
+      </c>
+      <c r="C92" s="81" t="s">
         <v>762</v>
-      </c>
-      <c r="C92" s="81" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="121.5" x14ac:dyDescent="0.35">
       <c r="A93" s="75" t="s">
+        <v>775</v>
+      </c>
+      <c r="B93" s="56" t="s">
         <v>776</v>
       </c>
-      <c r="B93" s="56" t="s">
+      <c r="C93" s="57" t="s">
         <v>777</v>
       </c>
-      <c r="C93" s="57" t="s">
-        <v>778</v>
-      </c>
       <c r="D93" s="65" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="75" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B94" s="56" t="s">
+        <v>781</v>
+      </c>
+      <c r="C94" s="57" t="s">
         <v>782</v>
-      </c>
-      <c r="C94" s="57" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="75" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B95" s="56" t="s">
+        <v>778</v>
+      </c>
+      <c r="C95" s="57" t="s">
         <v>779</v>
-      </c>
-      <c r="C95" s="57" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A96" s="75" t="s">
+        <v>785</v>
+      </c>
+      <c r="B96" s="56" t="s">
+        <v>784</v>
+      </c>
+      <c r="C96" s="57" t="s">
+        <v>788</v>
+      </c>
+      <c r="D96" s="65" t="s">
         <v>786</v>
-      </c>
-      <c r="B96" s="56" t="s">
-        <v>785</v>
-      </c>
-      <c r="C96" s="57" t="s">
-        <v>789</v>
-      </c>
-      <c r="D96" s="65" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="84" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A97" s="75" t="s">
+        <v>790</v>
+      </c>
+      <c r="B97" s="56" t="s">
+        <v>789</v>
+      </c>
+      <c r="C97" s="57" t="s">
+        <v>787</v>
+      </c>
+      <c r="D97" s="83" t="s">
         <v>791</v>
-      </c>
-      <c r="B97" s="56" t="s">
-        <v>790</v>
-      </c>
-      <c r="C97" s="57" t="s">
-        <v>788</v>
-      </c>
-      <c r="D97" s="83" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="84" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A98" s="75" t="s">
+        <v>798</v>
+      </c>
+      <c r="B98" s="56" t="s">
+        <v>797</v>
+      </c>
+      <c r="C98" s="57" t="s">
+        <v>796</v>
+      </c>
+      <c r="D98" s="83" t="s">
         <v>799</v>
-      </c>
-      <c r="B98" s="56" t="s">
-        <v>798</v>
-      </c>
-      <c r="C98" s="57" t="s">
-        <v>797</v>
-      </c>
-      <c r="D98" s="83" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A99" s="75" t="s">
+        <v>794</v>
+      </c>
+      <c r="B99" s="56" t="s">
+        <v>793</v>
+      </c>
+      <c r="C99" s="57" t="s">
+        <v>792</v>
+      </c>
+      <c r="D99" s="65" t="s">
         <v>795</v>
-      </c>
-      <c r="B99" s="56" t="s">
-        <v>794</v>
-      </c>
-      <c r="C99" s="57" t="s">
-        <v>793</v>
-      </c>
-      <c r="D99" s="65" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="82" t="s">
+        <v>801</v>
+      </c>
+      <c r="B100" s="77" t="s">
         <v>802</v>
       </c>
-      <c r="B100" s="77" t="s">
+      <c r="C100" s="78" t="s">
+        <v>800</v>
+      </c>
+      <c r="D100" s="65" t="s">
         <v>803</v>
-      </c>
-      <c r="C100" s="78" t="s">
-        <v>801</v>
-      </c>
-      <c r="D100" s="65" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="79" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B101" s="80" t="s">
+        <v>804</v>
+      </c>
+      <c r="C101" s="81" t="s">
         <v>805</v>
-      </c>
-      <c r="C101" s="81" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="152.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="82" t="s">
+        <v>808</v>
+      </c>
+      <c r="B102" s="77" t="s">
+        <v>806</v>
+      </c>
+      <c r="C102" s="78" t="s">
+        <v>807</v>
+      </c>
+      <c r="D102" s="65" t="s">
         <v>809</v>
-      </c>
-      <c r="B102" s="77" t="s">
-        <v>807</v>
-      </c>
-      <c r="C102" s="78" t="s">
-        <v>808</v>
-      </c>
-      <c r="D102" s="65" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="79" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B103" s="80" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C103" s="81" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="82" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B104" s="77" t="s">
+        <v>814</v>
+      </c>
+      <c r="C104" s="78" t="s">
         <v>815</v>
-      </c>
-      <c r="C104" s="78" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="85" t="s">
+        <v>821</v>
+      </c>
+      <c r="B105" s="86" t="s">
         <v>822</v>
       </c>
-      <c r="B105" s="86" t="s">
+      <c r="C105" s="87" t="s">
         <v>823</v>
-      </c>
-      <c r="C105" s="87" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="76" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B106" s="88" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C106" s="78" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="79" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B107" s="80" t="s">
+        <v>832</v>
+      </c>
+      <c r="C107" s="81" t="s">
         <v>833</v>
-      </c>
-      <c r="C107" s="81" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="79" t="s">
+        <v>845</v>
+      </c>
+      <c r="B108" s="80" t="s">
+        <v>846</v>
+      </c>
+      <c r="C108" s="81" t="s">
         <v>847</v>
-      </c>
-      <c r="B108" s="80" t="s">
-        <v>848</v>
-      </c>
-      <c r="C108" s="81" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="75" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B109" s="56" t="s">
+        <v>835</v>
+      </c>
+      <c r="C109" s="57" t="s">
         <v>836</v>
-      </c>
-      <c r="C109" s="57" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="36" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="36" t="s">
+        <v>869</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="C112" s="15" t="s">
         <v>871</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>872</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="36" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="36" t="s">
+        <v>875</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>876</v>
+      </c>
+      <c r="C114" s="15" t="s">
         <v>877</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>878</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="36" t="s">
+        <v>878</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="C115" s="15" t="s">
         <v>880</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>881</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="36" t="s">
+        <v>881</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>882</v>
+      </c>
+      <c r="C116" s="15" t="s">
         <v>883</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>884</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="36" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="98" t="s">
+        <v>887</v>
+      </c>
+      <c r="B119" s="99" t="s">
+        <v>888</v>
+      </c>
+      <c r="C119" s="100" t="s">
         <v>889</v>
-      </c>
-      <c r="B119" s="99" t="s">
-        <v>890</v>
-      </c>
-      <c r="C119" s="100" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="98" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B120" s="99" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C120" s="100" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="89" t="s">
+        <v>896</v>
+      </c>
+      <c r="B122" s="90" t="s">
+        <v>897</v>
+      </c>
+      <c r="C122" s="91" t="s">
         <v>898</v>
-      </c>
-      <c r="B122" s="90" t="s">
-        <v>899</v>
-      </c>
-      <c r="C122" s="91" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="92" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B124" s="93" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C124" s="94" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="92" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B125" s="93" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C125" s="94" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="43" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B127" s="44" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C127" s="45" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="43" t="s">
+        <v>908</v>
+      </c>
+      <c r="B128" s="44" t="s">
+        <v>909</v>
+      </c>
+      <c r="C128" s="45" t="s">
         <v>910</v>
-      </c>
-      <c r="B128" s="44" t="s">
-        <v>911</v>
-      </c>
-      <c r="C128" s="45" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="43" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B129" s="44" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C129" s="45" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="43" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B130" s="44" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C130" s="45" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="43" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B131" s="44" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C131" s="45" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="46" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B133" s="47" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C133" s="48" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="46" t="s">
+        <v>845</v>
+      </c>
+      <c r="B134" s="47" t="s">
+        <v>934</v>
+      </c>
+      <c r="C134" s="48" t="s">
         <v>847</v>
-      </c>
-      <c r="B134" s="47" t="s">
-        <v>936</v>
-      </c>
-      <c r="C134" s="48" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="46" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B135" s="47" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C135" s="48" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="46" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B136" s="47" t="s">
+        <v>938</v>
+      </c>
+      <c r="C136" s="48" t="s">
         <v>940</v>
-      </c>
-      <c r="C136" s="48" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A138" s="60" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B138" s="50" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C138" s="51" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="60" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B139" s="50" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C139" s="51" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="60" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B140" s="50" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C140" s="51" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="110" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B141" s="111" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C141" s="112" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="113" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B142" s="114" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C142" s="115" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A143" s="107" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B143" s="108" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C143" s="109" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="60" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B144" s="50" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C144" s="51" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="60" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B145" s="50" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C145" s="51" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="110" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B146" s="111" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C146" s="112" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="107" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B147" s="108" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C147" s="109" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="60" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B148" s="50" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C148" s="51" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="60" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B149" s="50" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C149" s="51" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="110" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B150" s="111" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C150" s="112" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="116" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B151" s="108" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C151" s="109" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A152" s="60" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B152" s="105" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C152" s="106" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="117" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B154" s="118"/>
       <c r="C154" s="119"/>
     </row>
     <row r="155" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A155" s="120" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B155" s="121" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C155" s="122" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A156" s="59" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A157" s="59" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="123" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B158" s="118" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C158" s="119" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A159" s="120" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B159" s="121" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C159" s="122" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A160" s="59" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B160" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>487</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A161" s="59" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A162" s="59" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A163" s="59" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A164" s="59" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A165" s="59" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A166" s="59" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A167" s="59" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="124" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B169" s="125"/>
       <c r="C169" s="126"/>
     </row>
     <row r="170" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A170" s="52" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B170" s="53" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C170" s="54" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="127" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B171" s="128" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C171" s="129" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="127" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B172" s="128" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C172" s="129" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="130" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B173" s="125" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C173" s="126" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A174" s="127" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B174" s="128" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C174" s="129" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="52" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B175" s="53" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C175" s="54" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A176" s="52" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B176" s="53" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C176" s="54" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A177" s="52" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B177" s="53" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C177" s="54" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A178" s="52" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B178" s="53" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C178" s="54" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="24" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B180" s="25" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C180" s="26" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="24" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="36" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="36" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C184" s="15" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="36" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="36" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="36" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="36" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="36" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="36" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="36" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="36" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="36" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="36" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D195" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="18" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -10113,13 +10294,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="18" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B197" s="19" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C197" s="20" t="s">
         <v>1221</v>
-      </c>
-      <c r="C197" s="20" t="s">
-        <v>1223</v>
       </c>
       <c r="D197">
         <v>2</v>
@@ -10127,13 +10308,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="18" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B198" s="19" t="s">
         <v>1220</v>
       </c>
-      <c r="B198" s="19" t="s">
-        <v>1222</v>
-      </c>
       <c r="C198" s="20" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="D198">
         <v>3</v>
@@ -10141,118 +10322,118 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="21" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B201" s="22" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="21" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B202" s="22"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="21" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B203" s="22"/>
     </row>
     <row r="204" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="133" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B204" s="134"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="131" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B205" s="132" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="131" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B206" s="132"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="131" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B207" s="132"/>
     </row>
     <row r="208" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" s="133" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B208" s="134"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="131" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B209" s="132" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" s="133" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B210" s="134"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="131" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B211" s="132" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" s="133" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B212" s="134"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="131" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B213" s="132" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="133" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B214" s="134"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="21" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B215" s="22"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="21" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B216" s="22"/>
     </row>
     <row r="217" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="133" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B217" s="134"/>
     </row>
@@ -10262,29 +10443,59 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="138" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B220" s="28" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C220" s="29" t="s">
         <v>1305</v>
-      </c>
-      <c r="B220" s="28" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C220" s="29" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="27" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B221" s="28" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C221" s="29" t="s">
-        <v>1306</v>
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A223" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A224" s="140" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B224" s="141" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C224" s="142" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225" s="140" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B225" s="141" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C225" s="142" t="s">
+        <v>1312</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="1341">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -4571,12 +4571,68 @@
       <t xml:space="preserve"> kutsu o kaimashita</t>
     </r>
   </si>
+  <si>
+    <t>TE - Kudasai</t>
+  </si>
+  <si>
+    <t>Please listen</t>
+  </si>
+  <si>
+    <t>kiite kudasai</t>
+  </si>
+  <si>
+    <t>聞いてください</t>
+  </si>
+  <si>
+    <t>このシーディーを聞いてください</t>
+  </si>
+  <si>
+    <t>kono shi-di- o kiite kudasai</t>
+  </si>
+  <si>
+    <t>Please listen to this CD</t>
+  </si>
+  <si>
+    <t>yomi masu</t>
+  </si>
+  <si>
+    <t>to read</t>
+  </si>
+  <si>
+    <t>よみます
+読みます</t>
+  </si>
+  <si>
+    <t>to watch</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>pakkeji</t>
+  </si>
+  <si>
+    <t>パッケジ</t>
+  </si>
+  <si>
+    <t>シーディ</t>
+  </si>
+  <si>
+    <t>shi-di</t>
+  </si>
+  <si>
+    <t>きます
+来ます</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4854,6 +4910,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -4988,7 +5061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5170,9 +5243,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5188,6 +5259,15 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5468,10 +5548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C289"/>
+  <dimension ref="A1:C294"/>
   <sheetViews>
-    <sheetView topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="A290" sqref="A290"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="A295" sqref="A295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -7660,7 +7740,7 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A215" s="139" t="s">
+      <c r="A215" s="137" t="s">
         <v>1317</v>
       </c>
       <c r="B215" s="96" t="s">
@@ -8309,7 +8389,7 @@
       </c>
     </row>
     <row r="280" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A280" s="137" t="s">
+      <c r="A280" s="135" t="s">
         <v>1280</v>
       </c>
       <c r="B280" s="25" t="s">
@@ -8320,7 +8400,7 @@
       </c>
     </row>
     <row r="281" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A281" s="137" t="s">
+      <c r="A281" s="135" t="s">
         <v>1282</v>
       </c>
       <c r="B281" s="25" t="s">
@@ -8331,7 +8411,7 @@
       </c>
     </row>
     <row r="282" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A282" s="137" t="s">
+      <c r="A282" s="135" t="s">
         <v>1284</v>
       </c>
       <c r="B282" s="25" t="s">
@@ -8342,7 +8422,7 @@
       </c>
     </row>
     <row r="283" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A283" s="137" t="s">
+      <c r="A283" s="135" t="s">
         <v>1287</v>
       </c>
       <c r="B283" s="25" t="s">
@@ -8353,7 +8433,7 @@
       </c>
     </row>
     <row r="284" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A284" s="137" t="s">
+      <c r="A284" s="135" t="s">
         <v>1290</v>
       </c>
       <c r="B284" s="25" t="s">
@@ -8364,7 +8444,7 @@
       </c>
     </row>
     <row r="285" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A285" s="137" t="s">
+      <c r="A285" s="135" t="s">
         <v>1293</v>
       </c>
       <c r="B285" s="25" t="s">
@@ -8375,7 +8455,7 @@
       </c>
     </row>
     <row r="286" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A286" s="137" t="s">
+      <c r="A286" s="135" t="s">
         <v>1296</v>
       </c>
       <c r="B286" s="25" t="s">
@@ -8405,6 +8485,61 @@
       </c>
       <c r="C289" s="15" t="s">
         <v>1315</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A290" s="16" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B290" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C290" s="15" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A291" s="16" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B291" s="14" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C291" s="15" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A292" s="16" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B292" s="14" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C292" s="15" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293" s="16" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B293" s="14" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C293" s="15" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A294" s="16" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B294" s="14" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C294" s="15" t="s">
+        <v>1335</v>
       </c>
     </row>
   </sheetData>
@@ -8415,10 +8550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:D229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A226" sqref="A226"/>
+    <sheetView topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -10326,120 +10461,120 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A201" s="21" t="s">
+      <c r="A201" s="141" t="s">
         <v>1259</v>
       </c>
       <c r="B201" s="22" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A202" s="21" t="s">
+    <row r="202" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A202" s="143" t="s">
         <v>1270</v>
       </c>
       <c r="B202" s="22"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A203" s="21" t="s">
+    <row r="203" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A203" s="143" t="s">
         <v>1271</v>
       </c>
       <c r="B203" s="22"/>
     </row>
-    <row r="204" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="133" t="s">
+    <row r="204" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="143" t="s">
         <v>1272</v>
       </c>
-      <c r="B204" s="134"/>
+      <c r="B204" s="132"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A205" s="131" t="s">
+      <c r="A205" s="142" t="s">
         <v>1261</v>
       </c>
-      <c r="B205" s="132" t="s">
+      <c r="B205" s="131" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A206" s="131" t="s">
+    <row r="206" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A206" s="144" t="s">
         <v>1273</v>
       </c>
-      <c r="B206" s="132"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A207" s="131" t="s">
+      <c r="B206" s="131"/>
+    </row>
+    <row r="207" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A207" s="144" t="s">
         <v>1274</v>
       </c>
-      <c r="B207" s="132"/>
-    </row>
-    <row r="208" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A208" s="133" t="s">
+      <c r="B207" s="131"/>
+    </row>
+    <row r="208" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="145" t="s">
         <v>1275</v>
       </c>
-      <c r="B208" s="134"/>
+      <c r="B208" s="132"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" s="131" t="s">
+      <c r="A209" s="142" t="s">
         <v>1263</v>
       </c>
-      <c r="B209" s="132" t="s">
+      <c r="B209" s="131" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A210" s="133" t="s">
+    <row r="210" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="145" t="s">
         <v>1276</v>
       </c>
-      <c r="B210" s="134"/>
+      <c r="B210" s="132"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" s="131" t="s">
+      <c r="A211" s="142" t="s">
         <v>1265</v>
       </c>
-      <c r="B211" s="132" t="s">
+      <c r="B211" s="131" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A212" s="133" t="s">
+    <row r="212" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="145" t="s">
         <v>1277</v>
       </c>
-      <c r="B212" s="134"/>
+      <c r="B212" s="132"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A213" s="131" t="s">
+      <c r="A213" s="142" t="s">
         <v>1267</v>
       </c>
-      <c r="B213" s="132" t="s">
+      <c r="B213" s="131" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="133" t="s">
+    <row r="214" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="145" t="s">
         <v>1278</v>
       </c>
-      <c r="B214" s="134"/>
+      <c r="B214" s="132"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A215" s="21" t="s">
+      <c r="A215" s="141" t="s">
         <v>1297</v>
       </c>
       <c r="B215" s="22"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A216" s="21" t="s">
+    <row r="216" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A216" s="146" t="s">
         <v>1298</v>
       </c>
       <c r="B216" s="22"/>
     </row>
-    <row r="217" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A217" s="133" t="s">
+    <row r="217" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="145" t="s">
         <v>1299</v>
       </c>
-      <c r="B217" s="134"/>
+      <c r="B217" s="132"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" s="135"/>
-      <c r="B218" s="136"/>
+      <c r="A218" s="133"/>
+      <c r="B218" s="134"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
@@ -10447,7 +10582,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A220" s="138" t="s">
+      <c r="A220" s="136" t="s">
         <v>1303</v>
       </c>
       <c r="B220" s="28" t="s">
@@ -10477,25 +10612,52 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A224" s="140" t="s">
+      <c r="A224" s="138" t="s">
         <v>1319</v>
       </c>
-      <c r="B224" s="141" t="s">
+      <c r="B224" s="139" t="s">
         <v>1320</v>
       </c>
-      <c r="C224" s="142" t="s">
+      <c r="C224" s="140" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A225" s="140" t="s">
+      <c r="A225" s="138" t="s">
         <v>1321</v>
       </c>
-      <c r="B225" s="141" t="s">
+      <c r="B225" s="139" t="s">
         <v>1322</v>
       </c>
-      <c r="C225" s="142" t="s">
+      <c r="C225" s="140" t="s">
         <v>1312</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A227" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228" s="147" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B228" s="148" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C228" s="149" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229" s="147" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B229" s="148" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C229" s="149" t="s">
+        <v>1329</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="1341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="1357">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -4462,6 +4462,80 @@
     <t>Te Sentence + Sentence</t>
   </si>
   <si>
+    <t>TE - Kudasai</t>
+  </si>
+  <si>
+    <t>Please listen</t>
+  </si>
+  <si>
+    <t>kiite kudasai</t>
+  </si>
+  <si>
+    <t>聞いてください</t>
+  </si>
+  <si>
+    <t>このシーディーを聞いてください</t>
+  </si>
+  <si>
+    <t>kono shi-di- o kiite kudasai</t>
+  </si>
+  <si>
+    <t>Please listen to this CD</t>
+  </si>
+  <si>
+    <t>yomi masu</t>
+  </si>
+  <si>
+    <t>to read</t>
+  </si>
+  <si>
+    <t>よみます
+読みます</t>
+  </si>
+  <si>
+    <t>to watch</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>pakkeji</t>
+  </si>
+  <si>
+    <t>パッケジ</t>
+  </si>
+  <si>
+    <t>シーディ</t>
+  </si>
+  <si>
+    <t>shi-di</t>
+  </si>
+  <si>
+    <t>きます
+来ます</t>
+  </si>
+  <si>
+    <t>yonde moii desu ka</t>
+  </si>
+  <si>
+    <t>May I read?</t>
+  </si>
+  <si>
+    <t>読んでもいいですか？</t>
+  </si>
+  <si>
+    <t>nonde moii desu ka</t>
+  </si>
+  <si>
+    <t>May I drink?</t>
+  </si>
+  <si>
+    <t>飲んでもいいですか？</t>
+  </si>
+  <si>
     <r>
       <t>明日タイに</t>
     </r>
@@ -4471,7 +4545,7 @@
         <i/>
         <u/>
         <sz val="18"/>
-        <color theme="0"/>
+        <color rgb="FFFFC000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4482,7 +4556,7 @@
       <rPr>
         <b/>
         <sz val="18"/>
-        <color theme="0"/>
+        <color rgb="FFFFC000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4498,7 +4572,7 @@
       <rPr>
         <b/>
         <sz val="7"/>
-        <color theme="0"/>
+        <color rgb="FFFFC000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4508,7 +4582,7 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <color theme="0"/>
+        <color rgb="FFFFC000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4526,7 +4600,7 @@
         <i/>
         <u/>
         <sz val="18"/>
-        <color theme="0"/>
+        <color rgb="FFFFC000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4537,7 +4611,7 @@
       <rPr>
         <b/>
         <sz val="18"/>
-        <color theme="0"/>
+        <color rgb="FFFFC000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4553,7 +4627,7 @@
       <rPr>
         <b/>
         <sz val="7"/>
-        <color theme="0"/>
+        <color rgb="FFFFC000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4563,7 +4637,7 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <color theme="0"/>
+        <color rgb="FFFFC000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4572,67 +4646,43 @@
     </r>
   </si>
   <si>
-    <t>TE - Kudasai</t>
-  </si>
-  <si>
-    <t>Please listen</t>
-  </si>
-  <si>
-    <t>kiite kudasai</t>
-  </si>
-  <si>
-    <t>聞いてください</t>
-  </si>
-  <si>
-    <t>このシーディーを聞いてください</t>
-  </si>
-  <si>
-    <t>kono shi-di- o kiite kudasai</t>
-  </si>
-  <si>
-    <t>Please listen to this CD</t>
-  </si>
-  <si>
-    <t>yomi masu</t>
-  </si>
-  <si>
-    <t>to read</t>
-  </si>
-  <si>
-    <t>よみます
-読みます</t>
-  </si>
-  <si>
-    <t>to watch</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>Package</t>
-  </si>
-  <si>
-    <t>pakkeji</t>
-  </si>
-  <si>
-    <t>パッケジ</t>
-  </si>
-  <si>
-    <t>シーディ</t>
-  </si>
-  <si>
-    <t>shi-di</t>
-  </si>
-  <si>
-    <t>きます
-来ます</t>
+    <t>nihon</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>にほん
+日本</t>
+  </si>
+  <si>
+    <t>TE - Moii desu ka?</t>
+  </si>
+  <si>
+    <t>kono nihon no hon o yonde moii desu ka</t>
+  </si>
+  <si>
+    <t>May I read this Japanese book?</t>
+  </si>
+  <si>
+    <t>この日本の本を読んでもいいですか？</t>
+  </si>
+  <si>
+    <t>suwari masu</t>
+  </si>
+  <si>
+    <t>to sit</t>
+  </si>
+  <si>
+    <t>すわります
+座ります</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4903,16 +4953,6 @@
     <font>
       <b/>
       <i/>
-      <u/>
-      <sz val="18"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="18"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
@@ -4923,6 +4963,24 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="18"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5061,7 +5119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5256,18 +5314,24 @@
     <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5548,17 +5612,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C294"/>
+  <dimension ref="A1:C298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="A295" sqref="A295"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="A299" sqref="A299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="49" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -8091,17 +8155,6 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A250" s="49" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B250" s="50" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C250" s="51" t="s">
-        <v>1032</v>
-      </c>
-    </row>
     <row r="251" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A251" s="60" t="s">
         <v>1046</v>
@@ -8489,18 +8542,18 @@
     </row>
     <row r="290" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A290" s="16" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="C290" s="15" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A291" s="16" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="B291" s="14" t="s">
         <v>1302</v>
@@ -8517,29 +8570,62 @@
         <v>1281</v>
       </c>
       <c r="C292" s="15" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A293" s="16" t="s">
-        <v>1338</v>
+        <v>1356</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>1339</v>
+        <v>1354</v>
       </c>
       <c r="C293" s="15" t="s">
-        <v>1334</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" s="16" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C294" s="15" t="s">
-        <v>1335</v>
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A295" s="16" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B295" s="14" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C295" s="15" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A297" s="150" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B297" s="151" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C297" s="152" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A298" s="153" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B298" s="151" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C298" s="152" t="s">
+        <v>1032</v>
       </c>
     </row>
   </sheetData>
@@ -8550,17 +8636,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D229"/>
+  <dimension ref="A1:D234"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A230" sqref="A230"/>
+    <sheetView topLeftCell="A224" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A235" sqref="A235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="95.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10461,7 +10547,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A201" s="141" t="s">
+      <c r="A201" s="138" t="s">
         <v>1259</v>
       </c>
       <c r="B201" s="22" t="s">
@@ -10469,25 +10555,25 @@
       </c>
     </row>
     <row r="202" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A202" s="143" t="s">
+      <c r="A202" s="140" t="s">
         <v>1270</v>
       </c>
       <c r="B202" s="22"/>
     </row>
     <row r="203" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A203" s="143" t="s">
+      <c r="A203" s="140" t="s">
         <v>1271</v>
       </c>
       <c r="B203" s="22"/>
     </row>
     <row r="204" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="143" t="s">
+      <c r="A204" s="140" t="s">
         <v>1272</v>
       </c>
       <c r="B204" s="132"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A205" s="142" t="s">
+      <c r="A205" s="139" t="s">
         <v>1261</v>
       </c>
       <c r="B205" s="131" t="s">
@@ -10495,25 +10581,25 @@
       </c>
     </row>
     <row r="206" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A206" s="144" t="s">
+      <c r="A206" s="141" t="s">
         <v>1273</v>
       </c>
       <c r="B206" s="131"/>
     </row>
     <row r="207" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A207" s="144" t="s">
+      <c r="A207" s="141" t="s">
         <v>1274</v>
       </c>
       <c r="B207" s="131"/>
     </row>
     <row r="208" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="145" t="s">
+      <c r="A208" s="142" t="s">
         <v>1275</v>
       </c>
       <c r="B208" s="132"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" s="142" t="s">
+      <c r="A209" s="139" t="s">
         <v>1263</v>
       </c>
       <c r="B209" s="131" t="s">
@@ -10521,13 +10607,13 @@
       </c>
     </row>
     <row r="210" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="145" t="s">
+      <c r="A210" s="142" t="s">
         <v>1276</v>
       </c>
       <c r="B210" s="132"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" s="142" t="s">
+      <c r="A211" s="139" t="s">
         <v>1265</v>
       </c>
       <c r="B211" s="131" t="s">
@@ -10535,13 +10621,13 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="145" t="s">
+      <c r="A212" s="142" t="s">
         <v>1277</v>
       </c>
       <c r="B212" s="132"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A213" s="142" t="s">
+      <c r="A213" s="139" t="s">
         <v>1267</v>
       </c>
       <c r="B213" s="131" t="s">
@@ -10549,25 +10635,25 @@
       </c>
     </row>
     <row r="214" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="145" t="s">
+      <c r="A214" s="142" t="s">
         <v>1278</v>
       </c>
       <c r="B214" s="132"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A215" s="141" t="s">
+      <c r="A215" s="138" t="s">
         <v>1297</v>
       </c>
       <c r="B215" s="22"/>
     </row>
     <row r="216" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A216" s="146" t="s">
+      <c r="A216" s="143" t="s">
         <v>1298</v>
       </c>
       <c r="B216" s="22"/>
     </row>
     <row r="217" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="145" t="s">
+      <c r="A217" s="142" t="s">
         <v>1299</v>
       </c>
       <c r="B217" s="132"/>
@@ -10612,52 +10698,90 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A224" s="138" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B224" s="139" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C224" s="140" t="s">
+      <c r="A224" s="43" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B224" s="44" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C224" s="45" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A225" s="138" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B225" s="139" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C225" s="140" t="s">
+      <c r="A225" s="43" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B225" s="44" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C225" s="45" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228" s="144" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B228" s="145" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C228" s="146" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229" s="144" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A228" s="147" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B228" s="148" t="s">
+      <c r="B229" s="145" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C229" s="146" t="s">
         <v>1325</v>
       </c>
-      <c r="C228" s="149" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A229" s="147" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B229" s="148" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C229" s="149" t="s">
-        <v>1329</v>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232" s="147" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B232" s="148" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C232" s="149" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233" s="147" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B233" s="148" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C233" s="149" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234" s="147" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B234" s="148" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C234" s="149" t="s">
+        <v>1352</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="1357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="1385">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -4676,6 +4676,94 @@
   <si>
     <t>すわります
 座ります</t>
+  </si>
+  <si>
+    <t>TE - I masu</t>
+  </si>
+  <si>
+    <t>I'm reading a book</t>
+  </si>
+  <si>
+    <t>本を読んでいます</t>
+  </si>
+  <si>
+    <t>nihon o yonde imasu</t>
+  </si>
+  <si>
+    <t>Juice</t>
+  </si>
+  <si>
+    <t>jyu-su</t>
+  </si>
+  <si>
+    <t>ジュース</t>
+  </si>
+  <si>
+    <t>jyu-su o nonde imasu</t>
+  </si>
+  <si>
+    <t>I'm drinking juice</t>
+  </si>
+  <si>
+    <t>ジュースを飲んでいます</t>
+  </si>
+  <si>
+    <t>nani o shi te imasu ka?</t>
+  </si>
+  <si>
+    <t>What are you doing?</t>
+  </si>
+  <si>
+    <t>何をしていますか？</t>
+  </si>
+  <si>
+    <t>to make</t>
+  </si>
+  <si>
+    <t>つくります
+作ります</t>
+  </si>
+  <si>
+    <t>tsukuri masu</t>
+  </si>
+  <si>
+    <t>denwa o shi te imasu</t>
+  </si>
+  <si>
+    <t>I'm making a phone call</t>
+  </si>
+  <si>
+    <t>電話をしています</t>
+  </si>
+  <si>
+    <t>souji o shi te imasu</t>
+  </si>
+  <si>
+    <t>I'm cleanning (the room)</t>
+  </si>
+  <si>
+    <t>そうじをしています
+掃除をしています</t>
+  </si>
+  <si>
+    <t>gita- o hiite masu</t>
+  </si>
+  <si>
+    <t>I'm playing the guitar</t>
+  </si>
+  <si>
+    <t>ギターをひいてます
+ギターを弾いてます</t>
+  </si>
+  <si>
+    <t>ne masu</t>
+  </si>
+  <si>
+    <t>to sleep</t>
+  </si>
+  <si>
+    <t>ねます
+寝ます</t>
   </si>
 </sst>
 </file>
@@ -5054,7 +5142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -5115,11 +5203,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5316,7 +5413,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5331,7 +5427,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5612,10 +5714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C298"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="A299" sqref="A299"/>
+    <sheetView topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -8584,48 +8686,81 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A294" s="16" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B294" s="14" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C294" s="15" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A295" s="16" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B295" s="14" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C295" s="15" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A297" s="149" t="s">
         <v>1334</v>
       </c>
-      <c r="B294" s="14" t="s">
+      <c r="B297" s="150" t="s">
         <v>1335</v>
       </c>
-      <c r="C294" s="15" t="s">
+      <c r="C297" s="151" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A295" s="16" t="s">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A298" s="149" t="s">
         <v>1333</v>
       </c>
-      <c r="B295" s="14" t="s">
+      <c r="B298" s="150" t="s">
         <v>1332</v>
       </c>
-      <c r="C295" s="15" t="s">
+      <c r="C298" s="151" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A297" s="150" t="s">
+    <row r="299" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A299" s="149" t="s">
         <v>1349</v>
       </c>
-      <c r="B297" s="151" t="s">
+      <c r="B299" s="150" t="s">
         <v>1347</v>
       </c>
-      <c r="C297" s="152" t="s">
+      <c r="C299" s="151" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A298" s="153" t="s">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A300" s="149" t="s">
         <v>1031</v>
       </c>
-      <c r="B298" s="151" t="s">
+      <c r="B300" s="150" t="s">
         <v>1033</v>
       </c>
-      <c r="C298" s="152" t="s">
+      <c r="C300" s="151" t="s">
         <v>1032</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A301" s="149" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B301" s="150" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C301" s="151" t="s">
+        <v>1361</v>
       </c>
     </row>
   </sheetData>
@@ -8636,10 +8771,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D234"/>
+  <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView topLeftCell="A224" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A235" sqref="A235"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -10567,7 +10702,7 @@
       <c r="B203" s="22"/>
     </row>
     <row r="204" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="140" t="s">
+      <c r="A204" s="152" t="s">
         <v>1272</v>
       </c>
       <c r="B204" s="132"/>
@@ -10581,19 +10716,19 @@
       </c>
     </row>
     <row r="206" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A206" s="141" t="s">
+      <c r="A206" s="140" t="s">
         <v>1273</v>
       </c>
       <c r="B206" s="131"/>
     </row>
     <row r="207" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A207" s="141" t="s">
+      <c r="A207" s="140" t="s">
         <v>1274</v>
       </c>
       <c r="B207" s="131"/>
     </row>
     <row r="208" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="142" t="s">
+      <c r="A208" s="141" t="s">
         <v>1275</v>
       </c>
       <c r="B208" s="132"/>
@@ -10607,7 +10742,7 @@
       </c>
     </row>
     <row r="210" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="142" t="s">
+      <c r="A210" s="141" t="s">
         <v>1276</v>
       </c>
       <c r="B210" s="132"/>
@@ -10621,7 +10756,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="142" t="s">
+      <c r="A212" s="141" t="s">
         <v>1277</v>
       </c>
       <c r="B212" s="132"/>
@@ -10635,7 +10770,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="142" t="s">
+      <c r="A214" s="141" t="s">
         <v>1278</v>
       </c>
       <c r="B214" s="132"/>
@@ -10647,13 +10782,13 @@
       <c r="B215" s="22"/>
     </row>
     <row r="216" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A216" s="143" t="s">
+      <c r="A216" s="142" t="s">
         <v>1298</v>
       </c>
       <c r="B216" s="22"/>
     </row>
     <row r="217" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="142" t="s">
+      <c r="A217" s="141" t="s">
         <v>1299</v>
       </c>
       <c r="B217" s="132"/>
@@ -10725,24 +10860,24 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A228" s="144" t="s">
+      <c r="A228" s="143" t="s">
         <v>1322</v>
       </c>
-      <c r="B228" s="145" t="s">
+      <c r="B228" s="144" t="s">
         <v>1321</v>
       </c>
-      <c r="C228" s="146" t="s">
+      <c r="C228" s="145" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A229" s="144" t="s">
+      <c r="A229" s="143" t="s">
         <v>1323</v>
       </c>
-      <c r="B229" s="145" t="s">
+      <c r="B229" s="144" t="s">
         <v>1324</v>
       </c>
-      <c r="C229" s="146" t="s">
+      <c r="C229" s="145" t="s">
         <v>1325</v>
       </c>
     </row>
@@ -10752,36 +10887,107 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A232" s="147" t="s">
+      <c r="A232" s="146" t="s">
         <v>1339</v>
       </c>
-      <c r="B232" s="148" t="s">
+      <c r="B232" s="147" t="s">
         <v>1337</v>
       </c>
-      <c r="C232" s="149" t="s">
+      <c r="C232" s="148" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A233" s="147" t="s">
+      <c r="A233" s="146" t="s">
         <v>1342</v>
       </c>
-      <c r="B233" s="148" t="s">
+      <c r="B233" s="147" t="s">
         <v>1340</v>
       </c>
-      <c r="C233" s="149" t="s">
+      <c r="C233" s="148" t="s">
         <v>1341</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A234" s="147" t="s">
+      <c r="A234" s="146" t="s">
         <v>1353</v>
       </c>
-      <c r="B234" s="148" t="s">
+      <c r="B234" s="147" t="s">
         <v>1351</v>
       </c>
-      <c r="C234" s="149" t="s">
+      <c r="C234" s="148" t="s">
         <v>1352</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237" s="153" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B237" s="154" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C237" s="155" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238" s="153" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B238" s="154" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C238" s="155" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239" s="153" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B239" s="154" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C239" s="155" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A240" s="156" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B240" s="154" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C240" s="155" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A241" s="156" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B241" s="154" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C241" s="155" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242" s="153" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B242" s="154" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C242" s="155" t="s">
+        <v>1368</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="1446">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -4765,12 +4765,413 @@
     <t>ねます
 寝ます</t>
   </si>
+  <si>
+    <t>ta, chi, tsu, te, to</t>
+  </si>
+  <si>
+    <t>た、ち、つ、て、と</t>
+  </si>
+  <si>
+    <t>not to wait</t>
+  </si>
+  <si>
+    <t>ra, ri, ru, re, ro</t>
+  </si>
+  <si>
+    <t>ら、り、る、れ、ろ</t>
+  </si>
+  <si>
+    <t>not to take</t>
+  </si>
+  <si>
+    <t>ga, gi, gu, ge, go</t>
+  </si>
+  <si>
+    <t>が、ぎ、ぐ、げ、ご</t>
+  </si>
+  <si>
+    <t>not to swim</t>
+  </si>
+  <si>
+    <t>あ、い、う、え、お</t>
+  </si>
+  <si>
+    <t>not to meet</t>
+  </si>
+  <si>
+    <t>ba, bi, bu, be,bo</t>
+  </si>
+  <si>
+    <t>ば、び、ぶ、べ、ぼ</t>
+  </si>
+  <si>
+    <t>not to play</t>
+  </si>
+  <si>
+    <t>ma, mi, mu, me, mo</t>
+  </si>
+  <si>
+    <t>ま、み、む、め、も</t>
+  </si>
+  <si>
+    <t>ka, ki, ku, ke, ko</t>
+  </si>
+  <si>
+    <t>か、き、く、け、こ</t>
+  </si>
+  <si>
+    <t>not to write</t>
+  </si>
+  <si>
+    <t>to write</t>
+  </si>
+  <si>
+    <t>kaki masu</t>
+  </si>
+  <si>
+    <t>かきます
+書きます</t>
+  </si>
+  <si>
+    <r>
+      <t>a, i, u, e, o (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>special case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>NAI - Form Regular 1</t>
+  </si>
+  <si>
+    <t>NAI - Form Regular 2</t>
+  </si>
+  <si>
+    <t>まちます -&gt; またない
+待ちます -&gt; 待たない</t>
+  </si>
+  <si>
+    <t>とります -&gt; とらない
+取ります -&gt; 取らない</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> masu -&gt; to ra nai</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> masu -&gt; ma ta nai</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">oyo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> masu -&gt; oyo ga nai</t>
+    </r>
+  </si>
+  <si>
+    <t>およぎます -&gt; およがない
+泳ぎます -&gt; 泳がない</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> masu -&gt; a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nai</t>
+    </r>
+  </si>
+  <si>
+    <t>あいます -&gt; あわない</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">aso </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> masu -&gt; aso ba nai</t>
+    </r>
+  </si>
+  <si>
+    <t>あそびます -&gt; あそばない
+遊びます -&gt; 遊ばない</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">no </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> masu -&gt; no ma nai</t>
+    </r>
+  </si>
+  <si>
+    <t>のにます -&gt; のまない
+飲みます -&gt; 飲まない</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ka </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> masu -&gt; kaka nai</t>
+    </r>
+  </si>
+  <si>
+    <t>かきます -&gt; かかない
+書きます -&gt; 書かない</t>
+  </si>
+  <si>
+    <t>tabe masu -&gt; tabe nai</t>
+  </si>
+  <si>
+    <t>たべます -&gt; たべない
+食べます -&gt; 食べない</t>
+  </si>
+  <si>
+    <t>mi masu -&gt; mi nai</t>
+  </si>
+  <si>
+    <t>みます -&gt; みない
+見ます -&gt; 見ない</t>
+  </si>
+  <si>
+    <t>ake masu -&gt; ake nai</t>
+  </si>
+  <si>
+    <t>あけます -&gt; あけない
+開けます -&gt; 開けない</t>
+  </si>
+  <si>
+    <t>not to open</t>
+  </si>
+  <si>
+    <t>age masu -&gt; age nai</t>
+  </si>
+  <si>
+    <t>あげます -&gt; あげます
+上げます -&gt; 上げない</t>
+  </si>
+  <si>
+    <t>todoke masu -&gt; todoke nai</t>
+  </si>
+  <si>
+    <t>not to deliver</t>
+  </si>
+  <si>
+    <t>とどけます -&gt; とどけない
+届けます -&gt; 届けない</t>
+  </si>
+  <si>
+    <t>shime masu -&gt; shime nai</t>
+  </si>
+  <si>
+    <t>not to close</t>
+  </si>
+  <si>
+    <t>しめます -&gt; しめない
+閉めます -&gt; 閉めない</t>
+  </si>
+  <si>
+    <t>NAI - Irregular Verbs</t>
+  </si>
+  <si>
+    <t>shi masu -&gt; shi nai</t>
+  </si>
+  <si>
+    <t>not to do</t>
+  </si>
+  <si>
+    <t>します -&gt; しない</t>
+  </si>
+  <si>
+    <t>ki masu -&gt; ko nai</t>
+  </si>
+  <si>
+    <t>not to come</t>
+  </si>
+  <si>
+    <t>きます -&gt; こない</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5073,6 +5474,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -5216,7 +5626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5434,6 +5844,23 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5714,10 +6141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:C302"/>
   <sheetViews>
-    <sheetView topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -8708,58 +9135,69 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A297" s="149" t="s">
-        <v>1334</v>
-      </c>
-      <c r="B297" s="150" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C297" s="151" t="s">
-        <v>1330</v>
+    <row r="296" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A296" s="16" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B296" s="14" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C296" s="15" t="s">
+        <v>1404</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" s="149" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B298" s="150" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C298" s="151" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A299" s="149" t="s">
         <v>1333</v>
       </c>
-      <c r="B298" s="150" t="s">
+      <c r="B299" s="150" t="s">
         <v>1332</v>
       </c>
-      <c r="C298" s="151" t="s">
+      <c r="C299" s="151" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A299" s="149" t="s">
+    <row r="300" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A300" s="149" t="s">
         <v>1349</v>
       </c>
-      <c r="B299" s="150" t="s">
+      <c r="B300" s="150" t="s">
         <v>1347</v>
       </c>
-      <c r="C299" s="151" t="s">
+      <c r="C300" s="151" t="s">
         <v>1348</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A300" s="149" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B300" s="150" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C300" s="151" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="149" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B301" s="150" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C301" s="151" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A302" s="149" t="s">
         <v>1363</v>
       </c>
-      <c r="B301" s="150" t="s">
+      <c r="B302" s="150" t="s">
         <v>1362</v>
       </c>
-      <c r="C301" s="151" t="s">
+      <c r="C302" s="151" t="s">
         <v>1361</v>
       </c>
     </row>
@@ -8771,10 +9209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D242"/>
+  <dimension ref="A1:D270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243"/>
+    <sheetView topLeftCell="A263" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A271" sqref="A271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -10990,6 +11428,249 @@
         <v>1368</v>
       </c>
     </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A245" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C245" s="6"/>
+    </row>
+    <row r="246" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="164" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B246" s="157" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C246" s="158" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247" s="159" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B247" s="160" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C247" s="161"/>
+    </row>
+    <row r="248" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="164" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B248" s="157" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C248" s="158" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A249" s="159" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B249" s="160" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C249" s="161"/>
+    </row>
+    <row r="250" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="164" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B250" s="157" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C250" s="158" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251" s="159" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B251" s="160" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C251" s="161"/>
+    </row>
+    <row r="252" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="164" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B252" s="157" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C252" s="158" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A253" s="159" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B253" s="160" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C253" s="161"/>
+    </row>
+    <row r="254" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="166" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B254" s="162" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C254" s="163" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255" s="159" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B255" s="160" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C255" s="161"/>
+    </row>
+    <row r="256" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="166" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B256" s="162" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C256" s="163" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257" s="159" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B257" s="160" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C257" s="161"/>
+    </row>
+    <row r="258" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="165" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B258" s="162" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C258" s="163" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A260" s="1" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A261" s="135" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B261" s="25" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C261" s="26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A262" s="135" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B262" s="25" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C262" s="26" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A263" s="135" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B263" s="25" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C263" s="26" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A264" s="135" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B264" s="25" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C264" s="26" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A265" s="135" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B265" s="25" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C265" s="26" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A266" s="135" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B266" s="25" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C266" s="26" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A268" s="1" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269" s="167" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B269" s="168" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C269" s="169" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A270" s="167" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B270" s="168" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C270" s="169" t="s">
+        <v>1444</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="1446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="1493">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -5002,9 +5002,6 @@
     </r>
   </si>
   <si>
-    <t>あいます -&gt; あわない</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">aso </t>
     </r>
@@ -5166,12 +5163,234 @@
   <si>
     <t>きます -&gt; こない</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kae </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> masu -&gt; kae ra nai</t>
+    </r>
+  </si>
+  <si>
+    <t>not to return</t>
+  </si>
+  <si>
+    <t>かえります -&gt; かえらない
+帰ります -&gt; 帰らない</t>
+  </si>
+  <si>
+    <t>not to buy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ka </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> masu -&gt; ka wa nai</t>
+    </r>
+  </si>
+  <si>
+    <t>かいます -&gt; かわない
+買います -&gt; 買わない</t>
+  </si>
+  <si>
+    <t>あいます -&gt; あわない
+会います -&gt; 会わない</t>
+  </si>
+  <si>
+    <t>NAI - De Kudasai</t>
+  </si>
+  <si>
+    <t>tabe nai de kudasai</t>
+  </si>
+  <si>
+    <t>Please do not eat</t>
+  </si>
+  <si>
+    <t>食べないでください</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> masu -&gt; yo ma nai</t>
+    </r>
+  </si>
+  <si>
+    <t>not to read</t>
+  </si>
+  <si>
+    <t>よみます -&gt; よまない
+読みます -&gt; 読まない</t>
+  </si>
+  <si>
+    <t>yoma nai de kudasai</t>
+  </si>
+  <si>
+    <t>Please do not read</t>
+  </si>
+  <si>
+    <t>読まないでください</t>
+  </si>
+  <si>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t>tegami</t>
+  </si>
+  <si>
+    <t>てがみ
+手紙</t>
+  </si>
+  <si>
+    <t>shashin</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>しゃしん
+写真</t>
+  </si>
+  <si>
+    <t>tora nai de kudasai</t>
+  </si>
+  <si>
+    <t>Please do not take</t>
+  </si>
+  <si>
+    <t>撮らないでください</t>
+  </si>
+  <si>
+    <t>ika nai de kudasai</t>
+  </si>
+  <si>
+    <t>Please do not go</t>
+  </si>
+  <si>
+    <t>行かないでください</t>
+  </si>
+  <si>
+    <t>Because it is dangerous</t>
+  </si>
+  <si>
+    <t>abunai desu kara</t>
+  </si>
+  <si>
+    <t>危ないですから</t>
+  </si>
+  <si>
+    <t>noma nai de kudasai</t>
+  </si>
+  <si>
+    <t>Please do not drink</t>
+  </si>
+  <si>
+    <t>飲まないでください</t>
+  </si>
+  <si>
+    <t>Because it is old</t>
+  </si>
+  <si>
+    <t>furui desu kara</t>
+  </si>
+  <si>
+    <t>Because it is cold</t>
+  </si>
+  <si>
+    <t>samui desu kara</t>
+  </si>
+  <si>
+    <t>Dangerous</t>
+  </si>
+  <si>
+    <t>古いですから</t>
+  </si>
+  <si>
+    <t>ふるいです
+古いです</t>
+  </si>
+  <si>
+    <t>abunai desu</t>
+  </si>
+  <si>
+    <t>あぶないです
+危ないです</t>
+  </si>
+  <si>
+    <t>samui desu</t>
+  </si>
+  <si>
+    <t>furui desu</t>
+  </si>
+  <si>
+    <t>さむいです
+寒いです</t>
+  </si>
+  <si>
+    <t>寒いですから</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5483,6 +5702,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -5626,7 +5853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5854,13 +6081,28 @@
     <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6141,10 +6383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C302"/>
+  <dimension ref="A1:C308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="A303" sqref="A303"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="A309" sqref="A309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -9201,6 +9443,72 @@
         <v>1361</v>
       </c>
     </row>
+    <row r="303" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A303" s="149" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B303" s="150" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C303" s="151" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A304" s="149" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B304" s="150" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C304" s="151" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A305" s="149" t="s">
+        <v>904</v>
+      </c>
+      <c r="B305" s="150" t="s">
+        <v>902</v>
+      </c>
+      <c r="C305" s="151" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A306" s="149" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B306" s="150" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C306" s="151" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A307" s="149" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B307" s="150" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C307" s="151" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A308" s="149" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B308" s="150" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C308" s="151" t="s">
+        <v>1104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9209,10 +9517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D270"/>
+  <dimension ref="A1:D284"/>
   <sheetViews>
-    <sheetView topLeftCell="A263" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A271" sqref="A271"/>
+    <sheetView topLeftCell="A273" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -11462,213 +11770,339 @@
       </c>
       <c r="C247" s="161"/>
     </row>
-    <row r="248" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="164" t="s">
+    <row r="248" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A248" s="171" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B248" s="169" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C248" s="170" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="164" t="s">
         <v>1411</v>
       </c>
-      <c r="B248" s="157" t="s">
+      <c r="B249" s="157" t="s">
         <v>1412</v>
       </c>
-      <c r="C248" s="158" t="s">
+      <c r="C249" s="158" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A249" s="159" t="s">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250" s="159" t="s">
         <v>1402</v>
       </c>
-      <c r="B249" s="160" t="s">
+      <c r="B250" s="160" t="s">
         <v>1401</v>
       </c>
-      <c r="C249" s="161"/>
-    </row>
-    <row r="250" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="164" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B250" s="157" t="s">
+      <c r="C250" s="161"/>
+    </row>
+    <row r="251" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="164" t="s">
         <v>1422</v>
       </c>
-      <c r="C250" s="158" t="s">
+      <c r="B251" s="157" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C251" s="158" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A251" s="159" t="s">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252" s="159" t="s">
         <v>1392</v>
       </c>
-      <c r="B251" s="160" t="s">
+      <c r="B252" s="160" t="s">
         <v>1391</v>
       </c>
-      <c r="C251" s="161"/>
-    </row>
-    <row r="252" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="164" t="s">
+      <c r="C252" s="161"/>
+    </row>
+    <row r="253" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="164" t="s">
         <v>1415</v>
       </c>
-      <c r="B252" s="157" t="s">
+      <c r="B253" s="157" t="s">
         <v>1414</v>
       </c>
-      <c r="C252" s="158" t="s">
+      <c r="C253" s="158" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A253" s="159" t="s">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254" s="159" t="s">
         <v>1397</v>
       </c>
-      <c r="B253" s="160" t="s">
+      <c r="B254" s="160" t="s">
         <v>1396</v>
       </c>
-      <c r="C253" s="161"/>
-    </row>
-    <row r="254" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="166" t="s">
+      <c r="C254" s="161"/>
+    </row>
+    <row r="255" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="165" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B255" s="162" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C255" s="163" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256" s="159" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B256" s="160" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C256" s="161"/>
+    </row>
+    <row r="257" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A257" s="173" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="165" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B258" s="162" t="s">
         <v>1419</v>
       </c>
-      <c r="B254" s="162" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C254" s="163" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A255" s="159" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B255" s="160" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C255" s="161"/>
-    </row>
-    <row r="256" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A256" s="166" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B256" s="162" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C256" s="163" t="s">
+      <c r="C258" s="163" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A257" s="159" t="s">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259" s="159" t="s">
         <v>1394</v>
       </c>
-      <c r="B257" s="160" t="s">
+      <c r="B259" s="160" t="s">
         <v>1407</v>
       </c>
-      <c r="C257" s="161"/>
-    </row>
-    <row r="258" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="165" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B258" s="162" t="s">
+      <c r="C259" s="161"/>
+    </row>
+    <row r="260" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A260" s="172" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B260" s="160" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C260" s="161" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="165" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B261" s="162" t="s">
         <v>1416</v>
       </c>
-      <c r="C258" s="163" t="s">
+      <c r="C261" s="163" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A260" s="1" t="s">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A263" s="1" t="s">
         <v>1409</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A261" s="135" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B261" s="25" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C261" s="26" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A262" s="135" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B262" s="25" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C262" s="26" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A263" s="135" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B263" s="25" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C263" s="26" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A264" s="135" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="B264" s="25" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
       <c r="C264" s="26" t="s">
-        <v>449</v>
+        <v>329</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A265" s="135" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="B265" s="25" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
       <c r="C265" s="26" t="s">
-        <v>1434</v>
+        <v>330</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A266" s="135" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B266" s="25" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C266" s="26" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A267" s="135" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B267" s="25" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C267" s="26" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A268" s="135" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B268" s="25" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C268" s="26" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A269" s="135" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B269" s="25" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C269" s="26" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A271" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="B266" s="25" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C266" s="26" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A268" s="1" t="s">
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A272" s="166" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B272" s="167" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A269" s="167" t="s">
+      <c r="C272" s="168" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A273" s="166" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B273" s="167" t="s">
         <v>1442</v>
       </c>
-      <c r="B269" s="168" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C269" s="169" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A270" s="167" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B270" s="168" t="s">
+      <c r="C273" s="168" t="s">
         <v>1443</v>
       </c>
-      <c r="C270" s="169" t="s">
-        <v>1444</v>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A275" s="1" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A276" s="18" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B276" s="19" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C276" s="20" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277" s="18" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B277" s="19" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C277" s="20" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278" s="18" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B278" s="19" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C278" s="20" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279" s="18" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B279" s="19" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C279" s="20" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A280" s="18" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B280" s="19" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C280" s="20" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282" s="174" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B282" s="175" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C282" s="176" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283" s="174" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B283" s="175" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C283" s="176" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284" s="174" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B284" s="175" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C284" s="176" t="s">
+        <v>1482</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="1519">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -2393,9 +2393,6 @@
   </si>
   <si>
     <t>Bank</t>
-  </si>
-  <si>
-    <t>ぎんこう</t>
   </si>
   <si>
     <t>Specific time + に</t>
@@ -5385,12 +5382,237 @@
   <si>
     <t>寒いですから</t>
   </si>
+  <si>
+    <t>MUST</t>
+  </si>
+  <si>
+    <t>Must go</t>
+  </si>
+  <si>
+    <t>行きます -&gt; 行かければなりません</t>
+  </si>
+  <si>
+    <t>ぎんこう
+銀行</t>
+  </si>
+  <si>
+    <t>Must do</t>
+  </si>
+  <si>
+    <t>します-&gt; しなければなりません</t>
+  </si>
+  <si>
+    <t>Homework</t>
+  </si>
+  <si>
+    <t>しゅくだい
+宿題</t>
+  </si>
+  <si>
+    <t>shukudai</t>
+  </si>
+  <si>
+    <t>Must watch</t>
+  </si>
+  <si>
+    <t>見ます -&gt; 見なければなりません</t>
+  </si>
+  <si>
+    <t>Must read</t>
+  </si>
+  <si>
+    <t>読みます -&gt; 読まなければなりません</t>
+  </si>
+  <si>
+    <t>Nai =&gt; Nakereba Narimasen</t>
+  </si>
+  <si>
+    <t>Must make</t>
+  </si>
+  <si>
+    <t>作ります -&gt; 作らなければなりません</t>
+  </si>
+  <si>
+    <t>Must deliver</t>
+  </si>
+  <si>
+    <t>届けます -&gt; 届けなければなりません</t>
+  </si>
+  <si>
+    <t>Flower</t>
+  </si>
+  <si>
+    <t>hana</t>
+  </si>
+  <si>
+    <t>はな
+花</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> masu -&gt; i </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ka nakereba narimasen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shi masu -&gt; shi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nakereba narimasen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mi masu -&gt; mi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nakereba narimasen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> masu -&gt; yo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ma nakereba narimasen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tsuku </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> masu -&gt; tsuku </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ra nakereba narimasen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">todoke masu -&gt; todoke </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nakereba narimasen</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5710,6 +5932,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -5853,7 +6083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6103,6 +6333,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6383,10 +6619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C308"/>
+  <dimension ref="A1:C311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="A309" sqref="A309"/>
+    <sheetView topLeftCell="A305" workbookViewId="0">
+      <selection activeCell="A312" sqref="A312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -7377,123 +7613,123 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B95" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="C95" s="23" t="s">
         <v>693</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="21" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B96" s="22" t="s">
+        <v>695</v>
+      </c>
+      <c r="C96" s="23" t="s">
         <v>696</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="21" t="s">
+        <v>849</v>
+      </c>
+      <c r="B97" s="22" t="s">
         <v>850</v>
       </c>
-      <c r="B97" s="22" t="s">
-        <v>851</v>
-      </c>
       <c r="C97" s="23" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="21" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B99" s="22" t="s">
+        <v>698</v>
+      </c>
+      <c r="C99" s="23" t="s">
         <v>699</v>
-      </c>
-      <c r="C99" s="23" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="21" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="21" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="21" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B102" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="C102" s="23" t="s">
         <v>702</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="21" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="21" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="21" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B105" s="22" t="s">
+        <v>704</v>
+      </c>
+      <c r="C105" s="23" t="s">
         <v>705</v>
-      </c>
-      <c r="C105" s="23" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -7674,7 +7910,7 @@
     </row>
     <row r="124" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A124" s="103" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B124" s="41" t="s">
         <v>435</v>
@@ -7707,7 +7943,7 @@
     </row>
     <row r="128" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A128" s="102" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B128" s="47" t="s">
         <v>467</v>
@@ -7729,13 +7965,13 @@
     </row>
     <row r="130" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A130" s="102" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B130" s="47" t="s">
         <v>472</v>
       </c>
       <c r="C130" s="48" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
@@ -8376,9 +8612,9 @@
         <v>656</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" s="61" t="s">
-        <v>687</v>
+    <row r="195" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A195" s="177" t="s">
+        <v>1495</v>
       </c>
       <c r="B195" s="62" t="s">
         <v>685</v>
@@ -8389,758 +8625,758 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="61" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B196" s="62" t="s">
+        <v>707</v>
+      </c>
+      <c r="C196" s="63" t="s">
         <v>708</v>
-      </c>
-      <c r="C196" s="63" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="61" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B197" s="62" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C197" s="63" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="61" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B198" s="62" t="s">
+        <v>724</v>
+      </c>
+      <c r="C198" s="63" t="s">
         <v>725</v>
-      </c>
-      <c r="C198" s="63" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="61" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B199" s="62" t="s">
+        <v>727</v>
+      </c>
+      <c r="C199" s="63" t="s">
         <v>728</v>
-      </c>
-      <c r="C199" s="63" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="61" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B200" s="62" t="s">
+        <v>730</v>
+      </c>
+      <c r="C200" s="63" t="s">
         <v>731</v>
-      </c>
-      <c r="C200" s="63" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="61" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B201" s="62" t="s">
+        <v>732</v>
+      </c>
+      <c r="C201" s="63" t="s">
         <v>733</v>
-      </c>
-      <c r="C201" s="63" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="66" t="s">
+        <v>737</v>
+      </c>
+      <c r="B203" s="67" t="s">
         <v>738</v>
       </c>
-      <c r="B203" s="67" t="s">
-        <v>739</v>
-      </c>
       <c r="C203" s="68" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="66" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B204" s="67" t="s">
+        <v>746</v>
+      </c>
+      <c r="C204" s="68" t="s">
         <v>747</v>
-      </c>
-      <c r="C204" s="68" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="66" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B205" s="67" t="s">
+        <v>749</v>
+      </c>
+      <c r="C205" s="68" t="s">
         <v>750</v>
-      </c>
-      <c r="C205" s="68" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="69" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B206" s="70" t="s">
+        <v>752</v>
+      </c>
+      <c r="C206" s="71" t="s">
         <v>753</v>
-      </c>
-      <c r="C206" s="71" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="72" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B207" s="73" t="s">
+        <v>756</v>
+      </c>
+      <c r="C207" s="74" t="s">
         <v>757</v>
-      </c>
-      <c r="C207" s="74" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="66" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B208" s="67" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C208" s="68" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="66" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B209" s="67" t="s">
+        <v>766</v>
+      </c>
+      <c r="C209" s="68" t="s">
         <v>767</v>
-      </c>
-      <c r="C209" s="68" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="66" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B210" s="67" t="s">
+        <v>769</v>
+      </c>
+      <c r="C210" s="68" t="s">
         <v>770</v>
-      </c>
-      <c r="C210" s="68" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A211" s="101" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B211" s="67" t="s">
+        <v>818</v>
+      </c>
+      <c r="C211" s="68" t="s">
         <v>819</v>
-      </c>
-      <c r="C211" s="68" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="66" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B212" s="67" t="s">
+        <v>824</v>
+      </c>
+      <c r="C212" s="68" t="s">
         <v>825</v>
-      </c>
-      <c r="C212" s="68" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="66" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B213" s="67" t="s">
+        <v>827</v>
+      </c>
+      <c r="C213" s="68" t="s">
         <v>828</v>
-      </c>
-      <c r="C213" s="68" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A215" s="137" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B215" s="96" t="s">
+        <v>837</v>
+      </c>
+      <c r="C215" s="97" t="s">
         <v>838</v>
-      </c>
-      <c r="C215" s="97" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="95" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B216" s="96" t="s">
+        <v>892</v>
+      </c>
+      <c r="C216" s="97" t="s">
         <v>893</v>
-      </c>
-      <c r="C216" s="97" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="95" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B217" s="96" t="s">
+        <v>916</v>
+      </c>
+      <c r="C217" s="97" t="s">
         <v>917</v>
-      </c>
-      <c r="C217" s="97" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="95" t="s">
+        <v>926</v>
+      </c>
+      <c r="B218" s="96" t="s">
         <v>927</v>
       </c>
-      <c r="B218" s="96" t="s">
-        <v>928</v>
-      </c>
       <c r="C218" s="97" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="95" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B219" s="96" t="s">
+        <v>923</v>
+      </c>
+      <c r="C219" s="97" t="s">
         <v>924</v>
-      </c>
-      <c r="C219" s="97" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A221" s="103" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B221" s="41" t="s">
+        <v>940</v>
+      </c>
+      <c r="C221" s="42" t="s">
         <v>941</v>
-      </c>
-      <c r="C221" s="42" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A222" s="103" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B222" s="41" t="s">
+        <v>943</v>
+      </c>
+      <c r="C222" s="42" t="s">
         <v>944</v>
-      </c>
-      <c r="C222" s="42" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A223" s="103" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B223" s="41" t="s">
+        <v>946</v>
+      </c>
+      <c r="C223" s="42" t="s">
         <v>947</v>
-      </c>
-      <c r="C223" s="42" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A224" s="103" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B224" s="41" t="s">
+        <v>949</v>
+      </c>
+      <c r="C224" s="42" t="s">
         <v>950</v>
-      </c>
-      <c r="C224" s="42" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A225" s="103" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B225" s="41" t="s">
+        <v>952</v>
+      </c>
+      <c r="C225" s="42" t="s">
         <v>953</v>
-      </c>
-      <c r="C225" s="42" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A226" s="103" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B226" s="104" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C226" s="42" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A227" s="103" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B227" s="41" t="s">
+        <v>958</v>
+      </c>
+      <c r="C227" s="42" t="s">
         <v>959</v>
-      </c>
-      <c r="C227" s="42" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="40" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B228" s="41" t="s">
+        <v>961</v>
+      </c>
+      <c r="C228" s="42" t="s">
         <v>962</v>
-      </c>
-      <c r="C228" s="42" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="40" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B229" s="41" t="s">
+        <v>964</v>
+      </c>
+      <c r="C229" s="42" t="s">
         <v>965</v>
-      </c>
-      <c r="C229" s="42" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="40" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B230" s="41" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C230" s="42" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A231" s="103" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B231" s="41" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C231" s="42" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A232" s="103" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B232" s="41" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C232" s="42" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="40" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B233" s="41" t="s">
+        <v>978</v>
+      </c>
+      <c r="C233" s="42" t="s">
         <v>979</v>
-      </c>
-      <c r="C233" s="42" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="46" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B235" s="47" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C235" s="48" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="46" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B236" s="47" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C236" s="48" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="46" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B237" s="47" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C237" s="48" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="46" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B238" s="47" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C238" s="48" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="46" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B239" s="47" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C239" s="48" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="46" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B240" s="47" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C240" s="48" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="46" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B241" s="47" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C241" s="48" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="46" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B242" s="47" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C242" s="48" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="46" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B243" s="47" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C243" s="48" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="46" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B244" s="47" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C244" s="48" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="46" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B245" s="47" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C245" s="48" t="s">
         <v>1004</v>
-      </c>
-      <c r="C245" s="48" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="46" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B246" s="47" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C246" s="48" t="s">
         <v>1018</v>
-      </c>
-      <c r="B246" s="47" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C246" s="48" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="49" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B248" s="50" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C248" s="51" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="49" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B249" s="50" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C249" s="51" t="s">
         <v>1028</v>
-      </c>
-      <c r="C249" s="51" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A251" s="60" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B251" s="50" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C251" s="51" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A252" s="60" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B252" s="50" t="s">
         <v>1051</v>
       </c>
-      <c r="B252" s="50" t="s">
-        <v>1052</v>
-      </c>
       <c r="C252" s="51" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="60" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B253" s="50" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C253" s="51" t="s">
         <v>1093</v>
-      </c>
-      <c r="C253" s="51" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="49" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B254" s="50" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C254" s="51" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="49" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B255" s="50" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C255" s="51" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="49" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B256" s="50" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C256" s="51" t="s">
         <v>1067</v>
-      </c>
-      <c r="C256" s="51" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="49" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B257" s="50" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C257" s="51" t="s">
         <v>1090</v>
-      </c>
-      <c r="C257" s="51" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A258" s="60" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B258" s="50" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C258" s="51" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A259" s="60" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B259" s="50" t="s">
         <v>1168</v>
       </c>
-      <c r="B259" s="50" t="s">
-        <v>1169</v>
-      </c>
       <c r="C259" s="51" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B261" s="8" t="s">
         <v>1180</v>
       </c>
-      <c r="B261" s="8" t="s">
-        <v>1181</v>
-      </c>
       <c r="C261" s="5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A262" s="59" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B262" s="8" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C262" s="5" t="s">
         <v>1188</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A263" s="59" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A264" s="59" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B264" s="8" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C264" s="5" t="s">
         <v>1193</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A265" s="59" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B265" s="8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C265" s="5" t="s">
         <v>1197</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="59" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="59" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B267" s="8" t="s">
         <v>1231</v>
       </c>
-      <c r="B267" s="8" t="s">
-        <v>1232</v>
-      </c>
       <c r="C267" s="5" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="59" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A270" s="52" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B270" s="53" t="s">
+        <v>928</v>
+      </c>
+      <c r="C270" s="54" t="s">
         <v>929</v>
-      </c>
-      <c r="C270" s="54" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A271" s="52" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B271" s="53" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C271" s="54" t="s">
         <v>1237</v>
-      </c>
-      <c r="C271" s="54" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A272" s="52" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B272" s="53" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C272" s="54" t="s">
         <v>679</v>
@@ -9148,32 +9384,32 @@
     </row>
     <row r="273" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A273" s="52" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B273" s="53" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C273" s="54" t="s">
         <v>1242</v>
-      </c>
-      <c r="C273" s="54" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A274" s="52" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B274" s="53" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C274" s="54" t="s">
         <v>1245</v>
-      </c>
-      <c r="C274" s="54" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A275" s="52" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B275" s="53" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C275" s="54" t="s">
         <v>286</v>
@@ -9181,43 +9417,43 @@
     </row>
     <row r="276" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A276" s="52" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B276" s="53" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C276" s="54" t="s">
         <v>1250</v>
-      </c>
-      <c r="C276" s="54" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A277" s="52" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B277" s="53" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C277" s="54" t="s">
         <v>1253</v>
-      </c>
-      <c r="C277" s="54" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A278" s="52" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B278" s="53" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C278" s="54" t="s">
         <v>1256</v>
-      </c>
-      <c r="C278" s="54" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A280" s="135" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B280" s="25" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C280" s="26" t="s">
         <v>290</v>
@@ -9225,10 +9461,10 @@
     </row>
     <row r="281" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A281" s="135" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B281" s="25" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C281" s="26" t="s">
         <v>292</v>
@@ -9236,10 +9472,10 @@
     </row>
     <row r="282" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A282" s="135" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B282" s="25" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C282" s="26" t="s">
         <v>444</v>
@@ -9247,87 +9483,87 @@
     </row>
     <row r="283" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A283" s="135" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B283" s="25" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C283" s="26" t="s">
         <v>1285</v>
-      </c>
-      <c r="C283" s="26" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A284" s="135" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B284" s="25" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C284" s="26" t="s">
         <v>1288</v>
-      </c>
-      <c r="C284" s="26" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A285" s="135" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B285" s="25" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C285" s="26" t="s">
         <v>1291</v>
-      </c>
-      <c r="C285" s="26" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A286" s="135" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B286" s="25" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C286" s="26" t="s">
         <v>1294</v>
-      </c>
-      <c r="C286" s="26" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="16" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B288" s="14" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C288" s="15" t="s">
         <v>1307</v>
-      </c>
-      <c r="C288" s="15" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A289" s="16" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B289" s="14" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C289" s="15" t="s">
         <v>1314</v>
-      </c>
-      <c r="C289" s="15" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A290" s="16" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B290" s="14" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C290" s="15" t="s">
         <v>1326</v>
-      </c>
-      <c r="C290" s="15" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A291" s="16" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C291" s="15" t="s">
         <v>675</v>
@@ -9335,178 +9571,200 @@
     </row>
     <row r="292" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A292" s="16" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C292" s="15" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A293" s="16" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B293" s="14" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C293" s="15" t="s">
         <v>1354</v>
-      </c>
-      <c r="C293" s="15" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A294" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B294" s="14" t="s">
         <v>1371</v>
       </c>
-      <c r="B294" s="14" t="s">
-        <v>1372</v>
-      </c>
       <c r="C294" s="15" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A295" s="16" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B295" s="14" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C295" s="15" t="s">
         <v>1382</v>
-      </c>
-      <c r="C295" s="15" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A296" s="16" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C296" s="15" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" s="149" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B298" s="150" t="s">
         <v>1334</v>
       </c>
-      <c r="B298" s="150" t="s">
-        <v>1335</v>
-      </c>
       <c r="C298" s="151" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" s="149" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B299" s="150" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C299" s="151" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A300" s="149" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B300" s="150" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C300" s="151" t="s">
         <v>1347</v>
-      </c>
-      <c r="C300" s="151" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="149" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B301" s="150" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C301" s="151" t="s">
         <v>1031</v>
-      </c>
-      <c r="B301" s="150" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C301" s="151" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" s="149" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B302" s="150" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C302" s="151" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A303" s="149" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B303" s="150" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C303" s="151" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A304" s="149" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B304" s="150" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C304" s="151" t="s">
         <v>1465</v>
-      </c>
-      <c r="C304" s="151" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" s="149" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B305" s="150" t="s">
+        <v>901</v>
+      </c>
+      <c r="C305" s="151" t="s">
         <v>902</v>
-      </c>
-      <c r="C305" s="151" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A306" s="149" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B306" s="150" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C306" s="151" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A307" s="149" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B307" s="150" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C307" s="151" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A308" s="149" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B308" s="150" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C308" s="151" t="s">
-        <v>1104</v>
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A310" s="178" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B310" s="93" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C310" s="94" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A311" s="178" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B311" s="93" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C311" s="94" t="s">
+        <v>1510</v>
       </c>
     </row>
   </sheetData>
@@ -9517,23 +9775,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D284"/>
+  <dimension ref="A1:D293"/>
   <sheetViews>
-    <sheetView topLeftCell="A273" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A285" sqref="A285"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A294" sqref="A294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="95.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -9857,7 +10115,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>300</v>
@@ -9868,7 +10126,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="30" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>363</v>
@@ -9879,7 +10137,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="30" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>364</v>
@@ -9890,7 +10148,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>302</v>
@@ -9901,7 +10159,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>366</v>
@@ -10044,24 +10302,24 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B55" s="19" t="s">
+        <v>711</v>
+      </c>
+      <c r="C55" s="20" t="s">
         <v>712</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>721</v>
+      </c>
+      <c r="C56" s="20" t="s">
         <v>723</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>722</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -10209,7 +10467,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="46" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -10276,760 +10534,760 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="64" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B84" s="53"/>
       <c r="C84" s="54"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="64" t="s">
+        <v>688</v>
+      </c>
+      <c r="B85" s="53" t="s">
         <v>689</v>
       </c>
-      <c r="B85" s="53" t="s">
-        <v>690</v>
-      </c>
       <c r="C85" s="54" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="64" t="s">
+        <v>690</v>
+      </c>
+      <c r="B86" s="53" t="s">
         <v>691</v>
       </c>
-      <c r="B86" s="53" t="s">
-        <v>692</v>
-      </c>
       <c r="C86" s="54" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="64" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B87" s="53" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C87" s="54" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="75" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B89" s="56" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C89" s="57" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="75" t="s">
+        <v>742</v>
+      </c>
+      <c r="B90" s="56" t="s">
+        <v>741</v>
+      </c>
+      <c r="C90" s="57" t="s">
         <v>743</v>
-      </c>
-      <c r="B90" s="56" t="s">
-        <v>742</v>
-      </c>
-      <c r="C90" s="57" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="76" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B91" s="77" t="s">
+        <v>744</v>
+      </c>
+      <c r="C91" s="78" t="s">
         <v>745</v>
       </c>
-      <c r="C91" s="78" t="s">
-        <v>746</v>
-      </c>
       <c r="D91" s="65" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="79" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B92" s="80" t="s">
+        <v>760</v>
+      </c>
+      <c r="C92" s="81" t="s">
         <v>761</v>
-      </c>
-      <c r="C92" s="81" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="121.5" x14ac:dyDescent="0.35">
       <c r="A93" s="75" t="s">
+        <v>774</v>
+      </c>
+      <c r="B93" s="56" t="s">
         <v>775</v>
       </c>
-      <c r="B93" s="56" t="s">
+      <c r="C93" s="57" t="s">
         <v>776</v>
       </c>
-      <c r="C93" s="57" t="s">
-        <v>777</v>
-      </c>
       <c r="D93" s="65" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="75" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B94" s="56" t="s">
+        <v>780</v>
+      </c>
+      <c r="C94" s="57" t="s">
         <v>781</v>
-      </c>
-      <c r="C94" s="57" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="75" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B95" s="56" t="s">
+        <v>777</v>
+      </c>
+      <c r="C95" s="57" t="s">
         <v>778</v>
-      </c>
-      <c r="C95" s="57" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A96" s="75" t="s">
+        <v>784</v>
+      </c>
+      <c r="B96" s="56" t="s">
+        <v>783</v>
+      </c>
+      <c r="C96" s="57" t="s">
+        <v>787</v>
+      </c>
+      <c r="D96" s="65" t="s">
         <v>785</v>
-      </c>
-      <c r="B96" s="56" t="s">
-        <v>784</v>
-      </c>
-      <c r="C96" s="57" t="s">
-        <v>788</v>
-      </c>
-      <c r="D96" s="65" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="84" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A97" s="75" t="s">
+        <v>789</v>
+      </c>
+      <c r="B97" s="56" t="s">
+        <v>788</v>
+      </c>
+      <c r="C97" s="57" t="s">
+        <v>786</v>
+      </c>
+      <c r="D97" s="83" t="s">
         <v>790</v>
-      </c>
-      <c r="B97" s="56" t="s">
-        <v>789</v>
-      </c>
-      <c r="C97" s="57" t="s">
-        <v>787</v>
-      </c>
-      <c r="D97" s="83" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="84" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A98" s="75" t="s">
+        <v>797</v>
+      </c>
+      <c r="B98" s="56" t="s">
+        <v>796</v>
+      </c>
+      <c r="C98" s="57" t="s">
+        <v>795</v>
+      </c>
+      <c r="D98" s="83" t="s">
         <v>798</v>
-      </c>
-      <c r="B98" s="56" t="s">
-        <v>797</v>
-      </c>
-      <c r="C98" s="57" t="s">
-        <v>796</v>
-      </c>
-      <c r="D98" s="83" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A99" s="75" t="s">
+        <v>793</v>
+      </c>
+      <c r="B99" s="56" t="s">
+        <v>792</v>
+      </c>
+      <c r="C99" s="57" t="s">
+        <v>791</v>
+      </c>
+      <c r="D99" s="65" t="s">
         <v>794</v>
-      </c>
-      <c r="B99" s="56" t="s">
-        <v>793</v>
-      </c>
-      <c r="C99" s="57" t="s">
-        <v>792</v>
-      </c>
-      <c r="D99" s="65" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="82" t="s">
+        <v>800</v>
+      </c>
+      <c r="B100" s="77" t="s">
         <v>801</v>
       </c>
-      <c r="B100" s="77" t="s">
+      <c r="C100" s="78" t="s">
+        <v>799</v>
+      </c>
+      <c r="D100" s="65" t="s">
         <v>802</v>
-      </c>
-      <c r="C100" s="78" t="s">
-        <v>800</v>
-      </c>
-      <c r="D100" s="65" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="79" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B101" s="80" t="s">
+        <v>803</v>
+      </c>
+      <c r="C101" s="81" t="s">
         <v>804</v>
-      </c>
-      <c r="C101" s="81" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="152.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="82" t="s">
+        <v>807</v>
+      </c>
+      <c r="B102" s="77" t="s">
+        <v>805</v>
+      </c>
+      <c r="C102" s="78" t="s">
+        <v>806</v>
+      </c>
+      <c r="D102" s="65" t="s">
         <v>808</v>
-      </c>
-      <c r="B102" s="77" t="s">
-        <v>806</v>
-      </c>
-      <c r="C102" s="78" t="s">
-        <v>807</v>
-      </c>
-      <c r="D102" s="65" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="79" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B103" s="80" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C103" s="81" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="82" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B104" s="77" t="s">
+        <v>813</v>
+      </c>
+      <c r="C104" s="78" t="s">
         <v>814</v>
-      </c>
-      <c r="C104" s="78" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="85" t="s">
+        <v>820</v>
+      </c>
+      <c r="B105" s="86" t="s">
         <v>821</v>
       </c>
-      <c r="B105" s="86" t="s">
+      <c r="C105" s="87" t="s">
         <v>822</v>
-      </c>
-      <c r="C105" s="87" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="76" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B106" s="88" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C106" s="78" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="79" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B107" s="80" t="s">
+        <v>831</v>
+      </c>
+      <c r="C107" s="81" t="s">
         <v>832</v>
-      </c>
-      <c r="C107" s="81" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="79" t="s">
+        <v>844</v>
+      </c>
+      <c r="B108" s="80" t="s">
         <v>845</v>
       </c>
-      <c r="B108" s="80" t="s">
+      <c r="C108" s="81" t="s">
         <v>846</v>
-      </c>
-      <c r="C108" s="81" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="75" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B109" s="56" t="s">
+        <v>834</v>
+      </c>
+      <c r="C109" s="57" t="s">
         <v>835</v>
-      </c>
-      <c r="C109" s="57" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="36" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B111" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="C111" s="15" t="s">
         <v>866</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="36" t="s">
+        <v>868</v>
+      </c>
+      <c r="B112" s="14" t="s">
         <v>869</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="C112" s="15" t="s">
         <v>870</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="36" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B113" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="C113" s="15" t="s">
         <v>872</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="36" t="s">
+        <v>874</v>
+      </c>
+      <c r="B114" s="14" t="s">
         <v>875</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="C114" s="15" t="s">
         <v>876</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="36" t="s">
+        <v>877</v>
+      </c>
+      <c r="B115" s="14" t="s">
         <v>878</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="C115" s="15" t="s">
         <v>879</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="36" t="s">
+        <v>880</v>
+      </c>
+      <c r="B116" s="14" t="s">
         <v>881</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="C116" s="15" t="s">
         <v>882</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="36" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="98" t="s">
+        <v>886</v>
+      </c>
+      <c r="B119" s="99" t="s">
         <v>887</v>
       </c>
-      <c r="B119" s="99" t="s">
+      <c r="C119" s="100" t="s">
         <v>888</v>
-      </c>
-      <c r="C119" s="100" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="98" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B120" s="99" t="s">
+        <v>889</v>
+      </c>
+      <c r="C120" s="100" t="s">
         <v>890</v>
-      </c>
-      <c r="C120" s="100" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="89" t="s">
+        <v>895</v>
+      </c>
+      <c r="B122" s="90" t="s">
         <v>896</v>
       </c>
-      <c r="B122" s="90" t="s">
+      <c r="C122" s="91" t="s">
         <v>897</v>
-      </c>
-      <c r="C122" s="91" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="92" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B124" s="93" t="s">
+        <v>898</v>
+      </c>
+      <c r="C124" s="94" t="s">
         <v>899</v>
-      </c>
-      <c r="C124" s="94" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="92" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B125" s="93" t="s">
+        <v>901</v>
+      </c>
+      <c r="C125" s="94" t="s">
         <v>902</v>
-      </c>
-      <c r="C125" s="94" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="43" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B127" s="44" t="s">
+        <v>904</v>
+      </c>
+      <c r="C127" s="45" t="s">
         <v>905</v>
-      </c>
-      <c r="C127" s="45" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="43" t="s">
+        <v>907</v>
+      </c>
+      <c r="B128" s="44" t="s">
         <v>908</v>
       </c>
-      <c r="B128" s="44" t="s">
+      <c r="C128" s="45" t="s">
         <v>909</v>
-      </c>
-      <c r="C128" s="45" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="43" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B129" s="44" t="s">
+        <v>910</v>
+      </c>
+      <c r="C129" s="45" t="s">
         <v>911</v>
-      </c>
-      <c r="C129" s="45" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="43" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B130" s="44" t="s">
+        <v>913</v>
+      </c>
+      <c r="C130" s="45" t="s">
         <v>914</v>
-      </c>
-      <c r="C130" s="45" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="43" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B131" s="44" t="s">
+        <v>919</v>
+      </c>
+      <c r="C131" s="45" t="s">
         <v>920</v>
-      </c>
-      <c r="C131" s="45" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="46" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B133" s="47" t="s">
+        <v>930</v>
+      </c>
+      <c r="C133" s="48" t="s">
         <v>931</v>
-      </c>
-      <c r="C133" s="48" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="46" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B134" s="47" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C134" s="48" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="46" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B135" s="47" t="s">
+        <v>934</v>
+      </c>
+      <c r="C135" s="48" t="s">
         <v>935</v>
-      </c>
-      <c r="C135" s="48" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="46" t="s">
+        <v>938</v>
+      </c>
+      <c r="B136" s="47" t="s">
+        <v>937</v>
+      </c>
+      <c r="C136" s="48" t="s">
         <v>939</v>
-      </c>
-      <c r="B136" s="47" t="s">
-        <v>938</v>
-      </c>
-      <c r="C136" s="48" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A138" s="60" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B138" s="50" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C138" s="51" t="s">
         <v>1020</v>
-      </c>
-      <c r="C138" s="51" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="60" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B139" s="50" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C139" s="51" t="s">
         <v>1034</v>
-      </c>
-      <c r="C139" s="51" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="60" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B140" s="50" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C140" s="51" t="s">
         <v>1037</v>
-      </c>
-      <c r="C140" s="51" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="110" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B141" s="111" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C141" s="112" t="s">
         <v>1040</v>
-      </c>
-      <c r="C141" s="112" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="113" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B142" s="114" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C142" s="115" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A143" s="107" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B143" s="108" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C143" s="109" t="s">
         <v>1055</v>
-      </c>
-      <c r="C143" s="109" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="60" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B144" s="50" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C144" s="51" t="s">
         <v>1058</v>
-      </c>
-      <c r="C144" s="51" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="60" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B145" s="50" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C145" s="51" t="s">
         <v>1061</v>
-      </c>
-      <c r="C145" s="51" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="110" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B146" s="111" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C146" s="112" t="s">
         <v>1064</v>
-      </c>
-      <c r="C146" s="112" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="107" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B147" s="108" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C147" s="109" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="60" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B148" s="50" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C148" s="51" t="s">
         <v>1081</v>
-      </c>
-      <c r="C148" s="51" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="60" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B149" s="50" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C149" s="51" t="s">
         <v>1084</v>
-      </c>
-      <c r="C149" s="51" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="110" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B150" s="111" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C150" s="112" t="s">
         <v>1087</v>
-      </c>
-      <c r="C150" s="112" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="116" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B151" s="108" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C151" s="109" t="s">
         <v>1025</v>
-      </c>
-      <c r="C151" s="109" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A152" s="60" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B152" s="105" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C152" s="106" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="117" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B154" s="118"/>
       <c r="C154" s="119"/>
     </row>
     <row r="155" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A155" s="120" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B155" s="121" t="s">
         <v>1101</v>
       </c>
-      <c r="B155" s="121" t="s">
-        <v>1102</v>
-      </c>
       <c r="C155" s="122" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A156" s="59" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A157" s="59" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B157" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C157" s="5" t="s">
         <v>1127</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="123" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B158" s="118" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C158" s="119" t="s">
         <v>1130</v>
-      </c>
-      <c r="C158" s="119" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A159" s="120" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B159" s="121" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C159" s="122" t="s">
         <v>1103</v>
-      </c>
-      <c r="C159" s="122" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A160" s="59" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>486</v>
@@ -11040,355 +11298,355 @@
     </row>
     <row r="161" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A161" s="59" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B161" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>1107</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A162" s="59" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A163" s="59" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B163" s="8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>1112</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A164" s="59" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A165" s="59" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B165" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>1116</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A166" s="59" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>483</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A167" s="59" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B167" s="8" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>1121</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="124" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B169" s="125"/>
       <c r="C169" s="126"/>
     </row>
     <row r="170" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A170" s="52" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B170" s="53" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C170" s="54" t="s">
         <v>1143</v>
-      </c>
-      <c r="C170" s="54" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="127" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B171" s="128" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C171" s="129" t="s">
         <v>1152</v>
-      </c>
-      <c r="C171" s="129" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="127" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B172" s="128" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C172" s="129" t="s">
         <v>1155</v>
-      </c>
-      <c r="C172" s="129" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="130" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B173" s="125" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C173" s="126" t="s">
         <v>1158</v>
-      </c>
-      <c r="C173" s="126" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A174" s="127" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B174" s="128" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C174" s="129" t="s">
         <v>1134</v>
-      </c>
-      <c r="C174" s="129" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="52" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B175" s="53" t="s">
         <v>1138</v>
       </c>
-      <c r="B175" s="53" t="s">
-        <v>1139</v>
-      </c>
       <c r="C175" s="54" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A176" s="52" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B176" s="53" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C176" s="54" t="s">
         <v>1140</v>
-      </c>
-      <c r="C176" s="54" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A177" s="52" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B177" s="53" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C177" s="54" t="s">
         <v>1146</v>
-      </c>
-      <c r="C177" s="54" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A178" s="52" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B178" s="53" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C178" s="54" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="24" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B180" s="25" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C180" s="26" t="s">
         <v>1161</v>
-      </c>
-      <c r="C180" s="26" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="24" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B181" s="25" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C181" s="26" t="s">
         <v>1164</v>
-      </c>
-      <c r="C181" s="26" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="36" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B183" s="14" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C183" s="15" t="s">
         <v>1170</v>
-      </c>
-      <c r="C183" s="15" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="36" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B184" s="14" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C184" s="15" t="s">
         <v>1173</v>
-      </c>
-      <c r="C184" s="15" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="36" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B185" s="14" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C185" s="15" t="s">
         <v>1176</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="36" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B186" s="14" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C186" s="15" t="s">
         <v>1182</v>
-      </c>
-      <c r="C186" s="15" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="36" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B187" s="14" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C187" s="15" t="s">
         <v>1185</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="36" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B188" s="14" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C188" s="15" t="s">
         <v>1200</v>
-      </c>
-      <c r="C188" s="15" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="36" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B189" s="14" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C189" s="15" t="s">
         <v>1203</v>
-      </c>
-      <c r="C189" s="15" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="36" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B190" s="14" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C190" s="15" t="s">
         <v>1209</v>
-      </c>
-      <c r="C190" s="15" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="36" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B191" s="14" t="s">
         <v>1212</v>
       </c>
-      <c r="B191" s="14" t="s">
-        <v>1213</v>
-      </c>
       <c r="C191" s="15" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="36" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B192" s="14" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C192" s="15" t="s">
         <v>1224</v>
-      </c>
-      <c r="C192" s="15" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="36" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B193" s="14" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C193" s="15" t="s">
         <v>1185</v>
-      </c>
-      <c r="C193" s="15" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="36" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B194" s="14" t="s">
         <v>1228</v>
       </c>
-      <c r="B194" s="14" t="s">
-        <v>1229</v>
-      </c>
       <c r="C194" s="15" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D195" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="18" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B196" s="19" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C196" s="20" t="s">
         <v>1214</v>
-      </c>
-      <c r="C196" s="20" t="s">
-        <v>1215</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -11396,13 +11654,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="18" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D197">
         <v>2</v>
@@ -11410,13 +11668,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="18" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D198">
         <v>3</v>
@@ -11424,118 +11682,118 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="138" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B201" s="22" t="s">
         <v>1259</v>
-      </c>
-      <c r="B201" s="22" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="140" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B202" s="22"/>
     </row>
     <row r="203" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="140" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B203" s="22"/>
     </row>
     <row r="204" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="152" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B204" s="132"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="139" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B205" s="131" t="s">
         <v>1261</v>
-      </c>
-      <c r="B205" s="131" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="140" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B206" s="131"/>
     </row>
     <row r="207" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="140" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B207" s="131"/>
     </row>
     <row r="208" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="141" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B208" s="132"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="139" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B209" s="131" t="s">
         <v>1263</v>
-      </c>
-      <c r="B209" s="131" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="141" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B210" s="132"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="139" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B211" s="131" t="s">
         <v>1265</v>
-      </c>
-      <c r="B211" s="131" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="141" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B212" s="132"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="139" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B213" s="131" t="s">
         <v>1267</v>
-      </c>
-      <c r="B213" s="131" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="141" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B214" s="132"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="138" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B215" s="22"/>
     </row>
     <row r="216" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="142" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B216" s="22"/>
     </row>
     <row r="217" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="141" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B217" s="132"/>
     </row>
@@ -11545,339 +11803,339 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="136" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B220" s="28" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C220" s="29" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="27" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B221" s="28" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C221" s="29" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="43" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B224" s="44" t="s">
         <v>1343</v>
       </c>
-      <c r="B224" s="44" t="s">
-        <v>1344</v>
-      </c>
       <c r="C224" s="45" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="43" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B225" s="44" t="s">
         <v>1345</v>
       </c>
-      <c r="B225" s="44" t="s">
-        <v>1346</v>
-      </c>
       <c r="C225" s="45" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="143" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B228" s="144" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C228" s="145" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="143" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B229" s="144" t="s">
         <v>1323</v>
       </c>
-      <c r="B229" s="144" t="s">
+      <c r="C229" s="145" t="s">
         <v>1324</v>
-      </c>
-      <c r="C229" s="145" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="146" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B232" s="147" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C232" s="148" t="s">
         <v>1337</v>
-      </c>
-      <c r="C232" s="148" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="146" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B233" s="147" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C233" s="148" t="s">
         <v>1340</v>
-      </c>
-      <c r="C233" s="148" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="146" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B234" s="147" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C234" s="148" t="s">
         <v>1351</v>
-      </c>
-      <c r="C234" s="148" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="153" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B237" s="154" t="s">
         <v>1359</v>
       </c>
-      <c r="B237" s="154" t="s">
-        <v>1360</v>
-      </c>
       <c r="C237" s="155" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="153" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B238" s="154" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C238" s="155" t="s">
         <v>1364</v>
-      </c>
-      <c r="C238" s="155" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="153" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B239" s="154" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C239" s="155" t="s">
         <v>1373</v>
-      </c>
-      <c r="C239" s="155" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A240" s="156" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B240" s="154" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C240" s="155" t="s">
         <v>1376</v>
-      </c>
-      <c r="C240" s="155" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A241" s="156" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B241" s="154" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C241" s="155" t="s">
         <v>1379</v>
-      </c>
-      <c r="C241" s="155" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="153" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B242" s="154" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C242" s="155" t="s">
         <v>1367</v>
-      </c>
-      <c r="C242" s="155" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C245" s="6"/>
     </row>
     <row r="246" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="164" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B246" s="157" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C246" s="158" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="159" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B247" s="160" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C247" s="161"/>
     </row>
     <row r="248" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A248" s="171" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B248" s="169" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C248" s="170" t="s">
         <v>1445</v>
-      </c>
-      <c r="C248" s="170" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="164" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B249" s="157" t="s">
         <v>1411</v>
       </c>
-      <c r="B249" s="157" t="s">
-        <v>1412</v>
-      </c>
       <c r="C249" s="158" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="159" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B250" s="160" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C250" s="161"/>
     </row>
     <row r="251" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="164" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B251" s="157" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C251" s="158" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="159" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B252" s="160" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C252" s="161"/>
     </row>
     <row r="253" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="164" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B253" s="157" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C253" s="158" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="159" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B254" s="160" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C254" s="161"/>
     </row>
     <row r="255" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="165" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B255" s="162" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C255" s="163" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="159" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B256" s="160" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C256" s="161"/>
     </row>
     <row r="257" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A257" s="173" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B257" s="9" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C257" s="6" t="s">
         <v>1456</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="165" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B258" s="162" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C258" s="163" t="s">
         <v>328</v>
@@ -11885,46 +12143,46 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="159" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B259" s="160" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C259" s="161"/>
     </row>
     <row r="260" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A260" s="172" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B260" s="160" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C260" s="161" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="165" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B261" s="162" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C261" s="163" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A264" s="135" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B264" s="25" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C264" s="26" t="s">
         <v>329</v>
@@ -11932,10 +12190,10 @@
     </row>
     <row r="265" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A265" s="135" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B265" s="25" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C265" s="26" t="s">
         <v>330</v>
@@ -11943,21 +12201,21 @@
     </row>
     <row r="266" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A266" s="135" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B266" s="25" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C266" s="26" t="s">
         <v>1428</v>
-      </c>
-      <c r="B266" s="25" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C266" s="26" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A267" s="135" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B267" s="25" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C267" s="26" t="s">
         <v>449</v>
@@ -11965,144 +12223,220 @@
     </row>
     <row r="268" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A268" s="135" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B268" s="25" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C268" s="26" t="s">
         <v>1432</v>
-      </c>
-      <c r="C268" s="26" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A269" s="135" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B269" s="25" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C269" s="26" t="s">
         <v>1435</v>
-      </c>
-      <c r="C269" s="26" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="166" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B272" s="167" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C272" s="168" t="s">
         <v>1439</v>
-      </c>
-      <c r="C272" s="168" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="166" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B273" s="167" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C273" s="168" t="s">
         <v>1442</v>
-      </c>
-      <c r="C273" s="168" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="18" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B276" s="19" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C276" s="20" t="s">
         <v>1453</v>
-      </c>
-      <c r="C276" s="20" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="18" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B277" s="19" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C277" s="20" t="s">
         <v>1459</v>
-      </c>
-      <c r="C277" s="20" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="18" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B278" s="19" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C278" s="20" t="s">
         <v>1468</v>
-      </c>
-      <c r="C278" s="20" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="18" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B279" s="19" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C279" s="20" t="s">
         <v>1471</v>
-      </c>
-      <c r="C279" s="20" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="18" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B280" s="19" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C280" s="20" t="s">
         <v>1477</v>
-      </c>
-      <c r="C280" s="20" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="174" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B282" s="175" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C282" s="176" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="174" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B283" s="175" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C283" s="176" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="174" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B284" s="175" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C284" s="176" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A286" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="B284" s="175" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C284" s="176" t="s">
-        <v>1482</v>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287" s="1" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288" s="92" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B288" s="93" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C288" s="94" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289" s="92" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B289" s="93" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C289" s="94" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290" s="92" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B290" s="93" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C290" s="94" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291" s="92" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B291" s="93" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C291" s="94" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292" s="92" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B292" s="93" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C292" s="94" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293" s="92" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B293" s="93" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C293" s="94" t="s">
+        <v>1508</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="1519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="1516">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -820,9 +820,6 @@
   </si>
   <si>
     <t>Station</t>
-  </si>
-  <si>
-    <t>えき</t>
   </si>
   <si>
     <t>depaato ni ikimasu</t>
@@ -1477,24 +1474,15 @@
     <t>Park</t>
   </si>
   <si>
-    <t>こうえん</t>
-  </si>
-  <si>
     <t>kaisha</t>
   </si>
   <si>
     <t>Company (office building)</t>
   </si>
   <si>
-    <t>かいしゃ</t>
-  </si>
-  <si>
     <t>School</t>
   </si>
   <si>
-    <t>がっこう</t>
-  </si>
-  <si>
     <t>gakkou</t>
   </si>
   <si>
@@ -1556,9 +1544,6 @@
   </si>
   <si>
     <t>Teacher</t>
-  </si>
-  <si>
-    <t>せんせい</t>
   </si>
   <si>
     <t>agemasu</t>
@@ -1758,9 +1743,6 @@
     <t>Expensive</t>
   </si>
   <si>
-    <t>たかい</t>
-  </si>
-  <si>
     <t>Noun1 + Noun2</t>
   </si>
   <si>
@@ -2647,9 +2629,6 @@
   </si>
   <si>
     <t>Umbrella</t>
-  </si>
-  <si>
-    <t>かさ</t>
   </si>
   <si>
     <t>4: yonmai
@@ -2917,18 +2896,12 @@
     <t>Red</t>
   </si>
   <si>
-    <t>あかい</t>
-  </si>
-  <si>
     <t>ooki</t>
   </si>
   <si>
     <t>Big</t>
   </si>
   <si>
-    <t>おおきい</t>
-  </si>
-  <si>
     <t>Adj + Noun</t>
   </si>
   <si>
@@ -3118,12 +3091,6 @@
     <t>densha</t>
   </si>
   <si>
-    <t>Train</t>
-  </si>
-  <si>
-    <t>でんしゃ</t>
-  </si>
-  <si>
     <t>なんで行きますか？</t>
   </si>
   <si>
@@ -3193,9 +3160,6 @@
     <t>Money</t>
   </si>
   <si>
-    <t>おかね</t>
-  </si>
-  <si>
     <t>okane o chokinshiteimasu</t>
   </si>
   <si>
@@ -3212,9 +3176,6 @@
   </si>
   <si>
     <t>Car</t>
-  </si>
-  <si>
-    <t>くるま</t>
   </si>
   <si>
     <t>あたらしい</t>
@@ -3387,13 +3348,7 @@
 本</t>
   </si>
   <si>
-    <t>keitai</t>
-  </si>
-  <si>
     <t>Cell Phone</t>
-  </si>
-  <si>
-    <t>けいたい</t>
   </si>
   <si>
     <t>Watch / Clock</t>
@@ -5606,6 +5561,55 @@
       </rPr>
       <t>nakereba narimasen</t>
     </r>
+  </si>
+  <si>
+    <t>くるま
+車</t>
+  </si>
+  <si>
+    <t>けいたい
+でんわ
+電話</t>
+  </si>
+  <si>
+    <t>keitai
+denwa</t>
+  </si>
+  <si>
+    <t>おかね
+お金</t>
+  </si>
+  <si>
+    <t>でんしゃ
+電車</t>
+  </si>
+  <si>
+    <t>あかい
+赤い</t>
+  </si>
+  <si>
+    <t>かさ
+傘</t>
+  </si>
+  <si>
+    <t>せんせい
+先生</t>
+  </si>
+  <si>
+    <t>がっこう
+学校</t>
+  </si>
+  <si>
+    <t>かいしゃ
+会社</t>
+  </si>
+  <si>
+    <t>こうえん
+公園</t>
+  </si>
+  <si>
+    <t>えき
+駅</t>
   </si>
 </sst>
 </file>
@@ -6083,7 +6087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6174,7 +6178,6 @@
     <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6337,6 +6340,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6621,9 +6630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C311"/>
   <sheetViews>
-    <sheetView topLeftCell="A305" workbookViewId="0">
-      <selection activeCell="A312" sqref="A312"/>
-    </sheetView>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6711,13 +6718,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -6733,24 +6740,24 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -6777,13 +6784,13 @@
     </row>
     <row r="14" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A14" s="59" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
@@ -7531,7 +7538,7 @@
         <v>239</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -7545,9 +7552,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="18" t="s">
-        <v>246</v>
+    <row r="88" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="179" t="s">
+        <v>1515</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>244</v>
@@ -7558,332 +7565,332 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B90" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C90" s="23" t="s">
         <v>264</v>
-      </c>
-      <c r="C90" s="23" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B91" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91" s="23" t="s">
         <v>267</v>
-      </c>
-      <c r="C91" s="23" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B92" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C92" s="23" t="s">
         <v>270</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B93" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C93" s="23" t="s">
         <v>273</v>
-      </c>
-      <c r="C93" s="23" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B94" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="C94" s="23" t="s">
         <v>276</v>
-      </c>
-      <c r="C94" s="23" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="21" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="21" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="21" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="21" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="21" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="21" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="21" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="21" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="21" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="21" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="21" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B107" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C107" s="29" t="s">
         <v>297</v>
-      </c>
-      <c r="C107" s="29" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="B109" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="B109" s="28" t="s">
-        <v>307</v>
-      </c>
       <c r="C109" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B110" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C110" s="29" t="s">
         <v>308</v>
-      </c>
-      <c r="C110" s="29" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B111" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="C111" s="29" t="s">
         <v>313</v>
-      </c>
-      <c r="C111" s="29" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="B112" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="B112" s="28" t="s">
+      <c r="C112" s="29" t="s">
         <v>317</v>
-      </c>
-      <c r="C112" s="29" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B113" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="C113" s="29" t="s">
         <v>355</v>
-      </c>
-      <c r="C113" s="29" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B114" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="C114" s="29" t="s">
         <v>358</v>
-      </c>
-      <c r="C114" s="29" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B115" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="C115" s="29" t="s">
         <v>367</v>
-      </c>
-      <c r="C115" s="29" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B116" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="C116" s="29" t="s">
         <v>370</v>
-      </c>
-      <c r="C116" s="29" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B117" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="C117" s="29" t="s">
         <v>373</v>
-      </c>
-      <c r="C117" s="29" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="B119" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="C119" s="42" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="102" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B120" s="41" t="s">
         <v>412</v>
       </c>
-      <c r="B119" s="41" t="s">
-        <v>410</v>
-      </c>
-      <c r="C119" s="42" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="40" t="s">
+      <c r="C120" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A121" s="102" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B121" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="C121" s="42" t="s">
         <v>415</v>
-      </c>
-      <c r="B120" s="41" t="s">
-        <v>413</v>
-      </c>
-      <c r="C120" s="42" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="40" t="s">
-        <v>418</v>
-      </c>
-      <c r="B121" s="41" t="s">
-        <v>416</v>
-      </c>
-      <c r="C121" s="42" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -7897,1874 +7904,1874 @@
         <v>237</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="40" t="s">
-        <v>420</v>
+    <row r="123" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="102" t="s">
+        <v>1512</v>
       </c>
       <c r="B123" s="41" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C123" s="42" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="103" t="s">
-        <v>1312</v>
+      <c r="A124" s="102" t="s">
+        <v>1297</v>
       </c>
       <c r="B124" s="41" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C124" s="42" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="40" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B125" s="41" t="s">
+        <v>433</v>
+      </c>
+      <c r="C125" s="42" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A126" s="102" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B126" s="41" t="s">
+        <v>436</v>
+      </c>
+      <c r="C126" s="42" t="s">
         <v>437</v>
       </c>
-      <c r="C125" s="42" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="B126" s="41" t="s">
-        <v>440</v>
-      </c>
-      <c r="C126" s="42" t="s">
-        <v>441</v>
-      </c>
     </row>
     <row r="128" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="102" t="s">
-        <v>977</v>
+      <c r="A128" s="101" t="s">
+        <v>964</v>
       </c>
       <c r="B128" s="47" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C128" s="48" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="46" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B129" s="47" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C129" s="48" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A130" s="102" t="s">
-        <v>982</v>
+      <c r="A130" s="101" t="s">
+        <v>967</v>
       </c>
       <c r="B130" s="47" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C130" s="48" t="s">
-        <v>981</v>
+        <v>966</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="46" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B131" s="47" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C131" s="48" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" s="46" t="s">
-        <v>488</v>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A132" s="101" t="s">
+        <v>1090</v>
       </c>
       <c r="B132" s="47" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C132" s="48" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="49" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B134" s="50" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C134" s="51" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="49" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B135" s="50" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C135" s="51" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="49" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B136" s="50" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C136" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="49" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B137" s="50" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C137" s="51" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="49" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B138" s="50" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C138" s="51" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="49" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B139" s="50" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C139" s="51" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="49" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B140" s="50" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C140" s="51" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="49" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B141" s="50" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C141" s="51" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="49" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B142" s="50" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C142" s="51" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="49" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B143" s="50" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C143" s="51" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="49" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B144" s="50" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C144" s="51" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="49" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B145" s="50" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C145" s="51" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="49" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B146" s="50" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C146" s="51" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="49" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B147" s="50" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C147" s="51" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="49" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B148" s="50" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C148" s="51" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A166" s="52" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B166" s="53" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C166" s="54" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A167" s="52" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B167" s="53" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C167" s="54" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A168" s="52" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B168" s="53" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C168" s="54" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A169" s="52" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B169" s="53" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C169" s="54" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A170" s="52" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B170" s="53" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C170" s="54" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A171" s="52" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B171" s="53" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C171" s="54" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A172" s="52" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B172" s="53" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C172" s="54" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A173" s="52" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B173" s="53" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C173" s="54" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A174" s="52" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B174" s="53" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C174" s="54" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A175" s="52" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B175" s="53" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C175" s="54" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A176" s="52" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B176" s="53" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C176" s="54" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A177" s="52" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B177" s="53" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C177" s="54" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A179" s="55" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B179" s="56" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C179" s="57" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A180" s="55" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B180" s="56" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C180" s="57" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A181" s="55" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B181" s="56" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C181" s="57" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A182" s="55" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B182" s="56" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C182" s="57" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A183" s="55" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B183" s="56" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C183" s="57" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A184" s="55" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B184" s="56" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C184" s="57" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A185" s="55" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B185" s="56" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C185" s="57" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A186" s="55" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B186" s="56" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C186" s="57" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A187" s="55" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B187" s="56" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C187" s="57" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A188" s="55" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B188" s="56" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C188" s="57" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A189" s="55" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B189" s="56" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C189" s="57" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A191" s="16" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A192" s="16" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A193" s="16" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C193" s="58" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A195" s="177" t="s">
-        <v>1495</v>
+      <c r="A195" s="176" t="s">
+        <v>1480</v>
       </c>
       <c r="B195" s="62" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C195" s="63" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="61" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B196" s="62" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C196" s="63" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="61" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B197" s="62" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C197" s="63" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="61" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B198" s="62" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C198" s="63" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="61" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B199" s="62" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C199" s="63" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="61" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B200" s="62" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C200" s="63" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="61" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B201" s="62" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C201" s="63" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="66" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B203" s="67" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C203" s="68" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="66" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="B204" s="67" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="C204" s="68" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="66" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="B205" s="67" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="C205" s="68" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="69" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B206" s="70" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C206" s="71" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A207" s="72" t="s">
-        <v>758</v>
-      </c>
-      <c r="B207" s="73" t="s">
-        <v>756</v>
-      </c>
-      <c r="C207" s="74" t="s">
-        <v>757</v>
+        <v>747</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A207" s="178" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B207" s="72" t="s">
+        <v>750</v>
+      </c>
+      <c r="C207" s="73" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="66" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="B208" s="67" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="C208" s="68" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="66" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="B209" s="67" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="C209" s="68" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="66" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="B210" s="67" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="C210" s="68" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A211" s="101" t="s">
-        <v>973</v>
+      <c r="A211" s="100" t="s">
+        <v>960</v>
       </c>
       <c r="B211" s="67" t="s">
+        <v>811</v>
+      </c>
+      <c r="C211" s="68" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A212" s="100" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B212" s="67" t="s">
+        <v>817</v>
+      </c>
+      <c r="C212" s="68" t="s">
         <v>818</v>
       </c>
-      <c r="C211" s="68" t="s">
+    </row>
+    <row r="213" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A213" s="100" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B213" s="67" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A212" s="66" t="s">
-        <v>826</v>
-      </c>
-      <c r="B212" s="67" t="s">
-        <v>824</v>
-      </c>
-      <c r="C212" s="68" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A213" s="66" t="s">
+      <c r="C213" s="68" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A215" s="136" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B215" s="95" t="s">
+        <v>828</v>
+      </c>
+      <c r="C215" s="96" t="s">
         <v>829</v>
       </c>
-      <c r="B213" s="67" t="s">
-        <v>827</v>
-      </c>
-      <c r="C213" s="68" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A215" s="137" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B215" s="96" t="s">
-        <v>837</v>
-      </c>
-      <c r="C215" s="97" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A216" s="95" t="s">
-        <v>894</v>
-      </c>
-      <c r="B216" s="96" t="s">
-        <v>892</v>
-      </c>
-      <c r="C216" s="97" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A217" s="95" t="s">
-        <v>918</v>
-      </c>
-      <c r="B217" s="96" t="s">
-        <v>916</v>
-      </c>
-      <c r="C217" s="97" t="s">
-        <v>917</v>
+    </row>
+    <row r="216" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A216" s="136" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B216" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="C216" s="96" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A217" s="136" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B217" s="95" t="s">
+        <v>905</v>
+      </c>
+      <c r="C217" s="96" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" s="95" t="s">
-        <v>926</v>
-      </c>
-      <c r="B218" s="96" t="s">
+      <c r="A218" s="94" t="s">
+        <v>913</v>
+      </c>
+      <c r="B218" s="95" t="s">
+        <v>914</v>
+      </c>
+      <c r="C218" s="96" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A219" s="136" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B219" s="95" t="s">
+        <v>911</v>
+      </c>
+      <c r="C219" s="96" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A221" s="102" t="s">
+        <v>929</v>
+      </c>
+      <c r="B221" s="41" t="s">
         <v>927</v>
       </c>
-      <c r="C218" s="97" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A219" s="95" t="s">
-        <v>925</v>
-      </c>
-      <c r="B219" s="96" t="s">
-        <v>923</v>
-      </c>
-      <c r="C219" s="97" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A221" s="103" t="s">
+      <c r="C221" s="42" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A222" s="102" t="s">
+        <v>932</v>
+      </c>
+      <c r="B222" s="41" t="s">
+        <v>930</v>
+      </c>
+      <c r="C222" s="42" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A223" s="102" t="s">
+        <v>935</v>
+      </c>
+      <c r="B223" s="41" t="s">
+        <v>933</v>
+      </c>
+      <c r="C223" s="42" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A224" s="102" t="s">
+        <v>938</v>
+      </c>
+      <c r="B224" s="41" t="s">
+        <v>936</v>
+      </c>
+      <c r="C224" s="42" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A225" s="102" t="s">
+        <v>941</v>
+      </c>
+      <c r="B225" s="41" t="s">
+        <v>939</v>
+      </c>
+      <c r="C225" s="42" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A226" s="102" t="s">
+        <v>944</v>
+      </c>
+      <c r="B226" s="103" t="s">
+        <v>943</v>
+      </c>
+      <c r="C226" s="42" t="s">
         <v>942</v>
       </c>
-      <c r="B221" s="41" t="s">
-        <v>940</v>
-      </c>
-      <c r="C221" s="42" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A222" s="103" t="s">
+    </row>
+    <row r="227" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A227" s="102" t="s">
+        <v>947</v>
+      </c>
+      <c r="B227" s="41" t="s">
         <v>945</v>
       </c>
-      <c r="B222" s="41" t="s">
-        <v>943</v>
-      </c>
-      <c r="C222" s="42" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A223" s="103" t="s">
-        <v>948</v>
-      </c>
-      <c r="B223" s="41" t="s">
+      <c r="C227" s="42" t="s">
         <v>946</v>
-      </c>
-      <c r="C223" s="42" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A224" s="103" t="s">
-        <v>951</v>
-      </c>
-      <c r="B224" s="41" t="s">
-        <v>949</v>
-      </c>
-      <c r="C224" s="42" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A225" s="103" t="s">
-        <v>954</v>
-      </c>
-      <c r="B225" s="41" t="s">
-        <v>952</v>
-      </c>
-      <c r="C225" s="42" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="93" x14ac:dyDescent="0.35">
-      <c r="A226" s="103" t="s">
-        <v>957</v>
-      </c>
-      <c r="B226" s="104" t="s">
-        <v>956</v>
-      </c>
-      <c r="C226" s="42" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A227" s="103" t="s">
-        <v>960</v>
-      </c>
-      <c r="B227" s="41" t="s">
-        <v>958</v>
-      </c>
-      <c r="C227" s="42" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="40" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="B228" s="41" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="C228" s="42" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="40" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="B229" s="41" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="C229" s="42" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="40" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="B230" s="41" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="C230" s="42" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A231" s="103" t="s">
-        <v>972</v>
+      <c r="A231" s="102" t="s">
+        <v>959</v>
       </c>
       <c r="B231" s="41" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="C231" s="42" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A232" s="103" t="s">
-        <v>976</v>
+      <c r="A232" s="102" t="s">
+        <v>963</v>
       </c>
       <c r="B232" s="41" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="C232" s="42" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A233" s="40" t="s">
-        <v>980</v>
-      </c>
-      <c r="B233" s="41" t="s">
-        <v>978</v>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A233" s="102" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B233" s="103" t="s">
+        <v>1506</v>
       </c>
       <c r="C233" s="42" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="46" t="s">
-        <v>984</v>
+        <v>969</v>
       </c>
       <c r="B235" s="47" t="s">
-        <v>983</v>
+        <v>968</v>
       </c>
       <c r="C235" s="48" t="s">
-        <v>1005</v>
+        <v>990</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="46" t="s">
-        <v>986</v>
+        <v>971</v>
       </c>
       <c r="B236" s="47" t="s">
-        <v>985</v>
+        <v>970</v>
       </c>
       <c r="C236" s="48" t="s">
-        <v>1006</v>
+        <v>991</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="46" t="s">
-        <v>988</v>
+        <v>973</v>
       </c>
       <c r="B237" s="47" t="s">
-        <v>987</v>
+        <v>972</v>
       </c>
       <c r="C237" s="48" t="s">
-        <v>1007</v>
+        <v>992</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="46" t="s">
-        <v>990</v>
+        <v>975</v>
       </c>
       <c r="B238" s="47" t="s">
-        <v>989</v>
+        <v>974</v>
       </c>
       <c r="C238" s="48" t="s">
-        <v>1008</v>
+        <v>993</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="46" t="s">
-        <v>992</v>
+        <v>977</v>
       </c>
       <c r="B239" s="47" t="s">
-        <v>991</v>
+        <v>976</v>
       </c>
       <c r="C239" s="48" t="s">
-        <v>1009</v>
+        <v>994</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="46" t="s">
-        <v>994</v>
+        <v>979</v>
       </c>
       <c r="B240" s="47" t="s">
-        <v>993</v>
+        <v>978</v>
       </c>
       <c r="C240" s="48" t="s">
-        <v>1010</v>
+        <v>995</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="46" t="s">
+        <v>981</v>
+      </c>
+      <c r="B241" s="47" t="s">
+        <v>980</v>
+      </c>
+      <c r="C241" s="48" t="s">
         <v>996</v>
-      </c>
-      <c r="B241" s="47" t="s">
-        <v>995</v>
-      </c>
-      <c r="C241" s="48" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="46" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="B242" s="47" t="s">
+        <v>982</v>
+      </c>
+      <c r="C242" s="48" t="s">
         <v>997</v>
-      </c>
-      <c r="C242" s="48" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="46" t="s">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="B243" s="47" t="s">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="C243" s="48" t="s">
-        <v>1013</v>
+        <v>998</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="46" t="s">
-        <v>1002</v>
+        <v>987</v>
       </c>
       <c r="B244" s="47" t="s">
-        <v>1001</v>
+        <v>986</v>
       </c>
       <c r="C244" s="48" t="s">
-        <v>1014</v>
+        <v>999</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="46" t="s">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="B245" s="47" t="s">
-        <v>1003</v>
+        <v>988</v>
       </c>
       <c r="C245" s="48" t="s">
-        <v>1004</v>
+        <v>989</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="46" t="s">
-        <v>1017</v>
+        <v>1002</v>
       </c>
       <c r="B246" s="47" t="s">
-        <v>1016</v>
+        <v>1001</v>
       </c>
       <c r="C246" s="48" t="s">
-        <v>1018</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="49" t="s">
-        <v>1023</v>
+        <v>1008</v>
       </c>
       <c r="B248" s="50" t="s">
-        <v>1022</v>
+        <v>1007</v>
       </c>
       <c r="C248" s="51" t="s">
-        <v>1043</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="49" t="s">
-        <v>1029</v>
+        <v>1014</v>
       </c>
       <c r="B249" s="50" t="s">
-        <v>1027</v>
+        <v>1012</v>
       </c>
       <c r="C249" s="51" t="s">
-        <v>1028</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A251" s="60" t="s">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="B251" s="50" t="s">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="C251" s="51" t="s">
-        <v>1042</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A252" s="60" t="s">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="B252" s="50" t="s">
-        <v>1051</v>
+        <v>1036</v>
       </c>
       <c r="C252" s="51" t="s">
-        <v>1049</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="60" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="B253" s="50" t="s">
-        <v>1092</v>
+        <v>1077</v>
       </c>
       <c r="C253" s="51" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="49" t="s">
-        <v>1053</v>
+        <v>1038</v>
       </c>
       <c r="B254" s="50" t="s">
-        <v>1052</v>
+        <v>1037</v>
       </c>
       <c r="C254" s="51" t="s">
-        <v>1073</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="49" t="s">
-        <v>1097</v>
+        <v>1082</v>
       </c>
       <c r="B255" s="50" t="s">
-        <v>1096</v>
+        <v>1081</v>
       </c>
       <c r="C255" s="51" t="s">
-        <v>1095</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="49" t="s">
-        <v>1068</v>
+        <v>1053</v>
       </c>
       <c r="B256" s="50" t="s">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="C256" s="51" t="s">
-        <v>1067</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="49" t="s">
-        <v>1091</v>
+        <v>1076</v>
       </c>
       <c r="B257" s="50" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="C257" s="51" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A258" s="60" t="s">
-        <v>1072</v>
+        <v>1057</v>
       </c>
       <c r="B258" s="50" t="s">
-        <v>1071</v>
+        <v>1056</v>
       </c>
       <c r="C258" s="51" t="s">
-        <v>1070</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A259" s="60" t="s">
-        <v>1167</v>
+        <v>1152</v>
       </c>
       <c r="B259" s="50" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="C259" s="51" t="s">
-        <v>1166</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
-        <v>1179</v>
+        <v>1164</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>1180</v>
+        <v>1165</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>1178</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A262" s="59" t="s">
-        <v>1189</v>
+        <v>1174</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>1187</v>
+        <v>1172</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>1188</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A263" s="59" t="s">
-        <v>1194</v>
+        <v>1179</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>1191</v>
+        <v>1176</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>1190</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A264" s="59" t="s">
-        <v>1195</v>
+        <v>1180</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>1192</v>
+        <v>1177</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>1193</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A265" s="59" t="s">
-        <v>1198</v>
+        <v>1183</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>1196</v>
+        <v>1181</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>1197</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="59" t="s">
-        <v>1207</v>
+        <v>1192</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>1206</v>
+        <v>1191</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>1205</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="59" t="s">
-        <v>1230</v>
+        <v>1215</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>1231</v>
+        <v>1216</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>1229</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="59" t="s">
-        <v>1234</v>
+        <v>1219</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>1233</v>
+        <v>1218</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>1232</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A270" s="52" t="s">
-        <v>1235</v>
+        <v>1220</v>
       </c>
       <c r="B270" s="53" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="C270" s="54" t="s">
-        <v>929</v>
+        <v>916</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A271" s="52" t="s">
-        <v>1238</v>
+        <v>1223</v>
       </c>
       <c r="B271" s="53" t="s">
-        <v>1236</v>
+        <v>1221</v>
       </c>
       <c r="C271" s="54" t="s">
-        <v>1237</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A272" s="52" t="s">
-        <v>1240</v>
+        <v>1225</v>
       </c>
       <c r="B272" s="53" t="s">
-        <v>1239</v>
+        <v>1224</v>
       </c>
       <c r="C272" s="54" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A273" s="52" t="s">
-        <v>1243</v>
+        <v>1228</v>
       </c>
       <c r="B273" s="53" t="s">
-        <v>1241</v>
+        <v>1226</v>
       </c>
       <c r="C273" s="54" t="s">
-        <v>1242</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A274" s="52" t="s">
-        <v>1246</v>
+        <v>1231</v>
       </c>
       <c r="B274" s="53" t="s">
-        <v>1244</v>
+        <v>1229</v>
       </c>
       <c r="C274" s="54" t="s">
-        <v>1245</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A275" s="52" t="s">
-        <v>1248</v>
+        <v>1233</v>
       </c>
       <c r="B275" s="53" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
       <c r="C275" s="54" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A276" s="52" t="s">
-        <v>1251</v>
+        <v>1236</v>
       </c>
       <c r="B276" s="53" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="C276" s="54" t="s">
-        <v>1250</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A277" s="52" t="s">
-        <v>1254</v>
+        <v>1239</v>
       </c>
       <c r="B277" s="53" t="s">
-        <v>1252</v>
+        <v>1237</v>
       </c>
       <c r="C277" s="54" t="s">
-        <v>1253</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A278" s="52" t="s">
-        <v>1257</v>
+        <v>1242</v>
       </c>
       <c r="B278" s="53" t="s">
-        <v>1255</v>
+        <v>1240</v>
       </c>
       <c r="C278" s="54" t="s">
-        <v>1256</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A280" s="135" t="s">
+      <c r="A280" s="134" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B280" s="25" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C280" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A281" s="134" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B281" s="25" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C281" s="26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A282" s="134" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B282" s="25" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C282" s="26" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A283" s="134" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B283" s="25" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C283" s="26" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A284" s="134" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B284" s="25" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C284" s="26" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A285" s="134" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B285" s="25" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C285" s="26" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A286" s="134" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B286" s="25" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C286" s="26" t="s">
         <v>1279</v>
-      </c>
-      <c r="B280" s="25" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C280" s="26" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A281" s="135" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B281" s="25" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C281" s="26" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A282" s="135" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B282" s="25" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C282" s="26" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A283" s="135" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B283" s="25" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C283" s="26" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A284" s="135" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B284" s="25" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C284" s="26" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A285" s="135" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B285" s="25" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C285" s="26" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A286" s="135" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B286" s="25" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C286" s="26" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="16" t="s">
-        <v>1308</v>
+        <v>1293</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>1306</v>
+        <v>1291</v>
       </c>
       <c r="C288" s="15" t="s">
-        <v>1307</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A289" s="16" t="s">
-        <v>1315</v>
+        <v>1300</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>1313</v>
+        <v>1298</v>
       </c>
       <c r="C289" s="15" t="s">
-        <v>1314</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A290" s="16" t="s">
-        <v>1327</v>
+        <v>1312</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>1325</v>
+        <v>1310</v>
       </c>
       <c r="C290" s="15" t="s">
-        <v>1326</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A291" s="16" t="s">
-        <v>1335</v>
+        <v>1320</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>1301</v>
+        <v>1286</v>
       </c>
       <c r="C291" s="15" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A292" s="16" t="s">
-        <v>1281</v>
+        <v>1266</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>1280</v>
+        <v>1265</v>
       </c>
       <c r="C292" s="15" t="s">
-        <v>1328</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A293" s="16" t="s">
-        <v>1355</v>
+        <v>1340</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>1353</v>
+        <v>1338</v>
       </c>
       <c r="C293" s="15" t="s">
-        <v>1354</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A294" s="16" t="s">
-        <v>1370</v>
+        <v>1355</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>1371</v>
+        <v>1356</v>
       </c>
       <c r="C294" s="15" t="s">
-        <v>1369</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A295" s="16" t="s">
-        <v>1383</v>
+        <v>1368</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>1381</v>
+        <v>1366</v>
       </c>
       <c r="C295" s="15" t="s">
-        <v>1382</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A296" s="16" t="s">
-        <v>1405</v>
+        <v>1390</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>1404</v>
+        <v>1389</v>
       </c>
       <c r="C296" s="15" t="s">
-        <v>1403</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A298" s="149" t="s">
+      <c r="A298" s="148" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B298" s="149" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C298" s="150" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A299" s="148" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B299" s="149" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C299" s="150" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A300" s="148" t="s">
         <v>1333</v>
       </c>
-      <c r="B298" s="150" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C298" s="151" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A299" s="149" t="s">
+      <c r="B300" s="149" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C300" s="150" t="s">
         <v>1332</v>
       </c>
-      <c r="B299" s="150" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C299" s="151" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A300" s="149" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B300" s="150" t="s">
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A301" s="148" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B301" s="149" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C301" s="150" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A302" s="148" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B302" s="149" t="s">
         <v>1346</v>
       </c>
-      <c r="C300" s="151" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A301" s="149" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B301" s="150" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C301" s="151" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A302" s="149" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B302" s="150" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C302" s="151" t="s">
-        <v>1360</v>
+      <c r="C302" s="150" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A303" s="149" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B303" s="150" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C303" s="151" t="s">
-        <v>1461</v>
+      <c r="A303" s="148" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B303" s="149" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C303" s="150" t="s">
+        <v>1446</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A304" s="149" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B304" s="150" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C304" s="151" t="s">
-        <v>1465</v>
+      <c r="A304" s="148" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B304" s="149" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C304" s="150" t="s">
+        <v>1450</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A305" s="149" t="s">
-        <v>903</v>
-      </c>
-      <c r="B305" s="150" t="s">
-        <v>901</v>
-      </c>
-      <c r="C305" s="151" t="s">
-        <v>902</v>
+      <c r="A305" s="148" t="s">
+        <v>892</v>
+      </c>
+      <c r="B305" s="149" t="s">
+        <v>890</v>
+      </c>
+      <c r="C305" s="150" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A306" s="149" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B306" s="150" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C306" s="151" t="s">
+      <c r="A306" s="148" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B306" s="149" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C306" s="150" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A307" s="148" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B307" s="149" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C307" s="150" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A308" s="148" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B308" s="149" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C308" s="150" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A310" s="177" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B310" s="92" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C310" s="93" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A307" s="149" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B307" s="150" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C307" s="151" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A308" s="149" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B308" s="150" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C308" s="151" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A310" s="178" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B310" s="93" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C310" s="94" t="s">
-        <v>1498</v>
-      </c>
-    </row>
     <row r="311" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A311" s="178" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B311" s="93" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C311" s="94" t="s">
-        <v>1510</v>
+      <c r="A311" s="177" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B311" s="92" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C311" s="93" t="s">
+        <v>1495</v>
       </c>
     </row>
   </sheetData>
@@ -9777,8 +9784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A294" sqref="A294"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -9791,7 +9798,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1069</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -9818,46 +9825,46 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -9865,7 +9872,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>234</v>
@@ -9873,1780 +9880,1780 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>285</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="C19" s="26" t="s">
         <v>289</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B20" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>291</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="C21" s="35" t="s">
         <v>294</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="B34" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34" s="32" t="s">
         <v>300</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="30" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="30" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="B36" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="C36" s="32" t="s">
         <v>364</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="B37" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>302</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B43" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>401</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>403</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B45" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>405</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B46" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>378</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B47" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>383</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="36" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B48" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>386</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B49" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>389</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>395</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>398</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="21" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="21" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="37" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="37" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="37" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="37" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="43" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C69" s="45" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="43" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="43" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="43" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="46" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="46" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C75" s="48" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="46" t="s">
+        <v>472</v>
+      </c>
+      <c r="B76" s="47" t="s">
+        <v>476</v>
+      </c>
+      <c r="C76" s="48" t="s">
         <v>477</v>
-      </c>
-      <c r="B76" s="47" t="s">
-        <v>481</v>
-      </c>
-      <c r="C76" s="48" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="46" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C77" s="48" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A79" s="60" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B79" s="50" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="5"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="64" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B84" s="53"/>
       <c r="C84" s="54"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="64" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="B85" s="53" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="C85" s="54" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="64" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="B86" s="53" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C86" s="54" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="64" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B87" s="53" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C87" s="54" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="75" t="s">
-        <v>740</v>
+      <c r="A89" s="74" t="s">
+        <v>734</v>
       </c>
       <c r="B89" s="56" t="s">
+        <v>765</v>
+      </c>
+      <c r="C89" s="57" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="74" t="s">
+        <v>736</v>
+      </c>
+      <c r="B90" s="56" t="s">
+        <v>735</v>
+      </c>
+      <c r="C90" s="57" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="75" t="s">
+        <v>749</v>
+      </c>
+      <c r="B91" s="76" t="s">
+        <v>738</v>
+      </c>
+      <c r="C91" s="77" t="s">
+        <v>739</v>
+      </c>
+      <c r="D91" s="65" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="78" t="s">
+        <v>755</v>
+      </c>
+      <c r="B92" s="79" t="s">
+        <v>753</v>
+      </c>
+      <c r="C92" s="80" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="121.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="74" t="s">
+        <v>767</v>
+      </c>
+      <c r="B93" s="56" t="s">
+        <v>768</v>
+      </c>
+      <c r="C93" s="57" t="s">
+        <v>769</v>
+      </c>
+      <c r="D93" s="65" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="74" t="s">
+        <v>775</v>
+      </c>
+      <c r="B94" s="56" t="s">
+        <v>773</v>
+      </c>
+      <c r="C94" s="57" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="74" t="s">
         <v>772</v>
       </c>
-      <c r="C89" s="57" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="75" t="s">
-        <v>742</v>
-      </c>
-      <c r="B90" s="56" t="s">
-        <v>741</v>
-      </c>
-      <c r="C90" s="57" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="76" t="s">
-        <v>755</v>
-      </c>
-      <c r="B91" s="77" t="s">
-        <v>744</v>
-      </c>
-      <c r="C91" s="78" t="s">
-        <v>745</v>
-      </c>
-      <c r="D91" s="65" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="79" t="s">
-        <v>762</v>
-      </c>
-      <c r="B92" s="80" t="s">
-        <v>760</v>
-      </c>
-      <c r="C92" s="81" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="121.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="75" t="s">
-        <v>774</v>
-      </c>
-      <c r="B93" s="56" t="s">
-        <v>775</v>
-      </c>
-      <c r="C93" s="57" t="s">
+      <c r="B95" s="56" t="s">
+        <v>770</v>
+      </c>
+      <c r="C95" s="57" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="74" t="s">
+        <v>777</v>
+      </c>
+      <c r="B96" s="56" t="s">
         <v>776</v>
       </c>
-      <c r="D93" s="65" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="75" t="s">
+      <c r="C96" s="57" t="s">
+        <v>780</v>
+      </c>
+      <c r="D96" s="65" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="83" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="74" t="s">
         <v>782</v>
       </c>
-      <c r="B94" s="56" t="s">
-        <v>780</v>
-      </c>
-      <c r="C94" s="57" t="s">
+      <c r="B97" s="56" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="75" t="s">
+      <c r="C97" s="57" t="s">
         <v>779</v>
       </c>
-      <c r="B95" s="56" t="s">
-        <v>777</v>
-      </c>
-      <c r="C95" s="57" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="75" t="s">
+      <c r="D97" s="82" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="83" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="74" t="s">
+        <v>790</v>
+      </c>
+      <c r="B98" s="56" t="s">
+        <v>789</v>
+      </c>
+      <c r="C98" s="57" t="s">
+        <v>788</v>
+      </c>
+      <c r="D98" s="82" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="74" t="s">
+        <v>786</v>
+      </c>
+      <c r="B99" s="56" t="s">
+        <v>785</v>
+      </c>
+      <c r="C99" s="57" t="s">
         <v>784</v>
       </c>
-      <c r="B96" s="56" t="s">
-        <v>783</v>
-      </c>
-      <c r="C96" s="57" t="s">
+      <c r="D99" s="65" t="s">
         <v>787</v>
       </c>
-      <c r="D96" s="65" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="84" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="75" t="s">
-        <v>789</v>
-      </c>
-      <c r="B97" s="56" t="s">
-        <v>788</v>
-      </c>
-      <c r="C97" s="57" t="s">
-        <v>786</v>
-      </c>
-      <c r="D97" s="83" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" s="84" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="75" t="s">
+    </row>
+    <row r="100" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="81" t="s">
+        <v>793</v>
+      </c>
+      <c r="B100" s="76" t="s">
+        <v>794</v>
+      </c>
+      <c r="C100" s="77" t="s">
+        <v>792</v>
+      </c>
+      <c r="D100" s="65" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="78" t="s">
+        <v>805</v>
+      </c>
+      <c r="B101" s="79" t="s">
+        <v>796</v>
+      </c>
+      <c r="C101" s="80" t="s">
         <v>797</v>
       </c>
-      <c r="B98" s="56" t="s">
-        <v>796</v>
-      </c>
-      <c r="C98" s="57" t="s">
-        <v>795</v>
-      </c>
-      <c r="D98" s="83" t="s">
+    </row>
+    <row r="102" spans="1:4" ht="152.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="81" t="s">
+        <v>800</v>
+      </c>
+      <c r="B102" s="76" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="75" t="s">
-        <v>793</v>
-      </c>
-      <c r="B99" s="56" t="s">
-        <v>792</v>
-      </c>
-      <c r="C99" s="57" t="s">
-        <v>791</v>
-      </c>
-      <c r="D99" s="65" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="82" t="s">
-        <v>800</v>
-      </c>
-      <c r="B100" s="77" t="s">
+      <c r="C102" s="77" t="s">
+        <v>799</v>
+      </c>
+      <c r="D102" s="65" t="s">
         <v>801</v>
       </c>
-      <c r="C100" s="78" t="s">
-        <v>799</v>
-      </c>
-      <c r="D100" s="65" t="s">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="78" t="s">
+        <v>804</v>
+      </c>
+      <c r="B103" s="79" t="s">
+        <v>803</v>
+      </c>
+      <c r="C103" s="80" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="79" t="s">
-        <v>812</v>
-      </c>
-      <c r="B101" s="80" t="s">
-        <v>803</v>
-      </c>
-      <c r="C101" s="81" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="152.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="82" t="s">
+    <row r="104" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="81" t="s">
+        <v>808</v>
+      </c>
+      <c r="B104" s="76" t="s">
+        <v>806</v>
+      </c>
+      <c r="C104" s="77" t="s">
         <v>807</v>
       </c>
-      <c r="B102" s="77" t="s">
-        <v>805</v>
-      </c>
-      <c r="C102" s="78" t="s">
-        <v>806</v>
-      </c>
-      <c r="D102" s="65" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="79" t="s">
-        <v>811</v>
-      </c>
-      <c r="B103" s="80" t="s">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="84" t="s">
+        <v>813</v>
+      </c>
+      <c r="B105" s="85" t="s">
+        <v>814</v>
+      </c>
+      <c r="C105" s="86" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="75" t="s">
         <v>810</v>
       </c>
-      <c r="C103" s="81" t="s">
+      <c r="B106" s="87" t="s">
+        <v>816</v>
+      </c>
+      <c r="C106" s="77" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="82" t="s">
-        <v>815</v>
-      </c>
-      <c r="B104" s="77" t="s">
-        <v>813</v>
-      </c>
-      <c r="C104" s="78" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="85" t="s">
-        <v>820</v>
-      </c>
-      <c r="B105" s="86" t="s">
-        <v>821</v>
-      </c>
-      <c r="C105" s="87" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="78" t="s">
+        <v>824</v>
+      </c>
+      <c r="B107" s="79" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="76" t="s">
-        <v>817</v>
-      </c>
-      <c r="B106" s="88" t="s">
+      <c r="C107" s="80" t="s">
         <v>823</v>
       </c>
-      <c r="C106" s="78" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="79" t="s">
-        <v>833</v>
-      </c>
-      <c r="B107" s="80" t="s">
-        <v>831</v>
-      </c>
-      <c r="C107" s="81" t="s">
-        <v>832</v>
-      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="79" t="s">
-        <v>844</v>
-      </c>
-      <c r="B108" s="80" t="s">
-        <v>845</v>
-      </c>
-      <c r="C108" s="81" t="s">
-        <v>846</v>
+      <c r="A108" s="78" t="s">
+        <v>835</v>
+      </c>
+      <c r="B108" s="79" t="s">
+        <v>836</v>
+      </c>
+      <c r="C108" s="80" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="75" t="s">
-        <v>836</v>
+      <c r="A109" s="74" t="s">
+        <v>827</v>
       </c>
       <c r="B109" s="56" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="C109" s="57" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="36" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="36" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="36" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="36" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="36" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="36" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="36" t="s">
+        <v>876</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="97" t="s">
+        <v>877</v>
+      </c>
+      <c r="B119" s="98" t="s">
+        <v>878</v>
+      </c>
+      <c r="C119" s="99" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="97" t="s">
+        <v>882</v>
+      </c>
+      <c r="B120" s="98" t="s">
+        <v>880</v>
+      </c>
+      <c r="C120" s="99" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="88" t="s">
+        <v>884</v>
+      </c>
+      <c r="B122" s="89" t="s">
         <v>885</v>
       </c>
-      <c r="B117" s="14" t="s">
-        <v>884</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="98" t="s">
+      <c r="C122" s="90" t="s">
         <v>886</v>
       </c>
-      <c r="B119" s="99" t="s">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="91" t="s">
+        <v>889</v>
+      </c>
+      <c r="B124" s="92" t="s">
         <v>887</v>
       </c>
-      <c r="C119" s="100" t="s">
+      <c r="C124" s="93" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="98" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="91" t="s">
+        <v>892</v>
+      </c>
+      <c r="B125" s="92" t="s">
+        <v>890</v>
+      </c>
+      <c r="C125" s="93" t="s">
         <v>891</v>
-      </c>
-      <c r="B120" s="99" t="s">
-        <v>889</v>
-      </c>
-      <c r="C120" s="100" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="89" t="s">
-        <v>895</v>
-      </c>
-      <c r="B122" s="90" t="s">
-        <v>896</v>
-      </c>
-      <c r="C122" s="91" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="92" t="s">
-        <v>900</v>
-      </c>
-      <c r="B124" s="93" t="s">
-        <v>898</v>
-      </c>
-      <c r="C124" s="94" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="92" t="s">
-        <v>903</v>
-      </c>
-      <c r="B125" s="93" t="s">
-        <v>901</v>
-      </c>
-      <c r="C125" s="94" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="43" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="B127" s="44" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="C127" s="45" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="43" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="B128" s="44" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="C128" s="45" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="43" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="B129" s="44" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="C129" s="45" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="43" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="B130" s="44" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="C130" s="45" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="43" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="B131" s="44" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="C131" s="45" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="46" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="B133" s="47" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="C133" s="48" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="46" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="B134" s="47" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="C134" s="48" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="46" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="B135" s="47" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="C135" s="48" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="46" t="s">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="B136" s="47" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="C136" s="48" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A138" s="60" t="s">
-        <v>1021</v>
+        <v>1006</v>
       </c>
       <c r="B138" s="50" t="s">
-        <v>1019</v>
+        <v>1004</v>
       </c>
       <c r="C138" s="51" t="s">
-        <v>1020</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="60" t="s">
-        <v>1035</v>
+        <v>1020</v>
       </c>
       <c r="B139" s="50" t="s">
-        <v>1033</v>
+        <v>1018</v>
       </c>
       <c r="C139" s="51" t="s">
-        <v>1034</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="60" t="s">
-        <v>1038</v>
+        <v>1023</v>
       </c>
       <c r="B140" s="50" t="s">
-        <v>1036</v>
+        <v>1021</v>
       </c>
       <c r="C140" s="51" t="s">
-        <v>1037</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="110" t="s">
+      <c r="A141" s="109" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B141" s="110" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C141" s="111" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="112" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B142" s="113" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C142" s="114" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A143" s="106" t="s">
         <v>1041</v>
       </c>
-      <c r="B141" s="111" t="s">
+      <c r="B143" s="107" t="s">
         <v>1039</v>
       </c>
-      <c r="C141" s="112" t="s">
+      <c r="C143" s="108" t="s">
         <v>1040</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="113" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B142" s="114" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C142" s="115" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A143" s="107" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B143" s="108" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C143" s="109" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="60" t="s">
-        <v>1059</v>
+        <v>1044</v>
       </c>
       <c r="B144" s="50" t="s">
-        <v>1057</v>
+        <v>1042</v>
       </c>
       <c r="C144" s="51" t="s">
-        <v>1058</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="60" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B145" s="50" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C145" s="51" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="109" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B146" s="110" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C146" s="111" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="106" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B147" s="107" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C147" s="108" t="s">
         <v>1062</v>
-      </c>
-      <c r="B145" s="50" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C145" s="51" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="110" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B146" s="111" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C146" s="112" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" s="107" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B147" s="108" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C147" s="109" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="60" t="s">
-        <v>1082</v>
+        <v>1067</v>
       </c>
       <c r="B148" s="50" t="s">
-        <v>1080</v>
+        <v>1065</v>
       </c>
       <c r="C148" s="51" t="s">
-        <v>1081</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="60" t="s">
-        <v>1085</v>
+        <v>1070</v>
       </c>
       <c r="B149" s="50" t="s">
-        <v>1083</v>
+        <v>1068</v>
       </c>
       <c r="C149" s="51" t="s">
-        <v>1084</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="110" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B150" s="111" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C150" s="112" t="s">
-        <v>1087</v>
+      <c r="A150" s="109" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B150" s="110" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C150" s="111" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" s="116" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B151" s="108" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C151" s="109" t="s">
-        <v>1025</v>
+      <c r="A151" s="115" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B151" s="107" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C151" s="108" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A152" s="60" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B152" s="105" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C152" s="106" t="s">
-        <v>1046</v>
+        <v>1033</v>
+      </c>
+      <c r="B152" s="104" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C152" s="105" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="117" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B154" s="118"/>
-      <c r="C154" s="119"/>
+      <c r="A154" s="116" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B154" s="117"/>
+      <c r="C154" s="118"/>
     </row>
     <row r="155" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A155" s="120" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B155" s="121" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C155" s="122" t="s">
-        <v>1099</v>
+      <c r="A155" s="119" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B155" s="120" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C155" s="121" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A156" s="59" t="s">
-        <v>1125</v>
+        <v>1110</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>1124</v>
+        <v>1109</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>1123</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A157" s="59" t="s">
-        <v>1128</v>
+        <v>1113</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>1126</v>
+        <v>1111</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>1127</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="123" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B158" s="118" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C158" s="119" t="s">
-        <v>1130</v>
+      <c r="A158" s="122" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B158" s="117" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C158" s="118" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A159" s="120" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B159" s="121" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C159" s="122" t="s">
-        <v>1103</v>
+      <c r="A159" s="119" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B159" s="120" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C159" s="121" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A160" s="59" t="s">
-        <v>1105</v>
+        <v>1090</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A161" s="59" t="s">
-        <v>1108</v>
+        <v>1093</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>1106</v>
+        <v>1091</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>1107</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A162" s="59" t="s">
-        <v>1110</v>
+        <v>1095</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>1109</v>
+        <v>1094</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A163" s="59" t="s">
-        <v>1113</v>
+        <v>1098</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>1111</v>
+        <v>1096</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A164" s="59" t="s">
-        <v>1114</v>
+        <v>1099</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A165" s="59" t="s">
-        <v>1117</v>
+        <v>1102</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>1115</v>
+        <v>1100</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>1116</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A166" s="59" t="s">
-        <v>1119</v>
+        <v>1104</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>1118</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A167" s="59" t="s">
-        <v>1122</v>
+        <v>1107</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>1120</v>
+        <v>1105</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>1121</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="124" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B169" s="125"/>
-      <c r="C169" s="126"/>
+      <c r="A169" s="123" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B169" s="124"/>
+      <c r="C169" s="125"/>
     </row>
     <row r="170" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A170" s="52" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B170" s="53" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C170" s="54" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="126" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B171" s="127" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C171" s="128" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="126" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B172" s="127" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C172" s="128" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A173" s="129" t="s">
         <v>1144</v>
       </c>
-      <c r="B170" s="53" t="s">
+      <c r="B173" s="124" t="s">
         <v>1142</v>
       </c>
-      <c r="C170" s="54" t="s">
+      <c r="C173" s="125" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" s="127" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B171" s="128" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C171" s="129" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" s="127" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B172" s="128" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C172" s="129" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="130" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B173" s="125" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C173" s="126" t="s">
-        <v>1158</v>
-      </c>
-    </row>
     <row r="174" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A174" s="127" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B174" s="128" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C174" s="129" t="s">
-        <v>1134</v>
+      <c r="A174" s="126" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B174" s="127" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C174" s="128" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="52" t="s">
-        <v>1137</v>
+        <v>1122</v>
       </c>
       <c r="B175" s="53" t="s">
-        <v>1138</v>
+        <v>1123</v>
       </c>
       <c r="C175" s="54" t="s">
-        <v>1136</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A176" s="52" t="s">
-        <v>1141</v>
+        <v>1126</v>
       </c>
       <c r="B176" s="53" t="s">
-        <v>1139</v>
+        <v>1124</v>
       </c>
       <c r="C176" s="54" t="s">
-        <v>1140</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A177" s="52" t="s">
-        <v>1147</v>
+        <v>1132</v>
       </c>
       <c r="B177" s="53" t="s">
-        <v>1145</v>
+        <v>1130</v>
       </c>
       <c r="C177" s="54" t="s">
-        <v>1146</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A178" s="52" t="s">
-        <v>1150</v>
+        <v>1135</v>
       </c>
       <c r="B178" s="53" t="s">
-        <v>1149</v>
+        <v>1134</v>
       </c>
       <c r="C178" s="54" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="24" t="s">
-        <v>1162</v>
+        <v>1147</v>
       </c>
       <c r="B180" s="25" t="s">
-        <v>1160</v>
+        <v>1145</v>
       </c>
       <c r="C180" s="26" t="s">
-        <v>1161</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="24" t="s">
-        <v>1165</v>
+        <v>1150</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>1163</v>
+        <v>1148</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>1164</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="36" t="s">
-        <v>1171</v>
+        <v>1156</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>1170</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="36" t="s">
-        <v>1174</v>
+        <v>1159</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>1172</v>
+        <v>1157</v>
       </c>
       <c r="C184" s="15" t="s">
-        <v>1173</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="36" t="s">
-        <v>1177</v>
+        <v>1162</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>1175</v>
+        <v>1160</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>1176</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="36" t="s">
-        <v>1183</v>
+        <v>1168</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>1181</v>
+        <v>1166</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>1182</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="36" t="s">
-        <v>1186</v>
+        <v>1171</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>1184</v>
+        <v>1169</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>1185</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="36" t="s">
-        <v>1201</v>
+        <v>1186</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>1199</v>
+        <v>1184</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>1200</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="36" t="s">
-        <v>1204</v>
+        <v>1189</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>1202</v>
+        <v>1187</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>1203</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="36" t="s">
-        <v>1210</v>
+        <v>1195</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>1208</v>
+        <v>1193</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>1209</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="36" t="s">
-        <v>1211</v>
+        <v>1196</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>1212</v>
+        <v>1197</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>1185</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="36" t="s">
-        <v>1225</v>
+        <v>1210</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>1223</v>
+        <v>1208</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>1224</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="36" t="s">
-        <v>1186</v>
+        <v>1171</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>1184</v>
+        <v>1169</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>1185</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="36" t="s">
-        <v>1227</v>
+        <v>1212</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>1228</v>
+        <v>1213</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>1226</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D195" t="s">
-        <v>1222</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="18" t="s">
-        <v>1215</v>
+        <v>1200</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>1213</v>
+        <v>1198</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>1214</v>
+        <v>1199</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -11654,13 +11661,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="18" t="s">
-        <v>1221</v>
+        <v>1206</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>1218</v>
+        <v>1203</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>1220</v>
+        <v>1205</v>
       </c>
       <c r="D197">
         <v>2</v>
@@ -11668,13 +11675,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="18" t="s">
-        <v>1217</v>
+        <v>1202</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>1219</v>
+        <v>1204</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>1216</v>
+        <v>1201</v>
       </c>
       <c r="D198">
         <v>3</v>
@@ -11682,761 +11689,761 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>1268</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A201" s="138" t="s">
+      <c r="A201" s="137" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B201" s="22" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A202" s="139" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B202" s="22"/>
+    </row>
+    <row r="203" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A203" s="139" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B203" s="22"/>
+    </row>
+    <row r="204" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="151" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B204" s="131"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205" s="138" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B205" s="130" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A206" s="139" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B206" s="130"/>
+    </row>
+    <row r="207" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A207" s="139" t="s">
         <v>1258</v>
       </c>
-      <c r="B201" s="22" t="s">
+      <c r="B207" s="130"/>
+    </row>
+    <row r="208" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="140" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A202" s="140" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B202" s="22"/>
-    </row>
-    <row r="203" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A203" s="140" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B203" s="22"/>
-    </row>
-    <row r="204" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="152" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B204" s="132"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A205" s="139" t="s">
+      <c r="B208" s="131"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" s="138" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B209" s="130" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="140" t="s">
         <v>1260</v>
       </c>
-      <c r="B205" s="131" t="s">
+      <c r="B210" s="131"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" s="138" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B211" s="130" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="140" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A206" s="140" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B206" s="131"/>
-    </row>
-    <row r="207" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A207" s="140" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B207" s="131"/>
-    </row>
-    <row r="208" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="141" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B208" s="132"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" s="139" t="s">
+      <c r="B212" s="131"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" s="138" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B213" s="130" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="140" t="s">
         <v>1262</v>
       </c>
-      <c r="B209" s="131" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="141" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B210" s="132"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" s="139" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B211" s="131" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="141" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B212" s="132"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A213" s="139" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B213" s="131" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="141" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B214" s="132"/>
+      <c r="B214" s="131"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A215" s="138" t="s">
-        <v>1296</v>
+      <c r="A215" s="137" t="s">
+        <v>1281</v>
       </c>
       <c r="B215" s="22"/>
     </row>
     <row r="216" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A216" s="142" t="s">
-        <v>1297</v>
+      <c r="A216" s="141" t="s">
+        <v>1282</v>
       </c>
       <c r="B216" s="22"/>
     </row>
     <row r="217" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="141" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B217" s="132"/>
+      <c r="A217" s="140" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B217" s="131"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" s="133"/>
-      <c r="B218" s="134"/>
+      <c r="A218" s="132"/>
+      <c r="B218" s="133"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>1299</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A220" s="136" t="s">
-        <v>1302</v>
+      <c r="A220" s="135" t="s">
+        <v>1287</v>
       </c>
       <c r="B220" s="28" t="s">
-        <v>1301</v>
+        <v>1286</v>
       </c>
       <c r="C220" s="29" t="s">
-        <v>1304</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="27" t="s">
-        <v>1305</v>
+        <v>1290</v>
       </c>
       <c r="B221" s="28" t="s">
-        <v>1300</v>
+        <v>1285</v>
       </c>
       <c r="C221" s="29" t="s">
-        <v>1303</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>1309</v>
+        <v>1294</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>1317</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="43" t="s">
-        <v>1342</v>
+        <v>1327</v>
       </c>
       <c r="B224" s="44" t="s">
-        <v>1343</v>
+        <v>1328</v>
       </c>
       <c r="C224" s="45" t="s">
-        <v>1310</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="43" t="s">
-        <v>1344</v>
+        <v>1329</v>
       </c>
       <c r="B225" s="44" t="s">
-        <v>1345</v>
+        <v>1330</v>
       </c>
       <c r="C225" s="45" t="s">
-        <v>1311</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>1318</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A228" s="143" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B228" s="144" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C228" s="145" t="s">
-        <v>1319</v>
+      <c r="A228" s="142" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B228" s="143" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C228" s="144" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A229" s="143" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B229" s="144" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C229" s="145" t="s">
-        <v>1324</v>
+      <c r="A229" s="142" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B229" s="143" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C229" s="144" t="s">
+        <v>1309</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>1349</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A232" s="146" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B232" s="147" t="s">
+      <c r="A232" s="145" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B232" s="146" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C232" s="147" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233" s="145" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B233" s="146" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C233" s="147" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234" s="145" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B234" s="146" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C234" s="147" t="s">
         <v>1336</v>
-      </c>
-      <c r="C232" s="148" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A233" s="146" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B233" s="147" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C233" s="148" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A234" s="146" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B234" s="147" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C234" s="148" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>1356</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A237" s="153" t="s">
+      <c r="A237" s="152" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B237" s="153" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C237" s="154" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238" s="152" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B238" s="153" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C238" s="154" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239" s="152" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B239" s="153" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C239" s="154" t="s">
         <v>1358</v>
       </c>
-      <c r="B237" s="154" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C237" s="155" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A238" s="153" t="s">
+    </row>
+    <row r="240" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A240" s="155" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B240" s="153" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C240" s="154" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A241" s="155" t="s">
         <v>1365</v>
       </c>
-      <c r="B238" s="154" t="s">
+      <c r="B241" s="153" t="s">
         <v>1363</v>
       </c>
-      <c r="C238" s="155" t="s">
+      <c r="C241" s="154" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A239" s="153" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B239" s="154" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C239" s="155" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A240" s="156" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B240" s="154" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C240" s="155" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A241" s="156" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B241" s="154" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C241" s="155" t="s">
-        <v>1379</v>
-      </c>
-    </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A242" s="153" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B242" s="154" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C242" s="155" t="s">
-        <v>1367</v>
+      <c r="A242" s="152" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B242" s="153" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C242" s="154" t="s">
+        <v>1352</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>1407</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C245" s="6"/>
+    </row>
+    <row r="246" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="163" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B246" s="156" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C246" s="157" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247" s="158" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B247" s="159" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C247" s="160"/>
+    </row>
+    <row r="248" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A248" s="170" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B248" s="168" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C248" s="169" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="163" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B249" s="156" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C249" s="157" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250" s="158" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B250" s="159" t="s">
         <v>1385</v>
       </c>
-      <c r="B245" s="9" t="s">
+      <c r="C250" s="160"/>
+    </row>
+    <row r="251" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="163" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B251" s="156" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C251" s="157" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252" s="158" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B252" s="159" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C252" s="160"/>
+    </row>
+    <row r="253" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="163" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B253" s="156" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C253" s="157" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254" s="158" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B254" s="159" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C254" s="160"/>
+    </row>
+    <row r="255" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="164" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B255" s="161" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C255" s="162" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256" s="158" t="s">
         <v>1384</v>
       </c>
-      <c r="C245" s="6"/>
-    </row>
-    <row r="246" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="164" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B246" s="157" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C246" s="158" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A247" s="159" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B247" s="160" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C247" s="161"/>
-    </row>
-    <row r="248" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A248" s="171" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B248" s="169" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C248" s="170" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="164" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B249" s="157" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C249" s="158" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A250" s="159" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B250" s="160" t="s">
+      <c r="B256" s="159" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C256" s="160"/>
+    </row>
+    <row r="257" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A257" s="172" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="164" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B258" s="161" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C258" s="162" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259" s="158" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B259" s="159" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C259" s="160"/>
+    </row>
+    <row r="260" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A260" s="171" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B260" s="159" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C260" s="160" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="164" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B261" s="161" t="s">
         <v>1400</v>
       </c>
-      <c r="C250" s="161"/>
-    </row>
-    <row r="251" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="164" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B251" s="157" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C251" s="158" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A252" s="159" t="s">
-        <v>1391</v>
-      </c>
-      <c r="B252" s="160" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C252" s="161"/>
-    </row>
-    <row r="253" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="164" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B253" s="157" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C253" s="158" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A254" s="159" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B254" s="160" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C254" s="161"/>
-    </row>
-    <row r="255" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="165" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B255" s="162" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C255" s="163" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A256" s="159" t="s">
-        <v>1399</v>
-      </c>
-      <c r="B256" s="160" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C256" s="161"/>
-    </row>
-    <row r="257" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A257" s="173" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B257" s="9" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="165" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B258" s="162" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C258" s="163" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A259" s="159" t="s">
-        <v>1393</v>
-      </c>
-      <c r="B259" s="160" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C259" s="161"/>
-    </row>
-    <row r="260" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A260" s="172" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B260" s="160" t="s">
-        <v>1448</v>
-      </c>
-      <c r="C260" s="161" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A261" s="165" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B261" s="162" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C261" s="163" t="s">
-        <v>1394</v>
+      <c r="C261" s="162" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A264" s="134" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A264" s="135" t="s">
-        <v>1423</v>
-      </c>
       <c r="B264" s="25" t="s">
-        <v>1422</v>
+        <v>1407</v>
       </c>
       <c r="C264" s="26" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A265" s="134" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B265" s="25" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C265" s="26" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A265" s="135" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B265" s="25" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C265" s="26" t="s">
-        <v>330</v>
-      </c>
-    </row>
     <row r="266" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A266" s="135" t="s">
-        <v>1427</v>
+      <c r="A266" s="134" t="s">
+        <v>1412</v>
       </c>
       <c r="B266" s="25" t="s">
-        <v>1426</v>
+        <v>1411</v>
       </c>
       <c r="C266" s="26" t="s">
-        <v>1428</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A267" s="135" t="s">
-        <v>1430</v>
+      <c r="A267" s="134" t="s">
+        <v>1415</v>
       </c>
       <c r="B267" s="25" t="s">
-        <v>1429</v>
+        <v>1414</v>
       </c>
       <c r="C267" s="26" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A268" s="135" t="s">
-        <v>1433</v>
+      <c r="A268" s="134" t="s">
+        <v>1418</v>
       </c>
       <c r="B268" s="25" t="s">
-        <v>1431</v>
+        <v>1416</v>
       </c>
       <c r="C268" s="26" t="s">
-        <v>1432</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A269" s="135" t="s">
-        <v>1436</v>
+      <c r="A269" s="134" t="s">
+        <v>1421</v>
       </c>
       <c r="B269" s="25" t="s">
-        <v>1434</v>
+        <v>1419</v>
       </c>
       <c r="C269" s="26" t="s">
-        <v>1435</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
-        <v>1437</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A272" s="166" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B272" s="167" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C272" s="168" t="s">
-        <v>1439</v>
+      <c r="A272" s="165" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B272" s="166" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C272" s="167" t="s">
+        <v>1424</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A273" s="166" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B273" s="167" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C273" s="168" t="s">
-        <v>1442</v>
+      <c r="A273" s="165" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B273" s="166" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C273" s="167" t="s">
+        <v>1427</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
-        <v>1451</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="18" t="s">
-        <v>1454</v>
+        <v>1439</v>
       </c>
       <c r="B276" s="19" t="s">
-        <v>1452</v>
+        <v>1437</v>
       </c>
       <c r="C276" s="20" t="s">
-        <v>1453</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="18" t="s">
-        <v>1460</v>
+        <v>1445</v>
       </c>
       <c r="B277" s="19" t="s">
-        <v>1458</v>
+        <v>1443</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>1459</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="18" t="s">
-        <v>1469</v>
+        <v>1454</v>
       </c>
       <c r="B278" s="19" t="s">
-        <v>1467</v>
+        <v>1452</v>
       </c>
       <c r="C278" s="20" t="s">
-        <v>1468</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="18" t="s">
-        <v>1472</v>
+        <v>1457</v>
       </c>
       <c r="B279" s="19" t="s">
-        <v>1470</v>
+        <v>1455</v>
       </c>
       <c r="C279" s="20" t="s">
-        <v>1471</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="18" t="s">
-        <v>1478</v>
+        <v>1463</v>
       </c>
       <c r="B280" s="19" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C280" s="20" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282" s="173" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B282" s="174" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C282" s="175" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283" s="173" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B283" s="174" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C283" s="175" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284" s="173" t="s">
         <v>1476</v>
       </c>
-      <c r="C280" s="20" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A282" s="174" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B282" s="175" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C282" s="176" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A283" s="174" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B283" s="175" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C283" s="176" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A284" s="174" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B284" s="175" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C284" s="176" t="s">
-        <v>1481</v>
+      <c r="B284" s="174" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C284" s="175" t="s">
+        <v>1466</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
-        <v>1492</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
-        <v>1505</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A288" s="92" t="s">
+      <c r="A288" s="91" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B288" s="92" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C288" s="93" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289" s="91" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B289" s="92" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C289" s="93" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290" s="91" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B290" s="92" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C290" s="93" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291" s="91" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B291" s="92" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C291" s="93" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292" s="91" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B292" s="92" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C292" s="93" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293" s="91" t="s">
         <v>1494</v>
       </c>
-      <c r="B288" s="93" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C288" s="94" t="s">
+      <c r="B293" s="92" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C293" s="93" t="s">
         <v>1493</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A289" s="92" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B289" s="93" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C289" s="94" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A290" s="92" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B290" s="93" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C290" s="94" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A291" s="92" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B291" s="93" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C291" s="94" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A292" s="92" t="s">
-        <v>1507</v>
-      </c>
-      <c r="B292" s="93" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C292" s="94" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A293" s="92" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B293" s="93" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C293" s="94" t="s">
-        <v>1508</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -1571,9 +1571,6 @@
   </si>
   <si>
     <t>not to gave</t>
-  </si>
-  <si>
-    <t>あがません</t>
   </si>
   <si>
     <t>あげました</t>
@@ -5610,6 +5607,9 @@
   <si>
     <t>えき
 駅</t>
+  </si>
+  <si>
+    <t>あげません</t>
   </si>
 </sst>
 </file>
@@ -6630,7 +6630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C311"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
+    <sheetView topLeftCell="A311" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A313" sqref="A313"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6718,13 +6720,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>661</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -6740,24 +6742,24 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>663</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>667</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -6784,13 +6786,13 @@
     </row>
     <row r="14" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A14" s="59" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
@@ -7554,7 +7556,7 @@
     </row>
     <row r="88" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A88" s="179" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>244</v>
@@ -7620,123 +7622,123 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B95" s="22" t="s">
+        <v>685</v>
+      </c>
+      <c r="C95" s="23" t="s">
         <v>686</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="21" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B96" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="C96" s="23" t="s">
         <v>689</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="B97" s="22" t="s">
         <v>840</v>
       </c>
-      <c r="B97" s="22" t="s">
-        <v>841</v>
-      </c>
       <c r="C97" s="23" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="21" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B99" s="22" t="s">
+        <v>691</v>
+      </c>
+      <c r="C99" s="23" t="s">
         <v>692</v>
-      </c>
-      <c r="C99" s="23" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="21" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B102" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="C102" s="23" t="s">
         <v>695</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="21" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="21" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="21" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B105" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="C105" s="23" t="s">
         <v>698</v>
-      </c>
-      <c r="C105" s="23" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -7873,7 +7875,7 @@
     </row>
     <row r="120" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A120" s="102" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B120" s="41" t="s">
         <v>412</v>
@@ -7884,7 +7886,7 @@
     </row>
     <row r="121" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A121" s="102" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B121" s="41" t="s">
         <v>414</v>
@@ -7906,7 +7908,7 @@
     </row>
     <row r="123" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A123" s="102" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B123" s="41" t="s">
         <v>417</v>
@@ -7917,7 +7919,7 @@
     </row>
     <row r="124" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A124" s="102" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B124" s="41" t="s">
         <v>431</v>
@@ -7939,7 +7941,7 @@
     </row>
     <row r="126" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A126" s="102" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B126" s="41" t="s">
         <v>436</v>
@@ -7950,1473 +7952,1473 @@
     </row>
     <row r="128" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A128" s="101" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B128" s="47" t="s">
+        <v>461</v>
+      </c>
+      <c r="C128" s="48" t="s">
         <v>462</v>
-      </c>
-      <c r="C128" s="48" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="46" t="s">
+        <v>464</v>
+      </c>
+      <c r="B129" s="47" t="s">
         <v>465</v>
       </c>
-      <c r="B129" s="47" t="s">
-        <v>466</v>
-      </c>
       <c r="C129" s="48" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A130" s="101" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B130" s="47" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C130" s="48" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="46" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B131" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="C131" s="48" t="s">
         <v>478</v>
-      </c>
-      <c r="C131" s="48" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A132" s="101" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B132" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="C132" s="48" t="s">
         <v>481</v>
-      </c>
-      <c r="C132" s="48" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="49" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B134" s="50" t="s">
+        <v>485</v>
+      </c>
+      <c r="C134" s="51" t="s">
         <v>486</v>
-      </c>
-      <c r="C134" s="51" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="49" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B135" s="50" t="s">
+        <v>488</v>
+      </c>
+      <c r="C135" s="51" t="s">
         <v>489</v>
-      </c>
-      <c r="C135" s="51" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="49" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B136" s="50" t="s">
+        <v>491</v>
+      </c>
+      <c r="C136" s="51" t="s">
         <v>492</v>
-      </c>
-      <c r="C136" s="51" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="49" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B137" s="50" t="s">
+        <v>494</v>
+      </c>
+      <c r="C137" s="51" t="s">
         <v>495</v>
-      </c>
-      <c r="C137" s="51" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="49" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B138" s="50" t="s">
+        <v>497</v>
+      </c>
+      <c r="C138" s="51" t="s">
         <v>498</v>
-      </c>
-      <c r="C138" s="51" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="49" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B139" s="50" t="s">
+        <v>500</v>
+      </c>
+      <c r="C139" s="51" t="s">
         <v>501</v>
-      </c>
-      <c r="C139" s="51" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="49" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B140" s="50" t="s">
+        <v>503</v>
+      </c>
+      <c r="C140" s="51" t="s">
         <v>504</v>
-      </c>
-      <c r="C140" s="51" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="49" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B141" s="50" t="s">
+        <v>506</v>
+      </c>
+      <c r="C141" s="51" t="s">
         <v>507</v>
-      </c>
-      <c r="C141" s="51" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="49" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B142" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="C142" s="51" t="s">
         <v>510</v>
-      </c>
-      <c r="C142" s="51" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B143" s="50" t="s">
+        <v>512</v>
+      </c>
+      <c r="C143" s="51" t="s">
         <v>513</v>
-      </c>
-      <c r="C143" s="51" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B144" s="50" t="s">
+        <v>515</v>
+      </c>
+      <c r="C144" s="51" t="s">
         <v>516</v>
-      </c>
-      <c r="C144" s="51" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="49" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B145" s="50" t="s">
+        <v>518</v>
+      </c>
+      <c r="C145" s="51" t="s">
         <v>519</v>
-      </c>
-      <c r="C145" s="51" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="49" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B146" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="C146" s="51" t="s">
         <v>522</v>
-      </c>
-      <c r="C146" s="51" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="49" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B147" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="C147" s="51" t="s">
         <v>525</v>
-      </c>
-      <c r="C147" s="51" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="49" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B148" s="50" t="s">
+        <v>527</v>
+      </c>
+      <c r="C148" s="51" t="s">
         <v>528</v>
-      </c>
-      <c r="C148" s="51" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B150" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="B150" s="8" t="s">
-        <v>547</v>
-      </c>
       <c r="C150" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A166" s="52" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B166" s="53" t="s">
+        <v>575</v>
+      </c>
+      <c r="C166" s="54" t="s">
         <v>576</v>
-      </c>
-      <c r="C166" s="54" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A167" s="52" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B167" s="53" t="s">
+        <v>578</v>
+      </c>
+      <c r="C167" s="54" t="s">
         <v>579</v>
-      </c>
-      <c r="C167" s="54" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A168" s="52" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B168" s="53" t="s">
+        <v>581</v>
+      </c>
+      <c r="C168" s="54" t="s">
         <v>582</v>
-      </c>
-      <c r="C168" s="54" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A169" s="52" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B169" s="53" t="s">
+        <v>584</v>
+      </c>
+      <c r="C169" s="54" t="s">
         <v>585</v>
-      </c>
-      <c r="C169" s="54" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A170" s="52" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B170" s="53" t="s">
+        <v>587</v>
+      </c>
+      <c r="C170" s="54" t="s">
         <v>588</v>
-      </c>
-      <c r="C170" s="54" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A171" s="52" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B171" s="53" t="s">
+        <v>590</v>
+      </c>
+      <c r="C171" s="54" t="s">
         <v>591</v>
-      </c>
-      <c r="C171" s="54" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A172" s="52" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B172" s="53" t="s">
+        <v>593</v>
+      </c>
+      <c r="C172" s="54" t="s">
         <v>594</v>
-      </c>
-      <c r="C172" s="54" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A173" s="52" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B173" s="53" t="s">
+        <v>596</v>
+      </c>
+      <c r="C173" s="54" t="s">
         <v>597</v>
-      </c>
-      <c r="C173" s="54" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A174" s="52" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B174" s="53" t="s">
+        <v>599</v>
+      </c>
+      <c r="C174" s="54" t="s">
         <v>600</v>
-      </c>
-      <c r="C174" s="54" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A175" s="52" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B175" s="53" t="s">
+        <v>602</v>
+      </c>
+      <c r="C175" s="54" t="s">
         <v>603</v>
-      </c>
-      <c r="C175" s="54" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A176" s="52" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B176" s="53" t="s">
+        <v>605</v>
+      </c>
+      <c r="C176" s="54" t="s">
         <v>606</v>
-      </c>
-      <c r="C176" s="54" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A177" s="52" t="s">
+        <v>609</v>
+      </c>
+      <c r="B177" s="53" t="s">
         <v>610</v>
       </c>
-      <c r="B177" s="53" t="s">
-        <v>611</v>
-      </c>
       <c r="C177" s="54" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A179" s="55" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B179" s="56" t="s">
+        <v>611</v>
+      </c>
+      <c r="C179" s="57" t="s">
         <v>612</v>
-      </c>
-      <c r="C179" s="57" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A180" s="55" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B180" s="56" t="s">
+        <v>614</v>
+      </c>
+      <c r="C180" s="57" t="s">
         <v>615</v>
-      </c>
-      <c r="C180" s="57" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A181" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B181" s="56" t="s">
+        <v>617</v>
+      </c>
+      <c r="C181" s="57" t="s">
         <v>618</v>
-      </c>
-      <c r="C181" s="57" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A182" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B182" s="56" t="s">
+        <v>620</v>
+      </c>
+      <c r="C182" s="57" t="s">
         <v>621</v>
-      </c>
-      <c r="C182" s="57" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A183" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B183" s="56" t="s">
+        <v>623</v>
+      </c>
+      <c r="C183" s="57" t="s">
         <v>624</v>
-      </c>
-      <c r="C183" s="57" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A184" s="55" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B184" s="56" t="s">
+        <v>626</v>
+      </c>
+      <c r="C184" s="57" t="s">
         <v>627</v>
-      </c>
-      <c r="C184" s="57" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A185" s="55" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B185" s="56" t="s">
+        <v>629</v>
+      </c>
+      <c r="C185" s="57" t="s">
         <v>630</v>
-      </c>
-      <c r="C185" s="57" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A186" s="55" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B186" s="56" t="s">
+        <v>632</v>
+      </c>
+      <c r="C186" s="57" t="s">
         <v>633</v>
-      </c>
-      <c r="C186" s="57" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A187" s="55" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B187" s="56" t="s">
+        <v>635</v>
+      </c>
+      <c r="C187" s="57" t="s">
         <v>636</v>
-      </c>
-      <c r="C187" s="57" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A188" s="55" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B188" s="56" t="s">
+        <v>638</v>
+      </c>
+      <c r="C188" s="57" t="s">
         <v>639</v>
-      </c>
-      <c r="C188" s="57" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A189" s="55" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B189" s="56" t="s">
+        <v>650</v>
+      </c>
+      <c r="C189" s="57" t="s">
         <v>651</v>
-      </c>
-      <c r="C189" s="57" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A191" s="16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B191" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="C191" s="15" t="s">
         <v>642</v>
-      </c>
-      <c r="C191" s="15" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A192" s="16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B192" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="C192" s="15" t="s">
         <v>645</v>
-      </c>
-      <c r="C192" s="15" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A193" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="B193" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="C193" s="58" t="s">
         <v>649</v>
-      </c>
-      <c r="B193" s="14" t="s">
-        <v>648</v>
-      </c>
-      <c r="C193" s="58" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A195" s="176" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B195" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="C195" s="63" t="s">
         <v>679</v>
-      </c>
-      <c r="C195" s="63" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="61" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B196" s="62" t="s">
+        <v>700</v>
+      </c>
+      <c r="C196" s="63" t="s">
         <v>701</v>
-      </c>
-      <c r="C196" s="63" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="61" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B197" s="62" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C197" s="63" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="61" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B198" s="62" t="s">
+        <v>717</v>
+      </c>
+      <c r="C198" s="63" t="s">
         <v>718</v>
-      </c>
-      <c r="C198" s="63" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B199" s="62" t="s">
+        <v>720</v>
+      </c>
+      <c r="C199" s="63" t="s">
         <v>721</v>
-      </c>
-      <c r="C199" s="63" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="61" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B200" s="62" t="s">
+        <v>723</v>
+      </c>
+      <c r="C200" s="63" t="s">
         <v>724</v>
-      </c>
-      <c r="C200" s="63" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="61" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B201" s="62" t="s">
+        <v>725</v>
+      </c>
+      <c r="C201" s="63" t="s">
         <v>726</v>
-      </c>
-      <c r="C201" s="63" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="66" t="s">
+        <v>730</v>
+      </c>
+      <c r="B203" s="67" t="s">
         <v>731</v>
       </c>
-      <c r="B203" s="67" t="s">
-        <v>732</v>
-      </c>
       <c r="C203" s="68" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="66" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B204" s="67" t="s">
+        <v>739</v>
+      </c>
+      <c r="C204" s="68" t="s">
         <v>740</v>
-      </c>
-      <c r="C204" s="68" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="66" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B205" s="67" t="s">
+        <v>742</v>
+      </c>
+      <c r="C205" s="68" t="s">
         <v>743</v>
-      </c>
-      <c r="C205" s="68" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="69" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B206" s="70" t="s">
+        <v>745</v>
+      </c>
+      <c r="C206" s="71" t="s">
         <v>746</v>
-      </c>
-      <c r="C206" s="71" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A207" s="178" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B207" s="72" t="s">
+        <v>749</v>
+      </c>
+      <c r="C207" s="73" t="s">
         <v>750</v>
-      </c>
-      <c r="C207" s="73" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="66" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B208" s="67" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C208" s="68" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="66" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B209" s="67" t="s">
+        <v>758</v>
+      </c>
+      <c r="C209" s="68" t="s">
         <v>759</v>
-      </c>
-      <c r="C209" s="68" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="66" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B210" s="67" t="s">
+        <v>761</v>
+      </c>
+      <c r="C210" s="68" t="s">
         <v>762</v>
-      </c>
-      <c r="C210" s="68" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A211" s="100" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B211" s="67" t="s">
+        <v>810</v>
+      </c>
+      <c r="C211" s="68" t="s">
         <v>811</v>
-      </c>
-      <c r="C211" s="68" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A212" s="100" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B212" s="67" t="s">
+        <v>816</v>
+      </c>
+      <c r="C212" s="68" t="s">
         <v>817</v>
-      </c>
-      <c r="C212" s="68" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A213" s="100" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B213" s="67" t="s">
+        <v>818</v>
+      </c>
+      <c r="C213" s="68" t="s">
         <v>819</v>
-      </c>
-      <c r="C213" s="68" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A215" s="136" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B215" s="95" t="s">
+        <v>827</v>
+      </c>
+      <c r="C215" s="96" t="s">
         <v>828</v>
-      </c>
-      <c r="C215" s="96" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A216" s="136" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B216" s="95" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C216" s="96" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A217" s="136" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B217" s="95" t="s">
+        <v>904</v>
+      </c>
+      <c r="C217" s="96" t="s">
         <v>905</v>
-      </c>
-      <c r="C217" s="96" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="94" t="s">
+        <v>912</v>
+      </c>
+      <c r="B218" s="95" t="s">
         <v>913</v>
       </c>
-      <c r="B218" s="95" t="s">
-        <v>914</v>
-      </c>
       <c r="C218" s="96" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A219" s="136" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B219" s="95" t="s">
+        <v>910</v>
+      </c>
+      <c r="C219" s="96" t="s">
         <v>911</v>
-      </c>
-      <c r="C219" s="96" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A221" s="102" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B221" s="41" t="s">
+        <v>926</v>
+      </c>
+      <c r="C221" s="42" t="s">
         <v>927</v>
-      </c>
-      <c r="C221" s="42" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A222" s="102" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B222" s="41" t="s">
+        <v>929</v>
+      </c>
+      <c r="C222" s="42" t="s">
         <v>930</v>
-      </c>
-      <c r="C222" s="42" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A223" s="102" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B223" s="41" t="s">
+        <v>932</v>
+      </c>
+      <c r="C223" s="42" t="s">
         <v>933</v>
-      </c>
-      <c r="C223" s="42" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A224" s="102" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B224" s="41" t="s">
+        <v>935</v>
+      </c>
+      <c r="C224" s="42" t="s">
         <v>936</v>
-      </c>
-      <c r="C224" s="42" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A225" s="102" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B225" s="41" t="s">
+        <v>938</v>
+      </c>
+      <c r="C225" s="42" t="s">
         <v>939</v>
-      </c>
-      <c r="C225" s="42" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A226" s="102" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B226" s="103" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C226" s="42" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A227" s="102" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B227" s="41" t="s">
+        <v>944</v>
+      </c>
+      <c r="C227" s="42" t="s">
         <v>945</v>
-      </c>
-      <c r="C227" s="42" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="40" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B228" s="41" t="s">
+        <v>947</v>
+      </c>
+      <c r="C228" s="42" t="s">
         <v>948</v>
-      </c>
-      <c r="C228" s="42" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="40" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B229" s="41" t="s">
+        <v>950</v>
+      </c>
+      <c r="C229" s="42" t="s">
         <v>951</v>
-      </c>
-      <c r="C229" s="42" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="40" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B230" s="41" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C230" s="42" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A231" s="102" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B231" s="41" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C231" s="42" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A232" s="102" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B232" s="41" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C232" s="42" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A233" s="102" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B233" s="103" t="s">
         <v>1505</v>
       </c>
-      <c r="B233" s="103" t="s">
-        <v>1506</v>
-      </c>
       <c r="C233" s="42" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="46" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B235" s="47" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C235" s="48" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="46" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B236" s="47" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C236" s="48" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="46" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B237" s="47" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C237" s="48" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="46" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B238" s="47" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C238" s="48" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="46" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B239" s="47" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C239" s="48" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="46" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B240" s="47" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C240" s="48" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="46" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B241" s="47" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C241" s="48" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="46" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B242" s="47" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C242" s="48" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="46" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B243" s="47" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C243" s="48" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="46" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B244" s="47" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C244" s="48" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="46" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B245" s="47" t="s">
+        <v>987</v>
+      </c>
+      <c r="C245" s="48" t="s">
         <v>988</v>
-      </c>
-      <c r="C245" s="48" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="46" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B246" s="47" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C246" s="48" t="s">
         <v>1002</v>
-      </c>
-      <c r="B246" s="47" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C246" s="48" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="49" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B248" s="50" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C248" s="51" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="49" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B249" s="50" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C249" s="51" t="s">
         <v>1012</v>
-      </c>
-      <c r="C249" s="51" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A251" s="60" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B251" s="50" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C251" s="51" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A252" s="60" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B252" s="50" t="s">
         <v>1035</v>
       </c>
-      <c r="B252" s="50" t="s">
-        <v>1036</v>
-      </c>
       <c r="C252" s="51" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="60" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B253" s="50" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C253" s="51" t="s">
         <v>1077</v>
-      </c>
-      <c r="C253" s="51" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="49" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B254" s="50" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C254" s="51" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="49" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B255" s="50" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C255" s="51" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="49" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B256" s="50" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C256" s="51" t="s">
         <v>1051</v>
-      </c>
-      <c r="C256" s="51" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="49" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B257" s="50" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C257" s="51" t="s">
         <v>1074</v>
-      </c>
-      <c r="C257" s="51" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A258" s="60" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B258" s="50" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C258" s="51" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A259" s="60" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B259" s="50" t="s">
         <v>1152</v>
       </c>
-      <c r="B259" s="50" t="s">
-        <v>1153</v>
-      </c>
       <c r="C259" s="51" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B261" s="8" t="s">
         <v>1164</v>
       </c>
-      <c r="B261" s="8" t="s">
-        <v>1165</v>
-      </c>
       <c r="C261" s="5" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A262" s="59" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B262" s="8" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C262" s="5" t="s">
         <v>1172</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A263" s="59" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A264" s="59" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B264" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C264" s="5" t="s">
         <v>1177</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A265" s="59" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B265" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C265" s="5" t="s">
         <v>1181</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="59" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="59" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B267" s="8" t="s">
         <v>1215</v>
       </c>
-      <c r="B267" s="8" t="s">
-        <v>1216</v>
-      </c>
       <c r="C267" s="5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="59" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A270" s="52" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B270" s="53" t="s">
+        <v>914</v>
+      </c>
+      <c r="C270" s="54" t="s">
         <v>915</v>
-      </c>
-      <c r="C270" s="54" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A271" s="52" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B271" s="53" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C271" s="54" t="s">
         <v>1221</v>
-      </c>
-      <c r="C271" s="54" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A272" s="52" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B272" s="53" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C272" s="54" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A273" s="52" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B273" s="53" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C273" s="54" t="s">
         <v>1226</v>
-      </c>
-      <c r="C273" s="54" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A274" s="52" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B274" s="53" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C274" s="54" t="s">
         <v>1229</v>
-      </c>
-      <c r="C274" s="54" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A275" s="52" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B275" s="53" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C275" s="54" t="s">
         <v>285</v>
@@ -9424,43 +9426,43 @@
     </row>
     <row r="276" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A276" s="52" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B276" s="53" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C276" s="54" t="s">
         <v>1234</v>
-      </c>
-      <c r="C276" s="54" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A277" s="52" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B277" s="53" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C277" s="54" t="s">
         <v>1237</v>
-      </c>
-      <c r="C277" s="54" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A278" s="52" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B278" s="53" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C278" s="54" t="s">
         <v>1240</v>
-      </c>
-      <c r="C278" s="54" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A280" s="134" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B280" s="25" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C280" s="26" t="s">
         <v>289</v>
@@ -9468,10 +9470,10 @@
     </row>
     <row r="281" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A281" s="134" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B281" s="25" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C281" s="26" t="s">
         <v>291</v>
@@ -9479,10 +9481,10 @@
     </row>
     <row r="282" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A282" s="134" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B282" s="25" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C282" s="26" t="s">
         <v>439</v>
@@ -9490,288 +9492,288 @@
     </row>
     <row r="283" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A283" s="134" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B283" s="25" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C283" s="26" t="s">
         <v>1269</v>
-      </c>
-      <c r="C283" s="26" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A284" s="134" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B284" s="25" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C284" s="26" t="s">
         <v>1272</v>
-      </c>
-      <c r="C284" s="26" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A285" s="134" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B285" s="25" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C285" s="26" t="s">
         <v>1275</v>
-      </c>
-      <c r="C285" s="26" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A286" s="134" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B286" s="25" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C286" s="26" t="s">
         <v>1278</v>
-      </c>
-      <c r="C286" s="26" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="16" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B288" s="14" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C288" s="15" t="s">
         <v>1291</v>
-      </c>
-      <c r="C288" s="15" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A289" s="16" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B289" s="14" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C289" s="15" t="s">
         <v>1298</v>
-      </c>
-      <c r="C289" s="15" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A290" s="16" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B290" s="14" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C290" s="15" t="s">
         <v>1310</v>
-      </c>
-      <c r="C290" s="15" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A291" s="16" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C291" s="15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A292" s="16" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C292" s="15" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A293" s="16" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B293" s="14" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C293" s="15" t="s">
         <v>1338</v>
-      </c>
-      <c r="C293" s="15" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A294" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B294" s="14" t="s">
         <v>1355</v>
       </c>
-      <c r="B294" s="14" t="s">
-        <v>1356</v>
-      </c>
       <c r="C294" s="15" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A295" s="16" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B295" s="14" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C295" s="15" t="s">
         <v>1366</v>
-      </c>
-      <c r="C295" s="15" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A296" s="16" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C296" s="15" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" s="148" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B298" s="149" t="s">
         <v>1318</v>
       </c>
-      <c r="B298" s="149" t="s">
-        <v>1319</v>
-      </c>
       <c r="C298" s="150" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" s="148" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B299" s="149" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C299" s="150" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A300" s="148" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B300" s="149" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C300" s="150" t="s">
         <v>1331</v>
-      </c>
-      <c r="C300" s="150" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="148" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B301" s="149" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C301" s="150" t="s">
         <v>1015</v>
-      </c>
-      <c r="B301" s="149" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C301" s="150" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" s="148" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B302" s="149" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C302" s="150" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A303" s="148" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B303" s="149" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C303" s="150" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A304" s="148" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B304" s="149" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C304" s="150" t="s">
         <v>1449</v>
-      </c>
-      <c r="C304" s="150" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" s="148" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B305" s="149" t="s">
+        <v>889</v>
+      </c>
+      <c r="C305" s="150" t="s">
         <v>890</v>
-      </c>
-      <c r="C305" s="150" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A306" s="148" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B306" s="149" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C306" s="150" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A307" s="148" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B307" s="149" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C307" s="150" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A308" s="148" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B308" s="149" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C308" s="150" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A310" s="177" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B310" s="92" t="s">
         <v>1484</v>
       </c>
-      <c r="B310" s="92" t="s">
-        <v>1485</v>
-      </c>
       <c r="C310" s="93" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A311" s="177" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B311" s="92" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C311" s="93" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
   </sheetData>
@@ -9784,8 +9786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D293"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -9798,7 +9800,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -9847,24 +9849,24 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>672</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -10122,7 +10124,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>299</v>
@@ -10133,7 +10135,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>362</v>
@@ -10144,7 +10146,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="30" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>363</v>
@@ -10155,7 +10157,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>301</v>
@@ -10166,7 +10168,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>365</v>
@@ -10298,35 +10300,35 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="B54" s="19" t="s">
-        <v>469</v>
-      </c>
       <c r="C54" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B55" s="19" t="s">
+        <v>704</v>
+      </c>
+      <c r="C55" s="20" t="s">
         <v>705</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="C56" s="20" t="s">
         <v>716</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>715</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -10334,7 +10336,7 @@
         <v>420</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>418</v>
@@ -10345,7 +10347,7 @@
         <v>421</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>419</v>
@@ -10397,7 +10399,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="37" t="s">
-        <v>447</v>
+        <v>1515</v>
       </c>
       <c r="B65" s="38" t="s">
         <v>441</v>
@@ -10408,7 +10410,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B66" s="38" t="s">
         <v>443</v>
@@ -10419,7 +10421,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="37" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B67" s="38" t="s">
         <v>445</v>
@@ -10430,1230 +10432,1230 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="43" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B69" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="C69" s="45" t="s">
         <v>450</v>
-      </c>
-      <c r="C69" s="45" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="43" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B72" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="C72" s="45" t="s">
         <v>457</v>
-      </c>
-      <c r="C72" s="45" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="46" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="46" t="s">
+        <v>482</v>
+      </c>
+      <c r="B75" s="47" t="s">
         <v>483</v>
       </c>
-      <c r="B75" s="47" t="s">
-        <v>484</v>
-      </c>
       <c r="C75" s="48" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="46" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B76" s="47" t="s">
+        <v>475</v>
+      </c>
+      <c r="C76" s="48" t="s">
         <v>476</v>
-      </c>
-      <c r="C76" s="48" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="46" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B77" s="47" t="s">
+        <v>472</v>
+      </c>
+      <c r="C77" s="48" t="s">
         <v>473</v>
-      </c>
-      <c r="C77" s="48" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A79" s="60" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B79" s="50" t="s">
+        <v>656</v>
+      </c>
+      <c r="C79" s="51" t="s">
         <v>657</v>
-      </c>
-      <c r="C79" s="51" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="5"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B82" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>676</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="64" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B84" s="53"/>
       <c r="C84" s="54"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="64" t="s">
+        <v>681</v>
+      </c>
+      <c r="B85" s="53" t="s">
         <v>682</v>
       </c>
-      <c r="B85" s="53" t="s">
-        <v>683</v>
-      </c>
       <c r="C85" s="54" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="64" t="s">
+        <v>683</v>
+      </c>
+      <c r="B86" s="53" t="s">
         <v>684</v>
       </c>
-      <c r="B86" s="53" t="s">
-        <v>685</v>
-      </c>
       <c r="C86" s="54" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="64" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B87" s="53" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C87" s="54" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="74" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B89" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C89" s="57" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="74" t="s">
+        <v>735</v>
+      </c>
+      <c r="B90" s="56" t="s">
+        <v>734</v>
+      </c>
+      <c r="C90" s="57" t="s">
         <v>736</v>
-      </c>
-      <c r="B90" s="56" t="s">
-        <v>735</v>
-      </c>
-      <c r="C90" s="57" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="75" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B91" s="76" t="s">
+        <v>737</v>
+      </c>
+      <c r="C91" s="77" t="s">
         <v>738</v>
       </c>
-      <c r="C91" s="77" t="s">
-        <v>739</v>
-      </c>
       <c r="D91" s="65" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="78" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B92" s="79" t="s">
+        <v>752</v>
+      </c>
+      <c r="C92" s="80" t="s">
         <v>753</v>
-      </c>
-      <c r="C92" s="80" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="121.5" x14ac:dyDescent="0.35">
       <c r="A93" s="74" t="s">
+        <v>766</v>
+      </c>
+      <c r="B93" s="56" t="s">
         <v>767</v>
       </c>
-      <c r="B93" s="56" t="s">
+      <c r="C93" s="57" t="s">
         <v>768</v>
       </c>
-      <c r="C93" s="57" t="s">
-        <v>769</v>
-      </c>
       <c r="D93" s="65" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="74" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B94" s="56" t="s">
+        <v>772</v>
+      </c>
+      <c r="C94" s="57" t="s">
         <v>773</v>
-      </c>
-      <c r="C94" s="57" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="74" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B95" s="56" t="s">
+        <v>769</v>
+      </c>
+      <c r="C95" s="57" t="s">
         <v>770</v>
-      </c>
-      <c r="C95" s="57" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A96" s="74" t="s">
+        <v>776</v>
+      </c>
+      <c r="B96" s="56" t="s">
+        <v>775</v>
+      </c>
+      <c r="C96" s="57" t="s">
+        <v>779</v>
+      </c>
+      <c r="D96" s="65" t="s">
         <v>777</v>
-      </c>
-      <c r="B96" s="56" t="s">
-        <v>776</v>
-      </c>
-      <c r="C96" s="57" t="s">
-        <v>780</v>
-      </c>
-      <c r="D96" s="65" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="83" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A97" s="74" t="s">
+        <v>781</v>
+      </c>
+      <c r="B97" s="56" t="s">
+        <v>780</v>
+      </c>
+      <c r="C97" s="57" t="s">
+        <v>778</v>
+      </c>
+      <c r="D97" s="82" t="s">
         <v>782</v>
-      </c>
-      <c r="B97" s="56" t="s">
-        <v>781</v>
-      </c>
-      <c r="C97" s="57" t="s">
-        <v>779</v>
-      </c>
-      <c r="D97" s="82" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="83" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A98" s="74" t="s">
+        <v>789</v>
+      </c>
+      <c r="B98" s="56" t="s">
+        <v>788</v>
+      </c>
+      <c r="C98" s="57" t="s">
+        <v>787</v>
+      </c>
+      <c r="D98" s="82" t="s">
         <v>790</v>
-      </c>
-      <c r="B98" s="56" t="s">
-        <v>789</v>
-      </c>
-      <c r="C98" s="57" t="s">
-        <v>788</v>
-      </c>
-      <c r="D98" s="82" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A99" s="74" t="s">
+        <v>785</v>
+      </c>
+      <c r="B99" s="56" t="s">
+        <v>784</v>
+      </c>
+      <c r="C99" s="57" t="s">
+        <v>783</v>
+      </c>
+      <c r="D99" s="65" t="s">
         <v>786</v>
-      </c>
-      <c r="B99" s="56" t="s">
-        <v>785</v>
-      </c>
-      <c r="C99" s="57" t="s">
-        <v>784</v>
-      </c>
-      <c r="D99" s="65" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="81" t="s">
+        <v>792</v>
+      </c>
+      <c r="B100" s="76" t="s">
         <v>793</v>
       </c>
-      <c r="B100" s="76" t="s">
+      <c r="C100" s="77" t="s">
+        <v>791</v>
+      </c>
+      <c r="D100" s="65" t="s">
         <v>794</v>
-      </c>
-      <c r="C100" s="77" t="s">
-        <v>792</v>
-      </c>
-      <c r="D100" s="65" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="78" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B101" s="79" t="s">
+        <v>795</v>
+      </c>
+      <c r="C101" s="80" t="s">
         <v>796</v>
-      </c>
-      <c r="C101" s="80" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="152.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="81" t="s">
+        <v>799</v>
+      </c>
+      <c r="B102" s="76" t="s">
+        <v>797</v>
+      </c>
+      <c r="C102" s="77" t="s">
+        <v>798</v>
+      </c>
+      <c r="D102" s="65" t="s">
         <v>800</v>
-      </c>
-      <c r="B102" s="76" t="s">
-        <v>798</v>
-      </c>
-      <c r="C102" s="77" t="s">
-        <v>799</v>
-      </c>
-      <c r="D102" s="65" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="78" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B103" s="79" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C103" s="80" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="81" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B104" s="76" t="s">
+        <v>805</v>
+      </c>
+      <c r="C104" s="77" t="s">
         <v>806</v>
-      </c>
-      <c r="C104" s="77" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="84" t="s">
+        <v>812</v>
+      </c>
+      <c r="B105" s="85" t="s">
         <v>813</v>
       </c>
-      <c r="B105" s="85" t="s">
+      <c r="C105" s="86" t="s">
         <v>814</v>
-      </c>
-      <c r="C105" s="86" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="75" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B106" s="87" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C106" s="77" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="78" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B107" s="79" t="s">
+        <v>821</v>
+      </c>
+      <c r="C107" s="80" t="s">
         <v>822</v>
-      </c>
-      <c r="C107" s="80" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="78" t="s">
+        <v>834</v>
+      </c>
+      <c r="B108" s="79" t="s">
         <v>835</v>
       </c>
-      <c r="B108" s="79" t="s">
+      <c r="C108" s="80" t="s">
         <v>836</v>
-      </c>
-      <c r="C108" s="80" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="74" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B109" s="56" t="s">
+        <v>824</v>
+      </c>
+      <c r="C109" s="57" t="s">
         <v>825</v>
-      </c>
-      <c r="C109" s="57" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="36" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B111" s="14" t="s">
+        <v>855</v>
+      </c>
+      <c r="C111" s="15" t="s">
         <v>856</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="36" t="s">
+        <v>858</v>
+      </c>
+      <c r="B112" s="14" t="s">
         <v>859</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="C112" s="15" t="s">
         <v>860</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="36" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B113" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="C113" s="15" t="s">
         <v>862</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="36" t="s">
+        <v>864</v>
+      </c>
+      <c r="B114" s="14" t="s">
         <v>865</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="C114" s="15" t="s">
         <v>866</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="36" t="s">
+        <v>867</v>
+      </c>
+      <c r="B115" s="14" t="s">
         <v>868</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="C115" s="15" t="s">
         <v>869</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="36" t="s">
+        <v>870</v>
+      </c>
+      <c r="B116" s="14" t="s">
         <v>871</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="C116" s="15" t="s">
         <v>872</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="36" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="97" t="s">
+        <v>876</v>
+      </c>
+      <c r="B119" s="98" t="s">
         <v>877</v>
       </c>
-      <c r="B119" s="98" t="s">
+      <c r="C119" s="99" t="s">
         <v>878</v>
-      </c>
-      <c r="C119" s="99" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="97" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B120" s="98" t="s">
+        <v>879</v>
+      </c>
+      <c r="C120" s="99" t="s">
         <v>880</v>
-      </c>
-      <c r="C120" s="99" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="88" t="s">
+        <v>883</v>
+      </c>
+      <c r="B122" s="89" t="s">
         <v>884</v>
       </c>
-      <c r="B122" s="89" t="s">
+      <c r="C122" s="90" t="s">
         <v>885</v>
-      </c>
-      <c r="C122" s="90" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="91" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B124" s="92" t="s">
+        <v>886</v>
+      </c>
+      <c r="C124" s="93" t="s">
         <v>887</v>
-      </c>
-      <c r="C124" s="93" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="91" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B125" s="92" t="s">
+        <v>889</v>
+      </c>
+      <c r="C125" s="93" t="s">
         <v>890</v>
-      </c>
-      <c r="C125" s="93" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="43" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B127" s="44" t="s">
+        <v>892</v>
+      </c>
+      <c r="C127" s="45" t="s">
         <v>893</v>
-      </c>
-      <c r="C127" s="45" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="43" t="s">
+        <v>895</v>
+      </c>
+      <c r="B128" s="44" t="s">
         <v>896</v>
       </c>
-      <c r="B128" s="44" t="s">
+      <c r="C128" s="45" t="s">
         <v>897</v>
-      </c>
-      <c r="C128" s="45" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="43" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B129" s="44" t="s">
+        <v>898</v>
+      </c>
+      <c r="C129" s="45" t="s">
         <v>899</v>
-      </c>
-      <c r="C129" s="45" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="43" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B130" s="44" t="s">
+        <v>901</v>
+      </c>
+      <c r="C130" s="45" t="s">
         <v>902</v>
-      </c>
-      <c r="C130" s="45" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="43" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B131" s="44" t="s">
+        <v>906</v>
+      </c>
+      <c r="C131" s="45" t="s">
         <v>907</v>
-      </c>
-      <c r="C131" s="45" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="46" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B133" s="47" t="s">
+        <v>916</v>
+      </c>
+      <c r="C133" s="48" t="s">
         <v>917</v>
-      </c>
-      <c r="C133" s="48" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="46" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B134" s="47" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C134" s="48" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="46" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B135" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="C135" s="48" t="s">
         <v>921</v>
-      </c>
-      <c r="C135" s="48" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="46" t="s">
+        <v>924</v>
+      </c>
+      <c r="B136" s="47" t="s">
+        <v>923</v>
+      </c>
+      <c r="C136" s="48" t="s">
         <v>925</v>
-      </c>
-      <c r="B136" s="47" t="s">
-        <v>924</v>
-      </c>
-      <c r="C136" s="48" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A138" s="60" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B138" s="50" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C138" s="51" t="s">
         <v>1004</v>
-      </c>
-      <c r="C138" s="51" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="60" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B139" s="50" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C139" s="51" t="s">
         <v>1018</v>
-      </c>
-      <c r="C139" s="51" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="60" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B140" s="50" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C140" s="51" t="s">
         <v>1021</v>
-      </c>
-      <c r="C140" s="51" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="109" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B141" s="110" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C141" s="111" t="s">
         <v>1024</v>
-      </c>
-      <c r="C141" s="111" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="112" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B142" s="113" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C142" s="114" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A143" s="106" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B143" s="107" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C143" s="108" t="s">
         <v>1039</v>
-      </c>
-      <c r="C143" s="108" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="60" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B144" s="50" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C144" s="51" t="s">
         <v>1042</v>
-      </c>
-      <c r="C144" s="51" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="60" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B145" s="50" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C145" s="51" t="s">
         <v>1045</v>
-      </c>
-      <c r="C145" s="51" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="109" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B146" s="110" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C146" s="111" t="s">
         <v>1048</v>
-      </c>
-      <c r="C146" s="111" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="106" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B147" s="107" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C147" s="108" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="60" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B148" s="50" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C148" s="51" t="s">
         <v>1065</v>
-      </c>
-      <c r="C148" s="51" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="60" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B149" s="50" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C149" s="51" t="s">
         <v>1068</v>
-      </c>
-      <c r="C149" s="51" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="109" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B150" s="110" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C150" s="111" t="s">
         <v>1071</v>
-      </c>
-      <c r="C150" s="111" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="115" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B151" s="107" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C151" s="108" t="s">
         <v>1009</v>
-      </c>
-      <c r="C151" s="108" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A152" s="60" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B152" s="104" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C152" s="105" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="116" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B154" s="117"/>
       <c r="C154" s="118"/>
     </row>
     <row r="155" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A155" s="119" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B155" s="120" t="s">
         <v>1085</v>
       </c>
-      <c r="B155" s="120" t="s">
-        <v>1086</v>
-      </c>
       <c r="C155" s="121" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A156" s="59" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A157" s="59" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B157" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C157" s="5" t="s">
         <v>1111</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="122" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B158" s="117" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C158" s="118" t="s">
         <v>1114</v>
-      </c>
-      <c r="C158" s="118" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A159" s="119" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B159" s="120" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C159" s="121" t="s">
         <v>1087</v>
-      </c>
-      <c r="C159" s="121" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A160" s="59" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B160" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>481</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A161" s="59" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B161" s="8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>1091</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A162" s="59" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A163" s="59" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B163" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>1096</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A164" s="59" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A165" s="59" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B165" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>1100</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A166" s="59" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A167" s="59" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B167" s="8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>1105</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="123" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B169" s="124"/>
       <c r="C169" s="125"/>
     </row>
     <row r="170" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A170" s="52" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B170" s="53" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C170" s="54" t="s">
         <v>1127</v>
-      </c>
-      <c r="C170" s="54" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="126" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B171" s="127" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C171" s="128" t="s">
         <v>1136</v>
-      </c>
-      <c r="C171" s="128" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="126" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B172" s="127" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C172" s="128" t="s">
         <v>1139</v>
-      </c>
-      <c r="C172" s="128" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="129" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B173" s="124" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C173" s="125" t="s">
         <v>1142</v>
-      </c>
-      <c r="C173" s="125" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A174" s="126" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B174" s="127" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C174" s="128" t="s">
         <v>1118</v>
-      </c>
-      <c r="C174" s="128" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="52" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B175" s="53" t="s">
         <v>1122</v>
       </c>
-      <c r="B175" s="53" t="s">
-        <v>1123</v>
-      </c>
       <c r="C175" s="54" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A176" s="52" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B176" s="53" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C176" s="54" t="s">
         <v>1124</v>
-      </c>
-      <c r="C176" s="54" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A177" s="52" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B177" s="53" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C177" s="54" t="s">
         <v>1130</v>
-      </c>
-      <c r="C177" s="54" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A178" s="52" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B178" s="53" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C178" s="54" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="24" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B180" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C180" s="26" t="s">
         <v>1145</v>
-      </c>
-      <c r="C180" s="26" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="24" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B181" s="25" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C181" s="26" t="s">
         <v>1148</v>
-      </c>
-      <c r="C181" s="26" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="36" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B183" s="14" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C183" s="15" t="s">
         <v>1154</v>
-      </c>
-      <c r="C183" s="15" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="36" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B184" s="14" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C184" s="15" t="s">
         <v>1157</v>
-      </c>
-      <c r="C184" s="15" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="36" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B185" s="14" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C185" s="15" t="s">
         <v>1160</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="36" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B186" s="14" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C186" s="15" t="s">
         <v>1166</v>
-      </c>
-      <c r="C186" s="15" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="36" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B187" s="14" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C187" s="15" t="s">
         <v>1169</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="36" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B188" s="14" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C188" s="15" t="s">
         <v>1184</v>
-      </c>
-      <c r="C188" s="15" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="36" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B189" s="14" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C189" s="15" t="s">
         <v>1187</v>
-      </c>
-      <c r="C189" s="15" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="36" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B190" s="14" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C190" s="15" t="s">
         <v>1193</v>
-      </c>
-      <c r="C190" s="15" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="36" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B191" s="14" t="s">
         <v>1196</v>
       </c>
-      <c r="B191" s="14" t="s">
-        <v>1197</v>
-      </c>
       <c r="C191" s="15" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="36" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B192" s="14" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C192" s="15" t="s">
         <v>1208</v>
-      </c>
-      <c r="C192" s="15" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="36" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B193" s="14" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C193" s="15" t="s">
         <v>1169</v>
-      </c>
-      <c r="C193" s="15" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="36" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B194" s="14" t="s">
         <v>1212</v>
       </c>
-      <c r="B194" s="14" t="s">
-        <v>1213</v>
-      </c>
       <c r="C194" s="15" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D195" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="18" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B196" s="19" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C196" s="20" t="s">
         <v>1198</v>
-      </c>
-      <c r="C196" s="20" t="s">
-        <v>1199</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -11661,13 +11663,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="18" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D197">
         <v>2</v>
@@ -11675,13 +11677,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="18" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D198">
         <v>3</v>
@@ -11689,118 +11691,118 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="137" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B201" s="22" t="s">
         <v>1243</v>
-      </c>
-      <c r="B201" s="22" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="139" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B202" s="22"/>
     </row>
     <row r="203" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="139" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B203" s="22"/>
     </row>
     <row r="204" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="151" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B204" s="131"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="138" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B205" s="130" t="s">
         <v>1245</v>
-      </c>
-      <c r="B205" s="130" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="139" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B206" s="130"/>
     </row>
     <row r="207" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="139" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B207" s="130"/>
     </row>
     <row r="208" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="140" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B208" s="131"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="138" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B209" s="130" t="s">
         <v>1247</v>
-      </c>
-      <c r="B209" s="130" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="140" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B210" s="131"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="138" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B211" s="130" t="s">
         <v>1249</v>
-      </c>
-      <c r="B211" s="130" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="140" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B212" s="131"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="138" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B213" s="130" t="s">
         <v>1251</v>
-      </c>
-      <c r="B213" s="130" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="140" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B214" s="131"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="137" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B215" s="22"/>
     </row>
     <row r="216" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="141" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B216" s="22"/>
     </row>
     <row r="217" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="140" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B217" s="131"/>
     </row>
@@ -11810,339 +11812,339 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="135" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B220" s="28" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C220" s="29" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="27" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B221" s="28" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C221" s="29" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="43" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B224" s="44" t="s">
         <v>1327</v>
       </c>
-      <c r="B224" s="44" t="s">
-        <v>1328</v>
-      </c>
       <c r="C224" s="45" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="43" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B225" s="44" t="s">
         <v>1329</v>
       </c>
-      <c r="B225" s="44" t="s">
-        <v>1330</v>
-      </c>
       <c r="C225" s="45" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="142" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B228" s="143" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C228" s="144" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="142" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B229" s="143" t="s">
         <v>1307</v>
       </c>
-      <c r="B229" s="143" t="s">
+      <c r="C229" s="144" t="s">
         <v>1308</v>
-      </c>
-      <c r="C229" s="144" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="145" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B232" s="146" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C232" s="147" t="s">
         <v>1321</v>
-      </c>
-      <c r="C232" s="147" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="145" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B233" s="146" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C233" s="147" t="s">
         <v>1324</v>
-      </c>
-      <c r="C233" s="147" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="145" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B234" s="146" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C234" s="147" t="s">
         <v>1335</v>
-      </c>
-      <c r="C234" s="147" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="152" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B237" s="153" t="s">
         <v>1343</v>
       </c>
-      <c r="B237" s="153" t="s">
-        <v>1344</v>
-      </c>
       <c r="C237" s="154" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="152" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B238" s="153" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C238" s="154" t="s">
         <v>1348</v>
-      </c>
-      <c r="C238" s="154" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="152" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B239" s="153" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C239" s="154" t="s">
         <v>1357</v>
-      </c>
-      <c r="C239" s="154" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A240" s="155" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B240" s="153" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C240" s="154" t="s">
         <v>1360</v>
-      </c>
-      <c r="C240" s="154" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A241" s="155" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B241" s="153" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C241" s="154" t="s">
         <v>1363</v>
-      </c>
-      <c r="C241" s="154" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="152" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B242" s="153" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C242" s="154" t="s">
         <v>1351</v>
-      </c>
-      <c r="C242" s="154" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C245" s="6"/>
     </row>
     <row r="246" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="163" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B246" s="156" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C246" s="157" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="158" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B247" s="159" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C247" s="160"/>
     </row>
     <row r="248" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A248" s="170" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B248" s="168" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C248" s="169" t="s">
         <v>1429</v>
-      </c>
-      <c r="C248" s="169" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="163" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B249" s="156" t="s">
         <v>1395</v>
       </c>
-      <c r="B249" s="156" t="s">
-        <v>1396</v>
-      </c>
       <c r="C249" s="157" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="158" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B250" s="159" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C250" s="160"/>
     </row>
     <row r="251" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="163" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B251" s="156" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C251" s="157" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="158" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B252" s="159" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C252" s="160"/>
     </row>
     <row r="253" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="163" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B253" s="156" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C253" s="157" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="158" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B254" s="159" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C254" s="160"/>
     </row>
     <row r="255" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="164" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B255" s="161" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C255" s="162" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="158" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B256" s="159" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C256" s="160"/>
     </row>
     <row r="257" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A257" s="172" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B257" s="9" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C257" s="6" t="s">
         <v>1440</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="164" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B258" s="161" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C258" s="162" t="s">
         <v>327</v>
@@ -12150,46 +12152,46 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="158" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B259" s="159" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C259" s="160"/>
     </row>
     <row r="260" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A260" s="171" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B260" s="159" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C260" s="160" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="164" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B261" s="161" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C261" s="162" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A264" s="134" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B264" s="25" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C264" s="26" t="s">
         <v>328</v>
@@ -12197,10 +12199,10 @@
     </row>
     <row r="265" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A265" s="134" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B265" s="25" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C265" s="26" t="s">
         <v>329</v>
@@ -12208,21 +12210,21 @@
     </row>
     <row r="266" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A266" s="134" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B266" s="25" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C266" s="26" t="s">
         <v>1412</v>
-      </c>
-      <c r="B266" s="25" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C266" s="26" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A267" s="134" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B267" s="25" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C267" s="26" t="s">
         <v>444</v>
@@ -12230,220 +12232,220 @@
     </row>
     <row r="268" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A268" s="134" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B268" s="25" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C268" s="26" t="s">
         <v>1416</v>
-      </c>
-      <c r="C268" s="26" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A269" s="134" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B269" s="25" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C269" s="26" t="s">
         <v>1419</v>
-      </c>
-      <c r="C269" s="26" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="165" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B272" s="166" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C272" s="167" t="s">
         <v>1423</v>
-      </c>
-      <c r="C272" s="167" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="165" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B273" s="166" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C273" s="167" t="s">
         <v>1426</v>
-      </c>
-      <c r="C273" s="167" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="18" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B276" s="19" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C276" s="20" t="s">
         <v>1437</v>
-      </c>
-      <c r="C276" s="20" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="18" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B277" s="19" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C277" s="20" t="s">
         <v>1443</v>
-      </c>
-      <c r="C277" s="20" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="18" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B278" s="19" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C278" s="20" t="s">
         <v>1452</v>
-      </c>
-      <c r="C278" s="20" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="18" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B279" s="19" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C279" s="20" t="s">
         <v>1455</v>
-      </c>
-      <c r="C279" s="20" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="18" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B280" s="19" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C280" s="20" t="s">
         <v>1461</v>
-      </c>
-      <c r="C280" s="20" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="173" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B282" s="174" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C282" s="175" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="173" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B283" s="174" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C283" s="175" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="173" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B284" s="174" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C284" s="175" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="91" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B288" s="92" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C288" s="93" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="91" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B289" s="92" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C289" s="93" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="91" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B290" s="92" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C290" s="93" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="91" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B291" s="92" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C291" s="93" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="91" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B292" s="92" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C292" s="93" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" s="91" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B293" s="92" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C293" s="93" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
   </sheetData>

--- a/JapanSocietyNYC.xlsx
+++ b/JapanSocietyNYC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="1516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="1519">
   <si>
     <t>Good Morning (formal)</t>
   </si>
@@ -5610,6 +5610,15 @@
   </si>
   <si>
     <t>あげません</t>
+  </si>
+  <si>
+    <t>しゅう</t>
+  </si>
+  <si>
+    <t>syuu</t>
+  </si>
+  <si>
+    <t>Week</t>
   </si>
 </sst>
 </file>
@@ -6628,10 +6637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C311"/>
+  <dimension ref="A1:C312"/>
   <sheetViews>
-    <sheetView topLeftCell="A311" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="A313" sqref="A313"/>
+    <sheetView tabSelected="1" topLeftCell="A287" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A287" sqref="A287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -7644,2135 +7653,2146 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="21" t="s">
-        <v>839</v>
+        <v>1516</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>840</v>
+        <v>1517</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>838</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="21" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="21" t="s">
-        <v>693</v>
+        <v>842</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>691</v>
+        <v>841</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>692</v>
+        <v>837</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="21" t="s">
-        <v>846</v>
+        <v>693</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>845</v>
+        <v>691</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>843</v>
+        <v>692</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="21" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="21" t="s">
-        <v>696</v>
+        <v>848</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>694</v>
+        <v>847</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>695</v>
+        <v>844</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="21" t="s">
-        <v>852</v>
+        <v>696</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>851</v>
+        <v>694</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>849</v>
+        <v>695</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="21" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="21" t="s">
+        <v>854</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B106" s="22" t="s">
         <v>697</v>
       </c>
-      <c r="C105" s="23" t="s">
+      <c r="C106" s="23" t="s">
         <v>698</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="B107" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C107" s="29" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="27" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="27" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="27" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="27" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="27" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C114" s="29" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="27" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="27" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C116" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="B117" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="B117" s="28" t="s">
+      <c r="B118" s="28" t="s">
         <v>372</v>
       </c>
-      <c r="C117" s="29" t="s">
+      <c r="C118" s="29" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="40" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="40" t="s">
         <v>411</v>
       </c>
-      <c r="B119" s="41" t="s">
+      <c r="B120" s="41" t="s">
         <v>409</v>
       </c>
-      <c r="C119" s="42" t="s">
+      <c r="C120" s="42" t="s">
         <v>410</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="102" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B120" s="41" t="s">
-        <v>412</v>
-      </c>
-      <c r="C120" s="42" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A121" s="102" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B121" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="C121" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A122" s="102" t="s">
         <v>1512</v>
       </c>
-      <c r="B121" s="41" t="s">
+      <c r="B122" s="41" t="s">
         <v>414</v>
       </c>
-      <c r="C121" s="42" t="s">
+      <c r="C122" s="42" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="40" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="B122" s="41" t="s">
+      <c r="B123" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="C122" s="42" t="s">
+      <c r="C123" s="42" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="102" t="s">
-        <v>1511</v>
-      </c>
-      <c r="B123" s="41" t="s">
-        <v>417</v>
-      </c>
-      <c r="C123" s="42" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A124" s="102" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B124" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="C124" s="42" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="102" t="s">
         <v>1296</v>
       </c>
-      <c r="B124" s="41" t="s">
+      <c r="B125" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="C124" s="42" t="s">
+      <c r="C125" s="42" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="40" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="B125" s="41" t="s">
+      <c r="B126" s="41" t="s">
         <v>433</v>
       </c>
-      <c r="C125" s="42" t="s">
+      <c r="C126" s="42" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="102" t="s">
+    <row r="127" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A127" s="102" t="s">
         <v>1510</v>
       </c>
-      <c r="B126" s="41" t="s">
+      <c r="B127" s="41" t="s">
         <v>436</v>
       </c>
-      <c r="C126" s="42" t="s">
+      <c r="C127" s="42" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="101" t="s">
+    <row r="129" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A129" s="101" t="s">
         <v>963</v>
       </c>
-      <c r="B128" s="47" t="s">
+      <c r="B129" s="47" t="s">
         <v>461</v>
       </c>
-      <c r="C128" s="48" t="s">
+      <c r="C129" s="48" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="46" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="46" t="s">
         <v>464</v>
       </c>
-      <c r="B129" s="47" t="s">
+      <c r="B130" s="47" t="s">
         <v>465</v>
       </c>
-      <c r="C129" s="48" t="s">
+      <c r="C130" s="48" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A130" s="101" t="s">
+    <row r="131" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="101" t="s">
         <v>966</v>
       </c>
-      <c r="B130" s="47" t="s">
+      <c r="B131" s="47" t="s">
         <v>466</v>
       </c>
-      <c r="C130" s="48" t="s">
+      <c r="C131" s="48" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="46" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="B131" s="47" t="s">
+      <c r="B132" s="47" t="s">
         <v>477</v>
       </c>
-      <c r="C131" s="48" t="s">
+      <c r="C132" s="48" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="101" t="s">
+    <row r="133" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A133" s="101" t="s">
         <v>1089</v>
       </c>
-      <c r="B132" s="47" t="s">
+      <c r="B133" s="47" t="s">
         <v>480</v>
       </c>
-      <c r="C132" s="48" t="s">
+      <c r="C133" s="48" t="s">
         <v>481</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" s="49" t="s">
-        <v>487</v>
-      </c>
-      <c r="B134" s="50" t="s">
-        <v>485</v>
-      </c>
-      <c r="C134" s="51" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="49" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B135" s="50" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C135" s="51" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="49" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B136" s="50" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C136" s="51" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="49" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B137" s="50" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C137" s="51" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="49" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B138" s="50" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C138" s="51" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="49" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B139" s="50" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C139" s="51" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="49" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B140" s="50" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C140" s="51" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="49" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B141" s="50" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C141" s="51" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="49" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B142" s="50" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C142" s="51" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="49" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B143" s="50" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C143" s="51" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="49" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B144" s="50" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C144" s="51" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="49" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B145" s="50" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C145" s="51" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="49" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B146" s="50" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C146" s="51" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="49" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B147" s="50" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C147" s="51" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="49" t="s">
+        <v>526</v>
+      </c>
+      <c r="B148" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="C148" s="51" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="49" t="s">
         <v>529</v>
       </c>
-      <c r="B148" s="50" t="s">
+      <c r="B149" s="50" t="s">
         <v>527</v>
       </c>
-      <c r="C148" s="51" t="s">
+      <c r="C149" s="51" t="s">
         <v>528</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B165" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C165" s="5" t="s">
         <v>544</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A166" s="52" t="s">
-        <v>577</v>
-      </c>
-      <c r="B166" s="53" t="s">
-        <v>575</v>
-      </c>
-      <c r="C166" s="54" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A167" s="52" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B167" s="53" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C167" s="54" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A168" s="52" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B168" s="53" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C168" s="54" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A169" s="52" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B169" s="53" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C169" s="54" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A170" s="52" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B170" s="53" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C170" s="54" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A171" s="52" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B171" s="53" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C171" s="54" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A172" s="52" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B172" s="53" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C172" s="54" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A173" s="52" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B173" s="53" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C173" s="54" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A174" s="52" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B174" s="53" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C174" s="54" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A175" s="52" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B175" s="53" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C175" s="54" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A176" s="52" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B176" s="53" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C176" s="54" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A177" s="52" t="s">
+        <v>607</v>
+      </c>
+      <c r="B177" s="53" t="s">
+        <v>605</v>
+      </c>
+      <c r="C177" s="54" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A178" s="52" t="s">
         <v>609</v>
       </c>
-      <c r="B177" s="53" t="s">
+      <c r="B178" s="53" t="s">
         <v>610</v>
       </c>
-      <c r="C177" s="54" t="s">
+      <c r="C178" s="54" t="s">
         <v>608</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A179" s="55" t="s">
-        <v>613</v>
-      </c>
-      <c r="B179" s="56" t="s">
-        <v>611</v>
-      </c>
-      <c r="C179" s="57" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A180" s="55" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B180" s="56" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C180" s="57" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A181" s="55" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B181" s="56" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C181" s="57" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A182" s="55" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B182" s="56" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C182" s="57" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A183" s="55" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B183" s="56" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C183" s="57" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A184" s="55" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B184" s="56" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C184" s="57" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A185" s="55" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B185" s="56" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C185" s="57" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A186" s="55" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B186" s="56" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C186" s="57" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A187" s="55" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B187" s="56" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C187" s="57" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A188" s="55" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B188" s="56" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C188" s="57" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A189" s="55" t="s">
+        <v>640</v>
+      </c>
+      <c r="B189" s="56" t="s">
+        <v>638</v>
+      </c>
+      <c r="C189" s="57" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A190" s="55" t="s">
         <v>652</v>
       </c>
-      <c r="B189" s="56" t="s">
+      <c r="B190" s="56" t="s">
         <v>650</v>
       </c>
-      <c r="C189" s="57" t="s">
+      <c r="C190" s="57" t="s">
         <v>651</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A191" s="16" t="s">
-        <v>643</v>
-      </c>
-      <c r="B191" s="14" t="s">
-        <v>641</v>
-      </c>
-      <c r="C191" s="15" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A192" s="16" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A193" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="B193" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="C193" s="15" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A194" s="16" t="s">
         <v>648</v>
       </c>
-      <c r="B193" s="14" t="s">
+      <c r="B194" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="C193" s="58" t="s">
+      <c r="C194" s="58" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A195" s="176" t="s">
+    <row r="196" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A196" s="176" t="s">
         <v>1479</v>
       </c>
-      <c r="B195" s="62" t="s">
+      <c r="B196" s="62" t="s">
         <v>678</v>
       </c>
-      <c r="C195" s="63" t="s">
+      <c r="C196" s="63" t="s">
         <v>679</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" s="61" t="s">
-        <v>702</v>
-      </c>
-      <c r="B196" s="62" t="s">
-        <v>700</v>
-      </c>
-      <c r="C196" s="63" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="61" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="B197" s="62" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="C197" s="63" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="61" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="B198" s="62" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C198" s="63" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="61" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B199" s="62" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C199" s="63" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="61" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B200" s="62" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C200" s="63" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="61" t="s">
+        <v>728</v>
+      </c>
+      <c r="B201" s="62" t="s">
+        <v>723</v>
+      </c>
+      <c r="C201" s="63" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" s="61" t="s">
         <v>727</v>
       </c>
-      <c r="B201" s="62" t="s">
+      <c r="B202" s="62" t="s">
         <v>725</v>
       </c>
-      <c r="C201" s="63" t="s">
+      <c r="C202" s="63" t="s">
         <v>726</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A203" s="66" t="s">
-        <v>730</v>
-      </c>
-      <c r="B203" s="67" t="s">
-        <v>731</v>
-      </c>
-      <c r="C203" s="68" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="66" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="B204" s="67" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="C204" s="68" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="66" t="s">
+        <v>741</v>
+      </c>
+      <c r="B205" s="67" t="s">
+        <v>739</v>
+      </c>
+      <c r="C205" s="68" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" s="66" t="s">
         <v>744</v>
       </c>
-      <c r="B205" s="67" t="s">
+      <c r="B206" s="67" t="s">
         <v>742</v>
       </c>
-      <c r="C205" s="68" t="s">
+      <c r="C206" s="68" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="69" t="s">
+    <row r="207" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A207" s="69" t="s">
         <v>747</v>
       </c>
-      <c r="B206" s="70" t="s">
+      <c r="B207" s="70" t="s">
         <v>745</v>
       </c>
-      <c r="C206" s="71" t="s">
+      <c r="C207" s="71" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A207" s="178" t="s">
+    <row r="208" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A208" s="178" t="s">
         <v>1509</v>
       </c>
-      <c r="B207" s="72" t="s">
+      <c r="B208" s="72" t="s">
         <v>749</v>
       </c>
-      <c r="C207" s="73" t="s">
+      <c r="C208" s="73" t="s">
         <v>750</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A208" s="66" t="s">
-        <v>757</v>
-      </c>
-      <c r="B208" s="67" t="s">
-        <v>756</v>
-      </c>
-      <c r="C208" s="68" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="66" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B209" s="67" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C209" s="68" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="66" t="s">
+        <v>760</v>
+      </c>
+      <c r="B210" s="67" t="s">
+        <v>758</v>
+      </c>
+      <c r="C210" s="68" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" s="66" t="s">
         <v>763</v>
       </c>
-      <c r="B210" s="67" t="s">
+      <c r="B211" s="67" t="s">
         <v>761</v>
       </c>
-      <c r="C210" s="68" t="s">
+      <c r="C211" s="68" t="s">
         <v>762</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A211" s="100" t="s">
-        <v>959</v>
-      </c>
-      <c r="B211" s="67" t="s">
-        <v>810</v>
-      </c>
-      <c r="C211" s="68" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A212" s="100" t="s">
-        <v>1508</v>
+        <v>959</v>
       </c>
       <c r="B212" s="67" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C212" s="68" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A213" s="100" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B213" s="67" t="s">
+        <v>816</v>
+      </c>
+      <c r="C213" s="68" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A214" s="100" t="s">
         <v>1094</v>
       </c>
-      <c r="B213" s="67" t="s">
+      <c r="B214" s="67" t="s">
         <v>818</v>
       </c>
-      <c r="C213" s="68" t="s">
+      <c r="C214" s="68" t="s">
         <v>819</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A215" s="136" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B215" s="95" t="s">
-        <v>827</v>
-      </c>
-      <c r="C215" s="96" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A216" s="136" t="s">
-        <v>1507</v>
+        <v>1300</v>
       </c>
       <c r="B216" s="95" t="s">
-        <v>882</v>
+        <v>827</v>
       </c>
       <c r="C216" s="96" t="s">
-        <v>911</v>
+        <v>828</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A217" s="136" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B217" s="95" t="s">
+        <v>882</v>
+      </c>
+      <c r="C217" s="96" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A218" s="136" t="s">
         <v>1506</v>
       </c>
-      <c r="B217" s="95" t="s">
+      <c r="B218" s="95" t="s">
         <v>904</v>
       </c>
-      <c r="C217" s="96" t="s">
+      <c r="C218" s="96" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" s="94" t="s">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219" s="94" t="s">
         <v>912</v>
       </c>
-      <c r="B218" s="95" t="s">
+      <c r="B219" s="95" t="s">
         <v>913</v>
       </c>
-      <c r="C218" s="96" t="s">
+      <c r="C219" s="96" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A219" s="136" t="s">
+    <row r="220" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A220" s="136" t="s">
         <v>1503</v>
       </c>
-      <c r="B219" s="95" t="s">
+      <c r="B220" s="95" t="s">
         <v>910</v>
       </c>
-      <c r="C219" s="96" t="s">
+      <c r="C220" s="96" t="s">
         <v>911</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A221" s="102" t="s">
-        <v>928</v>
-      </c>
-      <c r="B221" s="41" t="s">
-        <v>926</v>
-      </c>
-      <c r="C221" s="42" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A222" s="102" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B222" s="41" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C222" s="42" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A223" s="102" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B223" s="41" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C223" s="42" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A224" s="102" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B224" s="41" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C224" s="42" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A225" s="102" t="s">
+        <v>937</v>
+      </c>
+      <c r="B225" s="41" t="s">
+        <v>935</v>
+      </c>
+      <c r="C225" s="42" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A226" s="102" t="s">
         <v>940</v>
       </c>
-      <c r="B225" s="41" t="s">
+      <c r="B226" s="41" t="s">
         <v>938</v>
       </c>
-      <c r="C225" s="42" t="s">
+      <c r="C226" s="42" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="93" x14ac:dyDescent="0.35">
-      <c r="A226" s="102" t="s">
+    <row r="227" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A227" s="102" t="s">
         <v>943</v>
       </c>
-      <c r="B226" s="103" t="s">
+      <c r="B227" s="103" t="s">
         <v>942</v>
       </c>
-      <c r="C226" s="42" t="s">
+      <c r="C227" s="42" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A227" s="102" t="s">
+    <row r="228" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A228" s="102" t="s">
         <v>946</v>
       </c>
-      <c r="B227" s="41" t="s">
+      <c r="B228" s="41" t="s">
         <v>944</v>
       </c>
-      <c r="C227" s="42" t="s">
+      <c r="C228" s="42" t="s">
         <v>945</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A228" s="40" t="s">
-        <v>949</v>
-      </c>
-      <c r="B228" s="41" t="s">
-        <v>947</v>
-      </c>
-      <c r="C228" s="42" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="40" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B229" s="41" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C229" s="42" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="40" t="s">
+        <v>952</v>
+      </c>
+      <c r="B230" s="41" t="s">
+        <v>950</v>
+      </c>
+      <c r="C230" s="42" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231" s="40" t="s">
         <v>955</v>
       </c>
-      <c r="B230" s="41" t="s">
+      <c r="B231" s="41" t="s">
         <v>954</v>
       </c>
-      <c r="C230" s="42" t="s">
+      <c r="C231" s="42" t="s">
         <v>953</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A231" s="102" t="s">
-        <v>958</v>
-      </c>
-      <c r="B231" s="41" t="s">
-        <v>957</v>
-      </c>
-      <c r="C231" s="42" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A232" s="102" t="s">
+        <v>958</v>
+      </c>
+      <c r="B232" s="41" t="s">
+        <v>957</v>
+      </c>
+      <c r="C232" s="42" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A233" s="102" t="s">
         <v>962</v>
       </c>
-      <c r="B232" s="41" t="s">
+      <c r="B233" s="41" t="s">
         <v>961</v>
       </c>
-      <c r="C232" s="42" t="s">
+      <c r="C233" s="42" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A233" s="102" t="s">
+    <row r="234" spans="1:3" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A234" s="102" t="s">
         <v>1504</v>
       </c>
-      <c r="B233" s="103" t="s">
+      <c r="B234" s="103" t="s">
         <v>1505</v>
       </c>
-      <c r="C233" s="42" t="s">
+      <c r="C234" s="42" t="s">
         <v>964</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A235" s="46" t="s">
-        <v>968</v>
-      </c>
-      <c r="B235" s="47" t="s">
-        <v>967</v>
-      </c>
-      <c r="C235" s="48" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="46" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B236" s="47" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C236" s="48" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="46" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B237" s="47" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C237" s="48" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="46" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B238" s="47" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C238" s="48" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="46" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B239" s="47" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C239" s="48" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="46" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B240" s="47" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C240" s="48" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="46" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B241" s="47" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C241" s="48" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="46" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B242" s="47" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C242" s="48" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="46" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B243" s="47" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C243" s="48" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="46" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B244" s="47" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C244" s="48" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="46" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="B245" s="47" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C245" s="48" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="46" t="s">
+        <v>999</v>
+      </c>
+      <c r="B246" s="47" t="s">
+        <v>987</v>
+      </c>
+      <c r="C246" s="48" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247" s="46" t="s">
         <v>1001</v>
       </c>
-      <c r="B246" s="47" t="s">
+      <c r="B247" s="47" t="s">
         <v>1000</v>
       </c>
-      <c r="C246" s="48" t="s">
+      <c r="C247" s="48" t="s">
         <v>1002</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A248" s="49" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B248" s="50" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C248" s="51" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="49" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B249" s="50" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C249" s="51" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250" s="49" t="s">
         <v>1013</v>
       </c>
-      <c r="B249" s="50" t="s">
+      <c r="B250" s="50" t="s">
         <v>1011</v>
       </c>
-      <c r="C249" s="51" t="s">
+      <c r="C250" s="51" t="s">
         <v>1012</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A251" s="60" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B251" s="50" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C251" s="51" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A252" s="60" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B252" s="50" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C252" s="51" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A253" s="60" t="s">
         <v>1034</v>
       </c>
-      <c r="B252" s="50" t="s">
+      <c r="B253" s="50" t="s">
         <v>1035</v>
       </c>
-      <c r="C252" s="51" t="s">
+      <c r="C253" s="51" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A253" s="60" t="s">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254" s="60" t="s">
         <v>1078</v>
       </c>
-      <c r="B253" s="50" t="s">
+      <c r="B254" s="50" t="s">
         <v>1076</v>
       </c>
-      <c r="C253" s="51" t="s">
+      <c r="C254" s="51" t="s">
         <v>1077</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A254" s="49" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B254" s="50" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C254" s="51" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="49" t="s">
-        <v>1081</v>
+        <v>1037</v>
       </c>
       <c r="B255" s="50" t="s">
-        <v>1080</v>
+        <v>1036</v>
       </c>
       <c r="C255" s="51" t="s">
-        <v>1079</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="49" t="s">
-        <v>1052</v>
+        <v>1081</v>
       </c>
       <c r="B256" s="50" t="s">
-        <v>1050</v>
+        <v>1080</v>
       </c>
       <c r="C256" s="51" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="49" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B257" s="50" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C257" s="51" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258" s="49" t="s">
         <v>1075</v>
       </c>
-      <c r="B257" s="50" t="s">
+      <c r="B258" s="50" t="s">
         <v>1073</v>
       </c>
-      <c r="C257" s="51" t="s">
+      <c r="C258" s="51" t="s">
         <v>1074</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A258" s="60" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B258" s="50" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C258" s="51" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A259" s="60" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B259" s="50" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C259" s="51" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A260" s="60" t="s">
         <v>1151</v>
       </c>
-      <c r="B259" s="50" t="s">
+      <c r="B260" s="50" t="s">
         <v>1152</v>
       </c>
-      <c r="C259" s="51" t="s">
+      <c r="C260" s="51" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A261" s="2" t="s">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A262" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="B261" s="8" t="s">
+      <c r="B262" s="8" t="s">
         <v>1164</v>
       </c>
-      <c r="C261" s="5" t="s">
+      <c r="C262" s="5" t="s">
         <v>1162</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A262" s="59" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B262" s="8" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A263" s="59" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A264" s="59" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A265" s="59" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A266" s="59" t="s">
         <v>1182</v>
       </c>
-      <c r="B265" s="8" t="s">
+      <c r="B266" s="8" t="s">
         <v>1180</v>
       </c>
-      <c r="C265" s="5" t="s">
+      <c r="C266" s="5" t="s">
         <v>1181</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A266" s="59" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B266" s="8" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C266" s="5" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="59" t="s">
-        <v>1214</v>
+        <v>1191</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>1215</v>
+        <v>1190</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>1213</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="59" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269" s="59" t="s">
         <v>1218</v>
       </c>
-      <c r="B268" s="8" t="s">
+      <c r="B269" s="8" t="s">
         <v>1217</v>
       </c>
-      <c r="C268" s="5" t="s">
+      <c r="C269" s="5" t="s">
         <v>1216</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A270" s="52" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B270" s="53" t="s">
-        <v>914</v>
-      </c>
-      <c r="C270" s="54" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A271" s="52" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="B271" s="53" t="s">
-        <v>1220</v>
+        <v>914</v>
       </c>
       <c r="C271" s="54" t="s">
-        <v>1221</v>
+        <v>915</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A272" s="52" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B272" s="53" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C272" s="54" t="s">
-        <v>672</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A273" s="52" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="B273" s="53" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C273" s="54" t="s">
-        <v>1226</v>
+        <v>672</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A274" s="52" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="B274" s="53" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C274" s="54" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A275" s="52" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B275" s="53" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="C275" s="54" t="s">
-        <v>285</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A276" s="52" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="B276" s="53" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C276" s="54" t="s">
-        <v>1234</v>
+        <v>285</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A277" s="52" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B277" s="53" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="C277" s="54" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A278" s="52" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B278" s="53" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C278" s="54" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A279" s="52" t="s">
         <v>1241</v>
       </c>
-      <c r="B278" s="53" t="s">
+      <c r="B279" s="53" t="s">
         <v>1239</v>
       </c>
-      <c r="C278" s="54" t="s">
+      <c r="C279" s="54" t="s">
         <v>1240</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A280" s="134" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B280" s="25" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C280" s="26" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A281" s="134" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B281" s="25" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C281" s="26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A282" s="134" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B282" s="25" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C282" s="26" t="s">
-        <v>439</v>
+        <v>291</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A283" s="134" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="B283" s="25" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C283" s="26" t="s">
-        <v>1269</v>
+        <v>439</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A284" s="134" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="B284" s="25" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C284" s="26" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A285" s="134" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="B285" s="25" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C285" s="26" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A286" s="134" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B286" s="25" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C286" s="26" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A287" s="134" t="s">
         <v>1279</v>
       </c>
-      <c r="B286" s="25" t="s">
+      <c r="B287" s="25" t="s">
         <v>1277</v>
       </c>
-      <c r="C286" s="26" t="s">
+      <c r="C287" s="26" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A288" s="16" t="s">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289" s="16" t="s">
         <v>1292</v>
       </c>
-      <c r="B288" s="14" t="s">
+      <c r="B289" s="14" t="s">
         <v>1290</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="C289" s="15" t="s">
         <v>1291</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A289" s="16" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B289" s="14" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C289" s="15" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A290" s="16" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>1309</v>
+        <v>1297</v>
       </c>
       <c r="C290" s="15" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A291" s="16" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>1285</v>
+        <v>1309</v>
       </c>
       <c r="C291" s="15" t="s">
-        <v>668</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A292" s="16" t="s">
-        <v>1265</v>
+        <v>1319</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>1264</v>
+        <v>1285</v>
       </c>
       <c r="C292" s="15" t="s">
-        <v>1312</v>
+        <v>668</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A293" s="16" t="s">
-        <v>1339</v>
+        <v>1265</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>1337</v>
+        <v>1264</v>
       </c>
       <c r="C293" s="15" t="s">
-        <v>1338</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A294" s="16" t="s">
-        <v>1354</v>
+        <v>1339</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>1355</v>
+        <v>1337</v>
       </c>
       <c r="C294" s="15" t="s">
-        <v>1353</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A295" s="16" t="s">
-        <v>1367</v>
+        <v>1354</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>1365</v>
+        <v>1355</v>
       </c>
       <c r="C295" s="15" t="s">
-        <v>1366</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A296" s="16" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B296" s="14" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C296" s="15" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A297" s="16" t="s">
         <v>1389</v>
       </c>
-      <c r="B296" s="14" t="s">
+      <c r="B297" s="14" t="s">
         <v>1388</v>
       </c>
-      <c r="C296" s="15" t="s">
+      <c r="C297" s="15" t="s">
         <v>1387</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A298" s="148" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B298" s="149" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C298" s="150" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" s="148" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B299" s="149" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C299" s="150" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A300" s="148" t="s">
         <v>1316</v>
       </c>
-      <c r="B299" s="149" t="s">
+      <c r="B300" s="149" t="s">
         <v>1315</v>
       </c>
-      <c r="C299" s="150" t="s">
+      <c r="C300" s="150" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A300" s="148" t="s">
+    <row r="301" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A301" s="148" t="s">
         <v>1332</v>
       </c>
-      <c r="B300" s="149" t="s">
+      <c r="B301" s="149" t="s">
         <v>1330</v>
       </c>
-      <c r="C300" s="150" t="s">
+      <c r="C301" s="150" t="s">
         <v>1331</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A301" s="148" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B301" s="149" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C301" s="150" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" s="148" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B302" s="149" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C302" s="150" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A303" s="148" t="s">
         <v>1346</v>
       </c>
-      <c r="B302" s="149" t="s">
+      <c r="B303" s="149" t="s">
         <v>1345</v>
       </c>
-      <c r="C302" s="150" t="s">
+      <c r="C303" s="150" t="s">
         <v>1344</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A303" s="148" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B303" s="149" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C303" s="150" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A304" s="148" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B304" s="149" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C304" s="150" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A305" s="148" t="s">
         <v>1450</v>
       </c>
-      <c r="B304" s="149" t="s">
+      <c r="B305" s="149" t="s">
         <v>1448</v>
       </c>
-      <c r="C304" s="150" t="s">
+      <c r="C305" s="150" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A305" s="148" t="s">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A306" s="148" t="s">
         <v>891</v>
       </c>
-      <c r="B305" s="149" t="s">
+      <c r="B306" s="149" t="s">
         <v>889</v>
       </c>
-      <c r="C305" s="150" t="s">
+      <c r="C306" s="150" t="s">
         <v>890</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A306" s="148" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B306" s="149" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C306" s="150" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A307" s="148" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="B307" s="149" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="C307" s="150" t="s">
-        <v>1100</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A308" s="148" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B308" s="149" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C308" s="150" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A309" s="148" t="s">
         <v>1474</v>
       </c>
-      <c r="B308" s="149" t="s">
+      <c r="B309" s="149" t="s">
         <v>1472</v>
       </c>
-      <c r="C308" s="150" t="s">
+      <c r="C309" s="150" t="s">
         <v>1087</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A310" s="177" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B310" s="92" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C310" s="93" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A311" s="177" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B311" s="92" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C311" s="93" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A312" s="177" t="s">
         <v>1496</v>
       </c>
-      <c r="B311" s="92" t="s">
+      <c r="B312" s="92" t="s">
         <v>1495</v>
       </c>
-      <c r="C311" s="93" t="s">
+      <c r="C312" s="93" t="s">
         <v>1494</v>
       </c>
     </row>
@@ -9786,7 +9806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
